--- a/doc/外部設計書/02_外部設計書_C4.xlsx
+++ b/doc/外部設計書/02_外部設計書_C4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C4\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC410B8D-B0A6-4812-92B4-83349730F8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3DD0E7-2104-4B3E-AF19-FEA25B3F1C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="64">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -407,10 +407,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>loginiD</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>password</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -427,14 +423,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>registration</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ログインID</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>パスワード</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -444,13 +432,6 @@
   </si>
   <si>
     <t>メッセージエリア</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>新規会員登録</t>
-    <rPh sb="0" eb="6">
-      <t>シンキカイイントウロク</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -493,7 +474,110 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>user_id</t>
+    <t>④新規登録ボタン押下時</t>
+    <rPh sb="1" eb="5">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>⑤クリアボタン押下時</t>
+    <rPh sb="7" eb="9">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>入力されたメールアドレス、パスワードを削除する。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>3.氏名が入力されていない。</t>
+    <rPh sb="2" eb="4">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「氏名を入力してください。」エラーを表示する。</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>エラーがあった場合、メッセージエリアにエラーを表示し、処理を中断する。</t>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>チュウダン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>エラーが無い場合、registテーブルに1件のデータを追加する。</t>
+    <rPh sb="4" eb="5">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>regist</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>mail</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>会員登録</t>
+    <rPh sb="0" eb="4">
+      <t>カイイントウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メール</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -873,6 +957,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -919,15 +1012,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1203,16 +1287,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>17255</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>244519</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>169932</xdr:rowOff>
+      <xdr:rowOff>89721</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>233155</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>65157</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>206419</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>172104</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1227,8 +1311,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2049255" y="5989845"/>
-          <a:ext cx="2501900" cy="270703"/>
+          <a:off x="4054519" y="5891616"/>
+          <a:ext cx="2501900" cy="269541"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1297,76 +1381,6 @@
         </a:p>
         <a:p>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>36581</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>165653</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>252481</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>82689</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="テキスト ボックス 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFB0FB07-162D-41DA-98AC-2BF006708AC3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5116581" y="5985566"/>
-          <a:ext cx="2501900" cy="292514"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>利用規約</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1727,10 +1741,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>165652</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>160421</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>45336</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="543739" cy="792525"/>
     <xdr:sp macro="" textlink="">
@@ -1746,7 +1760,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2032000" y="5422348"/>
+          <a:off x="3716421" y="5472915"/>
           <a:ext cx="543739" cy="792525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1789,70 +1803,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>55217</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>11043</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="543739" cy="792525"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="テキスト ボックス 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AD1D4B5-E218-49BF-A71D-FD112F8A17C7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4881217" y="5455478"/>
-          <a:ext cx="543739" cy="792525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>⑥</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1861,15 +1811,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>250091</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>18318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>145316</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123094</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1884,8 +1834,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4175759" y="4048125"/>
-          <a:ext cx="1655445" cy="676275"/>
+          <a:off x="4314091" y="4316780"/>
+          <a:ext cx="1673225" cy="690929"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1914,7 +1864,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ログインボタン</a:t>
+            <a:t>新規登録</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2111,117 +2061,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>17255</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>212427</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>169932</xdr:rowOff>
+      <xdr:rowOff>9345</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>233155</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>65157</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="テキスト ボックス 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B932EE-EE30-4B54-BF94-31F7FB989D7E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2028935" y="6075432"/>
-          <a:ext cx="2479040" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>新規会員登録</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>36581</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>165653</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>252481</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>82689</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>174327</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>121765</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2236,8 +2085,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5065781" y="6071153"/>
-          <a:ext cx="2479040" cy="298036"/>
+          <a:off x="4276427" y="6066268"/>
+          <a:ext cx="2501900" cy="307805"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2282,16 +2131,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>22087</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>121478</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>70933</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>92169</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>152262</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>121477</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>201108</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>92169</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2306,8 +2155,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4045447" y="4883978"/>
-          <a:ext cx="2393315" cy="380999"/>
+          <a:off x="3880933" y="5367554"/>
+          <a:ext cx="2416175" cy="390769"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2507,10 +2356,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>198783</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>132522</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>149937</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>103215</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="543739" cy="792525"/>
     <xdr:sp macro="" textlink="">
@@ -2526,7 +2375,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3719223" y="3752022"/>
+          <a:off x="3451937" y="3424753"/>
           <a:ext cx="543739" cy="792525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2572,9 +2421,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>64052</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>119269</xdr:rowOff>
+      <xdr:colOff>151974</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>129039</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="543739" cy="792525"/>
     <xdr:sp macro="" textlink="">
@@ -2590,7 +2439,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3584492" y="4500769"/>
+          <a:off x="3707974" y="4036731"/>
           <a:ext cx="543739" cy="792525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2635,10 +2484,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>165652</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>127001</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>97267</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="543739" cy="792525"/>
     <xdr:sp macro="" textlink="">
@@ -2654,7 +2503,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2011680" y="5499652"/>
+          <a:off x="6223001" y="4004959"/>
           <a:ext cx="543739" cy="792525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2699,10 +2548,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>55217</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>11043</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>94294</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>138044</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="543739" cy="792525"/>
     <xdr:sp macro="" textlink="">
@@ -2718,7 +2567,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4832957" y="5535543"/>
+          <a:off x="3396294" y="5218044"/>
           <a:ext cx="543739" cy="792525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2761,6 +2610,148 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>185616</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>156308</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>74491</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>27598</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{953B4637-9CE4-44C1-95AF-A0E2EB30B402}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3995616" y="3673231"/>
+          <a:ext cx="2428875" cy="262059"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>氏名</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>214923</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>175846</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>214922</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>166076</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="楕円 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A13658F-BC04-4BFC-9239-EAB8B139EE18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6564923" y="4474308"/>
+          <a:ext cx="761999" cy="380999"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>クリア</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3053,8 +3044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScale="57" workbookViewId="0">
-      <selection activeCell="AA82" sqref="AA82"/>
+    <sheetView topLeftCell="A63" zoomScale="91" workbookViewId="0">
+      <selection activeCell="AA81" sqref="AA81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3063,198 +3054,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="27" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="28"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="31"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="29" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29" t="s">
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29" t="s">
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="30" t="s">
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="31"/>
-      <c r="AK2" s="31"/>
-      <c r="AL2" s="31"/>
-      <c r="AM2" s="31"/>
-      <c r="AN2" s="32"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="35"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="29" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29" t="s">
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="33">
+      <c r="X3" s="32"/>
+      <c r="Y3" s="36">
         <v>45450</v>
       </c>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="34" t="s">
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="35"/>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="35"/>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="35"/>
-      <c r="AN3" s="36"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="19"/>
+      <c r="AJ3" s="19"/>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
+      <c r="AN3" s="20"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="37" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="19"/>
-      <c r="AI4" s="19"/>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="19"/>
-      <c r="AL4" s="19"/>
-      <c r="AM4" s="19"/>
-      <c r="AN4" s="20"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="22"/>
+      <c r="AL4" s="22"/>
+      <c r="AM4" s="22"/>
+      <c r="AN4" s="23"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -6322,24 +6313,24 @@
         <v>1</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
       <c r="G80" s="13"/>
       <c r="H80" s="14" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="I80" s="16"/>
       <c r="J80" s="15"/>
       <c r="K80" s="17"/>
       <c r="L80" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M80" s="15"/>
       <c r="N80" s="17"/>
       <c r="O80" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="P80" s="15"/>
       <c r="Q80" s="15"/>
@@ -6349,13 +6340,13 @@
       <c r="U80" s="14"/>
       <c r="V80" s="17"/>
       <c r="W80" s="14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X80" s="15"/>
       <c r="Y80" s="15"/>
       <c r="Z80" s="17"/>
       <c r="AA80" s="14" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="AB80" s="15"/>
       <c r="AC80" s="17"/>
@@ -6378,24 +6369,24 @@
         <v>2</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
       <c r="G81" s="13"/>
       <c r="H81" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I81" s="16"/>
       <c r="J81" s="15"/>
       <c r="K81" s="17"/>
       <c r="L81" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M81" s="15"/>
       <c r="N81" s="17"/>
       <c r="O81" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="P81" s="15"/>
       <c r="Q81" s="15"/>
@@ -6405,13 +6396,13 @@
       <c r="U81" s="14"/>
       <c r="V81" s="17"/>
       <c r="W81" s="14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X81" s="15"/>
       <c r="Y81" s="15"/>
       <c r="Z81" s="17"/>
       <c r="AA81" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB81" s="15"/>
       <c r="AC81" s="17"/>
@@ -6434,19 +6425,19 @@
         <v>3</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
       <c r="G82" s="13"/>
       <c r="H82" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I82" s="16"/>
       <c r="J82" s="15"/>
       <c r="K82" s="17"/>
       <c r="L82" s="14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M82" s="15"/>
       <c r="N82" s="17"/>
@@ -6484,24 +6475,24 @@
         <v>4</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
       <c r="H83" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I83" s="16"/>
       <c r="J83" s="15"/>
       <c r="K83" s="17"/>
       <c r="L83" s="14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M83" s="15"/>
       <c r="N83" s="17"/>
       <c r="O83" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="P83" s="15"/>
       <c r="Q83" s="15"/>
@@ -6518,7 +6509,7 @@
       <c r="AB83" s="15"/>
       <c r="AC83" s="17"/>
       <c r="AD83" s="14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AE83" s="15"/>
       <c r="AF83" s="15"/>
@@ -6538,19 +6529,19 @@
         <v>5</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
       <c r="G84" s="13"/>
       <c r="H84" s="14" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="I84" s="16"/>
       <c r="J84" s="15"/>
       <c r="K84" s="17"/>
       <c r="L84" s="14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M84" s="15"/>
       <c r="N84" s="17"/>
@@ -6584,24 +6575,16 @@
     <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6"/>
       <c r="B85" s="12"/>
-      <c r="C85" s="13">
-        <v>6</v>
-      </c>
-      <c r="D85" s="14" t="s">
-        <v>44</v>
-      </c>
+      <c r="C85" s="13"/>
+      <c r="D85" s="14"/>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
       <c r="G85" s="13"/>
-      <c r="H85" s="14" t="s">
-        <v>51</v>
-      </c>
+      <c r="H85" s="14"/>
       <c r="I85" s="16"/>
       <c r="J85" s="15"/>
       <c r="K85" s="17"/>
-      <c r="L85" s="14" t="s">
-        <v>54</v>
-      </c>
+      <c r="L85" s="14"/>
       <c r="M85" s="15"/>
       <c r="N85" s="17"/>
       <c r="O85" s="14"/>
@@ -7683,6 +7666,8 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
@@ -7698,8 +7683,6 @@
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -7713,10 +7696,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3ED64EE-64E5-4253-855A-3700032E3F3E}">
-  <dimension ref="A1:AN110"/>
+  <dimension ref="A1:AN112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="78" workbookViewId="0">
-      <selection activeCell="AA82" sqref="AA82"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="93" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7725,198 +7708,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="27" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="28"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="31"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="29" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29" t="s">
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29" t="s">
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="30" t="s">
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="31"/>
-      <c r="AK2" s="31"/>
-      <c r="AL2" s="31"/>
-      <c r="AM2" s="31"/>
-      <c r="AN2" s="32"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="35"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="29" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29" t="s">
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="33">
+      <c r="X3" s="32"/>
+      <c r="Y3" s="36">
         <v>45450</v>
       </c>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="34" t="s">
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="35"/>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="35"/>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="35"/>
-      <c r="AN3" s="36"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="19"/>
+      <c r="AJ3" s="19"/>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
+      <c r="AN3" s="20"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="37" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="19"/>
-      <c r="AI4" s="19"/>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="19"/>
-      <c r="AL4" s="19"/>
-      <c r="AM4" s="19"/>
-      <c r="AN4" s="20"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="22"/>
+      <c r="AL4" s="22"/>
+      <c r="AM4" s="22"/>
+      <c r="AN4" s="23"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -9681,7 +9664,7 @@
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="D49" s="2" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -9965,7 +9948,9 @@
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
+      <c r="E56" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="F56" s="2"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
@@ -10006,10 +9991,10 @@
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
@@ -10049,9 +10034,7 @@
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
@@ -10092,9 +10075,6 @@
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F59" s="2"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
@@ -10135,7 +10115,9 @@
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
+      <c r="E60" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="F60" s="2"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
@@ -10177,7 +10159,7 @@
       <c r="B61" s="6"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="8"/>
@@ -10219,9 +10201,7 @@
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
@@ -10262,9 +10242,7 @@
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
@@ -10344,6 +10322,9 @@
     <row r="65" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
+      <c r="D65" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
@@ -10424,7 +10405,9 @@
     <row r="67" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
-      <c r="E67" s="8"/>
+      <c r="E67" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
@@ -10984,24 +10967,24 @@
         <v>1</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
       <c r="G80" s="13"/>
       <c r="H80" s="14" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="I80" s="16"/>
       <c r="J80" s="15"/>
       <c r="K80" s="17"/>
       <c r="L80" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M80" s="15"/>
       <c r="N80" s="17"/>
       <c r="O80" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="P80" s="15"/>
       <c r="Q80" s="15"/>
@@ -11011,13 +10994,13 @@
       <c r="U80" s="14"/>
       <c r="V80" s="17"/>
       <c r="W80" s="14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X80" s="15"/>
       <c r="Y80" s="15"/>
       <c r="Z80" s="17"/>
       <c r="AA80" s="14" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="AB80" s="15"/>
       <c r="AC80" s="17"/>
@@ -11034,31 +11017,21 @@
       <c r="AN80" s="7"/>
     </row>
     <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="6"/>
+      <c r="A81" s="8"/>
       <c r="B81" s="12"/>
-      <c r="C81" s="13">
-        <v>2</v>
-      </c>
-      <c r="D81" s="14" t="s">
-        <v>41</v>
-      </c>
+      <c r="C81" s="13"/>
+      <c r="D81" s="14"/>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
       <c r="G81" s="13"/>
-      <c r="H81" s="14" t="s">
-        <v>47</v>
-      </c>
+      <c r="H81" s="14"/>
       <c r="I81" s="16"/>
       <c r="J81" s="15"/>
       <c r="K81" s="17"/>
-      <c r="L81" s="14" t="s">
-        <v>53</v>
-      </c>
+      <c r="L81" s="14"/>
       <c r="M81" s="15"/>
       <c r="N81" s="17"/>
-      <c r="O81" s="14" t="s">
-        <v>52</v>
-      </c>
+      <c r="O81" s="14"/>
       <c r="P81" s="15"/>
       <c r="Q81" s="15"/>
       <c r="R81" s="17"/>
@@ -11066,15 +11039,11 @@
       <c r="T81" s="17"/>
       <c r="U81" s="14"/>
       <c r="V81" s="17"/>
-      <c r="W81" s="14" t="s">
-        <v>55</v>
-      </c>
+      <c r="W81" s="14"/>
       <c r="X81" s="15"/>
       <c r="Y81" s="15"/>
       <c r="Z81" s="17"/>
-      <c r="AA81" s="14" t="s">
-        <v>41</v>
-      </c>
+      <c r="AA81" s="14"/>
       <c r="AB81" s="15"/>
       <c r="AC81" s="17"/>
       <c r="AD81" s="14"/>
@@ -11090,29 +11059,31 @@
       <c r="AN81" s="7"/>
     </row>
     <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="6"/>
+      <c r="A82" s="8"/>
       <c r="B82" s="12"/>
       <c r="C82" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
       <c r="G82" s="13"/>
       <c r="H82" s="14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I82" s="16"/>
       <c r="J82" s="15"/>
       <c r="K82" s="17"/>
       <c r="L82" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M82" s="15"/>
       <c r="N82" s="17"/>
-      <c r="O82" s="14"/>
+      <c r="O82" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="P82" s="15"/>
       <c r="Q82" s="15"/>
       <c r="R82" s="17"/>
@@ -11120,11 +11091,15 @@
       <c r="T82" s="17"/>
       <c r="U82" s="14"/>
       <c r="V82" s="17"/>
-      <c r="W82" s="14"/>
+      <c r="W82" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="X82" s="15"/>
       <c r="Y82" s="15"/>
       <c r="Z82" s="17"/>
-      <c r="AA82" s="14"/>
+      <c r="AA82" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="AB82" s="15"/>
       <c r="AC82" s="17"/>
       <c r="AD82" s="14"/>
@@ -11140,31 +11115,28 @@
       <c r="AN82" s="7"/>
     </row>
     <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="6"/>
       <c r="B83" s="12"/>
       <c r="C83" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
       <c r="H83" s="14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I83" s="16"/>
       <c r="J83" s="15"/>
       <c r="K83" s="17"/>
       <c r="L83" s="14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M83" s="15"/>
       <c r="N83" s="17"/>
-      <c r="O83" s="14" t="s">
-        <v>52</v>
-      </c>
+      <c r="O83" s="14"/>
       <c r="P83" s="15"/>
       <c r="Q83" s="15"/>
       <c r="R83" s="17"/>
@@ -11179,9 +11151,7 @@
       <c r="AA83" s="14"/>
       <c r="AB83" s="15"/>
       <c r="AC83" s="17"/>
-      <c r="AD83" s="14" t="s">
-        <v>56</v>
-      </c>
+      <c r="AD83" s="14"/>
       <c r="AE83" s="15"/>
       <c r="AF83" s="15"/>
       <c r="AG83" s="15"/>
@@ -11197,26 +11167,28 @@
       <c r="A84" s="6"/>
       <c r="B84" s="12"/>
       <c r="C84" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
       <c r="G84" s="13"/>
       <c r="H84" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I84" s="16"/>
       <c r="J84" s="15"/>
       <c r="K84" s="17"/>
       <c r="L84" s="14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M84" s="15"/>
       <c r="N84" s="17"/>
-      <c r="O84" s="14"/>
+      <c r="O84" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="P84" s="15"/>
       <c r="Q84" s="15"/>
       <c r="R84" s="17"/>
@@ -11231,7 +11203,9 @@
       <c r="AA84" s="14"/>
       <c r="AB84" s="15"/>
       <c r="AC84" s="17"/>
-      <c r="AD84" s="14"/>
+      <c r="AD84" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="AE84" s="15"/>
       <c r="AF84" s="15"/>
       <c r="AG84" s="15"/>
@@ -11247,22 +11221,22 @@
       <c r="A85" s="6"/>
       <c r="B85" s="12"/>
       <c r="C85" s="13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
       <c r="G85" s="13"/>
       <c r="H85" s="14" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I85" s="16"/>
       <c r="J85" s="15"/>
       <c r="K85" s="17"/>
       <c r="L85" s="14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M85" s="15"/>
       <c r="N85" s="17"/>
@@ -11296,16 +11270,24 @@
     <row r="86" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6"/>
       <c r="B86" s="12"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="14"/>
+      <c r="C86" s="13">
+        <v>6</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>43</v>
+      </c>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
       <c r="G86" s="13"/>
-      <c r="H86" s="14"/>
+      <c r="H86" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="I86" s="16"/>
       <c r="J86" s="15"/>
       <c r="K86" s="17"/>
-      <c r="L86" s="14"/>
+      <c r="L86" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="M86" s="15"/>
       <c r="N86" s="17"/>
       <c r="O86" s="14"/>
@@ -12302,53 +12284,94 @@
       <c r="AN109" s="7"/>
     </row>
     <row r="110" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="9"/>
-      <c r="B110" s="10"/>
-      <c r="C110" s="10"/>
-      <c r="D110" s="10"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="10"/>
-      <c r="G110" s="10"/>
-      <c r="H110" s="10"/>
-      <c r="I110" s="10"/>
-      <c r="J110" s="10"/>
-      <c r="K110" s="10"/>
-      <c r="L110" s="10"/>
-      <c r="M110" s="10"/>
-      <c r="N110" s="10"/>
-      <c r="O110" s="10"/>
-      <c r="P110" s="10"/>
-      <c r="Q110" s="10"/>
-      <c r="R110" s="10"/>
-      <c r="S110" s="10"/>
-      <c r="T110" s="10"/>
-      <c r="U110" s="10"/>
-      <c r="V110" s="10"/>
-      <c r="W110" s="10"/>
-      <c r="X110" s="10"/>
-      <c r="Y110" s="10"/>
-      <c r="Z110" s="10"/>
-      <c r="AA110" s="10"/>
-      <c r="AB110" s="10"/>
-      <c r="AC110" s="10"/>
-      <c r="AD110" s="10"/>
-      <c r="AE110" s="10"/>
-      <c r="AF110" s="10"/>
-      <c r="AG110" s="10"/>
-      <c r="AH110" s="10"/>
-      <c r="AI110" s="10"/>
-      <c r="AJ110" s="10"/>
-      <c r="AK110" s="10"/>
-      <c r="AL110" s="10"/>
-      <c r="AM110" s="10"/>
-      <c r="AN110" s="11"/>
+      <c r="A110" s="6"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="14"/>
+      <c r="I110" s="16"/>
+      <c r="J110" s="15"/>
+      <c r="K110" s="17"/>
+      <c r="L110" s="14"/>
+      <c r="M110" s="15"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="14"/>
+      <c r="P110" s="15"/>
+      <c r="Q110" s="15"/>
+      <c r="R110" s="17"/>
+      <c r="S110" s="14"/>
+      <c r="T110" s="17"/>
+      <c r="U110" s="14"/>
+      <c r="V110" s="17"/>
+      <c r="W110" s="14"/>
+      <c r="X110" s="15"/>
+      <c r="Y110" s="15"/>
+      <c r="Z110" s="17"/>
+      <c r="AA110" s="14"/>
+      <c r="AB110" s="15"/>
+      <c r="AC110" s="17"/>
+      <c r="AD110" s="14"/>
+      <c r="AE110" s="15"/>
+      <c r="AF110" s="15"/>
+      <c r="AG110" s="15"/>
+      <c r="AH110" s="15"/>
+      <c r="AI110" s="15"/>
+      <c r="AJ110" s="15"/>
+      <c r="AK110" s="15"/>
+      <c r="AL110" s="15"/>
+      <c r="AM110" s="18"/>
+      <c r="AN110" s="7"/>
+    </row>
+    <row r="111" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="6"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="10"/>
+      <c r="I111" s="10"/>
+      <c r="J111" s="10"/>
+      <c r="K111" s="10"/>
+      <c r="L111" s="10"/>
+      <c r="M111" s="10"/>
+      <c r="N111" s="10"/>
+      <c r="O111" s="10"/>
+      <c r="P111" s="10"/>
+      <c r="Q111" s="10"/>
+      <c r="R111" s="10"/>
+      <c r="S111" s="10"/>
+      <c r="T111" s="10"/>
+      <c r="U111" s="10"/>
+      <c r="V111" s="10"/>
+      <c r="W111" s="10"/>
+      <c r="X111" s="10"/>
+      <c r="Y111" s="10"/>
+      <c r="Z111" s="10"/>
+      <c r="AA111" s="10"/>
+      <c r="AB111" s="10"/>
+      <c r="AC111" s="10"/>
+      <c r="AD111" s="10"/>
+      <c r="AE111" s="10"/>
+      <c r="AF111" s="10"/>
+      <c r="AG111" s="10"/>
+      <c r="AH111" s="10"/>
+      <c r="AI111" s="10"/>
+      <c r="AJ111" s="10"/>
+      <c r="AK111" s="10"/>
+      <c r="AL111" s="10"/>
+      <c r="AM111" s="10"/>
+      <c r="AN111" s="11"/>
+    </row>
+    <row r="112" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="N3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
@@ -12362,6 +12385,10 @@
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>

--- a/doc/外部設計書/02_外部設計書_C4.xlsx
+++ b/doc/外部設計書/02_外部設計書_C4.xlsx
@@ -8,25 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C4\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3DD0E7-2104-4B3E-AF19-FEA25B3F1C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6C2663-5231-4D06-98EE-60F19EC5C63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ログイン" sheetId="1" r:id="rId1"/>
-    <sheet name="会員登録" sheetId="3" r:id="rId2"/>
+    <sheet name="ログイン " sheetId="4" r:id="rId1"/>
+    <sheet name="会員登録 " sheetId="5" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">ログイン!$5:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">会員登録!$5:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'ログイン '!$5:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'会員登録 '!$5:$5</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="74">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -446,10 +446,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>button</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>div</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -546,22 +542,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>エラーが無い場合、registテーブルに1件のデータを追加する。</t>
-    <rPh sb="4" eb="5">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>regist</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -579,6 +559,72 @@
   <si>
     <t>メール</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>LinX</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>エラーが無い場合、usersテーブルに1件のデータを追加する。</t>
+    <rPh sb="4" eb="5">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>氏名</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>新規登録</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>clear</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>クリア</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>div</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -958,6 +1004,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1011,9 +1060,6 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1049,10 +1095,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="楕円 3">
+        <xdr:cNvPr id="2" name="楕円 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89D0399D-5266-C666-0AFD-A4CD45F46E56}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A06B531-6899-4A3C-8E9C-5CBCFEA8EFEB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1060,8 +1106,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4114799" y="4048125"/>
-          <a:ext cx="1628775" cy="676275"/>
+          <a:off x="4175759" y="4048125"/>
+          <a:ext cx="1655445" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1112,784 +1158,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7ABFBC9-9696-E9EB-17F4-F9E9AD1ACA09}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3924300" y="2447925"/>
-          <a:ext cx="2352675" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>メールアドレス</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20FCA38A-C82C-1C6B-278F-9BAAC80811FF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3962400" y="3076575"/>
-          <a:ext cx="2371725" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>パスワード</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>244519</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>89721</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>206419</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>172104</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="テキスト ボックス 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{578AD551-4B85-3213-1BFC-3AE4020AD9CE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4054519" y="5891616"/>
-          <a:ext cx="2501900" cy="269541"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>新規会員登録</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>22087</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>121478</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>152262</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>121477</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B67A1B83-BBE5-48D2-9220-1DCBD361FB7C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4086087" y="4814956"/>
-          <a:ext cx="2416175" cy="375478"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>メッセージエリア</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>70126</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>73577</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="543739" cy="792525"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="テキスト ボックス 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{631B7966-451D-465E-B31D-E6963AC393B3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3626126" y="1950968"/>
-          <a:ext cx="543739" cy="792525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>①</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>45831</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>170759</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="543739" cy="792525"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="テキスト ボックス 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0240B407-33E4-4E75-B05F-BD0A58F6F379}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3601831" y="2611368"/>
-          <a:ext cx="543739" cy="792525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>②</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>198783</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>132522</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="543739" cy="792525"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="テキスト ボックス 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A6BAC82-3032-485B-A173-8B5DE1D9E4CD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3754783" y="3699565"/>
-          <a:ext cx="543739" cy="792525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>③</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>64052</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>119269</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="543739" cy="792525"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="テキスト ボックス 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BC56F87-28AE-4919-962B-6C48652DA290}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3620052" y="4437269"/>
-          <a:ext cx="543739" cy="792525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>④</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>160421</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>45336</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="543739" cy="792525"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="テキスト ボックス 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0F839C8-DB4B-4337-BCC8-4E6F5B349421}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3716421" y="5472915"/>
-          <a:ext cx="543739" cy="792525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>⑤</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>250091</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>18318</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>145316</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>123094</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="楕円 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{686CBDBB-9070-438F-997B-FA483FC0EFB1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4314091" y="4316780"/>
-          <a:ext cx="1673225" cy="690929"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>新規登録</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9164636D-21DA-44F8-AE91-B091D935F208}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E62E0E36-5164-4528-9B6A-C46A2872C677}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1983,7 +1255,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA7F7E57-1892-4440-8A31-1BE9B1B13872}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81810BA8-C269-434D-BF2D-05C68102DEBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2061,23 +1333,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>212427</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>244519</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>9345</xdr:rowOff>
+      <xdr:rowOff>89721</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>174327</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>206419</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>121765</xdr:rowOff>
+      <xdr:rowOff>172104</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F967AAB5-AC15-4AFD-9BE3-8F1AC0F9D4C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0FB2D33-ACE8-4A9B-81D5-6EC79EB7A9F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2085,8 +1357,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4276427" y="6066268"/>
-          <a:ext cx="2501900" cy="307805"/>
+          <a:off x="4016419" y="5995221"/>
+          <a:ext cx="2476500" cy="272883"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2120,10 +1392,41 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>利用規約</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>新規会員登録</a:t>
           </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2131,23 +1434,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>70933</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>92169</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>22087</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>121478</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>201108</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>92169</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>152262</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>121477</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5416FA93-BD28-40AD-99F6-8BE1DDC1F0EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE0A55D7-7165-41E0-9C38-05FAA673201B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2155,8 +1458,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3880933" y="5367554"/>
-          <a:ext cx="2416175" cy="390769"/>
+          <a:off x="4045447" y="4883978"/>
+          <a:ext cx="2393315" cy="380999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2236,10 +1539,10 @@
     <xdr:ext cx="543739" cy="792525"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6E97841-2FFA-46BB-9CE4-3017E9E8D15D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D71CE92A-B692-4EE4-8259-68F0BEA54FDA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2300,10 +1603,10 @@
     <xdr:ext cx="543739" cy="792525"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53D1A687-7374-4AF9-A8AD-BC6B1F1F487C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F593FEB-EAFC-4741-8791-061EBBA3EA64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2356,18 +1659,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>149937</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>103215</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>198783</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>132522</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="543739" cy="792525"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E6BF734-392C-4960-BF04-C74428372FC3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7B40EF2-7BF7-414D-BEC5-AD607DC934CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2375,7 +1678,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3451937" y="3424753"/>
+          <a:off x="3719223" y="3752022"/>
           <a:ext cx="543739" cy="792525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2421,17 +1724,17 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>151974</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>129039</xdr:rowOff>
+      <xdr:colOff>64052</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>119269</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="543739" cy="792525"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7785381-3137-435C-A6A7-89B0D6C3C894}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C97A6DD2-8C0C-463E-BB92-7194DC52A8C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2439,7 +1742,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3707974" y="4036731"/>
+          <a:off x="3584492" y="4500769"/>
           <a:ext cx="543739" cy="792525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2484,18 +1787,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>127001</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>97267</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>160421</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>45336</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="543739" cy="792525"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABB6D3F4-7AE1-4CE2-882B-F829684561E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31DC6490-9BC5-4AE5-AAC8-64C72EE7C975}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2503,7 +1806,823 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6223001" y="4004959"/>
+          <a:off x="3680861" y="5569836"/>
+          <a:ext cx="543739" cy="792525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>⑤</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>17864</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>170719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="楕円 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{007C654A-9E97-437F-990A-C559C695A7BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3789764" y="4361719"/>
+          <a:ext cx="1191176" cy="509638"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>新規登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>253093</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>16784</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>14514</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>174172</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3B17425-B8EA-4B9E-9D97-2B4F19767205}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4024993" y="2493284"/>
+          <a:ext cx="2276021" cy="347888"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>メールアドレス</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>14515</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB4BF0A1-6F61-4655-8B4A-656869549D00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4037875" y="3069772"/>
+          <a:ext cx="2248626" cy="321129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>パスワード</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>68427</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>189345</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>30327</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>109765</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE9FE922-84BB-46BF-9B3B-EB15930DD8E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3840327" y="5904345"/>
+          <a:ext cx="2476500" cy="301420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>利用規約</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>70933</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>92169</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>201108</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>92169</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC1106FD-6DB1-4DC2-B9A0-3B0AC997F86F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3842833" y="5235669"/>
+          <a:ext cx="2393315" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>メッセージエリア</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>200755</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>175177</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="543739" cy="792525"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5B137A3-81DD-4698-BEE5-5CE60874EB3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3469735" y="2270677"/>
+          <a:ext cx="543739" cy="792525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>205488</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>156244</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="543739" cy="792525"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E35D3964-1D27-43C2-BFC3-3E5EDA75D295}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3474468" y="2823244"/>
+          <a:ext cx="543739" cy="792525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171709</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>139500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="543739" cy="792525"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E794C67-AF42-40D4-AC1E-62B4A01B52F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3440689" y="3378000"/>
+          <a:ext cx="543739" cy="792525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>87086</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114527</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="586856" cy="792525"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0A2E1C4-BAC1-43CF-BC9F-7DB48F2EA13A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3356066" y="3924527"/>
+          <a:ext cx="586856" cy="792525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>④</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>250372</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>75495</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="543739" cy="792525"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D73610DC-5470-409F-9185-2E28ED8EA5A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5028112" y="3885495"/>
           <a:ext cx="543739" cy="792525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2556,10 +2675,10 @@
     <xdr:ext cx="543739" cy="792525"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{417FD5FA-C82D-48DD-A04C-B2A21A1C958F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C853784A-5A76-42AC-9317-EFE2CB96D59A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2567,7 +2686,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3396294" y="5218044"/>
+          <a:off x="3363274" y="5091044"/>
           <a:ext cx="543739" cy="792525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2613,22 +2732,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>185616</xdr:colOff>
+      <xdr:colOff>250931</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>156308</xdr:rowOff>
+      <xdr:rowOff>178080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>74491</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>27598</xdr:rowOff>
+      <xdr:rowOff>166915</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13">
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{953B4637-9CE4-44C1-95AF-A0E2EB30B402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A3B34F2-D7FE-400F-A0EC-656B89558F02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2636,12 +2755,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3995616" y="3673231"/>
-          <a:ext cx="2428875" cy="262059"/>
+          <a:off x="4022831" y="3607080"/>
+          <a:ext cx="2263669" cy="369835"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2681,7 +2801,19 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>氏名</a:t>
           </a:r>
         </a:p>
@@ -2691,23 +2823,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>214923</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>175846</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>7258</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>23447</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>214922</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>166076</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>40751</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123372</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="楕円 14">
+        <xdr:cNvPr id="14" name="楕円 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A13658F-BC04-4BFC-9239-EAB8B139EE18}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BBCF344-42C2-4E91-85DD-BE22B7482368}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2715,12 +2847,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6564923" y="4474308"/>
-          <a:ext cx="761999" cy="380999"/>
+          <a:off x="5287918" y="4404947"/>
+          <a:ext cx="1039333" cy="480925"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2744,7 +2877,19 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>クリア</a:t>
           </a:r>
         </a:p>
@@ -2752,6 +2897,70 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66294</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>166044</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="543739" cy="792525"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11877A6F-193A-493C-90C3-800ED4DE5EC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3335274" y="5690544"/>
+          <a:ext cx="543739" cy="792525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>⑦</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3041,11 +3250,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0889AA17-E9C6-4C9B-B205-55683AA59F21}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" zoomScale="91" workbookViewId="0">
-      <selection activeCell="AA81" sqref="AA81"/>
+    <sheetView topLeftCell="B75" zoomScale="179" workbookViewId="0">
+      <selection activeCell="L81" sqref="L81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3054,198 +3263,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="30" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30"/>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="30"/>
-      <c r="AL1" s="30"/>
-      <c r="AM1" s="30"/>
-      <c r="AN1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="32"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="32" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32" t="s">
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32" t="s">
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="33" t="s">
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="35"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="36"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="32" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32" t="s">
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="36">
+      <c r="X3" s="33"/>
+      <c r="Y3" s="37">
         <v>45450</v>
       </c>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="37" t="s">
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="20"/>
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="20"/>
+      <c r="AM3" s="20"/>
+      <c r="AN3" s="21"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="21" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="22"/>
-      <c r="AH4" s="22"/>
-      <c r="AI4" s="22"/>
-      <c r="AJ4" s="22"/>
-      <c r="AK4" s="22"/>
-      <c r="AL4" s="22"/>
-      <c r="AM4" s="22"/>
-      <c r="AN4" s="23"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="23"/>
+      <c r="AI4" s="23"/>
+      <c r="AJ4" s="23"/>
+      <c r="AK4" s="23"/>
+      <c r="AL4" s="23"/>
+      <c r="AM4" s="23"/>
+      <c r="AN4" s="24"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -6313,19 +6522,19 @@
         <v>1</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
       <c r="G80" s="13"/>
       <c r="H80" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I80" s="16"/>
       <c r="J80" s="15"/>
       <c r="K80" s="17"/>
       <c r="L80" s="14" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="M80" s="15"/>
       <c r="N80" s="17"/>
@@ -6340,13 +6549,13 @@
       <c r="U80" s="14"/>
       <c r="V80" s="17"/>
       <c r="W80" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X80" s="15"/>
       <c r="Y80" s="15"/>
       <c r="Z80" s="17"/>
       <c r="AA80" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB80" s="15"/>
       <c r="AC80" s="17"/>
@@ -6381,7 +6590,7 @@
       <c r="J81" s="15"/>
       <c r="K81" s="17"/>
       <c r="L81" s="14" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="M81" s="15"/>
       <c r="N81" s="17"/>
@@ -6396,7 +6605,7 @@
       <c r="U81" s="14"/>
       <c r="V81" s="17"/>
       <c r="W81" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X81" s="15"/>
       <c r="Y81" s="15"/>
@@ -6437,7 +6646,7 @@
       <c r="J82" s="15"/>
       <c r="K82" s="17"/>
       <c r="L82" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M82" s="15"/>
       <c r="N82" s="17"/>
@@ -6487,7 +6696,7 @@
       <c r="J83" s="15"/>
       <c r="K83" s="17"/>
       <c r="L83" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M83" s="15"/>
       <c r="N83" s="17"/>
@@ -6509,7 +6718,7 @@
       <c r="AB83" s="15"/>
       <c r="AC83" s="17"/>
       <c r="AD83" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AE83" s="15"/>
       <c r="AF83" s="15"/>
@@ -6529,19 +6738,19 @@
         <v>5</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
       <c r="G84" s="13"/>
       <c r="H84" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I84" s="16"/>
       <c r="J84" s="15"/>
       <c r="K84" s="17"/>
       <c r="L84" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M84" s="15"/>
       <c r="N84" s="17"/>
@@ -7666,6 +7875,9 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="N3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
@@ -7680,11 +7892,8 @@
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:AE3"/>
   </mergeCells>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -7695,11 +7904,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3ED64EE-64E5-4253-855A-3700032E3F3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5529EB6-548D-4ECA-B4FA-CE7D1A5BAFF6}">
   <dimension ref="A1:AN112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="93" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="105" workbookViewId="0">
+      <selection activeCell="N79" sqref="N79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7708,198 +7917,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="30" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30"/>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="30"/>
-      <c r="AL1" s="30"/>
-      <c r="AM1" s="30"/>
-      <c r="AN1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="32"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="32" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32" t="s">
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32" t="s">
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="33" t="s">
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="35"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="36"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="32" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32" t="s">
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="36">
+      <c r="X3" s="33"/>
+      <c r="Y3" s="37">
         <v>45450</v>
       </c>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="37" t="s">
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="20"/>
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="20"/>
+      <c r="AM3" s="20"/>
+      <c r="AN3" s="21"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="21" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="22"/>
-      <c r="AH4" s="22"/>
-      <c r="AI4" s="22"/>
-      <c r="AJ4" s="22"/>
-      <c r="AK4" s="22"/>
-      <c r="AL4" s="22"/>
-      <c r="AM4" s="22"/>
-      <c r="AN4" s="23"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="23"/>
+      <c r="AI4" s="23"/>
+      <c r="AJ4" s="23"/>
+      <c r="AK4" s="23"/>
+      <c r="AL4" s="23"/>
+      <c r="AM4" s="23"/>
+      <c r="AN4" s="24"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -9664,7 +9875,7 @@
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="D49" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -9949,7 +10160,7 @@
       <c r="B56" s="6"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="8"/>
@@ -9993,7 +10204,7 @@
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
@@ -10116,7 +10327,7 @@
       <c r="B60" s="6"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="8"/>
@@ -10159,7 +10370,7 @@
       <c r="B61" s="6"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="8"/>
@@ -10323,7 +10534,7 @@
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="D65" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
@@ -10406,7 +10617,7 @@
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="E67" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
@@ -10907,7 +11118,6 @@
       <c r="D79" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E79" s="15"/>
       <c r="F79" s="15"/>
       <c r="G79" s="13"/>
       <c r="H79" s="14" t="s">
@@ -10967,19 +11177,19 @@
         <v>1</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
       <c r="G80" s="13"/>
       <c r="H80" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I80" s="16"/>
       <c r="J80" s="15"/>
       <c r="K80" s="17"/>
       <c r="L80" s="14" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="M80" s="15"/>
       <c r="N80" s="17"/>
@@ -10994,13 +11204,13 @@
       <c r="U80" s="14"/>
       <c r="V80" s="17"/>
       <c r="W80" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X80" s="15"/>
       <c r="Y80" s="15"/>
       <c r="Z80" s="17"/>
       <c r="AA80" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB80" s="15"/>
       <c r="AC80" s="17"/>
@@ -11019,19 +11229,29 @@
     <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="8"/>
       <c r="B81" s="12"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="14"/>
+      <c r="C81" s="13">
+        <v>2</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
       <c r="G81" s="13"/>
-      <c r="H81" s="14"/>
+      <c r="H81" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="I81" s="16"/>
       <c r="J81" s="15"/>
       <c r="K81" s="17"/>
-      <c r="L81" s="14"/>
+      <c r="L81" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="M81" s="15"/>
       <c r="N81" s="17"/>
-      <c r="O81" s="14"/>
+      <c r="O81" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="P81" s="15"/>
       <c r="Q81" s="15"/>
       <c r="R81" s="17"/>
@@ -11039,11 +11259,15 @@
       <c r="T81" s="17"/>
       <c r="U81" s="14"/>
       <c r="V81" s="17"/>
-      <c r="W81" s="14"/>
+      <c r="W81" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="X81" s="15"/>
       <c r="Y81" s="15"/>
       <c r="Z81" s="17"/>
-      <c r="AA81" s="14"/>
+      <c r="AA81" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="AB81" s="15"/>
       <c r="AC81" s="17"/>
       <c r="AD81" s="14"/>
@@ -11062,22 +11286,22 @@
       <c r="A82" s="8"/>
       <c r="B82" s="12"/>
       <c r="C82" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
       <c r="G82" s="13"/>
       <c r="H82" s="14" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="I82" s="16"/>
       <c r="J82" s="15"/>
       <c r="K82" s="17"/>
       <c r="L82" s="14" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="M82" s="15"/>
       <c r="N82" s="17"/>
@@ -11092,13 +11316,13 @@
       <c r="U82" s="14"/>
       <c r="V82" s="17"/>
       <c r="W82" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X82" s="15"/>
       <c r="Y82" s="15"/>
       <c r="Z82" s="17"/>
       <c r="AA82" s="14" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="AB82" s="15"/>
       <c r="AC82" s="17"/>
@@ -11117,22 +11341,22 @@
     <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="12"/>
       <c r="C83" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
       <c r="H83" s="14" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="I83" s="16"/>
       <c r="J83" s="15"/>
       <c r="K83" s="17"/>
       <c r="L83" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M83" s="15"/>
       <c r="N83" s="17"/>
@@ -11164,31 +11388,28 @@
       <c r="AN83" s="7"/>
     </row>
     <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="6"/>
       <c r="B84" s="12"/>
       <c r="C84" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
       <c r="G84" s="13"/>
       <c r="H84" s="14" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="I84" s="16"/>
       <c r="J84" s="15"/>
       <c r="K84" s="17"/>
       <c r="L84" s="14" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="M84" s="15"/>
       <c r="N84" s="17"/>
-      <c r="O84" s="14" t="s">
-        <v>48</v>
-      </c>
+      <c r="O84" s="14"/>
       <c r="P84" s="15"/>
       <c r="Q84" s="15"/>
       <c r="R84" s="17"/>
@@ -11203,9 +11424,7 @@
       <c r="AA84" s="14"/>
       <c r="AB84" s="15"/>
       <c r="AC84" s="17"/>
-      <c r="AD84" s="14" t="s">
-        <v>52</v>
-      </c>
+      <c r="AD84" s="14"/>
       <c r="AE84" s="15"/>
       <c r="AF84" s="15"/>
       <c r="AG84" s="15"/>
@@ -11221,26 +11440,28 @@
       <c r="A85" s="6"/>
       <c r="B85" s="12"/>
       <c r="C85" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
       <c r="G85" s="13"/>
       <c r="H85" s="14" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="I85" s="16"/>
       <c r="J85" s="15"/>
       <c r="K85" s="17"/>
       <c r="L85" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M85" s="15"/>
       <c r="N85" s="17"/>
-      <c r="O85" s="14"/>
+      <c r="O85" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="P85" s="15"/>
       <c r="Q85" s="15"/>
       <c r="R85" s="17"/>
@@ -11255,7 +11476,9 @@
       <c r="AA85" s="14"/>
       <c r="AB85" s="15"/>
       <c r="AC85" s="17"/>
-      <c r="AD85" s="14"/>
+      <c r="AD85" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="AE85" s="15"/>
       <c r="AF85" s="15"/>
       <c r="AG85" s="15"/>
@@ -11271,7 +11494,7 @@
       <c r="A86" s="6"/>
       <c r="B86" s="12"/>
       <c r="C86" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D86" s="14" t="s">
         <v>43</v>
@@ -11286,7 +11509,7 @@
       <c r="J86" s="15"/>
       <c r="K86" s="17"/>
       <c r="L86" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M86" s="15"/>
       <c r="N86" s="17"/>
@@ -11305,7 +11528,9 @@
       <c r="AA86" s="14"/>
       <c r="AB86" s="15"/>
       <c r="AC86" s="17"/>
-      <c r="AD86" s="14"/>
+      <c r="AD86" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="AE86" s="15"/>
       <c r="AF86" s="15"/>
       <c r="AG86" s="15"/>
@@ -12372,6 +12597,10 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="N3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
@@ -12385,10 +12614,6 @@
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>

--- a/doc/外部設計書/02_外部設計書_C4.xlsx
+++ b/doc/外部設計書/02_外部設計書_C4.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C4\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6C2663-5231-4D06-98EE-60F19EC5C63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F557A0-2F4E-45DE-91B0-895E42C2FFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン " sheetId="4" r:id="rId1"/>
     <sheet name="会員登録 " sheetId="5" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="プロフィール" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">プロフィール!$5:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'ログイン '!$5:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'会員登録 '!$5:$5</definedName>
   </definedNames>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="115">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -626,6 +628,259 @@
     <t>URL</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>プロフィール</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>戸川</t>
+    <rPh sb="0" eb="2">
+      <t>トガワ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ページロード</t>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アイコン：アイコンをクリックしたとき、写真データをアップロードする（ドラッグアンドドロップ）</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アイコンをクリック→フォルダ表示→写真選択→アップロード</t>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>言語：話せる言語を書き込む</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>③</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ポイント：活動状況に応じてポイントを表示する</t>
+    <rPh sb="5" eb="9">
+      <t>カツドウジョウキョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ポイントをクリックしたとき、詳細を表示</t>
+    <rPh sb="14" eb="16">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>④</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>誕生日：クリックしたとき、プルダウン形式で選択</t>
+    <rPh sb="0" eb="3">
+      <t>タンジョウビ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>⑤</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>名前：名前を書き込む</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>⑥</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>コメント：500文字以内なら自由に書き込める</t>
+    <rPh sb="8" eb="12">
+      <t>モジイナイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジユウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>⑦</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>DM:クリックしたらトーク画面に飛ぶ</t>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>⑧</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>編集：編集したデータを反映させる</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アイコン</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>users</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>lang</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ラング</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>button</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>point</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ポイント</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>birth</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>バース</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ネーム</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>コメント</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>talk</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>トーク</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>edit</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>エディット</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -1003,6 +1258,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1045,9 +1306,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1056,9 +1314,6 @@
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2964,6 +3219,1002 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9FC95F1-C2A6-49DE-8B91-DB768E78F893}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857500" y="1371600"/>
+          <a:ext cx="2270760" cy="1965960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アイコン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7ADA65E-6AF1-415B-B09D-C1DFA459CD0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2849880" y="3467100"/>
+          <a:ext cx="2278380" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>名前</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D71899D6-2EDC-4297-A368-BCE85E661DA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2872740" y="4038600"/>
+          <a:ext cx="2270760" cy="693420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>コメント</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAD4EF94-A8AB-4FB4-87C9-601B67E0FF23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5417820" y="1432560"/>
+          <a:ext cx="998220" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>言語</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90D44F6F-13C4-477D-886D-6FFC6DE3A9BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5455920" y="4206240"/>
+          <a:ext cx="678180" cy="350520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ポイント</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E353778A-419F-449A-B29A-22ABB4EE6AA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5410200" y="2369820"/>
+          <a:ext cx="1089660" cy="556260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DM</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C10C03F-7A0E-4AD0-8383-76EBA008192D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5440680" y="3520440"/>
+          <a:ext cx="632460" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>誕生日</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE28849D-70E7-4490-AA2D-B2C109E8D037}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2545080" y="1394460"/>
+          <a:ext cx="251460" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A868457-260B-4AAE-B7AB-C8DC8987244F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6545580" y="1447800"/>
+          <a:ext cx="281940" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F69AE82B-161D-450A-A60C-2B7311024FA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6545580" y="4221480"/>
+          <a:ext cx="281940" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>③</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09798C8A-407F-49F4-9B22-82D3DB7F2F7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6537960" y="3520440"/>
+          <a:ext cx="281940" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>④②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE356833-77EB-4931-90B4-15604FA9A6F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2461260" y="3497580"/>
+          <a:ext cx="281940" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>⑤④②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70E74EE5-250D-4840-9F76-8E71F1D3ADCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2567940" y="4191000"/>
+          <a:ext cx="281940" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>⑥④②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2603163-21DE-45B7-9284-5B888A6AAA72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6568440" y="2484120"/>
+          <a:ext cx="281940" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>⑦</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7A3068-8D59-46A1-B8E8-A9CA1C35DFE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5554980" y="4869180"/>
+          <a:ext cx="480060" cy="350520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>編集</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD2D409A-07BD-490C-ADF2-FD6005F68ECD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6560820" y="4907280"/>
+          <a:ext cx="281940" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>⑧</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -3263,198 +4514,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="31" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31" t="s">
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="32"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="34"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="33" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33" t="s">
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33" t="s">
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33" t="s">
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="34" t="s">
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="36"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="37"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="33" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33" t="s">
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="37">
+      <c r="X3" s="19"/>
+      <c r="Y3" s="20">
         <v>45450</v>
       </c>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="19" t="s">
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="20"/>
-      <c r="AK3" s="20"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="20"/>
-      <c r="AN3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="22"/>
+      <c r="AJ3" s="22"/>
+      <c r="AK3" s="22"/>
+      <c r="AL3" s="22"/>
+      <c r="AM3" s="22"/>
+      <c r="AN3" s="23"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="22" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23"/>
-      <c r="AI4" s="23"/>
-      <c r="AJ4" s="23"/>
-      <c r="AK4" s="23"/>
-      <c r="AL4" s="23"/>
-      <c r="AM4" s="23"/>
-      <c r="AN4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="25"/>
+      <c r="AH4" s="25"/>
+      <c r="AI4" s="25"/>
+      <c r="AJ4" s="25"/>
+      <c r="AK4" s="25"/>
+      <c r="AL4" s="25"/>
+      <c r="AM4" s="25"/>
+      <c r="AN4" s="26"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -7875,11 +9126,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="N3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
@@ -7892,6 +9138,11 @@
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -7907,7 +9158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5529EB6-548D-4ECA-B4FA-CE7D1A5BAFF6}">
   <dimension ref="A1:AN112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="105" workbookViewId="0">
+    <sheetView topLeftCell="A86" zoomScale="105" workbookViewId="0">
       <selection activeCell="N79" sqref="N79"/>
     </sheetView>
   </sheetViews>
@@ -7917,200 +9168,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="31" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31" t="s">
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="32"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="34"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="33" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33" t="s">
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33" t="s">
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33" t="s">
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="34" t="s">
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="36"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="37"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="33" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33" t="s">
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33" t="s">
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="37">
+      <c r="X3" s="19"/>
+      <c r="Y3" s="20">
         <v>45450</v>
       </c>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="19" t="s">
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="20"/>
-      <c r="AK3" s="20"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="20"/>
-      <c r="AN3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="22"/>
+      <c r="AJ3" s="22"/>
+      <c r="AK3" s="22"/>
+      <c r="AL3" s="22"/>
+      <c r="AM3" s="22"/>
+      <c r="AN3" s="23"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="22" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23"/>
-      <c r="AI4" s="23"/>
-      <c r="AJ4" s="23"/>
-      <c r="AK4" s="23"/>
-      <c r="AL4" s="23"/>
-      <c r="AM4" s="23"/>
-      <c r="AN4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="25"/>
+      <c r="AH4" s="25"/>
+      <c r="AI4" s="25"/>
+      <c r="AJ4" s="25"/>
+      <c r="AK4" s="25"/>
+      <c r="AL4" s="25"/>
+      <c r="AM4" s="25"/>
+      <c r="AN4" s="26"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -12597,6 +13848,4765 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:AN4"/>
+    <mergeCell ref="A1:J4"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:AN1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AN3"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;C&amp;8&amp;P／&amp;"／,標準"&amp;N</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB7078A-EDBB-4A10-8C2A-D3185AE90121}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782D64D3-14EE-471A-BA36-00313CDDC2C0}">
+  <dimension ref="A1:AN110"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AE22" sqref="AE22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="3.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="34"/>
+    </row>
+    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="37"/>
+    </row>
+    <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="20">
+        <v>45453</v>
+      </c>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="22"/>
+      <c r="AJ3" s="22"/>
+      <c r="AK3" s="22"/>
+      <c r="AL3" s="22"/>
+      <c r="AM3" s="22"/>
+      <c r="AN3" s="23"/>
+    </row>
+    <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="25"/>
+      <c r="AH4" s="25"/>
+      <c r="AI4" s="25"/>
+      <c r="AJ4" s="25"/>
+      <c r="AK4" s="25"/>
+      <c r="AL4" s="25"/>
+      <c r="AM4" s="25"/>
+      <c r="AN4" s="26"/>
+    </row>
+    <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="5"/>
+    </row>
+    <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6"/>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="7"/>
+    </row>
+    <row r="8" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+    </row>
+    <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+    </row>
+    <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+    </row>
+    <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+    </row>
+    <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+    </row>
+    <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="8"/>
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="7"/>
+      <c r="AN13" s="7"/>
+    </row>
+    <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="8"/>
+      <c r="AM14" s="7"/>
+      <c r="AN14" s="7"/>
+    </row>
+    <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="8"/>
+      <c r="AL15" s="8"/>
+      <c r="AM15" s="7"/>
+      <c r="AN15" s="7"/>
+    </row>
+    <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
+      <c r="AL16" s="8"/>
+      <c r="AM16" s="7"/>
+      <c r="AN16" s="7"/>
+    </row>
+    <row r="17" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="8"/>
+      <c r="AK17" s="8"/>
+      <c r="AL17" s="8"/>
+      <c r="AM17" s="7"/>
+      <c r="AN17" s="7"/>
+    </row>
+    <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="8"/>
+      <c r="AL18" s="8"/>
+      <c r="AM18" s="7"/>
+      <c r="AN18" s="7"/>
+    </row>
+    <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="8"/>
+      <c r="AL19" s="8"/>
+      <c r="AM19" s="7"/>
+      <c r="AN19" s="7"/>
+    </row>
+    <row r="20" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="8"/>
+      <c r="AL20" s="8"/>
+      <c r="AM20" s="7"/>
+      <c r="AN20" s="7"/>
+    </row>
+    <row r="21" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="8"/>
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="7"/>
+      <c r="AN21" s="7"/>
+    </row>
+    <row r="22" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="8"/>
+      <c r="AL22" s="8"/>
+      <c r="AM22" s="7"/>
+      <c r="AN22" s="7"/>
+    </row>
+    <row r="23" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="8"/>
+      <c r="AL23" s="8"/>
+      <c r="AM23" s="7"/>
+      <c r="AN23" s="7"/>
+    </row>
+    <row r="24" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="7"/>
+      <c r="AN24" s="7"/>
+    </row>
+    <row r="25" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="8"/>
+      <c r="AL25" s="8"/>
+      <c r="AM25" s="7"/>
+      <c r="AN25" s="7"/>
+    </row>
+    <row r="26" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="8"/>
+      <c r="AL26" s="8"/>
+      <c r="AM26" s="7"/>
+      <c r="AN26" s="7"/>
+    </row>
+    <row r="27" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8"/>
+      <c r="AJ27" s="8"/>
+      <c r="AK27" s="8"/>
+      <c r="AL27" s="8"/>
+      <c r="AM27" s="7"/>
+      <c r="AN27" s="7"/>
+    </row>
+    <row r="28" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8"/>
+      <c r="AJ28" s="8"/>
+      <c r="AK28" s="8"/>
+      <c r="AL28" s="8"/>
+      <c r="AM28" s="7"/>
+      <c r="AN28" s="7"/>
+    </row>
+    <row r="29" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="8"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="8"/>
+      <c r="AJ29" s="8"/>
+      <c r="AK29" s="8"/>
+      <c r="AL29" s="8"/>
+      <c r="AM29" s="7"/>
+      <c r="AN29" s="7"/>
+    </row>
+    <row r="30" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="8"/>
+      <c r="AJ30" s="8"/>
+      <c r="AK30" s="8"/>
+      <c r="AL30" s="8"/>
+      <c r="AM30" s="7"/>
+      <c r="AN30" s="7"/>
+    </row>
+    <row r="31" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="8"/>
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="8"/>
+      <c r="AJ31" s="8"/>
+      <c r="AK31" s="8"/>
+      <c r="AL31" s="8"/>
+      <c r="AM31" s="7"/>
+      <c r="AN31" s="7"/>
+    </row>
+    <row r="32" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8"/>
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="8"/>
+      <c r="AH32" s="8"/>
+      <c r="AI32" s="8"/>
+      <c r="AJ32" s="8"/>
+      <c r="AK32" s="8"/>
+      <c r="AL32" s="8"/>
+      <c r="AM32" s="7"/>
+      <c r="AN32" s="7"/>
+    </row>
+    <row r="33" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="8"/>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="8"/>
+      <c r="AJ33" s="8"/>
+      <c r="AK33" s="8"/>
+      <c r="AL33" s="8"/>
+      <c r="AM33" s="7"/>
+      <c r="AN33" s="7"/>
+    </row>
+    <row r="34" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="8"/>
+      <c r="AD34" s="8"/>
+      <c r="AE34" s="8"/>
+      <c r="AF34" s="8"/>
+      <c r="AG34" s="8"/>
+      <c r="AH34" s="8"/>
+      <c r="AI34" s="8"/>
+      <c r="AJ34" s="8"/>
+      <c r="AK34" s="8"/>
+      <c r="AL34" s="8"/>
+      <c r="AM34" s="7"/>
+      <c r="AN34" s="7"/>
+    </row>
+    <row r="35" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="8"/>
+      <c r="AD35" s="8"/>
+      <c r="AE35" s="8"/>
+      <c r="AF35" s="8"/>
+      <c r="AG35" s="8"/>
+      <c r="AH35" s="8"/>
+      <c r="AI35" s="8"/>
+      <c r="AJ35" s="8"/>
+      <c r="AK35" s="8"/>
+      <c r="AL35" s="8"/>
+      <c r="AM35" s="7"/>
+      <c r="AN35" s="7"/>
+    </row>
+    <row r="36" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="8"/>
+      <c r="AD36" s="8"/>
+      <c r="AE36" s="8"/>
+      <c r="AF36" s="8"/>
+      <c r="AG36" s="8"/>
+      <c r="AH36" s="8"/>
+      <c r="AI36" s="8"/>
+      <c r="AJ36" s="8"/>
+      <c r="AK36" s="8"/>
+      <c r="AL36" s="8"/>
+      <c r="AM36" s="7"/>
+      <c r="AN36" s="7"/>
+    </row>
+    <row r="37" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="8"/>
+      <c r="AD37" s="8"/>
+      <c r="AE37" s="8"/>
+      <c r="AF37" s="8"/>
+      <c r="AG37" s="8"/>
+      <c r="AH37" s="8"/>
+      <c r="AI37" s="8"/>
+      <c r="AJ37" s="8"/>
+      <c r="AK37" s="8"/>
+      <c r="AL37" s="8"/>
+      <c r="AM37" s="7"/>
+      <c r="AN37" s="7"/>
+    </row>
+    <row r="38" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="8"/>
+      <c r="AD38" s="8"/>
+      <c r="AE38" s="8"/>
+      <c r="AF38" s="8"/>
+      <c r="AG38" s="8"/>
+      <c r="AH38" s="8"/>
+      <c r="AI38" s="8"/>
+      <c r="AJ38" s="8"/>
+      <c r="AK38" s="8"/>
+      <c r="AL38" s="8"/>
+      <c r="AM38" s="7"/>
+      <c r="AN38" s="7"/>
+    </row>
+    <row r="39" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="6"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="10"/>
+      <c r="AC39" s="10"/>
+      <c r="AD39" s="10"/>
+      <c r="AE39" s="10"/>
+      <c r="AF39" s="10"/>
+      <c r="AG39" s="10"/>
+      <c r="AH39" s="10"/>
+      <c r="AI39" s="10"/>
+      <c r="AJ39" s="10"/>
+      <c r="AK39" s="10"/>
+      <c r="AL39" s="10"/>
+      <c r="AM39" s="11"/>
+      <c r="AN39" s="7"/>
+    </row>
+    <row r="40" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="10"/>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="10"/>
+      <c r="AD40" s="10"/>
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="10"/>
+      <c r="AG40" s="10"/>
+      <c r="AH40" s="10"/>
+      <c r="AI40" s="10"/>
+      <c r="AJ40" s="10"/>
+      <c r="AK40" s="10"/>
+      <c r="AL40" s="10"/>
+      <c r="AM40" s="10"/>
+      <c r="AN40" s="11"/>
+    </row>
+    <row r="41" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="3"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="4"/>
+      <c r="AC41" s="4"/>
+      <c r="AD41" s="4"/>
+      <c r="AE41" s="4"/>
+      <c r="AF41" s="4"/>
+      <c r="AG41" s="4"/>
+      <c r="AH41" s="4"/>
+      <c r="AI41" s="4"/>
+      <c r="AJ41" s="4"/>
+      <c r="AK41" s="4"/>
+      <c r="AL41" s="4"/>
+      <c r="AM41" s="4"/>
+      <c r="AN41" s="5"/>
+    </row>
+    <row r="42" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="6"/>
+      <c r="B42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="4"/>
+      <c r="AB42" s="4"/>
+      <c r="AC42" s="4"/>
+      <c r="AD42" s="4"/>
+      <c r="AE42" s="4"/>
+      <c r="AF42" s="4"/>
+      <c r="AG42" s="4"/>
+      <c r="AH42" s="4"/>
+      <c r="AI42" s="4"/>
+      <c r="AJ42" s="4"/>
+      <c r="AK42" s="4"/>
+      <c r="AL42" s="4"/>
+      <c r="AM42" s="5"/>
+      <c r="AN42" s="7"/>
+    </row>
+    <row r="43" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="2"/>
+      <c r="AB43" s="2"/>
+      <c r="AC43" s="2"/>
+      <c r="AD43" s="2"/>
+      <c r="AE43" s="2"/>
+      <c r="AF43" s="2"/>
+      <c r="AG43" s="2"/>
+      <c r="AH43" s="2"/>
+      <c r="AI43" s="2"/>
+      <c r="AJ43" s="2"/>
+      <c r="AK43" s="2"/>
+      <c r="AL43" s="2"/>
+      <c r="AM43" s="7"/>
+      <c r="AN43" s="7"/>
+    </row>
+    <row r="44" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="2"/>
+      <c r="AD44" s="2"/>
+      <c r="AE44" s="2"/>
+      <c r="AF44" s="2"/>
+      <c r="AG44" s="2"/>
+      <c r="AH44" s="2"/>
+      <c r="AI44" s="2"/>
+      <c r="AJ44" s="2"/>
+      <c r="AK44" s="2"/>
+      <c r="AL44" s="2"/>
+      <c r="AM44" s="7"/>
+      <c r="AN44" s="7"/>
+    </row>
+    <row r="45" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="8"/>
+      <c r="AD45" s="8"/>
+      <c r="AE45" s="8"/>
+      <c r="AF45" s="8"/>
+      <c r="AG45" s="8"/>
+      <c r="AH45" s="8"/>
+      <c r="AI45" s="8"/>
+      <c r="AJ45" s="8"/>
+      <c r="AK45" s="8"/>
+      <c r="AL45" s="8"/>
+      <c r="AM45" s="7"/>
+      <c r="AN45" s="7"/>
+    </row>
+    <row r="46" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="8"/>
+      <c r="AD46" s="8"/>
+      <c r="AE46" s="8"/>
+      <c r="AF46" s="8"/>
+      <c r="AG46" s="8"/>
+      <c r="AH46" s="8"/>
+      <c r="AI46" s="8"/>
+      <c r="AJ46" s="8"/>
+      <c r="AK46" s="8"/>
+      <c r="AL46" s="8"/>
+      <c r="AM46" s="7"/>
+      <c r="AN46" s="7"/>
+    </row>
+    <row r="47" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="8"/>
+      <c r="X47" s="8"/>
+      <c r="Y47" s="8"/>
+      <c r="Z47" s="8"/>
+      <c r="AA47" s="8"/>
+      <c r="AB47" s="8"/>
+      <c r="AC47" s="8"/>
+      <c r="AD47" s="8"/>
+      <c r="AE47" s="8"/>
+      <c r="AF47" s="8"/>
+      <c r="AG47" s="8"/>
+      <c r="AH47" s="8"/>
+      <c r="AI47" s="8"/>
+      <c r="AJ47" s="8"/>
+      <c r="AK47" s="8"/>
+      <c r="AL47" s="8"/>
+      <c r="AM47" s="7"/>
+      <c r="AN47" s="7"/>
+    </row>
+    <row r="48" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8"/>
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="8"/>
+      <c r="AB48" s="8"/>
+      <c r="AC48" s="8"/>
+      <c r="AD48" s="8"/>
+      <c r="AE48" s="8"/>
+      <c r="AF48" s="8"/>
+      <c r="AG48" s="8"/>
+      <c r="AH48" s="8"/>
+      <c r="AI48" s="8"/>
+      <c r="AJ48" s="8"/>
+      <c r="AK48" s="8"/>
+      <c r="AL48" s="8"/>
+      <c r="AM48" s="7"/>
+      <c r="AN48" s="7"/>
+    </row>
+    <row r="49" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="8"/>
+      <c r="AC49" s="8"/>
+      <c r="AD49" s="8"/>
+      <c r="AE49" s="8"/>
+      <c r="AF49" s="8"/>
+      <c r="AG49" s="8"/>
+      <c r="AH49" s="8"/>
+      <c r="AI49" s="8"/>
+      <c r="AJ49" s="8"/>
+      <c r="AK49" s="8"/>
+      <c r="AL49" s="8"/>
+      <c r="AM49" s="7"/>
+      <c r="AN49" s="7"/>
+    </row>
+    <row r="50" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8"/>
+      <c r="X50" s="8"/>
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="8"/>
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="8"/>
+      <c r="AC50" s="8"/>
+      <c r="AD50" s="8"/>
+      <c r="AE50" s="8"/>
+      <c r="AF50" s="8"/>
+      <c r="AG50" s="8"/>
+      <c r="AH50" s="8"/>
+      <c r="AI50" s="8"/>
+      <c r="AJ50" s="8"/>
+      <c r="AK50" s="8"/>
+      <c r="AL50" s="8"/>
+      <c r="AM50" s="7"/>
+      <c r="AN50" s="7"/>
+    </row>
+    <row r="51" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="8"/>
+      <c r="X51" s="8"/>
+      <c r="Y51" s="8"/>
+      <c r="Z51" s="8"/>
+      <c r="AA51" s="8"/>
+      <c r="AB51" s="8"/>
+      <c r="AC51" s="8"/>
+      <c r="AD51" s="8"/>
+      <c r="AE51" s="8"/>
+      <c r="AF51" s="8"/>
+      <c r="AG51" s="8"/>
+      <c r="AH51" s="8"/>
+      <c r="AI51" s="8"/>
+      <c r="AJ51" s="8"/>
+      <c r="AK51" s="8"/>
+      <c r="AL51" s="8"/>
+      <c r="AM51" s="7"/>
+      <c r="AN51" s="7"/>
+    </row>
+    <row r="52" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="8"/>
+      <c r="X52" s="8"/>
+      <c r="Y52" s="8"/>
+      <c r="Z52" s="8"/>
+      <c r="AA52" s="8"/>
+      <c r="AB52" s="8"/>
+      <c r="AC52" s="8"/>
+      <c r="AD52" s="8"/>
+      <c r="AE52" s="8"/>
+      <c r="AF52" s="8"/>
+      <c r="AG52" s="8"/>
+      <c r="AH52" s="8"/>
+      <c r="AI52" s="8"/>
+      <c r="AJ52" s="8"/>
+      <c r="AK52" s="8"/>
+      <c r="AL52" s="8"/>
+      <c r="AM52" s="7"/>
+      <c r="AN52" s="7"/>
+    </row>
+    <row r="53" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="8"/>
+      <c r="W53" s="8"/>
+      <c r="X53" s="8"/>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="8"/>
+      <c r="AA53" s="8"/>
+      <c r="AB53" s="8"/>
+      <c r="AC53" s="8"/>
+      <c r="AD53" s="8"/>
+      <c r="AE53" s="8"/>
+      <c r="AF53" s="8"/>
+      <c r="AG53" s="8"/>
+      <c r="AH53" s="8"/>
+      <c r="AI53" s="8"/>
+      <c r="AJ53" s="8"/>
+      <c r="AK53" s="8"/>
+      <c r="AL53" s="8"/>
+      <c r="AM53" s="7"/>
+      <c r="AN53" s="7"/>
+    </row>
+    <row r="54" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="8"/>
+      <c r="X54" s="8"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="8"/>
+      <c r="AA54" s="8"/>
+      <c r="AB54" s="8"/>
+      <c r="AC54" s="8"/>
+      <c r="AD54" s="8"/>
+      <c r="AE54" s="8"/>
+      <c r="AF54" s="8"/>
+      <c r="AG54" s="8"/>
+      <c r="AH54" s="8"/>
+      <c r="AI54" s="8"/>
+      <c r="AJ54" s="8"/>
+      <c r="AK54" s="8"/>
+      <c r="AL54" s="8"/>
+      <c r="AM54" s="7"/>
+      <c r="AN54" s="7"/>
+    </row>
+    <row r="55" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="8"/>
+      <c r="W55" s="8"/>
+      <c r="X55" s="8"/>
+      <c r="Y55" s="8"/>
+      <c r="Z55" s="8"/>
+      <c r="AA55" s="8"/>
+      <c r="AB55" s="8"/>
+      <c r="AC55" s="8"/>
+      <c r="AD55" s="8"/>
+      <c r="AE55" s="8"/>
+      <c r="AF55" s="8"/>
+      <c r="AG55" s="8"/>
+      <c r="AH55" s="8"/>
+      <c r="AI55" s="8"/>
+      <c r="AJ55" s="8"/>
+      <c r="AK55" s="8"/>
+      <c r="AL55" s="8"/>
+      <c r="AM55" s="7"/>
+      <c r="AN55" s="7"/>
+    </row>
+    <row r="56" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="8"/>
+      <c r="W56" s="8"/>
+      <c r="X56" s="8"/>
+      <c r="Y56" s="8"/>
+      <c r="Z56" s="8"/>
+      <c r="AA56" s="8"/>
+      <c r="AB56" s="8"/>
+      <c r="AC56" s="8"/>
+      <c r="AD56" s="8"/>
+      <c r="AE56" s="8"/>
+      <c r="AF56" s="8"/>
+      <c r="AG56" s="8"/>
+      <c r="AH56" s="8"/>
+      <c r="AI56" s="8"/>
+      <c r="AJ56" s="8"/>
+      <c r="AK56" s="8"/>
+      <c r="AL56" s="8"/>
+      <c r="AM56" s="7"/>
+      <c r="AN56" s="7"/>
+    </row>
+    <row r="57" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="8"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="8"/>
+      <c r="V57" s="8"/>
+      <c r="W57" s="8"/>
+      <c r="X57" s="8"/>
+      <c r="Y57" s="8"/>
+      <c r="Z57" s="8"/>
+      <c r="AA57" s="8"/>
+      <c r="AB57" s="8"/>
+      <c r="AC57" s="8"/>
+      <c r="AD57" s="8"/>
+      <c r="AE57" s="8"/>
+      <c r="AF57" s="8"/>
+      <c r="AG57" s="8"/>
+      <c r="AH57" s="8"/>
+      <c r="AI57" s="8"/>
+      <c r="AJ57" s="8"/>
+      <c r="AK57" s="8"/>
+      <c r="AL57" s="8"/>
+      <c r="AM57" s="7"/>
+      <c r="AN57" s="7"/>
+    </row>
+    <row r="58" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
+      <c r="S58" s="8"/>
+      <c r="T58" s="8"/>
+      <c r="U58" s="8"/>
+      <c r="V58" s="8"/>
+      <c r="W58" s="8"/>
+      <c r="X58" s="8"/>
+      <c r="Y58" s="8"/>
+      <c r="Z58" s="8"/>
+      <c r="AA58" s="8"/>
+      <c r="AB58" s="8"/>
+      <c r="AC58" s="8"/>
+      <c r="AD58" s="8"/>
+      <c r="AE58" s="8"/>
+      <c r="AF58" s="8"/>
+      <c r="AG58" s="8"/>
+      <c r="AH58" s="8"/>
+      <c r="AI58" s="8"/>
+      <c r="AJ58" s="8"/>
+      <c r="AK58" s="8"/>
+      <c r="AL58" s="8"/>
+      <c r="AM58" s="7"/>
+      <c r="AN58" s="7"/>
+    </row>
+    <row r="59" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="8"/>
+      <c r="W59" s="8"/>
+      <c r="X59" s="8"/>
+      <c r="Y59" s="8"/>
+      <c r="Z59" s="8"/>
+      <c r="AA59" s="8"/>
+      <c r="AB59" s="8"/>
+      <c r="AC59" s="8"/>
+      <c r="AD59" s="8"/>
+      <c r="AE59" s="8"/>
+      <c r="AF59" s="8"/>
+      <c r="AG59" s="8"/>
+      <c r="AH59" s="8"/>
+      <c r="AI59" s="8"/>
+      <c r="AJ59" s="8"/>
+      <c r="AK59" s="8"/>
+      <c r="AL59" s="8"/>
+      <c r="AM59" s="7"/>
+      <c r="AN59" s="7"/>
+    </row>
+    <row r="60" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8"/>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="8"/>
+      <c r="W60" s="8"/>
+      <c r="X60" s="8"/>
+      <c r="Y60" s="8"/>
+      <c r="Z60" s="8"/>
+      <c r="AA60" s="8"/>
+      <c r="AB60" s="8"/>
+      <c r="AC60" s="8"/>
+      <c r="AD60" s="8"/>
+      <c r="AE60" s="8"/>
+      <c r="AF60" s="8"/>
+      <c r="AG60" s="8"/>
+      <c r="AH60" s="8"/>
+      <c r="AI60" s="8"/>
+      <c r="AJ60" s="8"/>
+      <c r="AK60" s="8"/>
+      <c r="AL60" s="8"/>
+      <c r="AM60" s="7"/>
+      <c r="AN60" s="7"/>
+    </row>
+    <row r="61" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="8"/>
+      <c r="R61" s="8"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="8"/>
+      <c r="V61" s="8"/>
+      <c r="W61" s="8"/>
+      <c r="X61" s="8"/>
+      <c r="Y61" s="8"/>
+      <c r="Z61" s="8"/>
+      <c r="AA61" s="8"/>
+      <c r="AB61" s="8"/>
+      <c r="AC61" s="8"/>
+      <c r="AD61" s="8"/>
+      <c r="AE61" s="8"/>
+      <c r="AF61" s="8"/>
+      <c r="AG61" s="8"/>
+      <c r="AH61" s="8"/>
+      <c r="AI61" s="8"/>
+      <c r="AJ61" s="8"/>
+      <c r="AK61" s="8"/>
+      <c r="AL61" s="8"/>
+      <c r="AM61" s="7"/>
+      <c r="AN61" s="7"/>
+    </row>
+    <row r="62" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="8"/>
+      <c r="R62" s="8"/>
+      <c r="S62" s="8"/>
+      <c r="T62" s="8"/>
+      <c r="U62" s="8"/>
+      <c r="V62" s="8"/>
+      <c r="W62" s="8"/>
+      <c r="X62" s="8"/>
+      <c r="Y62" s="8"/>
+      <c r="Z62" s="8"/>
+      <c r="AA62" s="8"/>
+      <c r="AB62" s="8"/>
+      <c r="AC62" s="8"/>
+      <c r="AD62" s="8"/>
+      <c r="AE62" s="8"/>
+      <c r="AF62" s="8"/>
+      <c r="AG62" s="8"/>
+      <c r="AH62" s="8"/>
+      <c r="AI62" s="8"/>
+      <c r="AJ62" s="8"/>
+      <c r="AK62" s="8"/>
+      <c r="AL62" s="8"/>
+      <c r="AM62" s="7"/>
+      <c r="AN62" s="7"/>
+    </row>
+    <row r="63" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="8"/>
+      <c r="R63" s="8"/>
+      <c r="S63" s="8"/>
+      <c r="T63" s="8"/>
+      <c r="U63" s="8"/>
+      <c r="V63" s="8"/>
+      <c r="W63" s="8"/>
+      <c r="X63" s="8"/>
+      <c r="Y63" s="8"/>
+      <c r="Z63" s="8"/>
+      <c r="AA63" s="8"/>
+      <c r="AB63" s="8"/>
+      <c r="AC63" s="8"/>
+      <c r="AD63" s="8"/>
+      <c r="AE63" s="8"/>
+      <c r="AF63" s="8"/>
+      <c r="AG63" s="8"/>
+      <c r="AH63" s="8"/>
+      <c r="AI63" s="8"/>
+      <c r="AJ63" s="8"/>
+      <c r="AK63" s="8"/>
+      <c r="AL63" s="8"/>
+      <c r="AM63" s="7"/>
+      <c r="AN63" s="7"/>
+    </row>
+    <row r="64" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="8"/>
+      <c r="R64" s="8"/>
+      <c r="S64" s="8"/>
+      <c r="T64" s="8"/>
+      <c r="U64" s="8"/>
+      <c r="V64" s="8"/>
+      <c r="W64" s="8"/>
+      <c r="X64" s="8"/>
+      <c r="Y64" s="8"/>
+      <c r="Z64" s="8"/>
+      <c r="AA64" s="8"/>
+      <c r="AB64" s="8"/>
+      <c r="AC64" s="8"/>
+      <c r="AD64" s="8"/>
+      <c r="AE64" s="8"/>
+      <c r="AF64" s="8"/>
+      <c r="AG64" s="8"/>
+      <c r="AH64" s="8"/>
+      <c r="AI64" s="8"/>
+      <c r="AJ64" s="8"/>
+      <c r="AK64" s="8"/>
+      <c r="AL64" s="8"/>
+      <c r="AM64" s="7"/>
+      <c r="AN64" s="7"/>
+    </row>
+    <row r="65" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="8"/>
+      <c r="U65" s="8"/>
+      <c r="V65" s="8"/>
+      <c r="W65" s="8"/>
+      <c r="X65" s="8"/>
+      <c r="Y65" s="8"/>
+      <c r="Z65" s="8"/>
+      <c r="AA65" s="8"/>
+      <c r="AB65" s="8"/>
+      <c r="AC65" s="8"/>
+      <c r="AD65" s="8"/>
+      <c r="AE65" s="8"/>
+      <c r="AF65" s="8"/>
+      <c r="AG65" s="8"/>
+      <c r="AH65" s="8"/>
+      <c r="AI65" s="8"/>
+      <c r="AJ65" s="8"/>
+      <c r="AK65" s="8"/>
+      <c r="AL65" s="8"/>
+      <c r="AM65" s="7"/>
+      <c r="AN65" s="7"/>
+    </row>
+    <row r="66" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="8"/>
+      <c r="V66" s="8"/>
+      <c r="W66" s="8"/>
+      <c r="X66" s="8"/>
+      <c r="Y66" s="8"/>
+      <c r="Z66" s="8"/>
+      <c r="AA66" s="8"/>
+      <c r="AB66" s="8"/>
+      <c r="AC66" s="8"/>
+      <c r="AD66" s="8"/>
+      <c r="AE66" s="8"/>
+      <c r="AF66" s="8"/>
+      <c r="AG66" s="8"/>
+      <c r="AH66" s="8"/>
+      <c r="AI66" s="8"/>
+      <c r="AJ66" s="8"/>
+      <c r="AK66" s="8"/>
+      <c r="AL66" s="8"/>
+      <c r="AM66" s="7"/>
+      <c r="AN66" s="7"/>
+    </row>
+    <row r="67" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="8"/>
+      <c r="R67" s="8"/>
+      <c r="S67" s="8"/>
+      <c r="T67" s="8"/>
+      <c r="U67" s="8"/>
+      <c r="V67" s="8"/>
+      <c r="W67" s="8"/>
+      <c r="X67" s="8"/>
+      <c r="Y67" s="8"/>
+      <c r="Z67" s="8"/>
+      <c r="AA67" s="8"/>
+      <c r="AB67" s="8"/>
+      <c r="AC67" s="8"/>
+      <c r="AD67" s="8"/>
+      <c r="AE67" s="8"/>
+      <c r="AF67" s="8"/>
+      <c r="AG67" s="8"/>
+      <c r="AH67" s="8"/>
+      <c r="AI67" s="8"/>
+      <c r="AJ67" s="8"/>
+      <c r="AK67" s="8"/>
+      <c r="AL67" s="8"/>
+      <c r="AM67" s="7"/>
+      <c r="AN67" s="7"/>
+    </row>
+    <row r="68" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="8"/>
+      <c r="O68" s="8"/>
+      <c r="P68" s="8"/>
+      <c r="Q68" s="8"/>
+      <c r="R68" s="8"/>
+      <c r="S68" s="8"/>
+      <c r="T68" s="8"/>
+      <c r="U68" s="8"/>
+      <c r="V68" s="8"/>
+      <c r="W68" s="8"/>
+      <c r="X68" s="8"/>
+      <c r="Y68" s="8"/>
+      <c r="Z68" s="8"/>
+      <c r="AA68" s="8"/>
+      <c r="AB68" s="8"/>
+      <c r="AC68" s="8"/>
+      <c r="AD68" s="8"/>
+      <c r="AE68" s="8"/>
+      <c r="AF68" s="8"/>
+      <c r="AG68" s="8"/>
+      <c r="AH68" s="8"/>
+      <c r="AI68" s="8"/>
+      <c r="AJ68" s="8"/>
+      <c r="AK68" s="8"/>
+      <c r="AL68" s="8"/>
+      <c r="AM68" s="7"/>
+      <c r="AN68" s="7"/>
+    </row>
+    <row r="69" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="8"/>
+      <c r="P69" s="8"/>
+      <c r="Q69" s="8"/>
+      <c r="R69" s="8"/>
+      <c r="S69" s="8"/>
+      <c r="T69" s="8"/>
+      <c r="U69" s="8"/>
+      <c r="V69" s="8"/>
+      <c r="W69" s="8"/>
+      <c r="X69" s="8"/>
+      <c r="Y69" s="8"/>
+      <c r="Z69" s="8"/>
+      <c r="AA69" s="8"/>
+      <c r="AB69" s="8"/>
+      <c r="AC69" s="8"/>
+      <c r="AD69" s="8"/>
+      <c r="AE69" s="8"/>
+      <c r="AF69" s="8"/>
+      <c r="AG69" s="8"/>
+      <c r="AH69" s="8"/>
+      <c r="AI69" s="8"/>
+      <c r="AJ69" s="8"/>
+      <c r="AK69" s="8"/>
+      <c r="AL69" s="8"/>
+      <c r="AM69" s="7"/>
+      <c r="AN69" s="7"/>
+    </row>
+    <row r="70" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="8"/>
+      <c r="O70" s="8"/>
+      <c r="P70" s="8"/>
+      <c r="Q70" s="8"/>
+      <c r="R70" s="8"/>
+      <c r="S70" s="8"/>
+      <c r="T70" s="8"/>
+      <c r="U70" s="8"/>
+      <c r="V70" s="8"/>
+      <c r="W70" s="8"/>
+      <c r="X70" s="8"/>
+      <c r="Y70" s="8"/>
+      <c r="Z70" s="8"/>
+      <c r="AA70" s="8"/>
+      <c r="AB70" s="8"/>
+      <c r="AC70" s="8"/>
+      <c r="AD70" s="8"/>
+      <c r="AE70" s="8"/>
+      <c r="AF70" s="8"/>
+      <c r="AG70" s="8"/>
+      <c r="AH70" s="8"/>
+      <c r="AI70" s="8"/>
+      <c r="AJ70" s="8"/>
+      <c r="AK70" s="8"/>
+      <c r="AL70" s="8"/>
+      <c r="AM70" s="7"/>
+      <c r="AN70" s="7"/>
+    </row>
+    <row r="71" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
+      <c r="Q71" s="8"/>
+      <c r="R71" s="8"/>
+      <c r="S71" s="8"/>
+      <c r="T71" s="8"/>
+      <c r="U71" s="8"/>
+      <c r="V71" s="8"/>
+      <c r="W71" s="8"/>
+      <c r="X71" s="8"/>
+      <c r="Y71" s="8"/>
+      <c r="Z71" s="8"/>
+      <c r="AA71" s="8"/>
+      <c r="AB71" s="8"/>
+      <c r="AC71" s="8"/>
+      <c r="AD71" s="8"/>
+      <c r="AE71" s="8"/>
+      <c r="AF71" s="8"/>
+      <c r="AG71" s="8"/>
+      <c r="AH71" s="8"/>
+      <c r="AI71" s="8"/>
+      <c r="AJ71" s="8"/>
+      <c r="AK71" s="8"/>
+      <c r="AL71" s="8"/>
+      <c r="AM71" s="7"/>
+      <c r="AN71" s="7"/>
+    </row>
+    <row r="72" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="8"/>
+      <c r="P72" s="8"/>
+      <c r="Q72" s="8"/>
+      <c r="R72" s="8"/>
+      <c r="S72" s="8"/>
+      <c r="T72" s="8"/>
+      <c r="U72" s="8"/>
+      <c r="V72" s="8"/>
+      <c r="W72" s="8"/>
+      <c r="X72" s="8"/>
+      <c r="Y72" s="8"/>
+      <c r="Z72" s="8"/>
+      <c r="AA72" s="8"/>
+      <c r="AB72" s="8"/>
+      <c r="AC72" s="8"/>
+      <c r="AD72" s="8"/>
+      <c r="AE72" s="8"/>
+      <c r="AF72" s="8"/>
+      <c r="AG72" s="8"/>
+      <c r="AH72" s="8"/>
+      <c r="AI72" s="8"/>
+      <c r="AJ72" s="8"/>
+      <c r="AK72" s="8"/>
+      <c r="AL72" s="8"/>
+      <c r="AM72" s="7"/>
+      <c r="AN72" s="7"/>
+    </row>
+    <row r="73" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="8"/>
+      <c r="P73" s="8"/>
+      <c r="Q73" s="8"/>
+      <c r="R73" s="8"/>
+      <c r="S73" s="8"/>
+      <c r="T73" s="8"/>
+      <c r="U73" s="8"/>
+      <c r="V73" s="8"/>
+      <c r="W73" s="8"/>
+      <c r="X73" s="8"/>
+      <c r="Y73" s="8"/>
+      <c r="Z73" s="8"/>
+      <c r="AA73" s="8"/>
+      <c r="AB73" s="8"/>
+      <c r="AC73" s="8"/>
+      <c r="AD73" s="8"/>
+      <c r="AE73" s="8"/>
+      <c r="AF73" s="8"/>
+      <c r="AG73" s="8"/>
+      <c r="AH73" s="8"/>
+      <c r="AI73" s="8"/>
+      <c r="AJ73" s="8"/>
+      <c r="AK73" s="8"/>
+      <c r="AL73" s="8"/>
+      <c r="AM73" s="7"/>
+      <c r="AN73" s="7"/>
+    </row>
+    <row r="74" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="6"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="10"/>
+      <c r="R74" s="10"/>
+      <c r="S74" s="10"/>
+      <c r="T74" s="10"/>
+      <c r="U74" s="10"/>
+      <c r="V74" s="10"/>
+      <c r="W74" s="10"/>
+      <c r="X74" s="10"/>
+      <c r="Y74" s="10"/>
+      <c r="Z74" s="10"/>
+      <c r="AA74" s="10"/>
+      <c r="AB74" s="10"/>
+      <c r="AC74" s="10"/>
+      <c r="AD74" s="10"/>
+      <c r="AE74" s="10"/>
+      <c r="AF74" s="10"/>
+      <c r="AG74" s="10"/>
+      <c r="AH74" s="10"/>
+      <c r="AI74" s="10"/>
+      <c r="AJ74" s="10"/>
+      <c r="AK74" s="10"/>
+      <c r="AL74" s="10"/>
+      <c r="AM74" s="11"/>
+      <c r="AN74" s="7"/>
+    </row>
+    <row r="75" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="9"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="10"/>
+      <c r="R75" s="10"/>
+      <c r="S75" s="10"/>
+      <c r="T75" s="10"/>
+      <c r="U75" s="10"/>
+      <c r="V75" s="10"/>
+      <c r="W75" s="10"/>
+      <c r="X75" s="10"/>
+      <c r="Y75" s="10"/>
+      <c r="Z75" s="10"/>
+      <c r="AA75" s="10"/>
+      <c r="AB75" s="10"/>
+      <c r="AC75" s="10"/>
+      <c r="AD75" s="10"/>
+      <c r="AE75" s="10"/>
+      <c r="AF75" s="10"/>
+      <c r="AG75" s="10"/>
+      <c r="AH75" s="10"/>
+      <c r="AI75" s="10"/>
+      <c r="AJ75" s="10"/>
+      <c r="AK75" s="10"/>
+      <c r="AL75" s="10"/>
+      <c r="AM75" s="10"/>
+      <c r="AN75" s="11"/>
+    </row>
+    <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="3"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="4"/>
+      <c r="S76" s="4"/>
+      <c r="T76" s="4"/>
+      <c r="U76" s="4"/>
+      <c r="V76" s="4"/>
+      <c r="W76" s="4"/>
+      <c r="X76" s="4"/>
+      <c r="Y76" s="4"/>
+      <c r="Z76" s="4"/>
+      <c r="AA76" s="4"/>
+      <c r="AB76" s="4"/>
+      <c r="AC76" s="4"/>
+      <c r="AD76" s="4"/>
+      <c r="AE76" s="4"/>
+      <c r="AF76" s="4"/>
+      <c r="AG76" s="4"/>
+      <c r="AH76" s="4"/>
+      <c r="AI76" s="4"/>
+      <c r="AJ76" s="4"/>
+      <c r="AK76" s="4"/>
+      <c r="AL76" s="4"/>
+      <c r="AM76" s="4"/>
+      <c r="AN76" s="5"/>
+    </row>
+    <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="6"/>
+      <c r="B77" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="4"/>
+      <c r="S77" s="4"/>
+      <c r="T77" s="4"/>
+      <c r="U77" s="4"/>
+      <c r="V77" s="4"/>
+      <c r="W77" s="4"/>
+      <c r="X77" s="4"/>
+      <c r="Y77" s="4"/>
+      <c r="Z77" s="4"/>
+      <c r="AA77" s="4"/>
+      <c r="AB77" s="4"/>
+      <c r="AC77" s="4"/>
+      <c r="AD77" s="4"/>
+      <c r="AE77" s="4"/>
+      <c r="AF77" s="4"/>
+      <c r="AG77" s="4"/>
+      <c r="AH77" s="4"/>
+      <c r="AI77" s="4"/>
+      <c r="AJ77" s="4"/>
+      <c r="AK77" s="4"/>
+      <c r="AL77" s="4"/>
+      <c r="AM77" s="5"/>
+      <c r="AN77" s="7"/>
+    </row>
+    <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="2"/>
+      <c r="X78" s="2"/>
+      <c r="Y78" s="2"/>
+      <c r="Z78" s="2"/>
+      <c r="AA78" s="2"/>
+      <c r="AB78" s="2"/>
+      <c r="AC78" s="2"/>
+      <c r="AD78" s="2"/>
+      <c r="AE78" s="2"/>
+      <c r="AF78" s="2"/>
+      <c r="AG78" s="2"/>
+      <c r="AH78" s="2"/>
+      <c r="AI78" s="2"/>
+      <c r="AJ78" s="2"/>
+      <c r="AK78" s="2"/>
+      <c r="AL78" s="2"/>
+      <c r="AM78" s="7"/>
+      <c r="AN78" s="7"/>
+    </row>
+    <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="6"/>
+      <c r="B79" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="13"/>
+      <c r="D79" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79" s="16"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="17"/>
+      <c r="L79" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M79" s="15"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="P79" s="15"/>
+      <c r="Q79" s="15"/>
+      <c r="R79" s="17"/>
+      <c r="S79" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="T79" s="17"/>
+      <c r="U79" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="V79" s="17"/>
+      <c r="W79" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="X79" s="15"/>
+      <c r="Y79" s="15"/>
+      <c r="Z79" s="17"/>
+      <c r="AA79" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB79" s="15"/>
+      <c r="AC79" s="17"/>
+      <c r="AD79" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE79" s="15"/>
+      <c r="AF79" s="15"/>
+      <c r="AG79" s="15"/>
+      <c r="AH79" s="15"/>
+      <c r="AI79" s="15"/>
+      <c r="AJ79" s="15"/>
+      <c r="AK79" s="15"/>
+      <c r="AL79" s="15"/>
+      <c r="AM79" s="18"/>
+      <c r="AN79" s="7"/>
+    </row>
+    <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="6"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="13">
+        <v>1</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="I80" s="16"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="17"/>
+      <c r="L80" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="M80" s="15"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P80" s="15"/>
+      <c r="Q80" s="15"/>
+      <c r="R80" s="17"/>
+      <c r="S80" s="14"/>
+      <c r="T80" s="17"/>
+      <c r="U80" s="14"/>
+      <c r="V80" s="17"/>
+      <c r="W80" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="X80" s="15"/>
+      <c r="Y80" s="15"/>
+      <c r="Z80" s="17"/>
+      <c r="AA80" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB80" s="15"/>
+      <c r="AC80" s="17"/>
+      <c r="AD80" s="14"/>
+      <c r="AE80" s="15"/>
+      <c r="AF80" s="15"/>
+      <c r="AG80" s="15"/>
+      <c r="AH80" s="15"/>
+      <c r="AI80" s="15"/>
+      <c r="AJ80" s="15"/>
+      <c r="AK80" s="15"/>
+      <c r="AL80" s="15"/>
+      <c r="AM80" s="18"/>
+      <c r="AN80" s="7"/>
+    </row>
+    <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="6"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="13">
+        <v>2</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="I81" s="16"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="17"/>
+      <c r="L81" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="M81" s="15"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="P81" s="15"/>
+      <c r="Q81" s="15"/>
+      <c r="R81" s="17"/>
+      <c r="S81" s="14">
+        <v>0</v>
+      </c>
+      <c r="T81" s="17"/>
+      <c r="U81" s="14">
+        <v>20</v>
+      </c>
+      <c r="V81" s="17"/>
+      <c r="W81" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="X81" s="15"/>
+      <c r="Y81" s="15"/>
+      <c r="Z81" s="17"/>
+      <c r="AA81" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB81" s="15"/>
+      <c r="AC81" s="17"/>
+      <c r="AD81" s="14"/>
+      <c r="AE81" s="15"/>
+      <c r="AF81" s="15"/>
+      <c r="AG81" s="15"/>
+      <c r="AH81" s="15"/>
+      <c r="AI81" s="15"/>
+      <c r="AJ81" s="15"/>
+      <c r="AK81" s="15"/>
+      <c r="AL81" s="15"/>
+      <c r="AM81" s="18"/>
+      <c r="AN81" s="7"/>
+    </row>
+    <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="6"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="13">
+        <v>3</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="I82" s="16"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="M82" s="15"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="14"/>
+      <c r="P82" s="15"/>
+      <c r="Q82" s="15"/>
+      <c r="R82" s="17"/>
+      <c r="S82" s="14"/>
+      <c r="T82" s="17"/>
+      <c r="U82" s="14"/>
+      <c r="V82" s="17"/>
+      <c r="W82" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="X82" s="15"/>
+      <c r="Y82" s="15"/>
+      <c r="Z82" s="17"/>
+      <c r="AA82" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB82" s="15"/>
+      <c r="AC82" s="17"/>
+      <c r="AD82" s="14"/>
+      <c r="AE82" s="15"/>
+      <c r="AF82" s="15"/>
+      <c r="AG82" s="15"/>
+      <c r="AH82" s="15"/>
+      <c r="AI82" s="15"/>
+      <c r="AJ82" s="15"/>
+      <c r="AK82" s="15"/>
+      <c r="AL82" s="15"/>
+      <c r="AM82" s="18"/>
+      <c r="AN82" s="7"/>
+    </row>
+    <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="6"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="13">
+        <v>4</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="I83" s="16"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="17"/>
+      <c r="L83" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="M83" s="15"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="P83" s="15"/>
+      <c r="Q83" s="15"/>
+      <c r="R83" s="17"/>
+      <c r="S83" s="14">
+        <v>0</v>
+      </c>
+      <c r="T83" s="17"/>
+      <c r="U83" s="14">
+        <v>365</v>
+      </c>
+      <c r="V83" s="17"/>
+      <c r="W83" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="X83" s="15"/>
+      <c r="Y83" s="15"/>
+      <c r="Z83" s="17"/>
+      <c r="AA83" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB83" s="15"/>
+      <c r="AC83" s="17"/>
+      <c r="AD83" s="14"/>
+      <c r="AE83" s="15"/>
+      <c r="AF83" s="15"/>
+      <c r="AG83" s="15"/>
+      <c r="AH83" s="15"/>
+      <c r="AI83" s="15"/>
+      <c r="AJ83" s="15"/>
+      <c r="AK83" s="15"/>
+      <c r="AL83" s="15"/>
+      <c r="AM83" s="18"/>
+      <c r="AN83" s="7"/>
+    </row>
+    <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="6"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="13">
+        <v>5</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I84" s="16"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="17"/>
+      <c r="L84" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="M84" s="15"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P84" s="15"/>
+      <c r="Q84" s="15"/>
+      <c r="R84" s="17"/>
+      <c r="S84" s="14"/>
+      <c r="T84" s="17"/>
+      <c r="U84" s="14"/>
+      <c r="V84" s="17"/>
+      <c r="W84" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="X84" s="15"/>
+      <c r="Y84" s="15"/>
+      <c r="Z84" s="17"/>
+      <c r="AA84" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB84" s="15"/>
+      <c r="AC84" s="17"/>
+      <c r="AD84" s="14"/>
+      <c r="AE84" s="15"/>
+      <c r="AF84" s="15"/>
+      <c r="AG84" s="15"/>
+      <c r="AH84" s="15"/>
+      <c r="AI84" s="15"/>
+      <c r="AJ84" s="15"/>
+      <c r="AK84" s="15"/>
+      <c r="AL84" s="15"/>
+      <c r="AM84" s="18"/>
+      <c r="AN84" s="7"/>
+    </row>
+    <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="6"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="13">
+        <v>6</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="I85" s="16"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="17"/>
+      <c r="L85" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="M85" s="15"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P85" s="15"/>
+      <c r="Q85" s="15"/>
+      <c r="R85" s="17"/>
+      <c r="S85" s="14"/>
+      <c r="T85" s="17"/>
+      <c r="U85" s="14"/>
+      <c r="V85" s="17"/>
+      <c r="W85" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="X85" s="15"/>
+      <c r="Y85" s="15"/>
+      <c r="Z85" s="17"/>
+      <c r="AA85" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB85" s="15"/>
+      <c r="AC85" s="17"/>
+      <c r="AD85" s="14"/>
+      <c r="AE85" s="15"/>
+      <c r="AF85" s="15"/>
+      <c r="AG85" s="15"/>
+      <c r="AH85" s="15"/>
+      <c r="AI85" s="15"/>
+      <c r="AJ85" s="15"/>
+      <c r="AK85" s="15"/>
+      <c r="AL85" s="15"/>
+      <c r="AM85" s="18"/>
+      <c r="AN85" s="7"/>
+    </row>
+    <row r="86" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="6"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="13">
+        <v>7</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="I86" s="16"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="17"/>
+      <c r="L86" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="M86" s="15"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="14"/>
+      <c r="P86" s="15"/>
+      <c r="Q86" s="15"/>
+      <c r="R86" s="17"/>
+      <c r="S86" s="14"/>
+      <c r="T86" s="17"/>
+      <c r="U86" s="14"/>
+      <c r="V86" s="17"/>
+      <c r="W86" s="14"/>
+      <c r="X86" s="15"/>
+      <c r="Y86" s="15"/>
+      <c r="Z86" s="17"/>
+      <c r="AA86" s="14"/>
+      <c r="AB86" s="15"/>
+      <c r="AC86" s="17"/>
+      <c r="AD86" s="14"/>
+      <c r="AE86" s="15"/>
+      <c r="AF86" s="15"/>
+      <c r="AG86" s="15"/>
+      <c r="AH86" s="15"/>
+      <c r="AI86" s="15"/>
+      <c r="AJ86" s="15"/>
+      <c r="AK86" s="15"/>
+      <c r="AL86" s="15"/>
+      <c r="AM86" s="18"/>
+      <c r="AN86" s="7"/>
+    </row>
+    <row r="87" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="6"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="13">
+        <v>8</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="I87" s="16"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="17"/>
+      <c r="L87" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="M87" s="15"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="14"/>
+      <c r="P87" s="15"/>
+      <c r="Q87" s="15"/>
+      <c r="R87" s="17"/>
+      <c r="S87" s="14"/>
+      <c r="T87" s="17"/>
+      <c r="U87" s="14"/>
+      <c r="V87" s="17"/>
+      <c r="W87" s="14"/>
+      <c r="X87" s="15"/>
+      <c r="Y87" s="15"/>
+      <c r="Z87" s="17"/>
+      <c r="AA87" s="14"/>
+      <c r="AB87" s="15"/>
+      <c r="AC87" s="17"/>
+      <c r="AD87" s="14"/>
+      <c r="AE87" s="15"/>
+      <c r="AF87" s="15"/>
+      <c r="AG87" s="15"/>
+      <c r="AH87" s="15"/>
+      <c r="AI87" s="15"/>
+      <c r="AJ87" s="15"/>
+      <c r="AK87" s="15"/>
+      <c r="AL87" s="15"/>
+      <c r="AM87" s="18"/>
+      <c r="AN87" s="7"/>
+    </row>
+    <row r="88" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="6"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="16"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="14"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="14"/>
+      <c r="P88" s="15"/>
+      <c r="Q88" s="15"/>
+      <c r="R88" s="17"/>
+      <c r="S88" s="14"/>
+      <c r="T88" s="17"/>
+      <c r="U88" s="14"/>
+      <c r="V88" s="17"/>
+      <c r="W88" s="14"/>
+      <c r="X88" s="15"/>
+      <c r="Y88" s="15"/>
+      <c r="Z88" s="17"/>
+      <c r="AA88" s="14"/>
+      <c r="AB88" s="15"/>
+      <c r="AC88" s="17"/>
+      <c r="AD88" s="14"/>
+      <c r="AE88" s="15"/>
+      <c r="AF88" s="15"/>
+      <c r="AG88" s="15"/>
+      <c r="AH88" s="15"/>
+      <c r="AI88" s="15"/>
+      <c r="AJ88" s="15"/>
+      <c r="AK88" s="15"/>
+      <c r="AL88" s="15"/>
+      <c r="AM88" s="18"/>
+      <c r="AN88" s="7"/>
+    </row>
+    <row r="89" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="6"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="16"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="17"/>
+      <c r="L89" s="14"/>
+      <c r="M89" s="15"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="14"/>
+      <c r="P89" s="15"/>
+      <c r="Q89" s="15"/>
+      <c r="R89" s="17"/>
+      <c r="S89" s="14"/>
+      <c r="T89" s="17"/>
+      <c r="U89" s="14"/>
+      <c r="V89" s="17"/>
+      <c r="W89" s="14"/>
+      <c r="X89" s="15"/>
+      <c r="Y89" s="15"/>
+      <c r="Z89" s="17"/>
+      <c r="AA89" s="14"/>
+      <c r="AB89" s="15"/>
+      <c r="AC89" s="17"/>
+      <c r="AD89" s="14"/>
+      <c r="AE89" s="15"/>
+      <c r="AF89" s="15"/>
+      <c r="AG89" s="15"/>
+      <c r="AH89" s="15"/>
+      <c r="AI89" s="15"/>
+      <c r="AJ89" s="15"/>
+      <c r="AK89" s="15"/>
+      <c r="AL89" s="15"/>
+      <c r="AM89" s="18"/>
+      <c r="AN89" s="7"/>
+    </row>
+    <row r="90" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="6"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="16"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="17"/>
+      <c r="L90" s="14"/>
+      <c r="M90" s="15"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="14"/>
+      <c r="P90" s="15"/>
+      <c r="Q90" s="15"/>
+      <c r="R90" s="17"/>
+      <c r="S90" s="14"/>
+      <c r="T90" s="17"/>
+      <c r="U90" s="14"/>
+      <c r="V90" s="17"/>
+      <c r="W90" s="14"/>
+      <c r="X90" s="15"/>
+      <c r="Y90" s="15"/>
+      <c r="Z90" s="17"/>
+      <c r="AA90" s="14"/>
+      <c r="AB90" s="15"/>
+      <c r="AC90" s="17"/>
+      <c r="AD90" s="14"/>
+      <c r="AE90" s="15"/>
+      <c r="AF90" s="15"/>
+      <c r="AG90" s="15"/>
+      <c r="AH90" s="15"/>
+      <c r="AI90" s="15"/>
+      <c r="AJ90" s="15"/>
+      <c r="AK90" s="15"/>
+      <c r="AL90" s="15"/>
+      <c r="AM90" s="18"/>
+      <c r="AN90" s="7"/>
+    </row>
+    <row r="91" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="6"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="16"/>
+      <c r="J91" s="15"/>
+      <c r="K91" s="17"/>
+      <c r="L91" s="14"/>
+      <c r="M91" s="15"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="14"/>
+      <c r="P91" s="15"/>
+      <c r="Q91" s="15"/>
+      <c r="R91" s="17"/>
+      <c r="S91" s="14"/>
+      <c r="T91" s="17"/>
+      <c r="U91" s="14"/>
+      <c r="V91" s="17"/>
+      <c r="W91" s="14"/>
+      <c r="X91" s="15"/>
+      <c r="Y91" s="15"/>
+      <c r="Z91" s="17"/>
+      <c r="AA91" s="14"/>
+      <c r="AB91" s="15"/>
+      <c r="AC91" s="17"/>
+      <c r="AD91" s="14"/>
+      <c r="AE91" s="15"/>
+      <c r="AF91" s="15"/>
+      <c r="AG91" s="15"/>
+      <c r="AH91" s="15"/>
+      <c r="AI91" s="15"/>
+      <c r="AJ91" s="15"/>
+      <c r="AK91" s="15"/>
+      <c r="AL91" s="15"/>
+      <c r="AM91" s="18"/>
+      <c r="AN91" s="7"/>
+    </row>
+    <row r="92" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="6"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="16"/>
+      <c r="J92" s="15"/>
+      <c r="K92" s="17"/>
+      <c r="L92" s="14"/>
+      <c r="M92" s="15"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="14"/>
+      <c r="P92" s="15"/>
+      <c r="Q92" s="15"/>
+      <c r="R92" s="17"/>
+      <c r="S92" s="14"/>
+      <c r="T92" s="17"/>
+      <c r="U92" s="14"/>
+      <c r="V92" s="17"/>
+      <c r="W92" s="14"/>
+      <c r="X92" s="15"/>
+      <c r="Y92" s="15"/>
+      <c r="Z92" s="17"/>
+      <c r="AA92" s="14"/>
+      <c r="AB92" s="15"/>
+      <c r="AC92" s="17"/>
+      <c r="AD92" s="14"/>
+      <c r="AE92" s="15"/>
+      <c r="AF92" s="15"/>
+      <c r="AG92" s="15"/>
+      <c r="AH92" s="15"/>
+      <c r="AI92" s="15"/>
+      <c r="AJ92" s="15"/>
+      <c r="AK92" s="15"/>
+      <c r="AL92" s="15"/>
+      <c r="AM92" s="18"/>
+      <c r="AN92" s="7"/>
+    </row>
+    <row r="93" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="6"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="16"/>
+      <c r="J93" s="15"/>
+      <c r="K93" s="17"/>
+      <c r="L93" s="14"/>
+      <c r="M93" s="15"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="14"/>
+      <c r="P93" s="15"/>
+      <c r="Q93" s="15"/>
+      <c r="R93" s="17"/>
+      <c r="S93" s="14"/>
+      <c r="T93" s="17"/>
+      <c r="U93" s="14"/>
+      <c r="V93" s="17"/>
+      <c r="W93" s="14"/>
+      <c r="X93" s="15"/>
+      <c r="Y93" s="15"/>
+      <c r="Z93" s="17"/>
+      <c r="AA93" s="14"/>
+      <c r="AB93" s="15"/>
+      <c r="AC93" s="17"/>
+      <c r="AD93" s="14"/>
+      <c r="AE93" s="15"/>
+      <c r="AF93" s="15"/>
+      <c r="AG93" s="15"/>
+      <c r="AH93" s="15"/>
+      <c r="AI93" s="15"/>
+      <c r="AJ93" s="15"/>
+      <c r="AK93" s="15"/>
+      <c r="AL93" s="15"/>
+      <c r="AM93" s="18"/>
+      <c r="AN93" s="7"/>
+    </row>
+    <row r="94" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="6"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="16"/>
+      <c r="J94" s="15"/>
+      <c r="K94" s="17"/>
+      <c r="L94" s="14"/>
+      <c r="M94" s="15"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="14"/>
+      <c r="P94" s="15"/>
+      <c r="Q94" s="15"/>
+      <c r="R94" s="17"/>
+      <c r="S94" s="14"/>
+      <c r="T94" s="17"/>
+      <c r="U94" s="14"/>
+      <c r="V94" s="17"/>
+      <c r="W94" s="14"/>
+      <c r="X94" s="15"/>
+      <c r="Y94" s="15"/>
+      <c r="Z94" s="17"/>
+      <c r="AA94" s="14"/>
+      <c r="AB94" s="15"/>
+      <c r="AC94" s="17"/>
+      <c r="AD94" s="14"/>
+      <c r="AE94" s="15"/>
+      <c r="AF94" s="15"/>
+      <c r="AG94" s="15"/>
+      <c r="AH94" s="15"/>
+      <c r="AI94" s="15"/>
+      <c r="AJ94" s="15"/>
+      <c r="AK94" s="15"/>
+      <c r="AL94" s="15"/>
+      <c r="AM94" s="18"/>
+      <c r="AN94" s="7"/>
+    </row>
+    <row r="95" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="6"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="16"/>
+      <c r="J95" s="15"/>
+      <c r="K95" s="17"/>
+      <c r="L95" s="14"/>
+      <c r="M95" s="15"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="14"/>
+      <c r="P95" s="15"/>
+      <c r="Q95" s="15"/>
+      <c r="R95" s="17"/>
+      <c r="S95" s="14"/>
+      <c r="T95" s="17"/>
+      <c r="U95" s="14"/>
+      <c r="V95" s="17"/>
+      <c r="W95" s="14"/>
+      <c r="X95" s="15"/>
+      <c r="Y95" s="15"/>
+      <c r="Z95" s="17"/>
+      <c r="AA95" s="14"/>
+      <c r="AB95" s="15"/>
+      <c r="AC95" s="17"/>
+      <c r="AD95" s="14"/>
+      <c r="AE95" s="15"/>
+      <c r="AF95" s="15"/>
+      <c r="AG95" s="15"/>
+      <c r="AH95" s="15"/>
+      <c r="AI95" s="15"/>
+      <c r="AJ95" s="15"/>
+      <c r="AK95" s="15"/>
+      <c r="AL95" s="15"/>
+      <c r="AM95" s="18"/>
+      <c r="AN95" s="7"/>
+    </row>
+    <row r="96" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="6"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="16"/>
+      <c r="J96" s="15"/>
+      <c r="K96" s="17"/>
+      <c r="L96" s="14"/>
+      <c r="M96" s="15"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="14"/>
+      <c r="P96" s="15"/>
+      <c r="Q96" s="15"/>
+      <c r="R96" s="17"/>
+      <c r="S96" s="14"/>
+      <c r="T96" s="17"/>
+      <c r="U96" s="14"/>
+      <c r="V96" s="17"/>
+      <c r="W96" s="14"/>
+      <c r="X96" s="15"/>
+      <c r="Y96" s="15"/>
+      <c r="Z96" s="17"/>
+      <c r="AA96" s="14"/>
+      <c r="AB96" s="15"/>
+      <c r="AC96" s="17"/>
+      <c r="AD96" s="14"/>
+      <c r="AE96" s="15"/>
+      <c r="AF96" s="15"/>
+      <c r="AG96" s="15"/>
+      <c r="AH96" s="15"/>
+      <c r="AI96" s="15"/>
+      <c r="AJ96" s="15"/>
+      <c r="AK96" s="15"/>
+      <c r="AL96" s="15"/>
+      <c r="AM96" s="18"/>
+      <c r="AN96" s="7"/>
+    </row>
+    <row r="97" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="6"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="16"/>
+      <c r="J97" s="15"/>
+      <c r="K97" s="17"/>
+      <c r="L97" s="14"/>
+      <c r="M97" s="15"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="14"/>
+      <c r="P97" s="15"/>
+      <c r="Q97" s="15"/>
+      <c r="R97" s="17"/>
+      <c r="S97" s="14"/>
+      <c r="T97" s="17"/>
+      <c r="U97" s="14"/>
+      <c r="V97" s="17"/>
+      <c r="W97" s="14"/>
+      <c r="X97" s="15"/>
+      <c r="Y97" s="15"/>
+      <c r="Z97" s="17"/>
+      <c r="AA97" s="14"/>
+      <c r="AB97" s="15"/>
+      <c r="AC97" s="17"/>
+      <c r="AD97" s="14"/>
+      <c r="AE97" s="15"/>
+      <c r="AF97" s="15"/>
+      <c r="AG97" s="15"/>
+      <c r="AH97" s="15"/>
+      <c r="AI97" s="15"/>
+      <c r="AJ97" s="15"/>
+      <c r="AK97" s="15"/>
+      <c r="AL97" s="15"/>
+      <c r="AM97" s="18"/>
+      <c r="AN97" s="7"/>
+    </row>
+    <row r="98" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="6"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="16"/>
+      <c r="J98" s="15"/>
+      <c r="K98" s="17"/>
+      <c r="L98" s="14"/>
+      <c r="M98" s="15"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="14"/>
+      <c r="P98" s="15"/>
+      <c r="Q98" s="15"/>
+      <c r="R98" s="17"/>
+      <c r="S98" s="14"/>
+      <c r="T98" s="17"/>
+      <c r="U98" s="14"/>
+      <c r="V98" s="17"/>
+      <c r="W98" s="14"/>
+      <c r="X98" s="15"/>
+      <c r="Y98" s="15"/>
+      <c r="Z98" s="17"/>
+      <c r="AA98" s="14"/>
+      <c r="AB98" s="15"/>
+      <c r="AC98" s="17"/>
+      <c r="AD98" s="14"/>
+      <c r="AE98" s="15"/>
+      <c r="AF98" s="15"/>
+      <c r="AG98" s="15"/>
+      <c r="AH98" s="15"/>
+      <c r="AI98" s="15"/>
+      <c r="AJ98" s="15"/>
+      <c r="AK98" s="15"/>
+      <c r="AL98" s="15"/>
+      <c r="AM98" s="18"/>
+      <c r="AN98" s="7"/>
+    </row>
+    <row r="99" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="6"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="16"/>
+      <c r="J99" s="15"/>
+      <c r="K99" s="17"/>
+      <c r="L99" s="14"/>
+      <c r="M99" s="15"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="14"/>
+      <c r="P99" s="15"/>
+      <c r="Q99" s="15"/>
+      <c r="R99" s="17"/>
+      <c r="S99" s="14"/>
+      <c r="T99" s="17"/>
+      <c r="U99" s="14"/>
+      <c r="V99" s="17"/>
+      <c r="W99" s="14"/>
+      <c r="X99" s="15"/>
+      <c r="Y99" s="15"/>
+      <c r="Z99" s="17"/>
+      <c r="AA99" s="14"/>
+      <c r="AB99" s="15"/>
+      <c r="AC99" s="17"/>
+      <c r="AD99" s="14"/>
+      <c r="AE99" s="15"/>
+      <c r="AF99" s="15"/>
+      <c r="AG99" s="15"/>
+      <c r="AH99" s="15"/>
+      <c r="AI99" s="15"/>
+      <c r="AJ99" s="15"/>
+      <c r="AK99" s="15"/>
+      <c r="AL99" s="15"/>
+      <c r="AM99" s="18"/>
+      <c r="AN99" s="7"/>
+    </row>
+    <row r="100" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="6"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="16"/>
+      <c r="J100" s="15"/>
+      <c r="K100" s="17"/>
+      <c r="L100" s="14"/>
+      <c r="M100" s="15"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="14"/>
+      <c r="P100" s="15"/>
+      <c r="Q100" s="15"/>
+      <c r="R100" s="17"/>
+      <c r="S100" s="14"/>
+      <c r="T100" s="17"/>
+      <c r="U100" s="14"/>
+      <c r="V100" s="17"/>
+      <c r="W100" s="14"/>
+      <c r="X100" s="15"/>
+      <c r="Y100" s="15"/>
+      <c r="Z100" s="17"/>
+      <c r="AA100" s="14"/>
+      <c r="AB100" s="15"/>
+      <c r="AC100" s="17"/>
+      <c r="AD100" s="14"/>
+      <c r="AE100" s="15"/>
+      <c r="AF100" s="15"/>
+      <c r="AG100" s="15"/>
+      <c r="AH100" s="15"/>
+      <c r="AI100" s="15"/>
+      <c r="AJ100" s="15"/>
+      <c r="AK100" s="15"/>
+      <c r="AL100" s="15"/>
+      <c r="AM100" s="18"/>
+      <c r="AN100" s="7"/>
+    </row>
+    <row r="101" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="6"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="16"/>
+      <c r="J101" s="15"/>
+      <c r="K101" s="17"/>
+      <c r="L101" s="14"/>
+      <c r="M101" s="15"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="14"/>
+      <c r="P101" s="15"/>
+      <c r="Q101" s="15"/>
+      <c r="R101" s="17"/>
+      <c r="S101" s="14"/>
+      <c r="T101" s="17"/>
+      <c r="U101" s="14"/>
+      <c r="V101" s="17"/>
+      <c r="W101" s="14"/>
+      <c r="X101" s="15"/>
+      <c r="Y101" s="15"/>
+      <c r="Z101" s="17"/>
+      <c r="AA101" s="14"/>
+      <c r="AB101" s="15"/>
+      <c r="AC101" s="17"/>
+      <c r="AD101" s="14"/>
+      <c r="AE101" s="15"/>
+      <c r="AF101" s="15"/>
+      <c r="AG101" s="15"/>
+      <c r="AH101" s="15"/>
+      <c r="AI101" s="15"/>
+      <c r="AJ101" s="15"/>
+      <c r="AK101" s="15"/>
+      <c r="AL101" s="15"/>
+      <c r="AM101" s="18"/>
+      <c r="AN101" s="7"/>
+    </row>
+    <row r="102" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="6"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="16"/>
+      <c r="J102" s="15"/>
+      <c r="K102" s="17"/>
+      <c r="L102" s="14"/>
+      <c r="M102" s="15"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="14"/>
+      <c r="P102" s="15"/>
+      <c r="Q102" s="15"/>
+      <c r="R102" s="17"/>
+      <c r="S102" s="14"/>
+      <c r="T102" s="17"/>
+      <c r="U102" s="14"/>
+      <c r="V102" s="17"/>
+      <c r="W102" s="14"/>
+      <c r="X102" s="15"/>
+      <c r="Y102" s="15"/>
+      <c r="Z102" s="17"/>
+      <c r="AA102" s="14"/>
+      <c r="AB102" s="15"/>
+      <c r="AC102" s="17"/>
+      <c r="AD102" s="14"/>
+      <c r="AE102" s="15"/>
+      <c r="AF102" s="15"/>
+      <c r="AG102" s="15"/>
+      <c r="AH102" s="15"/>
+      <c r="AI102" s="15"/>
+      <c r="AJ102" s="15"/>
+      <c r="AK102" s="15"/>
+      <c r="AL102" s="15"/>
+      <c r="AM102" s="18"/>
+      <c r="AN102" s="7"/>
+    </row>
+    <row r="103" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="6"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="16"/>
+      <c r="J103" s="15"/>
+      <c r="K103" s="17"/>
+      <c r="L103" s="14"/>
+      <c r="M103" s="15"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="14"/>
+      <c r="P103" s="15"/>
+      <c r="Q103" s="15"/>
+      <c r="R103" s="17"/>
+      <c r="S103" s="14"/>
+      <c r="T103" s="17"/>
+      <c r="U103" s="14"/>
+      <c r="V103" s="17"/>
+      <c r="W103" s="14"/>
+      <c r="X103" s="15"/>
+      <c r="Y103" s="15"/>
+      <c r="Z103" s="17"/>
+      <c r="AA103" s="14"/>
+      <c r="AB103" s="15"/>
+      <c r="AC103" s="17"/>
+      <c r="AD103" s="14"/>
+      <c r="AE103" s="15"/>
+      <c r="AF103" s="15"/>
+      <c r="AG103" s="15"/>
+      <c r="AH103" s="15"/>
+      <c r="AI103" s="15"/>
+      <c r="AJ103" s="15"/>
+      <c r="AK103" s="15"/>
+      <c r="AL103" s="15"/>
+      <c r="AM103" s="18"/>
+      <c r="AN103" s="7"/>
+    </row>
+    <row r="104" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="6"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="16"/>
+      <c r="J104" s="15"/>
+      <c r="K104" s="17"/>
+      <c r="L104" s="14"/>
+      <c r="M104" s="15"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="14"/>
+      <c r="P104" s="15"/>
+      <c r="Q104" s="15"/>
+      <c r="R104" s="17"/>
+      <c r="S104" s="14"/>
+      <c r="T104" s="17"/>
+      <c r="U104" s="14"/>
+      <c r="V104" s="17"/>
+      <c r="W104" s="14"/>
+      <c r="X104" s="15"/>
+      <c r="Y104" s="15"/>
+      <c r="Z104" s="17"/>
+      <c r="AA104" s="14"/>
+      <c r="AB104" s="15"/>
+      <c r="AC104" s="17"/>
+      <c r="AD104" s="14"/>
+      <c r="AE104" s="15"/>
+      <c r="AF104" s="15"/>
+      <c r="AG104" s="15"/>
+      <c r="AH104" s="15"/>
+      <c r="AI104" s="15"/>
+      <c r="AJ104" s="15"/>
+      <c r="AK104" s="15"/>
+      <c r="AL104" s="15"/>
+      <c r="AM104" s="18"/>
+      <c r="AN104" s="7"/>
+    </row>
+    <row r="105" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="6"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="16"/>
+      <c r="J105" s="15"/>
+      <c r="K105" s="17"/>
+      <c r="L105" s="14"/>
+      <c r="M105" s="15"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="14"/>
+      <c r="P105" s="15"/>
+      <c r="Q105" s="15"/>
+      <c r="R105" s="17"/>
+      <c r="S105" s="14"/>
+      <c r="T105" s="17"/>
+      <c r="U105" s="14"/>
+      <c r="V105" s="17"/>
+      <c r="W105" s="14"/>
+      <c r="X105" s="15"/>
+      <c r="Y105" s="15"/>
+      <c r="Z105" s="17"/>
+      <c r="AA105" s="14"/>
+      <c r="AB105" s="15"/>
+      <c r="AC105" s="17"/>
+      <c r="AD105" s="14"/>
+      <c r="AE105" s="15"/>
+      <c r="AF105" s="15"/>
+      <c r="AG105" s="15"/>
+      <c r="AH105" s="15"/>
+      <c r="AI105" s="15"/>
+      <c r="AJ105" s="15"/>
+      <c r="AK105" s="15"/>
+      <c r="AL105" s="15"/>
+      <c r="AM105" s="18"/>
+      <c r="AN105" s="7"/>
+    </row>
+    <row r="106" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="6"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="16"/>
+      <c r="J106" s="15"/>
+      <c r="K106" s="17"/>
+      <c r="L106" s="14"/>
+      <c r="M106" s="15"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="14"/>
+      <c r="P106" s="15"/>
+      <c r="Q106" s="15"/>
+      <c r="R106" s="17"/>
+      <c r="S106" s="14"/>
+      <c r="T106" s="17"/>
+      <c r="U106" s="14"/>
+      <c r="V106" s="17"/>
+      <c r="W106" s="14"/>
+      <c r="X106" s="15"/>
+      <c r="Y106" s="15"/>
+      <c r="Z106" s="17"/>
+      <c r="AA106" s="14"/>
+      <c r="AB106" s="15"/>
+      <c r="AC106" s="17"/>
+      <c r="AD106" s="14"/>
+      <c r="AE106" s="15"/>
+      <c r="AF106" s="15"/>
+      <c r="AG106" s="15"/>
+      <c r="AH106" s="15"/>
+      <c r="AI106" s="15"/>
+      <c r="AJ106" s="15"/>
+      <c r="AK106" s="15"/>
+      <c r="AL106" s="15"/>
+      <c r="AM106" s="18"/>
+      <c r="AN106" s="7"/>
+    </row>
+    <row r="107" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="6"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="14"/>
+      <c r="I107" s="16"/>
+      <c r="J107" s="15"/>
+      <c r="K107" s="17"/>
+      <c r="L107" s="14"/>
+      <c r="M107" s="15"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="14"/>
+      <c r="P107" s="15"/>
+      <c r="Q107" s="15"/>
+      <c r="R107" s="17"/>
+      <c r="S107" s="14"/>
+      <c r="T107" s="17"/>
+      <c r="U107" s="14"/>
+      <c r="V107" s="17"/>
+      <c r="W107" s="14"/>
+      <c r="X107" s="15"/>
+      <c r="Y107" s="15"/>
+      <c r="Z107" s="17"/>
+      <c r="AA107" s="14"/>
+      <c r="AB107" s="15"/>
+      <c r="AC107" s="17"/>
+      <c r="AD107" s="14"/>
+      <c r="AE107" s="15"/>
+      <c r="AF107" s="15"/>
+      <c r="AG107" s="15"/>
+      <c r="AH107" s="15"/>
+      <c r="AI107" s="15"/>
+      <c r="AJ107" s="15"/>
+      <c r="AK107" s="15"/>
+      <c r="AL107" s="15"/>
+      <c r="AM107" s="18"/>
+      <c r="AN107" s="7"/>
+    </row>
+    <row r="108" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="6"/>
+      <c r="B108" s="12"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="14"/>
+      <c r="I108" s="16"/>
+      <c r="J108" s="15"/>
+      <c r="K108" s="17"/>
+      <c r="L108" s="14"/>
+      <c r="M108" s="15"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="14"/>
+      <c r="P108" s="15"/>
+      <c r="Q108" s="15"/>
+      <c r="R108" s="17"/>
+      <c r="S108" s="14"/>
+      <c r="T108" s="17"/>
+      <c r="U108" s="14"/>
+      <c r="V108" s="17"/>
+      <c r="W108" s="14"/>
+      <c r="X108" s="15"/>
+      <c r="Y108" s="15"/>
+      <c r="Z108" s="17"/>
+      <c r="AA108" s="14"/>
+      <c r="AB108" s="15"/>
+      <c r="AC108" s="17"/>
+      <c r="AD108" s="14"/>
+      <c r="AE108" s="15"/>
+      <c r="AF108" s="15"/>
+      <c r="AG108" s="15"/>
+      <c r="AH108" s="15"/>
+      <c r="AI108" s="15"/>
+      <c r="AJ108" s="15"/>
+      <c r="AK108" s="15"/>
+      <c r="AL108" s="15"/>
+      <c r="AM108" s="18"/>
+      <c r="AN108" s="7"/>
+    </row>
+    <row r="109" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="6"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="16"/>
+      <c r="J109" s="15"/>
+      <c r="K109" s="17"/>
+      <c r="L109" s="14"/>
+      <c r="M109" s="15"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="14"/>
+      <c r="P109" s="15"/>
+      <c r="Q109" s="15"/>
+      <c r="R109" s="17"/>
+      <c r="S109" s="14"/>
+      <c r="T109" s="17"/>
+      <c r="U109" s="14"/>
+      <c r="V109" s="17"/>
+      <c r="W109" s="14"/>
+      <c r="X109" s="15"/>
+      <c r="Y109" s="15"/>
+      <c r="Z109" s="17"/>
+      <c r="AA109" s="14"/>
+      <c r="AB109" s="15"/>
+      <c r="AC109" s="17"/>
+      <c r="AD109" s="14"/>
+      <c r="AE109" s="15"/>
+      <c r="AF109" s="15"/>
+      <c r="AG109" s="15"/>
+      <c r="AH109" s="15"/>
+      <c r="AI109" s="15"/>
+      <c r="AJ109" s="15"/>
+      <c r="AK109" s="15"/>
+      <c r="AL109" s="15"/>
+      <c r="AM109" s="18"/>
+      <c r="AN109" s="7"/>
+    </row>
+    <row r="110" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="9"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="10"/>
+      <c r="I110" s="10"/>
+      <c r="J110" s="10"/>
+      <c r="K110" s="10"/>
+      <c r="L110" s="10"/>
+      <c r="M110" s="10"/>
+      <c r="N110" s="10"/>
+      <c r="O110" s="10"/>
+      <c r="P110" s="10"/>
+      <c r="Q110" s="10"/>
+      <c r="R110" s="10"/>
+      <c r="S110" s="10"/>
+      <c r="T110" s="10"/>
+      <c r="U110" s="10"/>
+      <c r="V110" s="10"/>
+      <c r="W110" s="10"/>
+      <c r="X110" s="10"/>
+      <c r="Y110" s="10"/>
+      <c r="Z110" s="10"/>
+      <c r="AA110" s="10"/>
+      <c r="AB110" s="10"/>
+      <c r="AC110" s="10"/>
+      <c r="AD110" s="10"/>
+      <c r="AE110" s="10"/>
+      <c r="AF110" s="10"/>
+      <c r="AG110" s="10"/>
+      <c r="AH110" s="10"/>
+      <c r="AI110" s="10"/>
+      <c r="AJ110" s="10"/>
+      <c r="AK110" s="10"/>
+      <c r="AL110" s="10"/>
+      <c r="AM110" s="10"/>
+      <c r="AN110" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:AE3"/>
@@ -12623,17 +18633,4 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB7078A-EDBB-4A10-8C2A-D3185AE90121}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="4"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/doc/外部設計書/02_外部設計書_C4.xlsx
+++ b/doc/外部設計書/02_外部設計書_C4.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C4\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F557A0-2F4E-45DE-91B0-895E42C2FFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E80B23-410A-49CA-ACC6-E93AC40DF733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン " sheetId="4" r:id="rId1"/>
     <sheet name="会員登録 " sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
-    <sheet name="プロフィール" sheetId="6" r:id="rId4"/>
+    <sheet name="プロフィール" sheetId="6" r:id="rId3"/>
+    <sheet name="チャンネル" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">プロフィール!$5:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">チャンネル!$5:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">プロフィール!$5:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'ログイン '!$5:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'会員登録 '!$5:$5</definedName>
   </definedNames>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="131">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -881,6 +882,136 @@
     <t>エディット</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>チャンネル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>三浦</t>
+    <rPh sb="0" eb="2">
+      <t>ミウラ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>チャンネル表示用jspを表示する。</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>チャンネル名：新規作成のチャンネル名を入力する</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>チャンネル説明：新規作成のチャンネル説明を入力する</t>
+    <rPh sb="5" eb="7">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>作成：新規チャンネルを作成する</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>チャンネル：作成済のチャンネルを表示する</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>chName</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>チャンネル名</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>channels</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>chComment</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>チャンネルコメント</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>chRegist</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>チャンネル作成</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ch</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>チャンネル</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -1258,21 +1389,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1306,6 +1422,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1313,6 +1432,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4215,6 +4346,736 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB169539-1C89-4541-A712-8C4AC16021F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2781300" y="2522220"/>
+          <a:ext cx="2270760" cy="510540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>チャンネル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2243D3F-7008-41DB-A08E-09D0A7C66028}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2468880" y="1318260"/>
+          <a:ext cx="251460" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4FFAE60-159E-4F25-88C5-88D8626C90EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2766060" y="3550920"/>
+          <a:ext cx="2270760" cy="510540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>チャンネル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3557B29-FC14-4156-94E5-A4FCB393BF62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2773680" y="1348740"/>
+          <a:ext cx="1668780" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>チャンネル名</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{448EAE17-D96B-48A4-9A56-C024D4852B22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2773680" y="3040380"/>
+          <a:ext cx="2270760" cy="510540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>チャンネル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDF0DFA5-E90E-41B3-8AC8-055F285C2782}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4465320" y="1676400"/>
+          <a:ext cx="563880" cy="510540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>作成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BBEE532-198E-4EF7-8AA9-778E69E6DB19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3688080" y="4099560"/>
+          <a:ext cx="259080" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3251EA28-31AF-4F16-B707-2FB664DAE962}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2484120" y="1737360"/>
+          <a:ext cx="251460" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AEC9593-DB4C-4FEE-96B9-2C87A7D4ADBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5074920" y="1699260"/>
+          <a:ext cx="251460" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>③</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32242BED-8AA7-4A71-8A16-89B17D903E01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2781300" y="1653540"/>
+          <a:ext cx="1668780" cy="541020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>チャンネル説明</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F1792AB-5C81-497E-9B12-4788CB70241A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2461260" y="3131820"/>
+          <a:ext cx="251460" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>④③</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -4504,7 +5365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0889AA17-E9C6-4C9B-B205-55683AA59F21}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView topLeftCell="B75" zoomScale="179" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" workbookViewId="0">
       <selection activeCell="L81" sqref="L81"/>
     </sheetView>
   </sheetViews>
@@ -4514,198 +5375,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="33" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33" t="s">
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="34"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="29"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="19" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19" t="s">
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19" t="s">
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19" t="s">
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="35" t="s">
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="37"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="32"/>
+      <c r="AN2" s="33"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="19" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19" t="s">
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="20">
+      <c r="X3" s="30"/>
+      <c r="Y3" s="34">
         <v>45450</v>
       </c>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="21" t="s">
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="22"/>
-      <c r="AJ3" s="22"/>
-      <c r="AK3" s="22"/>
-      <c r="AL3" s="22"/>
-      <c r="AM3" s="22"/>
-      <c r="AN3" s="23"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="36"/>
+      <c r="AL3" s="36"/>
+      <c r="AM3" s="36"/>
+      <c r="AN3" s="37"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="24" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="25"/>
-      <c r="AI4" s="25"/>
-      <c r="AJ4" s="25"/>
-      <c r="AK4" s="25"/>
-      <c r="AL4" s="25"/>
-      <c r="AM4" s="25"/>
-      <c r="AN4" s="26"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="20"/>
+      <c r="AI4" s="20"/>
+      <c r="AJ4" s="20"/>
+      <c r="AK4" s="20"/>
+      <c r="AL4" s="20"/>
+      <c r="AM4" s="20"/>
+      <c r="AN4" s="21"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -9126,6 +9987,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
@@ -9142,7 +10004,6 @@
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -9158,7 +10019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5529EB6-548D-4ECA-B4FA-CE7D1A5BAFF6}">
   <dimension ref="A1:AN112"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" zoomScale="105" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="105" workbookViewId="0">
       <selection activeCell="N79" sqref="N79"/>
     </sheetView>
   </sheetViews>
@@ -9168,200 +10029,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="33" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33" t="s">
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="34"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="29"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="19" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19" t="s">
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19" t="s">
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19" t="s">
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="35" t="s">
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="37"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="32"/>
+      <c r="AN2" s="33"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="19" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19" t="s">
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19" t="s">
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="20">
+      <c r="X3" s="30"/>
+      <c r="Y3" s="34">
         <v>45450</v>
       </c>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="21" t="s">
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="22"/>
-      <c r="AJ3" s="22"/>
-      <c r="AK3" s="22"/>
-      <c r="AL3" s="22"/>
-      <c r="AM3" s="22"/>
-      <c r="AN3" s="23"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="36"/>
+      <c r="AL3" s="36"/>
+      <c r="AM3" s="36"/>
+      <c r="AN3" s="37"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="24" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="25"/>
-      <c r="AI4" s="25"/>
-      <c r="AJ4" s="25"/>
-      <c r="AK4" s="25"/>
-      <c r="AL4" s="25"/>
-      <c r="AM4" s="25"/>
-      <c r="AN4" s="26"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="20"/>
+      <c r="AI4" s="20"/>
+      <c r="AJ4" s="20"/>
+      <c r="AK4" s="20"/>
+      <c r="AL4" s="20"/>
+      <c r="AM4" s="20"/>
+      <c r="AN4" s="21"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -13848,6 +14709,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
@@ -13864,7 +14726,6 @@
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -13877,23 +14738,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB7078A-EDBB-4A10-8C2A-D3185AE90121}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="4"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782D64D3-14EE-471A-BA36-00313CDDC2C0}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A74" workbookViewId="0">
       <selection activeCell="AE22" sqref="AE22"/>
     </sheetView>
   </sheetViews>
@@ -13903,200 +14751,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="33" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33" t="s">
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="34"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="29"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="19" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19" t="s">
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19" t="s">
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19" t="s">
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="35" t="s">
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="37"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="32"/>
+      <c r="AN2" s="33"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="19" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19" t="s">
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19" t="s">
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="20">
+      <c r="X3" s="30"/>
+      <c r="Y3" s="34">
         <v>45453</v>
       </c>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="21" t="s">
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="22"/>
-      <c r="AJ3" s="22"/>
-      <c r="AK3" s="22"/>
-      <c r="AL3" s="22"/>
-      <c r="AM3" s="22"/>
-      <c r="AN3" s="23"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="36"/>
+      <c r="AL3" s="36"/>
+      <c r="AM3" s="36"/>
+      <c r="AN3" s="37"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="24" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="25"/>
-      <c r="AI4" s="25"/>
-      <c r="AJ4" s="25"/>
-      <c r="AK4" s="25"/>
-      <c r="AL4" s="25"/>
-      <c r="AM4" s="25"/>
-      <c r="AN4" s="26"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="20"/>
+      <c r="AI4" s="20"/>
+      <c r="AJ4" s="20"/>
+      <c r="AK4" s="20"/>
+      <c r="AL4" s="20"/>
+      <c r="AM4" s="20"/>
+      <c r="AN4" s="21"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -18607,6 +19455,4680 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:AN4"/>
+    <mergeCell ref="A1:J4"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:AN1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AN3"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;C&amp;8&amp;P／&amp;"／,標準"&amp;N</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA384EF-9747-46FC-8D82-DC4465294D64}">
+  <dimension ref="A1:AN110"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AG19" sqref="AG19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="3.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="29"/>
+    </row>
+    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="32"/>
+      <c r="AN2" s="33"/>
+    </row>
+    <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="34">
+        <v>45453</v>
+      </c>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="36"/>
+      <c r="AL3" s="36"/>
+      <c r="AM3" s="36"/>
+      <c r="AN3" s="37"/>
+    </row>
+    <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="20"/>
+      <c r="AI4" s="20"/>
+      <c r="AJ4" s="20"/>
+      <c r="AK4" s="20"/>
+      <c r="AL4" s="20"/>
+      <c r="AM4" s="20"/>
+      <c r="AN4" s="21"/>
+    </row>
+    <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="5"/>
+    </row>
+    <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6"/>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="7"/>
+    </row>
+    <row r="8" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+    </row>
+    <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+    </row>
+    <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+    </row>
+    <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+    </row>
+    <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+    </row>
+    <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="8"/>
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="7"/>
+      <c r="AN13" s="7"/>
+    </row>
+    <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="8"/>
+      <c r="AM14" s="7"/>
+      <c r="AN14" s="7"/>
+    </row>
+    <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="8"/>
+      <c r="AL15" s="8"/>
+      <c r="AM15" s="7"/>
+      <c r="AN15" s="7"/>
+    </row>
+    <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
+      <c r="AL16" s="8"/>
+      <c r="AM16" s="7"/>
+      <c r="AN16" s="7"/>
+    </row>
+    <row r="17" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="8"/>
+      <c r="AK17" s="8"/>
+      <c r="AL17" s="8"/>
+      <c r="AM17" s="7"/>
+      <c r="AN17" s="7"/>
+    </row>
+    <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="8"/>
+      <c r="AL18" s="8"/>
+      <c r="AM18" s="7"/>
+      <c r="AN18" s="7"/>
+    </row>
+    <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="8"/>
+      <c r="AL19" s="8"/>
+      <c r="AM19" s="7"/>
+      <c r="AN19" s="7"/>
+    </row>
+    <row r="20" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="8"/>
+      <c r="AL20" s="8"/>
+      <c r="AM20" s="7"/>
+      <c r="AN20" s="7"/>
+    </row>
+    <row r="21" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="8"/>
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="7"/>
+      <c r="AN21" s="7"/>
+    </row>
+    <row r="22" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="8"/>
+      <c r="AL22" s="8"/>
+      <c r="AM22" s="7"/>
+      <c r="AN22" s="7"/>
+    </row>
+    <row r="23" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="8"/>
+      <c r="AL23" s="8"/>
+      <c r="AM23" s="7"/>
+      <c r="AN23" s="7"/>
+    </row>
+    <row r="24" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="7"/>
+      <c r="AN24" s="7"/>
+    </row>
+    <row r="25" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="8"/>
+      <c r="AL25" s="8"/>
+      <c r="AM25" s="7"/>
+      <c r="AN25" s="7"/>
+    </row>
+    <row r="26" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="8"/>
+      <c r="AL26" s="8"/>
+      <c r="AM26" s="7"/>
+      <c r="AN26" s="7"/>
+    </row>
+    <row r="27" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8"/>
+      <c r="AJ27" s="8"/>
+      <c r="AK27" s="8"/>
+      <c r="AL27" s="8"/>
+      <c r="AM27" s="7"/>
+      <c r="AN27" s="7"/>
+    </row>
+    <row r="28" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8"/>
+      <c r="AJ28" s="8"/>
+      <c r="AK28" s="8"/>
+      <c r="AL28" s="8"/>
+      <c r="AM28" s="7"/>
+      <c r="AN28" s="7"/>
+    </row>
+    <row r="29" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="8"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="8"/>
+      <c r="AJ29" s="8"/>
+      <c r="AK29" s="8"/>
+      <c r="AL29" s="8"/>
+      <c r="AM29" s="7"/>
+      <c r="AN29" s="7"/>
+    </row>
+    <row r="30" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="8"/>
+      <c r="AJ30" s="8"/>
+      <c r="AK30" s="8"/>
+      <c r="AL30" s="8"/>
+      <c r="AM30" s="7"/>
+      <c r="AN30" s="7"/>
+    </row>
+    <row r="31" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="8"/>
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="8"/>
+      <c r="AJ31" s="8"/>
+      <c r="AK31" s="8"/>
+      <c r="AL31" s="8"/>
+      <c r="AM31" s="7"/>
+      <c r="AN31" s="7"/>
+    </row>
+    <row r="32" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8"/>
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="8"/>
+      <c r="AH32" s="8"/>
+      <c r="AI32" s="8"/>
+      <c r="AJ32" s="8"/>
+      <c r="AK32" s="8"/>
+      <c r="AL32" s="8"/>
+      <c r="AM32" s="7"/>
+      <c r="AN32" s="7"/>
+    </row>
+    <row r="33" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="8"/>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="8"/>
+      <c r="AJ33" s="8"/>
+      <c r="AK33" s="8"/>
+      <c r="AL33" s="8"/>
+      <c r="AM33" s="7"/>
+      <c r="AN33" s="7"/>
+    </row>
+    <row r="34" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="8"/>
+      <c r="AD34" s="8"/>
+      <c r="AE34" s="8"/>
+      <c r="AF34" s="8"/>
+      <c r="AG34" s="8"/>
+      <c r="AH34" s="8"/>
+      <c r="AI34" s="8"/>
+      <c r="AJ34" s="8"/>
+      <c r="AK34" s="8"/>
+      <c r="AL34" s="8"/>
+      <c r="AM34" s="7"/>
+      <c r="AN34" s="7"/>
+    </row>
+    <row r="35" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="8"/>
+      <c r="AD35" s="8"/>
+      <c r="AE35" s="8"/>
+      <c r="AF35" s="8"/>
+      <c r="AG35" s="8"/>
+      <c r="AH35" s="8"/>
+      <c r="AI35" s="8"/>
+      <c r="AJ35" s="8"/>
+      <c r="AK35" s="8"/>
+      <c r="AL35" s="8"/>
+      <c r="AM35" s="7"/>
+      <c r="AN35" s="7"/>
+    </row>
+    <row r="36" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="8"/>
+      <c r="AD36" s="8"/>
+      <c r="AE36" s="8"/>
+      <c r="AF36" s="8"/>
+      <c r="AG36" s="8"/>
+      <c r="AH36" s="8"/>
+      <c r="AI36" s="8"/>
+      <c r="AJ36" s="8"/>
+      <c r="AK36" s="8"/>
+      <c r="AL36" s="8"/>
+      <c r="AM36" s="7"/>
+      <c r="AN36" s="7"/>
+    </row>
+    <row r="37" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="8"/>
+      <c r="AD37" s="8"/>
+      <c r="AE37" s="8"/>
+      <c r="AF37" s="8"/>
+      <c r="AG37" s="8"/>
+      <c r="AH37" s="8"/>
+      <c r="AI37" s="8"/>
+      <c r="AJ37" s="8"/>
+      <c r="AK37" s="8"/>
+      <c r="AL37" s="8"/>
+      <c r="AM37" s="7"/>
+      <c r="AN37" s="7"/>
+    </row>
+    <row r="38" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="8"/>
+      <c r="AD38" s="8"/>
+      <c r="AE38" s="8"/>
+      <c r="AF38" s="8"/>
+      <c r="AG38" s="8"/>
+      <c r="AH38" s="8"/>
+      <c r="AI38" s="8"/>
+      <c r="AJ38" s="8"/>
+      <c r="AK38" s="8"/>
+      <c r="AL38" s="8"/>
+      <c r="AM38" s="7"/>
+      <c r="AN38" s="7"/>
+    </row>
+    <row r="39" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="6"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="10"/>
+      <c r="AC39" s="10"/>
+      <c r="AD39" s="10"/>
+      <c r="AE39" s="10"/>
+      <c r="AF39" s="10"/>
+      <c r="AG39" s="10"/>
+      <c r="AH39" s="10"/>
+      <c r="AI39" s="10"/>
+      <c r="AJ39" s="10"/>
+      <c r="AK39" s="10"/>
+      <c r="AL39" s="10"/>
+      <c r="AM39" s="11"/>
+      <c r="AN39" s="7"/>
+    </row>
+    <row r="40" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="10"/>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="10"/>
+      <c r="AD40" s="10"/>
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="10"/>
+      <c r="AG40" s="10"/>
+      <c r="AH40" s="10"/>
+      <c r="AI40" s="10"/>
+      <c r="AJ40" s="10"/>
+      <c r="AK40" s="10"/>
+      <c r="AL40" s="10"/>
+      <c r="AM40" s="10"/>
+      <c r="AN40" s="11"/>
+    </row>
+    <row r="41" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="3"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="4"/>
+      <c r="AC41" s="4"/>
+      <c r="AD41" s="4"/>
+      <c r="AE41" s="4"/>
+      <c r="AF41" s="4"/>
+      <c r="AG41" s="4"/>
+      <c r="AH41" s="4"/>
+      <c r="AI41" s="4"/>
+      <c r="AJ41" s="4"/>
+      <c r="AK41" s="4"/>
+      <c r="AL41" s="4"/>
+      <c r="AM41" s="4"/>
+      <c r="AN41" s="5"/>
+    </row>
+    <row r="42" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="6"/>
+      <c r="B42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="4"/>
+      <c r="AB42" s="4"/>
+      <c r="AC42" s="4"/>
+      <c r="AD42" s="4"/>
+      <c r="AE42" s="4"/>
+      <c r="AF42" s="4"/>
+      <c r="AG42" s="4"/>
+      <c r="AH42" s="4"/>
+      <c r="AI42" s="4"/>
+      <c r="AJ42" s="4"/>
+      <c r="AK42" s="4"/>
+      <c r="AL42" s="4"/>
+      <c r="AM42" s="5"/>
+      <c r="AN42" s="7"/>
+    </row>
+    <row r="43" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="2"/>
+      <c r="AB43" s="2"/>
+      <c r="AC43" s="2"/>
+      <c r="AD43" s="2"/>
+      <c r="AE43" s="2"/>
+      <c r="AF43" s="2"/>
+      <c r="AG43" s="2"/>
+      <c r="AH43" s="2"/>
+      <c r="AI43" s="2"/>
+      <c r="AJ43" s="2"/>
+      <c r="AK43" s="2"/>
+      <c r="AL43" s="2"/>
+      <c r="AM43" s="7"/>
+      <c r="AN43" s="7"/>
+    </row>
+    <row r="44" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="2"/>
+      <c r="AD44" s="2"/>
+      <c r="AE44" s="2"/>
+      <c r="AF44" s="2"/>
+      <c r="AG44" s="2"/>
+      <c r="AH44" s="2"/>
+      <c r="AI44" s="2"/>
+      <c r="AJ44" s="2"/>
+      <c r="AK44" s="2"/>
+      <c r="AL44" s="2"/>
+      <c r="AM44" s="7"/>
+      <c r="AN44" s="7"/>
+    </row>
+    <row r="45" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="8"/>
+      <c r="AD45" s="8"/>
+      <c r="AE45" s="8"/>
+      <c r="AF45" s="8"/>
+      <c r="AG45" s="8"/>
+      <c r="AH45" s="8"/>
+      <c r="AI45" s="8"/>
+      <c r="AJ45" s="8"/>
+      <c r="AK45" s="8"/>
+      <c r="AL45" s="8"/>
+      <c r="AM45" s="7"/>
+      <c r="AN45" s="7"/>
+    </row>
+    <row r="46" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="8"/>
+      <c r="AD46" s="8"/>
+      <c r="AE46" s="8"/>
+      <c r="AF46" s="8"/>
+      <c r="AG46" s="8"/>
+      <c r="AH46" s="8"/>
+      <c r="AI46" s="8"/>
+      <c r="AJ46" s="8"/>
+      <c r="AK46" s="8"/>
+      <c r="AL46" s="8"/>
+      <c r="AM46" s="7"/>
+      <c r="AN46" s="7"/>
+    </row>
+    <row r="47" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="8"/>
+      <c r="X47" s="8"/>
+      <c r="Y47" s="8"/>
+      <c r="Z47" s="8"/>
+      <c r="AA47" s="8"/>
+      <c r="AB47" s="8"/>
+      <c r="AC47" s="8"/>
+      <c r="AD47" s="8"/>
+      <c r="AE47" s="8"/>
+      <c r="AF47" s="8"/>
+      <c r="AG47" s="8"/>
+      <c r="AH47" s="8"/>
+      <c r="AI47" s="8"/>
+      <c r="AJ47" s="8"/>
+      <c r="AK47" s="8"/>
+      <c r="AL47" s="8"/>
+      <c r="AM47" s="7"/>
+      <c r="AN47" s="7"/>
+    </row>
+    <row r="48" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8"/>
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="8"/>
+      <c r="AB48" s="8"/>
+      <c r="AC48" s="8"/>
+      <c r="AD48" s="8"/>
+      <c r="AE48" s="8"/>
+      <c r="AF48" s="8"/>
+      <c r="AG48" s="8"/>
+      <c r="AH48" s="8"/>
+      <c r="AI48" s="8"/>
+      <c r="AJ48" s="8"/>
+      <c r="AK48" s="8"/>
+      <c r="AL48" s="8"/>
+      <c r="AM48" s="7"/>
+      <c r="AN48" s="7"/>
+    </row>
+    <row r="49" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="8"/>
+      <c r="AC49" s="8"/>
+      <c r="AD49" s="8"/>
+      <c r="AE49" s="8"/>
+      <c r="AF49" s="8"/>
+      <c r="AG49" s="8"/>
+      <c r="AH49" s="8"/>
+      <c r="AI49" s="8"/>
+      <c r="AJ49" s="8"/>
+      <c r="AK49" s="8"/>
+      <c r="AL49" s="8"/>
+      <c r="AM49" s="7"/>
+      <c r="AN49" s="7"/>
+    </row>
+    <row r="50" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8"/>
+      <c r="X50" s="8"/>
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="8"/>
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="8"/>
+      <c r="AC50" s="8"/>
+      <c r="AD50" s="8"/>
+      <c r="AE50" s="8"/>
+      <c r="AF50" s="8"/>
+      <c r="AG50" s="8"/>
+      <c r="AH50" s="8"/>
+      <c r="AI50" s="8"/>
+      <c r="AJ50" s="8"/>
+      <c r="AK50" s="8"/>
+      <c r="AL50" s="8"/>
+      <c r="AM50" s="7"/>
+      <c r="AN50" s="7"/>
+    </row>
+    <row r="51" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="8"/>
+      <c r="X51" s="8"/>
+      <c r="Y51" s="8"/>
+      <c r="Z51" s="8"/>
+      <c r="AA51" s="8"/>
+      <c r="AB51" s="8"/>
+      <c r="AC51" s="8"/>
+      <c r="AD51" s="8"/>
+      <c r="AE51" s="8"/>
+      <c r="AF51" s="8"/>
+      <c r="AG51" s="8"/>
+      <c r="AH51" s="8"/>
+      <c r="AI51" s="8"/>
+      <c r="AJ51" s="8"/>
+      <c r="AK51" s="8"/>
+      <c r="AL51" s="8"/>
+      <c r="AM51" s="7"/>
+      <c r="AN51" s="7"/>
+    </row>
+    <row r="52" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="8"/>
+      <c r="X52" s="8"/>
+      <c r="Y52" s="8"/>
+      <c r="Z52" s="8"/>
+      <c r="AA52" s="8"/>
+      <c r="AB52" s="8"/>
+      <c r="AC52" s="8"/>
+      <c r="AD52" s="8"/>
+      <c r="AE52" s="8"/>
+      <c r="AF52" s="8"/>
+      <c r="AG52" s="8"/>
+      <c r="AH52" s="8"/>
+      <c r="AI52" s="8"/>
+      <c r="AJ52" s="8"/>
+      <c r="AK52" s="8"/>
+      <c r="AL52" s="8"/>
+      <c r="AM52" s="7"/>
+      <c r="AN52" s="7"/>
+    </row>
+    <row r="53" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="8"/>
+      <c r="W53" s="8"/>
+      <c r="X53" s="8"/>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="8"/>
+      <c r="AA53" s="8"/>
+      <c r="AB53" s="8"/>
+      <c r="AC53" s="8"/>
+      <c r="AD53" s="8"/>
+      <c r="AE53" s="8"/>
+      <c r="AF53" s="8"/>
+      <c r="AG53" s="8"/>
+      <c r="AH53" s="8"/>
+      <c r="AI53" s="8"/>
+      <c r="AJ53" s="8"/>
+      <c r="AK53" s="8"/>
+      <c r="AL53" s="8"/>
+      <c r="AM53" s="7"/>
+      <c r="AN53" s="7"/>
+    </row>
+    <row r="54" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="8"/>
+      <c r="X54" s="8"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="8"/>
+      <c r="AA54" s="8"/>
+      <c r="AB54" s="8"/>
+      <c r="AC54" s="8"/>
+      <c r="AD54" s="8"/>
+      <c r="AE54" s="8"/>
+      <c r="AF54" s="8"/>
+      <c r="AG54" s="8"/>
+      <c r="AH54" s="8"/>
+      <c r="AI54" s="8"/>
+      <c r="AJ54" s="8"/>
+      <c r="AK54" s="8"/>
+      <c r="AL54" s="8"/>
+      <c r="AM54" s="7"/>
+      <c r="AN54" s="7"/>
+    </row>
+    <row r="55" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="8"/>
+      <c r="W55" s="8"/>
+      <c r="X55" s="8"/>
+      <c r="Y55" s="8"/>
+      <c r="Z55" s="8"/>
+      <c r="AA55" s="8"/>
+      <c r="AB55" s="8"/>
+      <c r="AC55" s="8"/>
+      <c r="AD55" s="8"/>
+      <c r="AE55" s="8"/>
+      <c r="AF55" s="8"/>
+      <c r="AG55" s="8"/>
+      <c r="AH55" s="8"/>
+      <c r="AI55" s="8"/>
+      <c r="AJ55" s="8"/>
+      <c r="AK55" s="8"/>
+      <c r="AL55" s="8"/>
+      <c r="AM55" s="7"/>
+      <c r="AN55" s="7"/>
+    </row>
+    <row r="56" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="8"/>
+      <c r="W56" s="8"/>
+      <c r="X56" s="8"/>
+      <c r="Y56" s="8"/>
+      <c r="Z56" s="8"/>
+      <c r="AA56" s="8"/>
+      <c r="AB56" s="8"/>
+      <c r="AC56" s="8"/>
+      <c r="AD56" s="8"/>
+      <c r="AE56" s="8"/>
+      <c r="AF56" s="8"/>
+      <c r="AG56" s="8"/>
+      <c r="AH56" s="8"/>
+      <c r="AI56" s="8"/>
+      <c r="AJ56" s="8"/>
+      <c r="AK56" s="8"/>
+      <c r="AL56" s="8"/>
+      <c r="AM56" s="7"/>
+      <c r="AN56" s="7"/>
+    </row>
+    <row r="57" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="8"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="8"/>
+      <c r="V57" s="8"/>
+      <c r="W57" s="8"/>
+      <c r="X57" s="8"/>
+      <c r="Y57" s="8"/>
+      <c r="Z57" s="8"/>
+      <c r="AA57" s="8"/>
+      <c r="AB57" s="8"/>
+      <c r="AC57" s="8"/>
+      <c r="AD57" s="8"/>
+      <c r="AE57" s="8"/>
+      <c r="AF57" s="8"/>
+      <c r="AG57" s="8"/>
+      <c r="AH57" s="8"/>
+      <c r="AI57" s="8"/>
+      <c r="AJ57" s="8"/>
+      <c r="AK57" s="8"/>
+      <c r="AL57" s="8"/>
+      <c r="AM57" s="7"/>
+      <c r="AN57" s="7"/>
+    </row>
+    <row r="58" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
+      <c r="S58" s="8"/>
+      <c r="T58" s="8"/>
+      <c r="U58" s="8"/>
+      <c r="V58" s="8"/>
+      <c r="W58" s="8"/>
+      <c r="X58" s="8"/>
+      <c r="Y58" s="8"/>
+      <c r="Z58" s="8"/>
+      <c r="AA58" s="8"/>
+      <c r="AB58" s="8"/>
+      <c r="AC58" s="8"/>
+      <c r="AD58" s="8"/>
+      <c r="AE58" s="8"/>
+      <c r="AF58" s="8"/>
+      <c r="AG58" s="8"/>
+      <c r="AH58" s="8"/>
+      <c r="AI58" s="8"/>
+      <c r="AJ58" s="8"/>
+      <c r="AK58" s="8"/>
+      <c r="AL58" s="8"/>
+      <c r="AM58" s="7"/>
+      <c r="AN58" s="7"/>
+    </row>
+    <row r="59" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="8"/>
+      <c r="W59" s="8"/>
+      <c r="X59" s="8"/>
+      <c r="Y59" s="8"/>
+      <c r="Z59" s="8"/>
+      <c r="AA59" s="8"/>
+      <c r="AB59" s="8"/>
+      <c r="AC59" s="8"/>
+      <c r="AD59" s="8"/>
+      <c r="AE59" s="8"/>
+      <c r="AF59" s="8"/>
+      <c r="AG59" s="8"/>
+      <c r="AH59" s="8"/>
+      <c r="AI59" s="8"/>
+      <c r="AJ59" s="8"/>
+      <c r="AK59" s="8"/>
+      <c r="AL59" s="8"/>
+      <c r="AM59" s="7"/>
+      <c r="AN59" s="7"/>
+    </row>
+    <row r="60" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8"/>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="8"/>
+      <c r="W60" s="8"/>
+      <c r="X60" s="8"/>
+      <c r="Y60" s="8"/>
+      <c r="Z60" s="8"/>
+      <c r="AA60" s="8"/>
+      <c r="AB60" s="8"/>
+      <c r="AC60" s="8"/>
+      <c r="AD60" s="8"/>
+      <c r="AE60" s="8"/>
+      <c r="AF60" s="8"/>
+      <c r="AG60" s="8"/>
+      <c r="AH60" s="8"/>
+      <c r="AI60" s="8"/>
+      <c r="AJ60" s="8"/>
+      <c r="AK60" s="8"/>
+      <c r="AL60" s="8"/>
+      <c r="AM60" s="7"/>
+      <c r="AN60" s="7"/>
+    </row>
+    <row r="61" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="8"/>
+      <c r="R61" s="8"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="8"/>
+      <c r="V61" s="8"/>
+      <c r="W61" s="8"/>
+      <c r="X61" s="8"/>
+      <c r="Y61" s="8"/>
+      <c r="Z61" s="8"/>
+      <c r="AA61" s="8"/>
+      <c r="AB61" s="8"/>
+      <c r="AC61" s="8"/>
+      <c r="AD61" s="8"/>
+      <c r="AE61" s="8"/>
+      <c r="AF61" s="8"/>
+      <c r="AG61" s="8"/>
+      <c r="AH61" s="8"/>
+      <c r="AI61" s="8"/>
+      <c r="AJ61" s="8"/>
+      <c r="AK61" s="8"/>
+      <c r="AL61" s="8"/>
+      <c r="AM61" s="7"/>
+      <c r="AN61" s="7"/>
+    </row>
+    <row r="62" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="8"/>
+      <c r="R62" s="8"/>
+      <c r="S62" s="8"/>
+      <c r="T62" s="8"/>
+      <c r="U62" s="8"/>
+      <c r="V62" s="8"/>
+      <c r="W62" s="8"/>
+      <c r="X62" s="8"/>
+      <c r="Y62" s="8"/>
+      <c r="Z62" s="8"/>
+      <c r="AA62" s="8"/>
+      <c r="AB62" s="8"/>
+      <c r="AC62" s="8"/>
+      <c r="AD62" s="8"/>
+      <c r="AE62" s="8"/>
+      <c r="AF62" s="8"/>
+      <c r="AG62" s="8"/>
+      <c r="AH62" s="8"/>
+      <c r="AI62" s="8"/>
+      <c r="AJ62" s="8"/>
+      <c r="AK62" s="8"/>
+      <c r="AL62" s="8"/>
+      <c r="AM62" s="7"/>
+      <c r="AN62" s="7"/>
+    </row>
+    <row r="63" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="8"/>
+      <c r="R63" s="8"/>
+      <c r="S63" s="8"/>
+      <c r="T63" s="8"/>
+      <c r="U63" s="8"/>
+      <c r="V63" s="8"/>
+      <c r="W63" s="8"/>
+      <c r="X63" s="8"/>
+      <c r="Y63" s="8"/>
+      <c r="Z63" s="8"/>
+      <c r="AA63" s="8"/>
+      <c r="AB63" s="8"/>
+      <c r="AC63" s="8"/>
+      <c r="AD63" s="8"/>
+      <c r="AE63" s="8"/>
+      <c r="AF63" s="8"/>
+      <c r="AG63" s="8"/>
+      <c r="AH63" s="8"/>
+      <c r="AI63" s="8"/>
+      <c r="AJ63" s="8"/>
+      <c r="AK63" s="8"/>
+      <c r="AL63" s="8"/>
+      <c r="AM63" s="7"/>
+      <c r="AN63" s="7"/>
+    </row>
+    <row r="64" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="8"/>
+      <c r="R64" s="8"/>
+      <c r="S64" s="8"/>
+      <c r="T64" s="8"/>
+      <c r="U64" s="8"/>
+      <c r="V64" s="8"/>
+      <c r="W64" s="8"/>
+      <c r="X64" s="8"/>
+      <c r="Y64" s="8"/>
+      <c r="Z64" s="8"/>
+      <c r="AA64" s="8"/>
+      <c r="AB64" s="8"/>
+      <c r="AC64" s="8"/>
+      <c r="AD64" s="8"/>
+      <c r="AE64" s="8"/>
+      <c r="AF64" s="8"/>
+      <c r="AG64" s="8"/>
+      <c r="AH64" s="8"/>
+      <c r="AI64" s="8"/>
+      <c r="AJ64" s="8"/>
+      <c r="AK64" s="8"/>
+      <c r="AL64" s="8"/>
+      <c r="AM64" s="7"/>
+      <c r="AN64" s="7"/>
+    </row>
+    <row r="65" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="8"/>
+      <c r="U65" s="8"/>
+      <c r="V65" s="8"/>
+      <c r="W65" s="8"/>
+      <c r="X65" s="8"/>
+      <c r="Y65" s="8"/>
+      <c r="Z65" s="8"/>
+      <c r="AA65" s="8"/>
+      <c r="AB65" s="8"/>
+      <c r="AC65" s="8"/>
+      <c r="AD65" s="8"/>
+      <c r="AE65" s="8"/>
+      <c r="AF65" s="8"/>
+      <c r="AG65" s="8"/>
+      <c r="AH65" s="8"/>
+      <c r="AI65" s="8"/>
+      <c r="AJ65" s="8"/>
+      <c r="AK65" s="8"/>
+      <c r="AL65" s="8"/>
+      <c r="AM65" s="7"/>
+      <c r="AN65" s="7"/>
+    </row>
+    <row r="66" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="8"/>
+      <c r="V66" s="8"/>
+      <c r="W66" s="8"/>
+      <c r="X66" s="8"/>
+      <c r="Y66" s="8"/>
+      <c r="Z66" s="8"/>
+      <c r="AA66" s="8"/>
+      <c r="AB66" s="8"/>
+      <c r="AC66" s="8"/>
+      <c r="AD66" s="8"/>
+      <c r="AE66" s="8"/>
+      <c r="AF66" s="8"/>
+      <c r="AG66" s="8"/>
+      <c r="AH66" s="8"/>
+      <c r="AI66" s="8"/>
+      <c r="AJ66" s="8"/>
+      <c r="AK66" s="8"/>
+      <c r="AL66" s="8"/>
+      <c r="AM66" s="7"/>
+      <c r="AN66" s="7"/>
+    </row>
+    <row r="67" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="8"/>
+      <c r="R67" s="8"/>
+      <c r="S67" s="8"/>
+      <c r="T67" s="8"/>
+      <c r="U67" s="8"/>
+      <c r="V67" s="8"/>
+      <c r="W67" s="8"/>
+      <c r="X67" s="8"/>
+      <c r="Y67" s="8"/>
+      <c r="Z67" s="8"/>
+      <c r="AA67" s="8"/>
+      <c r="AB67" s="8"/>
+      <c r="AC67" s="8"/>
+      <c r="AD67" s="8"/>
+      <c r="AE67" s="8"/>
+      <c r="AF67" s="8"/>
+      <c r="AG67" s="8"/>
+      <c r="AH67" s="8"/>
+      <c r="AI67" s="8"/>
+      <c r="AJ67" s="8"/>
+      <c r="AK67" s="8"/>
+      <c r="AL67" s="8"/>
+      <c r="AM67" s="7"/>
+      <c r="AN67" s="7"/>
+    </row>
+    <row r="68" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="8"/>
+      <c r="O68" s="8"/>
+      <c r="P68" s="8"/>
+      <c r="Q68" s="8"/>
+      <c r="R68" s="8"/>
+      <c r="S68" s="8"/>
+      <c r="T68" s="8"/>
+      <c r="U68" s="8"/>
+      <c r="V68" s="8"/>
+      <c r="W68" s="8"/>
+      <c r="X68" s="8"/>
+      <c r="Y68" s="8"/>
+      <c r="Z68" s="8"/>
+      <c r="AA68" s="8"/>
+      <c r="AB68" s="8"/>
+      <c r="AC68" s="8"/>
+      <c r="AD68" s="8"/>
+      <c r="AE68" s="8"/>
+      <c r="AF68" s="8"/>
+      <c r="AG68" s="8"/>
+      <c r="AH68" s="8"/>
+      <c r="AI68" s="8"/>
+      <c r="AJ68" s="8"/>
+      <c r="AK68" s="8"/>
+      <c r="AL68" s="8"/>
+      <c r="AM68" s="7"/>
+      <c r="AN68" s="7"/>
+    </row>
+    <row r="69" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="8"/>
+      <c r="P69" s="8"/>
+      <c r="Q69" s="8"/>
+      <c r="R69" s="8"/>
+      <c r="S69" s="8"/>
+      <c r="T69" s="8"/>
+      <c r="U69" s="8"/>
+      <c r="V69" s="8"/>
+      <c r="W69" s="8"/>
+      <c r="X69" s="8"/>
+      <c r="Y69" s="8"/>
+      <c r="Z69" s="8"/>
+      <c r="AA69" s="8"/>
+      <c r="AB69" s="8"/>
+      <c r="AC69" s="8"/>
+      <c r="AD69" s="8"/>
+      <c r="AE69" s="8"/>
+      <c r="AF69" s="8"/>
+      <c r="AG69" s="8"/>
+      <c r="AH69" s="8"/>
+      <c r="AI69" s="8"/>
+      <c r="AJ69" s="8"/>
+      <c r="AK69" s="8"/>
+      <c r="AL69" s="8"/>
+      <c r="AM69" s="7"/>
+      <c r="AN69" s="7"/>
+    </row>
+    <row r="70" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="8"/>
+      <c r="O70" s="8"/>
+      <c r="P70" s="8"/>
+      <c r="Q70" s="8"/>
+      <c r="R70" s="8"/>
+      <c r="S70" s="8"/>
+      <c r="T70" s="8"/>
+      <c r="U70" s="8"/>
+      <c r="V70" s="8"/>
+      <c r="W70" s="8"/>
+      <c r="X70" s="8"/>
+      <c r="Y70" s="8"/>
+      <c r="Z70" s="8"/>
+      <c r="AA70" s="8"/>
+      <c r="AB70" s="8"/>
+      <c r="AC70" s="8"/>
+      <c r="AD70" s="8"/>
+      <c r="AE70" s="8"/>
+      <c r="AF70" s="8"/>
+      <c r="AG70" s="8"/>
+      <c r="AH70" s="8"/>
+      <c r="AI70" s="8"/>
+      <c r="AJ70" s="8"/>
+      <c r="AK70" s="8"/>
+      <c r="AL70" s="8"/>
+      <c r="AM70" s="7"/>
+      <c r="AN70" s="7"/>
+    </row>
+    <row r="71" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
+      <c r="Q71" s="8"/>
+      <c r="R71" s="8"/>
+      <c r="S71" s="8"/>
+      <c r="T71" s="8"/>
+      <c r="U71" s="8"/>
+      <c r="V71" s="8"/>
+      <c r="W71" s="8"/>
+      <c r="X71" s="8"/>
+      <c r="Y71" s="8"/>
+      <c r="Z71" s="8"/>
+      <c r="AA71" s="8"/>
+      <c r="AB71" s="8"/>
+      <c r="AC71" s="8"/>
+      <c r="AD71" s="8"/>
+      <c r="AE71" s="8"/>
+      <c r="AF71" s="8"/>
+      <c r="AG71" s="8"/>
+      <c r="AH71" s="8"/>
+      <c r="AI71" s="8"/>
+      <c r="AJ71" s="8"/>
+      <c r="AK71" s="8"/>
+      <c r="AL71" s="8"/>
+      <c r="AM71" s="7"/>
+      <c r="AN71" s="7"/>
+    </row>
+    <row r="72" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="8"/>
+      <c r="P72" s="8"/>
+      <c r="Q72" s="8"/>
+      <c r="R72" s="8"/>
+      <c r="S72" s="8"/>
+      <c r="T72" s="8"/>
+      <c r="U72" s="8"/>
+      <c r="V72" s="8"/>
+      <c r="W72" s="8"/>
+      <c r="X72" s="8"/>
+      <c r="Y72" s="8"/>
+      <c r="Z72" s="8"/>
+      <c r="AA72" s="8"/>
+      <c r="AB72" s="8"/>
+      <c r="AC72" s="8"/>
+      <c r="AD72" s="8"/>
+      <c r="AE72" s="8"/>
+      <c r="AF72" s="8"/>
+      <c r="AG72" s="8"/>
+      <c r="AH72" s="8"/>
+      <c r="AI72" s="8"/>
+      <c r="AJ72" s="8"/>
+      <c r="AK72" s="8"/>
+      <c r="AL72" s="8"/>
+      <c r="AM72" s="7"/>
+      <c r="AN72" s="7"/>
+    </row>
+    <row r="73" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="8"/>
+      <c r="P73" s="8"/>
+      <c r="Q73" s="8"/>
+      <c r="R73" s="8"/>
+      <c r="S73" s="8"/>
+      <c r="T73" s="8"/>
+      <c r="U73" s="8"/>
+      <c r="V73" s="8"/>
+      <c r="W73" s="8"/>
+      <c r="X73" s="8"/>
+      <c r="Y73" s="8"/>
+      <c r="Z73" s="8"/>
+      <c r="AA73" s="8"/>
+      <c r="AB73" s="8"/>
+      <c r="AC73" s="8"/>
+      <c r="AD73" s="8"/>
+      <c r="AE73" s="8"/>
+      <c r="AF73" s="8"/>
+      <c r="AG73" s="8"/>
+      <c r="AH73" s="8"/>
+      <c r="AI73" s="8"/>
+      <c r="AJ73" s="8"/>
+      <c r="AK73" s="8"/>
+      <c r="AL73" s="8"/>
+      <c r="AM73" s="7"/>
+      <c r="AN73" s="7"/>
+    </row>
+    <row r="74" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="6"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="10"/>
+      <c r="R74" s="10"/>
+      <c r="S74" s="10"/>
+      <c r="T74" s="10"/>
+      <c r="U74" s="10"/>
+      <c r="V74" s="10"/>
+      <c r="W74" s="10"/>
+      <c r="X74" s="10"/>
+      <c r="Y74" s="10"/>
+      <c r="Z74" s="10"/>
+      <c r="AA74" s="10"/>
+      <c r="AB74" s="10"/>
+      <c r="AC74" s="10"/>
+      <c r="AD74" s="10"/>
+      <c r="AE74" s="10"/>
+      <c r="AF74" s="10"/>
+      <c r="AG74" s="10"/>
+      <c r="AH74" s="10"/>
+      <c r="AI74" s="10"/>
+      <c r="AJ74" s="10"/>
+      <c r="AK74" s="10"/>
+      <c r="AL74" s="10"/>
+      <c r="AM74" s="11"/>
+      <c r="AN74" s="7"/>
+    </row>
+    <row r="75" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="9"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="10"/>
+      <c r="R75" s="10"/>
+      <c r="S75" s="10"/>
+      <c r="T75" s="10"/>
+      <c r="U75" s="10"/>
+      <c r="V75" s="10"/>
+      <c r="W75" s="10"/>
+      <c r="X75" s="10"/>
+      <c r="Y75" s="10"/>
+      <c r="Z75" s="10"/>
+      <c r="AA75" s="10"/>
+      <c r="AB75" s="10"/>
+      <c r="AC75" s="10"/>
+      <c r="AD75" s="10"/>
+      <c r="AE75" s="10"/>
+      <c r="AF75" s="10"/>
+      <c r="AG75" s="10"/>
+      <c r="AH75" s="10"/>
+      <c r="AI75" s="10"/>
+      <c r="AJ75" s="10"/>
+      <c r="AK75" s="10"/>
+      <c r="AL75" s="10"/>
+      <c r="AM75" s="10"/>
+      <c r="AN75" s="11"/>
+    </row>
+    <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="3"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="4"/>
+      <c r="S76" s="4"/>
+      <c r="T76" s="4"/>
+      <c r="U76" s="4"/>
+      <c r="V76" s="4"/>
+      <c r="W76" s="4"/>
+      <c r="X76" s="4"/>
+      <c r="Y76" s="4"/>
+      <c r="Z76" s="4"/>
+      <c r="AA76" s="4"/>
+      <c r="AB76" s="4"/>
+      <c r="AC76" s="4"/>
+      <c r="AD76" s="4"/>
+      <c r="AE76" s="4"/>
+      <c r="AF76" s="4"/>
+      <c r="AG76" s="4"/>
+      <c r="AH76" s="4"/>
+      <c r="AI76" s="4"/>
+      <c r="AJ76" s="4"/>
+      <c r="AK76" s="4"/>
+      <c r="AL76" s="4"/>
+      <c r="AM76" s="4"/>
+      <c r="AN76" s="5"/>
+    </row>
+    <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="6"/>
+      <c r="B77" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="4"/>
+      <c r="S77" s="4"/>
+      <c r="T77" s="4"/>
+      <c r="U77" s="4"/>
+      <c r="V77" s="4"/>
+      <c r="W77" s="4"/>
+      <c r="X77" s="4"/>
+      <c r="Y77" s="4"/>
+      <c r="Z77" s="4"/>
+      <c r="AA77" s="4"/>
+      <c r="AB77" s="4"/>
+      <c r="AC77" s="4"/>
+      <c r="AD77" s="4"/>
+      <c r="AE77" s="4"/>
+      <c r="AF77" s="4"/>
+      <c r="AG77" s="4"/>
+      <c r="AH77" s="4"/>
+      <c r="AI77" s="4"/>
+      <c r="AJ77" s="4"/>
+      <c r="AK77" s="4"/>
+      <c r="AL77" s="4"/>
+      <c r="AM77" s="5"/>
+      <c r="AN77" s="7"/>
+    </row>
+    <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="2"/>
+      <c r="X78" s="2"/>
+      <c r="Y78" s="2"/>
+      <c r="Z78" s="2"/>
+      <c r="AA78" s="2"/>
+      <c r="AB78" s="2"/>
+      <c r="AC78" s="2"/>
+      <c r="AD78" s="2"/>
+      <c r="AE78" s="2"/>
+      <c r="AF78" s="2"/>
+      <c r="AG78" s="2"/>
+      <c r="AH78" s="2"/>
+      <c r="AI78" s="2"/>
+      <c r="AJ78" s="2"/>
+      <c r="AK78" s="2"/>
+      <c r="AL78" s="2"/>
+      <c r="AM78" s="7"/>
+      <c r="AN78" s="7"/>
+    </row>
+    <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="6"/>
+      <c r="B79" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="13"/>
+      <c r="D79" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79" s="16"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="17"/>
+      <c r="L79" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M79" s="15"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="P79" s="15"/>
+      <c r="Q79" s="15"/>
+      <c r="R79" s="17"/>
+      <c r="S79" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="T79" s="17"/>
+      <c r="U79" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="V79" s="17"/>
+      <c r="W79" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="X79" s="15"/>
+      <c r="Y79" s="15"/>
+      <c r="Z79" s="17"/>
+      <c r="AA79" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB79" s="15"/>
+      <c r="AC79" s="17"/>
+      <c r="AD79" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE79" s="15"/>
+      <c r="AF79" s="15"/>
+      <c r="AG79" s="15"/>
+      <c r="AH79" s="15"/>
+      <c r="AI79" s="15"/>
+      <c r="AJ79" s="15"/>
+      <c r="AK79" s="15"/>
+      <c r="AL79" s="15"/>
+      <c r="AM79" s="18"/>
+      <c r="AN79" s="7"/>
+    </row>
+    <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="6"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="13">
+        <v>1</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="I80" s="16"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="17"/>
+      <c r="L80" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="M80" s="15"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P80" s="15"/>
+      <c r="Q80" s="15"/>
+      <c r="R80" s="17"/>
+      <c r="S80" s="14"/>
+      <c r="T80" s="17">
+        <v>1</v>
+      </c>
+      <c r="U80" s="14"/>
+      <c r="V80" s="17">
+        <v>36</v>
+      </c>
+      <c r="W80" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="X80" s="15"/>
+      <c r="Y80" s="15"/>
+      <c r="Z80" s="17"/>
+      <c r="AA80" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB80" s="15"/>
+      <c r="AC80" s="17"/>
+      <c r="AD80" s="14"/>
+      <c r="AE80" s="15"/>
+      <c r="AF80" s="15"/>
+      <c r="AG80" s="15"/>
+      <c r="AH80" s="15"/>
+      <c r="AI80" s="15"/>
+      <c r="AJ80" s="15"/>
+      <c r="AK80" s="15"/>
+      <c r="AL80" s="15"/>
+      <c r="AM80" s="18"/>
+      <c r="AN80" s="7"/>
+    </row>
+    <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="6"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="13">
+        <v>2</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="I81" s="16"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="17"/>
+      <c r="L81" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="M81" s="15"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P81" s="15"/>
+      <c r="Q81" s="15"/>
+      <c r="R81" s="17"/>
+      <c r="S81" s="14"/>
+      <c r="T81" s="17">
+        <v>0</v>
+      </c>
+      <c r="U81" s="14"/>
+      <c r="V81" s="17">
+        <v>200</v>
+      </c>
+      <c r="W81" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="X81" s="15"/>
+      <c r="Y81" s="15"/>
+      <c r="Z81" s="17"/>
+      <c r="AA81" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB81" s="15"/>
+      <c r="AC81" s="17"/>
+      <c r="AD81" s="14"/>
+      <c r="AE81" s="15"/>
+      <c r="AF81" s="15"/>
+      <c r="AG81" s="15"/>
+      <c r="AH81" s="15"/>
+      <c r="AI81" s="15"/>
+      <c r="AJ81" s="15"/>
+      <c r="AK81" s="15"/>
+      <c r="AL81" s="15"/>
+      <c r="AM81" s="18"/>
+      <c r="AN81" s="7"/>
+    </row>
+    <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="6"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="13">
+        <v>3</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="I82" s="16"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="M82" s="15"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="14"/>
+      <c r="P82" s="15"/>
+      <c r="Q82" s="15"/>
+      <c r="R82" s="17"/>
+      <c r="S82" s="14"/>
+      <c r="T82" s="17"/>
+      <c r="U82" s="14"/>
+      <c r="V82" s="17"/>
+      <c r="W82" s="14"/>
+      <c r="X82" s="15"/>
+      <c r="Y82" s="15"/>
+      <c r="Z82" s="17"/>
+      <c r="AA82" s="14"/>
+      <c r="AB82" s="15"/>
+      <c r="AC82" s="17"/>
+      <c r="AD82" s="14"/>
+      <c r="AE82" s="15"/>
+      <c r="AF82" s="15"/>
+      <c r="AG82" s="15"/>
+      <c r="AH82" s="15"/>
+      <c r="AI82" s="15"/>
+      <c r="AJ82" s="15"/>
+      <c r="AK82" s="15"/>
+      <c r="AL82" s="15"/>
+      <c r="AM82" s="18"/>
+      <c r="AN82" s="7"/>
+    </row>
+    <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="6"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="13">
+        <v>4</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="I83" s="16"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="17"/>
+      <c r="L83" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="M83" s="15"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="P83" s="15"/>
+      <c r="Q83" s="15"/>
+      <c r="R83" s="17"/>
+      <c r="S83" s="14"/>
+      <c r="T83" s="17">
+        <v>0</v>
+      </c>
+      <c r="U83" s="14"/>
+      <c r="V83" s="17">
+        <v>500</v>
+      </c>
+      <c r="W83" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="X83" s="15"/>
+      <c r="Y83" s="15"/>
+      <c r="Z83" s="17"/>
+      <c r="AA83" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB83" s="15"/>
+      <c r="AC83" s="17"/>
+      <c r="AD83" s="14"/>
+      <c r="AE83" s="15"/>
+      <c r="AF83" s="15"/>
+      <c r="AG83" s="15"/>
+      <c r="AH83" s="15"/>
+      <c r="AI83" s="15"/>
+      <c r="AJ83" s="15"/>
+      <c r="AK83" s="15"/>
+      <c r="AL83" s="15"/>
+      <c r="AM83" s="18"/>
+      <c r="AN83" s="7"/>
+    </row>
+    <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="6"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="16"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="17"/>
+      <c r="L84" s="14"/>
+      <c r="M84" s="15"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="14"/>
+      <c r="P84" s="15"/>
+      <c r="Q84" s="15"/>
+      <c r="R84" s="17"/>
+      <c r="S84" s="14"/>
+      <c r="T84" s="17"/>
+      <c r="U84" s="14"/>
+      <c r="V84" s="17"/>
+      <c r="W84" s="14"/>
+      <c r="X84" s="15"/>
+      <c r="Y84" s="15"/>
+      <c r="Z84" s="17"/>
+      <c r="AA84" s="14"/>
+      <c r="AB84" s="15"/>
+      <c r="AC84" s="17"/>
+      <c r="AD84" s="14"/>
+      <c r="AE84" s="15"/>
+      <c r="AF84" s="15"/>
+      <c r="AG84" s="15"/>
+      <c r="AH84" s="15"/>
+      <c r="AI84" s="15"/>
+      <c r="AJ84" s="15"/>
+      <c r="AK84" s="15"/>
+      <c r="AL84" s="15"/>
+      <c r="AM84" s="18"/>
+      <c r="AN84" s="7"/>
+    </row>
+    <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="6"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="16"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="17"/>
+      <c r="L85" s="14"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="14"/>
+      <c r="P85" s="15"/>
+      <c r="Q85" s="15"/>
+      <c r="R85" s="17"/>
+      <c r="S85" s="14"/>
+      <c r="T85" s="17"/>
+      <c r="U85" s="14"/>
+      <c r="V85" s="17"/>
+      <c r="W85" s="14"/>
+      <c r="X85" s="15"/>
+      <c r="Y85" s="15"/>
+      <c r="Z85" s="17"/>
+      <c r="AA85" s="14"/>
+      <c r="AB85" s="15"/>
+      <c r="AC85" s="17"/>
+      <c r="AD85" s="14"/>
+      <c r="AE85" s="15"/>
+      <c r="AF85" s="15"/>
+      <c r="AG85" s="15"/>
+      <c r="AH85" s="15"/>
+      <c r="AI85" s="15"/>
+      <c r="AJ85" s="15"/>
+      <c r="AK85" s="15"/>
+      <c r="AL85" s="15"/>
+      <c r="AM85" s="18"/>
+      <c r="AN85" s="7"/>
+    </row>
+    <row r="86" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="6"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="16"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="17"/>
+      <c r="L86" s="14"/>
+      <c r="M86" s="15"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="14"/>
+      <c r="P86" s="15"/>
+      <c r="Q86" s="15"/>
+      <c r="R86" s="17"/>
+      <c r="S86" s="14"/>
+      <c r="T86" s="17"/>
+      <c r="U86" s="14"/>
+      <c r="V86" s="17"/>
+      <c r="W86" s="14"/>
+      <c r="X86" s="15"/>
+      <c r="Y86" s="15"/>
+      <c r="Z86" s="17"/>
+      <c r="AA86" s="14"/>
+      <c r="AB86" s="15"/>
+      <c r="AC86" s="17"/>
+      <c r="AD86" s="14"/>
+      <c r="AE86" s="15"/>
+      <c r="AF86" s="15"/>
+      <c r="AG86" s="15"/>
+      <c r="AH86" s="15"/>
+      <c r="AI86" s="15"/>
+      <c r="AJ86" s="15"/>
+      <c r="AK86" s="15"/>
+      <c r="AL86" s="15"/>
+      <c r="AM86" s="18"/>
+      <c r="AN86" s="7"/>
+    </row>
+    <row r="87" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="6"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="16"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="17"/>
+      <c r="L87" s="14"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="14"/>
+      <c r="P87" s="15"/>
+      <c r="Q87" s="15"/>
+      <c r="R87" s="17"/>
+      <c r="S87" s="14"/>
+      <c r="T87" s="17"/>
+      <c r="U87" s="14"/>
+      <c r="V87" s="17"/>
+      <c r="W87" s="14"/>
+      <c r="X87" s="15"/>
+      <c r="Y87" s="15"/>
+      <c r="Z87" s="17"/>
+      <c r="AA87" s="14"/>
+      <c r="AB87" s="15"/>
+      <c r="AC87" s="17"/>
+      <c r="AD87" s="14"/>
+      <c r="AE87" s="15"/>
+      <c r="AF87" s="15"/>
+      <c r="AG87" s="15"/>
+      <c r="AH87" s="15"/>
+      <c r="AI87" s="15"/>
+      <c r="AJ87" s="15"/>
+      <c r="AK87" s="15"/>
+      <c r="AL87" s="15"/>
+      <c r="AM87" s="18"/>
+      <c r="AN87" s="7"/>
+    </row>
+    <row r="88" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="6"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="16"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="14"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="14"/>
+      <c r="P88" s="15"/>
+      <c r="Q88" s="15"/>
+      <c r="R88" s="17"/>
+      <c r="S88" s="14"/>
+      <c r="T88" s="17"/>
+      <c r="U88" s="14"/>
+      <c r="V88" s="17"/>
+      <c r="W88" s="14"/>
+      <c r="X88" s="15"/>
+      <c r="Y88" s="15"/>
+      <c r="Z88" s="17"/>
+      <c r="AA88" s="14"/>
+      <c r="AB88" s="15"/>
+      <c r="AC88" s="17"/>
+      <c r="AD88" s="14"/>
+      <c r="AE88" s="15"/>
+      <c r="AF88" s="15"/>
+      <c r="AG88" s="15"/>
+      <c r="AH88" s="15"/>
+      <c r="AI88" s="15"/>
+      <c r="AJ88" s="15"/>
+      <c r="AK88" s="15"/>
+      <c r="AL88" s="15"/>
+      <c r="AM88" s="18"/>
+      <c r="AN88" s="7"/>
+    </row>
+    <row r="89" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="6"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="16"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="17"/>
+      <c r="L89" s="14"/>
+      <c r="M89" s="15"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="14"/>
+      <c r="P89" s="15"/>
+      <c r="Q89" s="15"/>
+      <c r="R89" s="17"/>
+      <c r="S89" s="14"/>
+      <c r="T89" s="17"/>
+      <c r="U89" s="14"/>
+      <c r="V89" s="17"/>
+      <c r="W89" s="14"/>
+      <c r="X89" s="15"/>
+      <c r="Y89" s="15"/>
+      <c r="Z89" s="17"/>
+      <c r="AA89" s="14"/>
+      <c r="AB89" s="15"/>
+      <c r="AC89" s="17"/>
+      <c r="AD89" s="14"/>
+      <c r="AE89" s="15"/>
+      <c r="AF89" s="15"/>
+      <c r="AG89" s="15"/>
+      <c r="AH89" s="15"/>
+      <c r="AI89" s="15"/>
+      <c r="AJ89" s="15"/>
+      <c r="AK89" s="15"/>
+      <c r="AL89" s="15"/>
+      <c r="AM89" s="18"/>
+      <c r="AN89" s="7"/>
+    </row>
+    <row r="90" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="6"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="16"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="17"/>
+      <c r="L90" s="14"/>
+      <c r="M90" s="15"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="14"/>
+      <c r="P90" s="15"/>
+      <c r="Q90" s="15"/>
+      <c r="R90" s="17"/>
+      <c r="S90" s="14"/>
+      <c r="T90" s="17"/>
+      <c r="U90" s="14"/>
+      <c r="V90" s="17"/>
+      <c r="W90" s="14"/>
+      <c r="X90" s="15"/>
+      <c r="Y90" s="15"/>
+      <c r="Z90" s="17"/>
+      <c r="AA90" s="14"/>
+      <c r="AB90" s="15"/>
+      <c r="AC90" s="17"/>
+      <c r="AD90" s="14"/>
+      <c r="AE90" s="15"/>
+      <c r="AF90" s="15"/>
+      <c r="AG90" s="15"/>
+      <c r="AH90" s="15"/>
+      <c r="AI90" s="15"/>
+      <c r="AJ90" s="15"/>
+      <c r="AK90" s="15"/>
+      <c r="AL90" s="15"/>
+      <c r="AM90" s="18"/>
+      <c r="AN90" s="7"/>
+    </row>
+    <row r="91" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="6"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="16"/>
+      <c r="J91" s="15"/>
+      <c r="K91" s="17"/>
+      <c r="L91" s="14"/>
+      <c r="M91" s="15"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="14"/>
+      <c r="P91" s="15"/>
+      <c r="Q91" s="15"/>
+      <c r="R91" s="17"/>
+      <c r="S91" s="14"/>
+      <c r="T91" s="17"/>
+      <c r="U91" s="14"/>
+      <c r="V91" s="17"/>
+      <c r="W91" s="14"/>
+      <c r="X91" s="15"/>
+      <c r="Y91" s="15"/>
+      <c r="Z91" s="17"/>
+      <c r="AA91" s="14"/>
+      <c r="AB91" s="15"/>
+      <c r="AC91" s="17"/>
+      <c r="AD91" s="14"/>
+      <c r="AE91" s="15"/>
+      <c r="AF91" s="15"/>
+      <c r="AG91" s="15"/>
+      <c r="AH91" s="15"/>
+      <c r="AI91" s="15"/>
+      <c r="AJ91" s="15"/>
+      <c r="AK91" s="15"/>
+      <c r="AL91" s="15"/>
+      <c r="AM91" s="18"/>
+      <c r="AN91" s="7"/>
+    </row>
+    <row r="92" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="6"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="16"/>
+      <c r="J92" s="15"/>
+      <c r="K92" s="17"/>
+      <c r="L92" s="14"/>
+      <c r="M92" s="15"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="14"/>
+      <c r="P92" s="15"/>
+      <c r="Q92" s="15"/>
+      <c r="R92" s="17"/>
+      <c r="S92" s="14"/>
+      <c r="T92" s="17"/>
+      <c r="U92" s="14"/>
+      <c r="V92" s="17"/>
+      <c r="W92" s="14"/>
+      <c r="X92" s="15"/>
+      <c r="Y92" s="15"/>
+      <c r="Z92" s="17"/>
+      <c r="AA92" s="14"/>
+      <c r="AB92" s="15"/>
+      <c r="AC92" s="17"/>
+      <c r="AD92" s="14"/>
+      <c r="AE92" s="15"/>
+      <c r="AF92" s="15"/>
+      <c r="AG92" s="15"/>
+      <c r="AH92" s="15"/>
+      <c r="AI92" s="15"/>
+      <c r="AJ92" s="15"/>
+      <c r="AK92" s="15"/>
+      <c r="AL92" s="15"/>
+      <c r="AM92" s="18"/>
+      <c r="AN92" s="7"/>
+    </row>
+    <row r="93" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="6"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="16"/>
+      <c r="J93" s="15"/>
+      <c r="K93" s="17"/>
+      <c r="L93" s="14"/>
+      <c r="M93" s="15"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="14"/>
+      <c r="P93" s="15"/>
+      <c r="Q93" s="15"/>
+      <c r="R93" s="17"/>
+      <c r="S93" s="14"/>
+      <c r="T93" s="17"/>
+      <c r="U93" s="14"/>
+      <c r="V93" s="17"/>
+      <c r="W93" s="14"/>
+      <c r="X93" s="15"/>
+      <c r="Y93" s="15"/>
+      <c r="Z93" s="17"/>
+      <c r="AA93" s="14"/>
+      <c r="AB93" s="15"/>
+      <c r="AC93" s="17"/>
+      <c r="AD93" s="14"/>
+      <c r="AE93" s="15"/>
+      <c r="AF93" s="15"/>
+      <c r="AG93" s="15"/>
+      <c r="AH93" s="15"/>
+      <c r="AI93" s="15"/>
+      <c r="AJ93" s="15"/>
+      <c r="AK93" s="15"/>
+      <c r="AL93" s="15"/>
+      <c r="AM93" s="18"/>
+      <c r="AN93" s="7"/>
+    </row>
+    <row r="94" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="6"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="16"/>
+      <c r="J94" s="15"/>
+      <c r="K94" s="17"/>
+      <c r="L94" s="14"/>
+      <c r="M94" s="15"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="14"/>
+      <c r="P94" s="15"/>
+      <c r="Q94" s="15"/>
+      <c r="R94" s="17"/>
+      <c r="S94" s="14"/>
+      <c r="T94" s="17"/>
+      <c r="U94" s="14"/>
+      <c r="V94" s="17"/>
+      <c r="W94" s="14"/>
+      <c r="X94" s="15"/>
+      <c r="Y94" s="15"/>
+      <c r="Z94" s="17"/>
+      <c r="AA94" s="14"/>
+      <c r="AB94" s="15"/>
+      <c r="AC94" s="17"/>
+      <c r="AD94" s="14"/>
+      <c r="AE94" s="15"/>
+      <c r="AF94" s="15"/>
+      <c r="AG94" s="15"/>
+      <c r="AH94" s="15"/>
+      <c r="AI94" s="15"/>
+      <c r="AJ94" s="15"/>
+      <c r="AK94" s="15"/>
+      <c r="AL94" s="15"/>
+      <c r="AM94" s="18"/>
+      <c r="AN94" s="7"/>
+    </row>
+    <row r="95" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="6"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="16"/>
+      <c r="J95" s="15"/>
+      <c r="K95" s="17"/>
+      <c r="L95" s="14"/>
+      <c r="M95" s="15"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="14"/>
+      <c r="P95" s="15"/>
+      <c r="Q95" s="15"/>
+      <c r="R95" s="17"/>
+      <c r="S95" s="14"/>
+      <c r="T95" s="17"/>
+      <c r="U95" s="14"/>
+      <c r="V95" s="17"/>
+      <c r="W95" s="14"/>
+      <c r="X95" s="15"/>
+      <c r="Y95" s="15"/>
+      <c r="Z95" s="17"/>
+      <c r="AA95" s="14"/>
+      <c r="AB95" s="15"/>
+      <c r="AC95" s="17"/>
+      <c r="AD95" s="14"/>
+      <c r="AE95" s="15"/>
+      <c r="AF95" s="15"/>
+      <c r="AG95" s="15"/>
+      <c r="AH95" s="15"/>
+      <c r="AI95" s="15"/>
+      <c r="AJ95" s="15"/>
+      <c r="AK95" s="15"/>
+      <c r="AL95" s="15"/>
+      <c r="AM95" s="18"/>
+      <c r="AN95" s="7"/>
+    </row>
+    <row r="96" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="6"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="16"/>
+      <c r="J96" s="15"/>
+      <c r="K96" s="17"/>
+      <c r="L96" s="14"/>
+      <c r="M96" s="15"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="14"/>
+      <c r="P96" s="15"/>
+      <c r="Q96" s="15"/>
+      <c r="R96" s="17"/>
+      <c r="S96" s="14"/>
+      <c r="T96" s="17"/>
+      <c r="U96" s="14"/>
+      <c r="V96" s="17"/>
+      <c r="W96" s="14"/>
+      <c r="X96" s="15"/>
+      <c r="Y96" s="15"/>
+      <c r="Z96" s="17"/>
+      <c r="AA96" s="14"/>
+      <c r="AB96" s="15"/>
+      <c r="AC96" s="17"/>
+      <c r="AD96" s="14"/>
+      <c r="AE96" s="15"/>
+      <c r="AF96" s="15"/>
+      <c r="AG96" s="15"/>
+      <c r="AH96" s="15"/>
+      <c r="AI96" s="15"/>
+      <c r="AJ96" s="15"/>
+      <c r="AK96" s="15"/>
+      <c r="AL96" s="15"/>
+      <c r="AM96" s="18"/>
+      <c r="AN96" s="7"/>
+    </row>
+    <row r="97" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="6"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="16"/>
+      <c r="J97" s="15"/>
+      <c r="K97" s="17"/>
+      <c r="L97" s="14"/>
+      <c r="M97" s="15"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="14"/>
+      <c r="P97" s="15"/>
+      <c r="Q97" s="15"/>
+      <c r="R97" s="17"/>
+      <c r="S97" s="14"/>
+      <c r="T97" s="17"/>
+      <c r="U97" s="14"/>
+      <c r="V97" s="17"/>
+      <c r="W97" s="14"/>
+      <c r="X97" s="15"/>
+      <c r="Y97" s="15"/>
+      <c r="Z97" s="17"/>
+      <c r="AA97" s="14"/>
+      <c r="AB97" s="15"/>
+      <c r="AC97" s="17"/>
+      <c r="AD97" s="14"/>
+      <c r="AE97" s="15"/>
+      <c r="AF97" s="15"/>
+      <c r="AG97" s="15"/>
+      <c r="AH97" s="15"/>
+      <c r="AI97" s="15"/>
+      <c r="AJ97" s="15"/>
+      <c r="AK97" s="15"/>
+      <c r="AL97" s="15"/>
+      <c r="AM97" s="18"/>
+      <c r="AN97" s="7"/>
+    </row>
+    <row r="98" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="6"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="16"/>
+      <c r="J98" s="15"/>
+      <c r="K98" s="17"/>
+      <c r="L98" s="14"/>
+      <c r="M98" s="15"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="14"/>
+      <c r="P98" s="15"/>
+      <c r="Q98" s="15"/>
+      <c r="R98" s="17"/>
+      <c r="S98" s="14"/>
+      <c r="T98" s="17"/>
+      <c r="U98" s="14"/>
+      <c r="V98" s="17"/>
+      <c r="W98" s="14"/>
+      <c r="X98" s="15"/>
+      <c r="Y98" s="15"/>
+      <c r="Z98" s="17"/>
+      <c r="AA98" s="14"/>
+      <c r="AB98" s="15"/>
+      <c r="AC98" s="17"/>
+      <c r="AD98" s="14"/>
+      <c r="AE98" s="15"/>
+      <c r="AF98" s="15"/>
+      <c r="AG98" s="15"/>
+      <c r="AH98" s="15"/>
+      <c r="AI98" s="15"/>
+      <c r="AJ98" s="15"/>
+      <c r="AK98" s="15"/>
+      <c r="AL98" s="15"/>
+      <c r="AM98" s="18"/>
+      <c r="AN98" s="7"/>
+    </row>
+    <row r="99" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="6"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="16"/>
+      <c r="J99" s="15"/>
+      <c r="K99" s="17"/>
+      <c r="L99" s="14"/>
+      <c r="M99" s="15"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="14"/>
+      <c r="P99" s="15"/>
+      <c r="Q99" s="15"/>
+      <c r="R99" s="17"/>
+      <c r="S99" s="14"/>
+      <c r="T99" s="17"/>
+      <c r="U99" s="14"/>
+      <c r="V99" s="17"/>
+      <c r="W99" s="14"/>
+      <c r="X99" s="15"/>
+      <c r="Y99" s="15"/>
+      <c r="Z99" s="17"/>
+      <c r="AA99" s="14"/>
+      <c r="AB99" s="15"/>
+      <c r="AC99" s="17"/>
+      <c r="AD99" s="14"/>
+      <c r="AE99" s="15"/>
+      <c r="AF99" s="15"/>
+      <c r="AG99" s="15"/>
+      <c r="AH99" s="15"/>
+      <c r="AI99" s="15"/>
+      <c r="AJ99" s="15"/>
+      <c r="AK99" s="15"/>
+      <c r="AL99" s="15"/>
+      <c r="AM99" s="18"/>
+      <c r="AN99" s="7"/>
+    </row>
+    <row r="100" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="6"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="16"/>
+      <c r="J100" s="15"/>
+      <c r="K100" s="17"/>
+      <c r="L100" s="14"/>
+      <c r="M100" s="15"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="14"/>
+      <c r="P100" s="15"/>
+      <c r="Q100" s="15"/>
+      <c r="R100" s="17"/>
+      <c r="S100" s="14"/>
+      <c r="T100" s="17"/>
+      <c r="U100" s="14"/>
+      <c r="V100" s="17"/>
+      <c r="W100" s="14"/>
+      <c r="X100" s="15"/>
+      <c r="Y100" s="15"/>
+      <c r="Z100" s="17"/>
+      <c r="AA100" s="14"/>
+      <c r="AB100" s="15"/>
+      <c r="AC100" s="17"/>
+      <c r="AD100" s="14"/>
+      <c r="AE100" s="15"/>
+      <c r="AF100" s="15"/>
+      <c r="AG100" s="15"/>
+      <c r="AH100" s="15"/>
+      <c r="AI100" s="15"/>
+      <c r="AJ100" s="15"/>
+      <c r="AK100" s="15"/>
+      <c r="AL100" s="15"/>
+      <c r="AM100" s="18"/>
+      <c r="AN100" s="7"/>
+    </row>
+    <row r="101" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="6"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="16"/>
+      <c r="J101" s="15"/>
+      <c r="K101" s="17"/>
+      <c r="L101" s="14"/>
+      <c r="M101" s="15"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="14"/>
+      <c r="P101" s="15"/>
+      <c r="Q101" s="15"/>
+      <c r="R101" s="17"/>
+      <c r="S101" s="14"/>
+      <c r="T101" s="17"/>
+      <c r="U101" s="14"/>
+      <c r="V101" s="17"/>
+      <c r="W101" s="14"/>
+      <c r="X101" s="15"/>
+      <c r="Y101" s="15"/>
+      <c r="Z101" s="17"/>
+      <c r="AA101" s="14"/>
+      <c r="AB101" s="15"/>
+      <c r="AC101" s="17"/>
+      <c r="AD101" s="14"/>
+      <c r="AE101" s="15"/>
+      <c r="AF101" s="15"/>
+      <c r="AG101" s="15"/>
+      <c r="AH101" s="15"/>
+      <c r="AI101" s="15"/>
+      <c r="AJ101" s="15"/>
+      <c r="AK101" s="15"/>
+      <c r="AL101" s="15"/>
+      <c r="AM101" s="18"/>
+      <c r="AN101" s="7"/>
+    </row>
+    <row r="102" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="6"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="16"/>
+      <c r="J102" s="15"/>
+      <c r="K102" s="17"/>
+      <c r="L102" s="14"/>
+      <c r="M102" s="15"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="14"/>
+      <c r="P102" s="15"/>
+      <c r="Q102" s="15"/>
+      <c r="R102" s="17"/>
+      <c r="S102" s="14"/>
+      <c r="T102" s="17"/>
+      <c r="U102" s="14"/>
+      <c r="V102" s="17"/>
+      <c r="W102" s="14"/>
+      <c r="X102" s="15"/>
+      <c r="Y102" s="15"/>
+      <c r="Z102" s="17"/>
+      <c r="AA102" s="14"/>
+      <c r="AB102" s="15"/>
+      <c r="AC102" s="17"/>
+      <c r="AD102" s="14"/>
+      <c r="AE102" s="15"/>
+      <c r="AF102" s="15"/>
+      <c r="AG102" s="15"/>
+      <c r="AH102" s="15"/>
+      <c r="AI102" s="15"/>
+      <c r="AJ102" s="15"/>
+      <c r="AK102" s="15"/>
+      <c r="AL102" s="15"/>
+      <c r="AM102" s="18"/>
+      <c r="AN102" s="7"/>
+    </row>
+    <row r="103" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="6"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="16"/>
+      <c r="J103" s="15"/>
+      <c r="K103" s="17"/>
+      <c r="L103" s="14"/>
+      <c r="M103" s="15"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="14"/>
+      <c r="P103" s="15"/>
+      <c r="Q103" s="15"/>
+      <c r="R103" s="17"/>
+      <c r="S103" s="14"/>
+      <c r="T103" s="17"/>
+      <c r="U103" s="14"/>
+      <c r="V103" s="17"/>
+      <c r="W103" s="14"/>
+      <c r="X103" s="15"/>
+      <c r="Y103" s="15"/>
+      <c r="Z103" s="17"/>
+      <c r="AA103" s="14"/>
+      <c r="AB103" s="15"/>
+      <c r="AC103" s="17"/>
+      <c r="AD103" s="14"/>
+      <c r="AE103" s="15"/>
+      <c r="AF103" s="15"/>
+      <c r="AG103" s="15"/>
+      <c r="AH103" s="15"/>
+      <c r="AI103" s="15"/>
+      <c r="AJ103" s="15"/>
+      <c r="AK103" s="15"/>
+      <c r="AL103" s="15"/>
+      <c r="AM103" s="18"/>
+      <c r="AN103" s="7"/>
+    </row>
+    <row r="104" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="6"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="16"/>
+      <c r="J104" s="15"/>
+      <c r="K104" s="17"/>
+      <c r="L104" s="14"/>
+      <c r="M104" s="15"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="14"/>
+      <c r="P104" s="15"/>
+      <c r="Q104" s="15"/>
+      <c r="R104" s="17"/>
+      <c r="S104" s="14"/>
+      <c r="T104" s="17"/>
+      <c r="U104" s="14"/>
+      <c r="V104" s="17"/>
+      <c r="W104" s="14"/>
+      <c r="X104" s="15"/>
+      <c r="Y104" s="15"/>
+      <c r="Z104" s="17"/>
+      <c r="AA104" s="14"/>
+      <c r="AB104" s="15"/>
+      <c r="AC104" s="17"/>
+      <c r="AD104" s="14"/>
+      <c r="AE104" s="15"/>
+      <c r="AF104" s="15"/>
+      <c r="AG104" s="15"/>
+      <c r="AH104" s="15"/>
+      <c r="AI104" s="15"/>
+      <c r="AJ104" s="15"/>
+      <c r="AK104" s="15"/>
+      <c r="AL104" s="15"/>
+      <c r="AM104" s="18"/>
+      <c r="AN104" s="7"/>
+    </row>
+    <row r="105" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="6"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="16"/>
+      <c r="J105" s="15"/>
+      <c r="K105" s="17"/>
+      <c r="L105" s="14"/>
+      <c r="M105" s="15"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="14"/>
+      <c r="P105" s="15"/>
+      <c r="Q105" s="15"/>
+      <c r="R105" s="17"/>
+      <c r="S105" s="14"/>
+      <c r="T105" s="17"/>
+      <c r="U105" s="14"/>
+      <c r="V105" s="17"/>
+      <c r="W105" s="14"/>
+      <c r="X105" s="15"/>
+      <c r="Y105" s="15"/>
+      <c r="Z105" s="17"/>
+      <c r="AA105" s="14"/>
+      <c r="AB105" s="15"/>
+      <c r="AC105" s="17"/>
+      <c r="AD105" s="14"/>
+      <c r="AE105" s="15"/>
+      <c r="AF105" s="15"/>
+      <c r="AG105" s="15"/>
+      <c r="AH105" s="15"/>
+      <c r="AI105" s="15"/>
+      <c r="AJ105" s="15"/>
+      <c r="AK105" s="15"/>
+      <c r="AL105" s="15"/>
+      <c r="AM105" s="18"/>
+      <c r="AN105" s="7"/>
+    </row>
+    <row r="106" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="6"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="16"/>
+      <c r="J106" s="15"/>
+      <c r="K106" s="17"/>
+      <c r="L106" s="14"/>
+      <c r="M106" s="15"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="14"/>
+      <c r="P106" s="15"/>
+      <c r="Q106" s="15"/>
+      <c r="R106" s="17"/>
+      <c r="S106" s="14"/>
+      <c r="T106" s="17"/>
+      <c r="U106" s="14"/>
+      <c r="V106" s="17"/>
+      <c r="W106" s="14"/>
+      <c r="X106" s="15"/>
+      <c r="Y106" s="15"/>
+      <c r="Z106" s="17"/>
+      <c r="AA106" s="14"/>
+      <c r="AB106" s="15"/>
+      <c r="AC106" s="17"/>
+      <c r="AD106" s="14"/>
+      <c r="AE106" s="15"/>
+      <c r="AF106" s="15"/>
+      <c r="AG106" s="15"/>
+      <c r="AH106" s="15"/>
+      <c r="AI106" s="15"/>
+      <c r="AJ106" s="15"/>
+      <c r="AK106" s="15"/>
+      <c r="AL106" s="15"/>
+      <c r="AM106" s="18"/>
+      <c r="AN106" s="7"/>
+    </row>
+    <row r="107" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="6"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="14"/>
+      <c r="I107" s="16"/>
+      <c r="J107" s="15"/>
+      <c r="K107" s="17"/>
+      <c r="L107" s="14"/>
+      <c r="M107" s="15"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="14"/>
+      <c r="P107" s="15"/>
+      <c r="Q107" s="15"/>
+      <c r="R107" s="17"/>
+      <c r="S107" s="14"/>
+      <c r="T107" s="17"/>
+      <c r="U107" s="14"/>
+      <c r="V107" s="17"/>
+      <c r="W107" s="14"/>
+      <c r="X107" s="15"/>
+      <c r="Y107" s="15"/>
+      <c r="Z107" s="17"/>
+      <c r="AA107" s="14"/>
+      <c r="AB107" s="15"/>
+      <c r="AC107" s="17"/>
+      <c r="AD107" s="14"/>
+      <c r="AE107" s="15"/>
+      <c r="AF107" s="15"/>
+      <c r="AG107" s="15"/>
+      <c r="AH107" s="15"/>
+      <c r="AI107" s="15"/>
+      <c r="AJ107" s="15"/>
+      <c r="AK107" s="15"/>
+      <c r="AL107" s="15"/>
+      <c r="AM107" s="18"/>
+      <c r="AN107" s="7"/>
+    </row>
+    <row r="108" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="6"/>
+      <c r="B108" s="12"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="14"/>
+      <c r="I108" s="16"/>
+      <c r="J108" s="15"/>
+      <c r="K108" s="17"/>
+      <c r="L108" s="14"/>
+      <c r="M108" s="15"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="14"/>
+      <c r="P108" s="15"/>
+      <c r="Q108" s="15"/>
+      <c r="R108" s="17"/>
+      <c r="S108" s="14"/>
+      <c r="T108" s="17"/>
+      <c r="U108" s="14"/>
+      <c r="V108" s="17"/>
+      <c r="W108" s="14"/>
+      <c r="X108" s="15"/>
+      <c r="Y108" s="15"/>
+      <c r="Z108" s="17"/>
+      <c r="AA108" s="14"/>
+      <c r="AB108" s="15"/>
+      <c r="AC108" s="17"/>
+      <c r="AD108" s="14"/>
+      <c r="AE108" s="15"/>
+      <c r="AF108" s="15"/>
+      <c r="AG108" s="15"/>
+      <c r="AH108" s="15"/>
+      <c r="AI108" s="15"/>
+      <c r="AJ108" s="15"/>
+      <c r="AK108" s="15"/>
+      <c r="AL108" s="15"/>
+      <c r="AM108" s="18"/>
+      <c r="AN108" s="7"/>
+    </row>
+    <row r="109" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="6"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="16"/>
+      <c r="J109" s="15"/>
+      <c r="K109" s="17"/>
+      <c r="L109" s="14"/>
+      <c r="M109" s="15"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="14"/>
+      <c r="P109" s="15"/>
+      <c r="Q109" s="15"/>
+      <c r="R109" s="17"/>
+      <c r="S109" s="14"/>
+      <c r="T109" s="17"/>
+      <c r="U109" s="14"/>
+      <c r="V109" s="17"/>
+      <c r="W109" s="14"/>
+      <c r="X109" s="15"/>
+      <c r="Y109" s="15"/>
+      <c r="Z109" s="17"/>
+      <c r="AA109" s="14"/>
+      <c r="AB109" s="15"/>
+      <c r="AC109" s="17"/>
+      <c r="AD109" s="14"/>
+      <c r="AE109" s="15"/>
+      <c r="AF109" s="15"/>
+      <c r="AG109" s="15"/>
+      <c r="AH109" s="15"/>
+      <c r="AI109" s="15"/>
+      <c r="AJ109" s="15"/>
+      <c r="AK109" s="15"/>
+      <c r="AL109" s="15"/>
+      <c r="AM109" s="18"/>
+      <c r="AN109" s="7"/>
+    </row>
+    <row r="110" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="9"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="10"/>
+      <c r="I110" s="10"/>
+      <c r="J110" s="10"/>
+      <c r="K110" s="10"/>
+      <c r="L110" s="10"/>
+      <c r="M110" s="10"/>
+      <c r="N110" s="10"/>
+      <c r="O110" s="10"/>
+      <c r="P110" s="10"/>
+      <c r="Q110" s="10"/>
+      <c r="R110" s="10"/>
+      <c r="S110" s="10"/>
+      <c r="T110" s="10"/>
+      <c r="U110" s="10"/>
+      <c r="V110" s="10"/>
+      <c r="W110" s="10"/>
+      <c r="X110" s="10"/>
+      <c r="Y110" s="10"/>
+      <c r="Z110" s="10"/>
+      <c r="AA110" s="10"/>
+      <c r="AB110" s="10"/>
+      <c r="AC110" s="10"/>
+      <c r="AD110" s="10"/>
+      <c r="AE110" s="10"/>
+      <c r="AF110" s="10"/>
+      <c r="AG110" s="10"/>
+      <c r="AH110" s="10"/>
+      <c r="AI110" s="10"/>
+      <c r="AJ110" s="10"/>
+      <c r="AK110" s="10"/>
+      <c r="AL110" s="10"/>
+      <c r="AM110" s="10"/>
+      <c r="AN110" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:AE3"/>

--- a/doc/外部設計書/02_外部設計書_C4.xlsx
+++ b/doc/外部設計書/02_外部設計書_C4.xlsx
@@ -8,28 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C4\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E80B23-410A-49CA-ACC6-E93AC40DF733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C2FC43-6014-4300-AB17-16422BD4B1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン " sheetId="4" r:id="rId1"/>
     <sheet name="会員登録 " sheetId="5" r:id="rId2"/>
     <sheet name="プロフィール" sheetId="6" r:id="rId3"/>
     <sheet name="チャンネル" sheetId="7" r:id="rId4"/>
+    <sheet name="通知" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">チャンネル!$5:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">プロフィール!$5:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'ログイン '!$5:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'会員登録 '!$5:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">通知!$5:$5</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="149">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -1012,6 +1014,132 @@
     <t>チャンネル</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>↓</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ボタンを押したら</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>すべて：ボタンを押したらすべての通知が表示される</t>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>未読：ボタンを押したら未読の通知が表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ミドク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ミドク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>メンション：ボタンを押したらメンションされた通知を表示</t>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>リプライ：特定のメッセージを引用してコメントを加える</t>
+    <rPh sb="5" eb="7">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>インヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>クワ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ポスト：タイムラインのポストを張り付ける</t>
+    <rPh sb="15" eb="16">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>notiAll</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>すべて</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>noti</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>notiUnread</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>未読</t>
+    <rPh sb="0" eb="2">
+      <t>ミドク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>notiMention</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>メンション</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>notiReply</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>リプライ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>notiPost</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ポスト</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -1389,6 +1517,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1439,12 +1573,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5076,6 +5204,1189 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{884689A7-1471-463F-AAAD-D1E7C1AA841B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1379220" y="1569720"/>
+          <a:ext cx="2682240" cy="2628900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A331C99-DAEE-4D3E-8C18-93E885096AB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1988820" y="1569720"/>
+          <a:ext cx="7620" cy="2598420"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F794F8C2-4A34-44B3-94F3-0D78FA30B9E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="1767840"/>
+          <a:ext cx="373380" cy="1013460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>チャンネル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8F6B802-3704-4DC2-94B8-C709C966CA70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1508760" y="2956560"/>
+          <a:ext cx="304800" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DM</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B337910B-D582-41F0-8CCB-B4DD36ED7CEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1493520" y="3581400"/>
+          <a:ext cx="342900" cy="556260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>通知</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{252FF727-012B-46C2-815D-87FB47DAE254}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1211580" y="4503420"/>
+          <a:ext cx="6286500" cy="2872740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C740106-82F8-4FB3-96DD-30470CCB4085}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1516380" y="5082540"/>
+          <a:ext cx="4579620" cy="541020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ポスト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4F14ED0-5A29-41ED-81A0-89A1BD6F7E97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1531620" y="4640580"/>
+          <a:ext cx="1135380" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>すべて</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAAB8575-6F6E-46B0-BD05-C366773ED7BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2971800" y="4663440"/>
+          <a:ext cx="975360" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>未読</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31E8EBE9-5944-44C0-8169-32C4899AE3FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="4655820"/>
+          <a:ext cx="1013460" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メンション</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45EF8B94-D148-4B8F-ABBF-01506F975896}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5593080" y="4655820"/>
+          <a:ext cx="982980" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>リプライ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B87E0E8D-6291-49EC-80C7-6A0F66241B06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1874520" y="4358640"/>
+          <a:ext cx="327660" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76DBD63E-8AF0-4709-BA20-C317959F3D95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3307080" y="4343400"/>
+          <a:ext cx="327660" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C8E224A-392A-4273-A35D-0859DCA1B8DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4602480" y="4335780"/>
+          <a:ext cx="327660" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>③</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF029D69-ACE0-4B69-8D7F-23683CECF9F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5935980" y="4335780"/>
+          <a:ext cx="274320" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>④</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94F34A30-A4A3-401D-9121-FE037CF7805E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="5798820"/>
+          <a:ext cx="4602480" cy="548640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ポスト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E007697-8D04-4D5C-A538-D769FD1CCA99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="6545580"/>
+          <a:ext cx="4602480" cy="548640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ポスト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CC5EC42-D736-4981-8B85-3A08726E9C52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1013460" y="5935980"/>
+          <a:ext cx="327660" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>⑤</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -5375,198 +6686,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="28" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="29"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="31"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="30" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30" t="s">
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30" t="s">
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="31" t="s">
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="35"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="30" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30" t="s">
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="34">
+      <c r="X3" s="32"/>
+      <c r="Y3" s="36">
         <v>45450</v>
       </c>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="35" t="s">
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="35"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="36"/>
-      <c r="AL3" s="36"/>
-      <c r="AM3" s="36"/>
-      <c r="AN3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="19"/>
+      <c r="AJ3" s="19"/>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
+      <c r="AN3" s="20"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="19" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="20"/>
-      <c r="AH4" s="20"/>
-      <c r="AI4" s="20"/>
-      <c r="AJ4" s="20"/>
-      <c r="AK4" s="20"/>
-      <c r="AL4" s="20"/>
-      <c r="AM4" s="20"/>
-      <c r="AN4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="22"/>
+      <c r="AL4" s="22"/>
+      <c r="AM4" s="22"/>
+      <c r="AN4" s="23"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -9987,6 +11298,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
@@ -10003,7 +11315,6 @@
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -10029,200 +11340,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="28" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="29"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="31"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="30" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30" t="s">
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30" t="s">
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="31" t="s">
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="35"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="30" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30" t="s">
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30" t="s">
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="34">
+      <c r="X3" s="32"/>
+      <c r="Y3" s="36">
         <v>45450</v>
       </c>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="35" t="s">
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="35"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="36"/>
-      <c r="AL3" s="36"/>
-      <c r="AM3" s="36"/>
-      <c r="AN3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="19"/>
+      <c r="AJ3" s="19"/>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
+      <c r="AN3" s="20"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="19" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="20"/>
-      <c r="AH4" s="20"/>
-      <c r="AI4" s="20"/>
-      <c r="AJ4" s="20"/>
-      <c r="AK4" s="20"/>
-      <c r="AL4" s="20"/>
-      <c r="AM4" s="20"/>
-      <c r="AN4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="22"/>
+      <c r="AL4" s="22"/>
+      <c r="AM4" s="22"/>
+      <c r="AN4" s="23"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -14709,6 +16020,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
@@ -14725,7 +16037,6 @@
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -14751,200 +16062,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="28" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="29"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="31"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="30" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30" t="s">
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30" t="s">
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="31" t="s">
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="35"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="30" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30" t="s">
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30" t="s">
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="34">
+      <c r="X3" s="32"/>
+      <c r="Y3" s="36">
         <v>45453</v>
       </c>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="35" t="s">
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="35"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="36"/>
-      <c r="AL3" s="36"/>
-      <c r="AM3" s="36"/>
-      <c r="AN3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="19"/>
+      <c r="AJ3" s="19"/>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
+      <c r="AN3" s="20"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="19" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="20"/>
-      <c r="AH4" s="20"/>
-      <c r="AI4" s="20"/>
-      <c r="AJ4" s="20"/>
-      <c r="AK4" s="20"/>
-      <c r="AL4" s="20"/>
-      <c r="AM4" s="20"/>
-      <c r="AN4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="22"/>
+      <c r="AL4" s="22"/>
+      <c r="AM4" s="22"/>
+      <c r="AN4" s="23"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -19455,6 +20766,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
@@ -19471,7 +20783,6 @@
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -19487,7 +20798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA384EF-9747-46FC-8D82-DC4465294D64}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AG19" sqref="AG19"/>
     </sheetView>
   </sheetViews>
@@ -19497,200 +20808,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="28" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="29"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="31"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="30" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30" t="s">
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30" t="s">
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="31" t="s">
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="35"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="30" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30" t="s">
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30" t="s">
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="34">
+      <c r="X3" s="32"/>
+      <c r="Y3" s="36">
         <v>45453</v>
       </c>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="35" t="s">
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="35"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="36"/>
-      <c r="AL3" s="36"/>
-      <c r="AM3" s="36"/>
-      <c r="AN3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="19"/>
+      <c r="AJ3" s="19"/>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
+      <c r="AN3" s="20"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="19" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="20"/>
-      <c r="AH4" s="20"/>
-      <c r="AI4" s="20"/>
-      <c r="AJ4" s="20"/>
-      <c r="AK4" s="20"/>
-      <c r="AL4" s="20"/>
-      <c r="AM4" s="20"/>
-      <c r="AN4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="22"/>
+      <c r="AL4" s="22"/>
+      <c r="AM4" s="22"/>
+      <c r="AN4" s="23"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -24129,6 +25440,4696 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:AN4"/>
+    <mergeCell ref="A1:J4"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:AN1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AN3"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;C&amp;8&amp;P／&amp;"／,標準"&amp;N</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E42117-F9D3-420F-8EC6-2063C6EB37EA}">
+  <dimension ref="A1:AN110"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="AE81" sqref="AE81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="3.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="31"/>
+    </row>
+    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="35"/>
+    </row>
+    <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="36">
+        <v>45453</v>
+      </c>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="19"/>
+      <c r="AJ3" s="19"/>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
+      <c r="AN3" s="20"/>
+    </row>
+    <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="22"/>
+      <c r="AL4" s="22"/>
+      <c r="AM4" s="22"/>
+      <c r="AN4" s="23"/>
+    </row>
+    <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="5"/>
+    </row>
+    <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6"/>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="7"/>
+    </row>
+    <row r="8" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+    </row>
+    <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+    </row>
+    <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+    </row>
+    <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+    </row>
+    <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+    </row>
+    <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="8"/>
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="7"/>
+      <c r="AN13" s="7"/>
+    </row>
+    <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="8"/>
+      <c r="AM14" s="7"/>
+      <c r="AN14" s="7"/>
+    </row>
+    <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="8"/>
+      <c r="AL15" s="8"/>
+      <c r="AM15" s="7"/>
+      <c r="AN15" s="7"/>
+    </row>
+    <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
+      <c r="AL16" s="8"/>
+      <c r="AM16" s="7"/>
+      <c r="AN16" s="7"/>
+    </row>
+    <row r="17" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="8"/>
+      <c r="AK17" s="8"/>
+      <c r="AL17" s="8"/>
+      <c r="AM17" s="7"/>
+      <c r="AN17" s="7"/>
+    </row>
+    <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="8"/>
+      <c r="AL18" s="8"/>
+      <c r="AM18" s="7"/>
+      <c r="AN18" s="7"/>
+    </row>
+    <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="8"/>
+      <c r="AL19" s="8"/>
+      <c r="AM19" s="7"/>
+      <c r="AN19" s="7"/>
+    </row>
+    <row r="20" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="8"/>
+      <c r="AL20" s="8"/>
+      <c r="AM20" s="7"/>
+      <c r="AN20" s="7"/>
+    </row>
+    <row r="21" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="T21" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="8"/>
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="7"/>
+      <c r="AN21" s="7"/>
+    </row>
+    <row r="22" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="8"/>
+      <c r="AL22" s="8"/>
+      <c r="AM22" s="7"/>
+      <c r="AN22" s="7"/>
+    </row>
+    <row r="23" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="8"/>
+      <c r="AL23" s="8"/>
+      <c r="AM23" s="7"/>
+      <c r="AN23" s="7"/>
+    </row>
+    <row r="24" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="7"/>
+      <c r="AN24" s="7"/>
+    </row>
+    <row r="25" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="8"/>
+      <c r="AL25" s="8"/>
+      <c r="AM25" s="7"/>
+      <c r="AN25" s="7"/>
+    </row>
+    <row r="26" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="8"/>
+      <c r="AL26" s="8"/>
+      <c r="AM26" s="7"/>
+      <c r="AN26" s="7"/>
+    </row>
+    <row r="27" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8"/>
+      <c r="AJ27" s="8"/>
+      <c r="AK27" s="8"/>
+      <c r="AL27" s="8"/>
+      <c r="AM27" s="7"/>
+      <c r="AN27" s="7"/>
+    </row>
+    <row r="28" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8"/>
+      <c r="AJ28" s="8"/>
+      <c r="AK28" s="8"/>
+      <c r="AL28" s="8"/>
+      <c r="AM28" s="7"/>
+      <c r="AN28" s="7"/>
+    </row>
+    <row r="29" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="8"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="8"/>
+      <c r="AJ29" s="8"/>
+      <c r="AK29" s="8"/>
+      <c r="AL29" s="8"/>
+      <c r="AM29" s="7"/>
+      <c r="AN29" s="7"/>
+    </row>
+    <row r="30" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="8"/>
+      <c r="AJ30" s="8"/>
+      <c r="AK30" s="8"/>
+      <c r="AL30" s="8"/>
+      <c r="AM30" s="7"/>
+      <c r="AN30" s="7"/>
+    </row>
+    <row r="31" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="8"/>
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="8"/>
+      <c r="AJ31" s="8"/>
+      <c r="AK31" s="8"/>
+      <c r="AL31" s="8"/>
+      <c r="AM31" s="7"/>
+      <c r="AN31" s="7"/>
+    </row>
+    <row r="32" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8"/>
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="8"/>
+      <c r="AH32" s="8"/>
+      <c r="AI32" s="8"/>
+      <c r="AJ32" s="8"/>
+      <c r="AK32" s="8"/>
+      <c r="AL32" s="8"/>
+      <c r="AM32" s="7"/>
+      <c r="AN32" s="7"/>
+    </row>
+    <row r="33" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="8"/>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="8"/>
+      <c r="AJ33" s="8"/>
+      <c r="AK33" s="8"/>
+      <c r="AL33" s="8"/>
+      <c r="AM33" s="7"/>
+      <c r="AN33" s="7"/>
+    </row>
+    <row r="34" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="8"/>
+      <c r="AD34" s="8"/>
+      <c r="AE34" s="8"/>
+      <c r="AF34" s="8"/>
+      <c r="AG34" s="8"/>
+      <c r="AH34" s="8"/>
+      <c r="AI34" s="8"/>
+      <c r="AJ34" s="8"/>
+      <c r="AK34" s="8"/>
+      <c r="AL34" s="8"/>
+      <c r="AM34" s="7"/>
+      <c r="AN34" s="7"/>
+    </row>
+    <row r="35" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="8"/>
+      <c r="AD35" s="8"/>
+      <c r="AE35" s="8"/>
+      <c r="AF35" s="8"/>
+      <c r="AG35" s="8"/>
+      <c r="AH35" s="8"/>
+      <c r="AI35" s="8"/>
+      <c r="AJ35" s="8"/>
+      <c r="AK35" s="8"/>
+      <c r="AL35" s="8"/>
+      <c r="AM35" s="7"/>
+      <c r="AN35" s="7"/>
+    </row>
+    <row r="36" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="8"/>
+      <c r="AD36" s="8"/>
+      <c r="AE36" s="8"/>
+      <c r="AF36" s="8"/>
+      <c r="AG36" s="8"/>
+      <c r="AH36" s="8"/>
+      <c r="AI36" s="8"/>
+      <c r="AJ36" s="8"/>
+      <c r="AK36" s="8"/>
+      <c r="AL36" s="8"/>
+      <c r="AM36" s="7"/>
+      <c r="AN36" s="7"/>
+    </row>
+    <row r="37" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="8"/>
+      <c r="AD37" s="8"/>
+      <c r="AE37" s="8"/>
+      <c r="AF37" s="8"/>
+      <c r="AG37" s="8"/>
+      <c r="AH37" s="8"/>
+      <c r="AI37" s="8"/>
+      <c r="AJ37" s="8"/>
+      <c r="AK37" s="8"/>
+      <c r="AL37" s="8"/>
+      <c r="AM37" s="7"/>
+      <c r="AN37" s="7"/>
+    </row>
+    <row r="38" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="8"/>
+      <c r="AD38" s="8"/>
+      <c r="AE38" s="8"/>
+      <c r="AF38" s="8"/>
+      <c r="AG38" s="8"/>
+      <c r="AH38" s="8"/>
+      <c r="AI38" s="8"/>
+      <c r="AJ38" s="8"/>
+      <c r="AK38" s="8"/>
+      <c r="AL38" s="8"/>
+      <c r="AM38" s="7"/>
+      <c r="AN38" s="7"/>
+    </row>
+    <row r="39" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="6"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="10"/>
+      <c r="AC39" s="10"/>
+      <c r="AD39" s="10"/>
+      <c r="AE39" s="10"/>
+      <c r="AF39" s="10"/>
+      <c r="AG39" s="10"/>
+      <c r="AH39" s="10"/>
+      <c r="AI39" s="10"/>
+      <c r="AJ39" s="10"/>
+      <c r="AK39" s="10"/>
+      <c r="AL39" s="10"/>
+      <c r="AM39" s="11"/>
+      <c r="AN39" s="7"/>
+    </row>
+    <row r="40" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="10"/>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="10"/>
+      <c r="AD40" s="10"/>
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="10"/>
+      <c r="AG40" s="10"/>
+      <c r="AH40" s="10"/>
+      <c r="AI40" s="10"/>
+      <c r="AJ40" s="10"/>
+      <c r="AK40" s="10"/>
+      <c r="AL40" s="10"/>
+      <c r="AM40" s="10"/>
+      <c r="AN40" s="11"/>
+    </row>
+    <row r="41" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="3"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="4"/>
+      <c r="AC41" s="4"/>
+      <c r="AD41" s="4"/>
+      <c r="AE41" s="4"/>
+      <c r="AF41" s="4"/>
+      <c r="AG41" s="4"/>
+      <c r="AH41" s="4"/>
+      <c r="AI41" s="4"/>
+      <c r="AJ41" s="4"/>
+      <c r="AK41" s="4"/>
+      <c r="AL41" s="4"/>
+      <c r="AM41" s="4"/>
+      <c r="AN41" s="5"/>
+    </row>
+    <row r="42" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="6"/>
+      <c r="B42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="4"/>
+      <c r="AB42" s="4"/>
+      <c r="AC42" s="4"/>
+      <c r="AD42" s="4"/>
+      <c r="AE42" s="4"/>
+      <c r="AF42" s="4"/>
+      <c r="AG42" s="4"/>
+      <c r="AH42" s="4"/>
+      <c r="AI42" s="4"/>
+      <c r="AJ42" s="4"/>
+      <c r="AK42" s="4"/>
+      <c r="AL42" s="4"/>
+      <c r="AM42" s="5"/>
+      <c r="AN42" s="7"/>
+    </row>
+    <row r="43" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="2"/>
+      <c r="AB43" s="2"/>
+      <c r="AC43" s="2"/>
+      <c r="AD43" s="2"/>
+      <c r="AE43" s="2"/>
+      <c r="AF43" s="2"/>
+      <c r="AG43" s="2"/>
+      <c r="AH43" s="2"/>
+      <c r="AI43" s="2"/>
+      <c r="AJ43" s="2"/>
+      <c r="AK43" s="2"/>
+      <c r="AL43" s="2"/>
+      <c r="AM43" s="7"/>
+      <c r="AN43" s="7"/>
+    </row>
+    <row r="44" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="2"/>
+      <c r="AD44" s="2"/>
+      <c r="AE44" s="2"/>
+      <c r="AF44" s="2"/>
+      <c r="AG44" s="2"/>
+      <c r="AH44" s="2"/>
+      <c r="AI44" s="2"/>
+      <c r="AJ44" s="2"/>
+      <c r="AK44" s="2"/>
+      <c r="AL44" s="2"/>
+      <c r="AM44" s="7"/>
+      <c r="AN44" s="7"/>
+    </row>
+    <row r="45" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="8"/>
+      <c r="AD45" s="8"/>
+      <c r="AE45" s="8"/>
+      <c r="AF45" s="8"/>
+      <c r="AG45" s="8"/>
+      <c r="AH45" s="8"/>
+      <c r="AI45" s="8"/>
+      <c r="AJ45" s="8"/>
+      <c r="AK45" s="8"/>
+      <c r="AL45" s="8"/>
+      <c r="AM45" s="7"/>
+      <c r="AN45" s="7"/>
+    </row>
+    <row r="46" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="8"/>
+      <c r="AD46" s="8"/>
+      <c r="AE46" s="8"/>
+      <c r="AF46" s="8"/>
+      <c r="AG46" s="8"/>
+      <c r="AH46" s="8"/>
+      <c r="AI46" s="8"/>
+      <c r="AJ46" s="8"/>
+      <c r="AK46" s="8"/>
+      <c r="AL46" s="8"/>
+      <c r="AM46" s="7"/>
+      <c r="AN46" s="7"/>
+    </row>
+    <row r="47" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="8"/>
+      <c r="X47" s="8"/>
+      <c r="Y47" s="8"/>
+      <c r="Z47" s="8"/>
+      <c r="AA47" s="8"/>
+      <c r="AB47" s="8"/>
+      <c r="AC47" s="8"/>
+      <c r="AD47" s="8"/>
+      <c r="AE47" s="8"/>
+      <c r="AF47" s="8"/>
+      <c r="AG47" s="8"/>
+      <c r="AH47" s="8"/>
+      <c r="AI47" s="8"/>
+      <c r="AJ47" s="8"/>
+      <c r="AK47" s="8"/>
+      <c r="AL47" s="8"/>
+      <c r="AM47" s="7"/>
+      <c r="AN47" s="7"/>
+    </row>
+    <row r="48" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8"/>
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="8"/>
+      <c r="AB48" s="8"/>
+      <c r="AC48" s="8"/>
+      <c r="AD48" s="8"/>
+      <c r="AE48" s="8"/>
+      <c r="AF48" s="8"/>
+      <c r="AG48" s="8"/>
+      <c r="AH48" s="8"/>
+      <c r="AI48" s="8"/>
+      <c r="AJ48" s="8"/>
+      <c r="AK48" s="8"/>
+      <c r="AL48" s="8"/>
+      <c r="AM48" s="7"/>
+      <c r="AN48" s="7"/>
+    </row>
+    <row r="49" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="8"/>
+      <c r="AC49" s="8"/>
+      <c r="AD49" s="8"/>
+      <c r="AE49" s="8"/>
+      <c r="AF49" s="8"/>
+      <c r="AG49" s="8"/>
+      <c r="AH49" s="8"/>
+      <c r="AI49" s="8"/>
+      <c r="AJ49" s="8"/>
+      <c r="AK49" s="8"/>
+      <c r="AL49" s="8"/>
+      <c r="AM49" s="7"/>
+      <c r="AN49" s="7"/>
+    </row>
+    <row r="50" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8"/>
+      <c r="X50" s="8"/>
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="8"/>
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="8"/>
+      <c r="AC50" s="8"/>
+      <c r="AD50" s="8"/>
+      <c r="AE50" s="8"/>
+      <c r="AF50" s="8"/>
+      <c r="AG50" s="8"/>
+      <c r="AH50" s="8"/>
+      <c r="AI50" s="8"/>
+      <c r="AJ50" s="8"/>
+      <c r="AK50" s="8"/>
+      <c r="AL50" s="8"/>
+      <c r="AM50" s="7"/>
+      <c r="AN50" s="7"/>
+    </row>
+    <row r="51" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="8"/>
+      <c r="X51" s="8"/>
+      <c r="Y51" s="8"/>
+      <c r="Z51" s="8"/>
+      <c r="AA51" s="8"/>
+      <c r="AB51" s="8"/>
+      <c r="AC51" s="8"/>
+      <c r="AD51" s="8"/>
+      <c r="AE51" s="8"/>
+      <c r="AF51" s="8"/>
+      <c r="AG51" s="8"/>
+      <c r="AH51" s="8"/>
+      <c r="AI51" s="8"/>
+      <c r="AJ51" s="8"/>
+      <c r="AK51" s="8"/>
+      <c r="AL51" s="8"/>
+      <c r="AM51" s="7"/>
+      <c r="AN51" s="7"/>
+    </row>
+    <row r="52" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="8"/>
+      <c r="X52" s="8"/>
+      <c r="Y52" s="8"/>
+      <c r="Z52" s="8"/>
+      <c r="AA52" s="8"/>
+      <c r="AB52" s="8"/>
+      <c r="AC52" s="8"/>
+      <c r="AD52" s="8"/>
+      <c r="AE52" s="8"/>
+      <c r="AF52" s="8"/>
+      <c r="AG52" s="8"/>
+      <c r="AH52" s="8"/>
+      <c r="AI52" s="8"/>
+      <c r="AJ52" s="8"/>
+      <c r="AK52" s="8"/>
+      <c r="AL52" s="8"/>
+      <c r="AM52" s="7"/>
+      <c r="AN52" s="7"/>
+    </row>
+    <row r="53" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="8"/>
+      <c r="W53" s="8"/>
+      <c r="X53" s="8"/>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="8"/>
+      <c r="AA53" s="8"/>
+      <c r="AB53" s="8"/>
+      <c r="AC53" s="8"/>
+      <c r="AD53" s="8"/>
+      <c r="AE53" s="8"/>
+      <c r="AF53" s="8"/>
+      <c r="AG53" s="8"/>
+      <c r="AH53" s="8"/>
+      <c r="AI53" s="8"/>
+      <c r="AJ53" s="8"/>
+      <c r="AK53" s="8"/>
+      <c r="AL53" s="8"/>
+      <c r="AM53" s="7"/>
+      <c r="AN53" s="7"/>
+    </row>
+    <row r="54" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="8"/>
+      <c r="X54" s="8"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="8"/>
+      <c r="AA54" s="8"/>
+      <c r="AB54" s="8"/>
+      <c r="AC54" s="8"/>
+      <c r="AD54" s="8"/>
+      <c r="AE54" s="8"/>
+      <c r="AF54" s="8"/>
+      <c r="AG54" s="8"/>
+      <c r="AH54" s="8"/>
+      <c r="AI54" s="8"/>
+      <c r="AJ54" s="8"/>
+      <c r="AK54" s="8"/>
+      <c r="AL54" s="8"/>
+      <c r="AM54" s="7"/>
+      <c r="AN54" s="7"/>
+    </row>
+    <row r="55" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="8"/>
+      <c r="W55" s="8"/>
+      <c r="X55" s="8"/>
+      <c r="Y55" s="8"/>
+      <c r="Z55" s="8"/>
+      <c r="AA55" s="8"/>
+      <c r="AB55" s="8"/>
+      <c r="AC55" s="8"/>
+      <c r="AD55" s="8"/>
+      <c r="AE55" s="8"/>
+      <c r="AF55" s="8"/>
+      <c r="AG55" s="8"/>
+      <c r="AH55" s="8"/>
+      <c r="AI55" s="8"/>
+      <c r="AJ55" s="8"/>
+      <c r="AK55" s="8"/>
+      <c r="AL55" s="8"/>
+      <c r="AM55" s="7"/>
+      <c r="AN55" s="7"/>
+    </row>
+    <row r="56" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="8"/>
+      <c r="W56" s="8"/>
+      <c r="X56" s="8"/>
+      <c r="Y56" s="8"/>
+      <c r="Z56" s="8"/>
+      <c r="AA56" s="8"/>
+      <c r="AB56" s="8"/>
+      <c r="AC56" s="8"/>
+      <c r="AD56" s="8"/>
+      <c r="AE56" s="8"/>
+      <c r="AF56" s="8"/>
+      <c r="AG56" s="8"/>
+      <c r="AH56" s="8"/>
+      <c r="AI56" s="8"/>
+      <c r="AJ56" s="8"/>
+      <c r="AK56" s="8"/>
+      <c r="AL56" s="8"/>
+      <c r="AM56" s="7"/>
+      <c r="AN56" s="7"/>
+    </row>
+    <row r="57" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="8"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="8"/>
+      <c r="V57" s="8"/>
+      <c r="W57" s="8"/>
+      <c r="X57" s="8"/>
+      <c r="Y57" s="8"/>
+      <c r="Z57" s="8"/>
+      <c r="AA57" s="8"/>
+      <c r="AB57" s="8"/>
+      <c r="AC57" s="8"/>
+      <c r="AD57" s="8"/>
+      <c r="AE57" s="8"/>
+      <c r="AF57" s="8"/>
+      <c r="AG57" s="8"/>
+      <c r="AH57" s="8"/>
+      <c r="AI57" s="8"/>
+      <c r="AJ57" s="8"/>
+      <c r="AK57" s="8"/>
+      <c r="AL57" s="8"/>
+      <c r="AM57" s="7"/>
+      <c r="AN57" s="7"/>
+    </row>
+    <row r="58" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
+      <c r="S58" s="8"/>
+      <c r="T58" s="8"/>
+      <c r="U58" s="8"/>
+      <c r="V58" s="8"/>
+      <c r="W58" s="8"/>
+      <c r="X58" s="8"/>
+      <c r="Y58" s="8"/>
+      <c r="Z58" s="8"/>
+      <c r="AA58" s="8"/>
+      <c r="AB58" s="8"/>
+      <c r="AC58" s="8"/>
+      <c r="AD58" s="8"/>
+      <c r="AE58" s="8"/>
+      <c r="AF58" s="8"/>
+      <c r="AG58" s="8"/>
+      <c r="AH58" s="8"/>
+      <c r="AI58" s="8"/>
+      <c r="AJ58" s="8"/>
+      <c r="AK58" s="8"/>
+      <c r="AL58" s="8"/>
+      <c r="AM58" s="7"/>
+      <c r="AN58" s="7"/>
+    </row>
+    <row r="59" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="8"/>
+      <c r="W59" s="8"/>
+      <c r="X59" s="8"/>
+      <c r="Y59" s="8"/>
+      <c r="Z59" s="8"/>
+      <c r="AA59" s="8"/>
+      <c r="AB59" s="8"/>
+      <c r="AC59" s="8"/>
+      <c r="AD59" s="8"/>
+      <c r="AE59" s="8"/>
+      <c r="AF59" s="8"/>
+      <c r="AG59" s="8"/>
+      <c r="AH59" s="8"/>
+      <c r="AI59" s="8"/>
+      <c r="AJ59" s="8"/>
+      <c r="AK59" s="8"/>
+      <c r="AL59" s="8"/>
+      <c r="AM59" s="7"/>
+      <c r="AN59" s="7"/>
+    </row>
+    <row r="60" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8"/>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="8"/>
+      <c r="W60" s="8"/>
+      <c r="X60" s="8"/>
+      <c r="Y60" s="8"/>
+      <c r="Z60" s="8"/>
+      <c r="AA60" s="8"/>
+      <c r="AB60" s="8"/>
+      <c r="AC60" s="8"/>
+      <c r="AD60" s="8"/>
+      <c r="AE60" s="8"/>
+      <c r="AF60" s="8"/>
+      <c r="AG60" s="8"/>
+      <c r="AH60" s="8"/>
+      <c r="AI60" s="8"/>
+      <c r="AJ60" s="8"/>
+      <c r="AK60" s="8"/>
+      <c r="AL60" s="8"/>
+      <c r="AM60" s="7"/>
+      <c r="AN60" s="7"/>
+    </row>
+    <row r="61" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="8"/>
+      <c r="R61" s="8"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="8"/>
+      <c r="V61" s="8"/>
+      <c r="W61" s="8"/>
+      <c r="X61" s="8"/>
+      <c r="Y61" s="8"/>
+      <c r="Z61" s="8"/>
+      <c r="AA61" s="8"/>
+      <c r="AB61" s="8"/>
+      <c r="AC61" s="8"/>
+      <c r="AD61" s="8"/>
+      <c r="AE61" s="8"/>
+      <c r="AF61" s="8"/>
+      <c r="AG61" s="8"/>
+      <c r="AH61" s="8"/>
+      <c r="AI61" s="8"/>
+      <c r="AJ61" s="8"/>
+      <c r="AK61" s="8"/>
+      <c r="AL61" s="8"/>
+      <c r="AM61" s="7"/>
+      <c r="AN61" s="7"/>
+    </row>
+    <row r="62" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="8"/>
+      <c r="R62" s="8"/>
+      <c r="S62" s="8"/>
+      <c r="T62" s="8"/>
+      <c r="U62" s="8"/>
+      <c r="V62" s="8"/>
+      <c r="W62" s="8"/>
+      <c r="X62" s="8"/>
+      <c r="Y62" s="8"/>
+      <c r="Z62" s="8"/>
+      <c r="AA62" s="8"/>
+      <c r="AB62" s="8"/>
+      <c r="AC62" s="8"/>
+      <c r="AD62" s="8"/>
+      <c r="AE62" s="8"/>
+      <c r="AF62" s="8"/>
+      <c r="AG62" s="8"/>
+      <c r="AH62" s="8"/>
+      <c r="AI62" s="8"/>
+      <c r="AJ62" s="8"/>
+      <c r="AK62" s="8"/>
+      <c r="AL62" s="8"/>
+      <c r="AM62" s="7"/>
+      <c r="AN62" s="7"/>
+    </row>
+    <row r="63" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="8"/>
+      <c r="R63" s="8"/>
+      <c r="S63" s="8"/>
+      <c r="T63" s="8"/>
+      <c r="U63" s="8"/>
+      <c r="V63" s="8"/>
+      <c r="W63" s="8"/>
+      <c r="X63" s="8"/>
+      <c r="Y63" s="8"/>
+      <c r="Z63" s="8"/>
+      <c r="AA63" s="8"/>
+      <c r="AB63" s="8"/>
+      <c r="AC63" s="8"/>
+      <c r="AD63" s="8"/>
+      <c r="AE63" s="8"/>
+      <c r="AF63" s="8"/>
+      <c r="AG63" s="8"/>
+      <c r="AH63" s="8"/>
+      <c r="AI63" s="8"/>
+      <c r="AJ63" s="8"/>
+      <c r="AK63" s="8"/>
+      <c r="AL63" s="8"/>
+      <c r="AM63" s="7"/>
+      <c r="AN63" s="7"/>
+    </row>
+    <row r="64" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="8"/>
+      <c r="R64" s="8"/>
+      <c r="S64" s="8"/>
+      <c r="T64" s="8"/>
+      <c r="U64" s="8"/>
+      <c r="V64" s="8"/>
+      <c r="W64" s="8"/>
+      <c r="X64" s="8"/>
+      <c r="Y64" s="8"/>
+      <c r="Z64" s="8"/>
+      <c r="AA64" s="8"/>
+      <c r="AB64" s="8"/>
+      <c r="AC64" s="8"/>
+      <c r="AD64" s="8"/>
+      <c r="AE64" s="8"/>
+      <c r="AF64" s="8"/>
+      <c r="AG64" s="8"/>
+      <c r="AH64" s="8"/>
+      <c r="AI64" s="8"/>
+      <c r="AJ64" s="8"/>
+      <c r="AK64" s="8"/>
+      <c r="AL64" s="8"/>
+      <c r="AM64" s="7"/>
+      <c r="AN64" s="7"/>
+    </row>
+    <row r="65" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="8"/>
+      <c r="U65" s="8"/>
+      <c r="V65" s="8"/>
+      <c r="W65" s="8"/>
+      <c r="X65" s="8"/>
+      <c r="Y65" s="8"/>
+      <c r="Z65" s="8"/>
+      <c r="AA65" s="8"/>
+      <c r="AB65" s="8"/>
+      <c r="AC65" s="8"/>
+      <c r="AD65" s="8"/>
+      <c r="AE65" s="8"/>
+      <c r="AF65" s="8"/>
+      <c r="AG65" s="8"/>
+      <c r="AH65" s="8"/>
+      <c r="AI65" s="8"/>
+      <c r="AJ65" s="8"/>
+      <c r="AK65" s="8"/>
+      <c r="AL65" s="8"/>
+      <c r="AM65" s="7"/>
+      <c r="AN65" s="7"/>
+    </row>
+    <row r="66" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="8"/>
+      <c r="V66" s="8"/>
+      <c r="W66" s="8"/>
+      <c r="X66" s="8"/>
+      <c r="Y66" s="8"/>
+      <c r="Z66" s="8"/>
+      <c r="AA66" s="8"/>
+      <c r="AB66" s="8"/>
+      <c r="AC66" s="8"/>
+      <c r="AD66" s="8"/>
+      <c r="AE66" s="8"/>
+      <c r="AF66" s="8"/>
+      <c r="AG66" s="8"/>
+      <c r="AH66" s="8"/>
+      <c r="AI66" s="8"/>
+      <c r="AJ66" s="8"/>
+      <c r="AK66" s="8"/>
+      <c r="AL66" s="8"/>
+      <c r="AM66" s="7"/>
+      <c r="AN66" s="7"/>
+    </row>
+    <row r="67" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="8"/>
+      <c r="R67" s="8"/>
+      <c r="S67" s="8"/>
+      <c r="T67" s="8"/>
+      <c r="U67" s="8"/>
+      <c r="V67" s="8"/>
+      <c r="W67" s="8"/>
+      <c r="X67" s="8"/>
+      <c r="Y67" s="8"/>
+      <c r="Z67" s="8"/>
+      <c r="AA67" s="8"/>
+      <c r="AB67" s="8"/>
+      <c r="AC67" s="8"/>
+      <c r="AD67" s="8"/>
+      <c r="AE67" s="8"/>
+      <c r="AF67" s="8"/>
+      <c r="AG67" s="8"/>
+      <c r="AH67" s="8"/>
+      <c r="AI67" s="8"/>
+      <c r="AJ67" s="8"/>
+      <c r="AK67" s="8"/>
+      <c r="AL67" s="8"/>
+      <c r="AM67" s="7"/>
+      <c r="AN67" s="7"/>
+    </row>
+    <row r="68" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="8"/>
+      <c r="O68" s="8"/>
+      <c r="P68" s="8"/>
+      <c r="Q68" s="8"/>
+      <c r="R68" s="8"/>
+      <c r="S68" s="8"/>
+      <c r="T68" s="8"/>
+      <c r="U68" s="8"/>
+      <c r="V68" s="8"/>
+      <c r="W68" s="8"/>
+      <c r="X68" s="8"/>
+      <c r="Y68" s="8"/>
+      <c r="Z68" s="8"/>
+      <c r="AA68" s="8"/>
+      <c r="AB68" s="8"/>
+      <c r="AC68" s="8"/>
+      <c r="AD68" s="8"/>
+      <c r="AE68" s="8"/>
+      <c r="AF68" s="8"/>
+      <c r="AG68" s="8"/>
+      <c r="AH68" s="8"/>
+      <c r="AI68" s="8"/>
+      <c r="AJ68" s="8"/>
+      <c r="AK68" s="8"/>
+      <c r="AL68" s="8"/>
+      <c r="AM68" s="7"/>
+      <c r="AN68" s="7"/>
+    </row>
+    <row r="69" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="8"/>
+      <c r="P69" s="8"/>
+      <c r="Q69" s="8"/>
+      <c r="R69" s="8"/>
+      <c r="S69" s="8"/>
+      <c r="T69" s="8"/>
+      <c r="U69" s="8"/>
+      <c r="V69" s="8"/>
+      <c r="W69" s="8"/>
+      <c r="X69" s="8"/>
+      <c r="Y69" s="8"/>
+      <c r="Z69" s="8"/>
+      <c r="AA69" s="8"/>
+      <c r="AB69" s="8"/>
+      <c r="AC69" s="8"/>
+      <c r="AD69" s="8"/>
+      <c r="AE69" s="8"/>
+      <c r="AF69" s="8"/>
+      <c r="AG69" s="8"/>
+      <c r="AH69" s="8"/>
+      <c r="AI69" s="8"/>
+      <c r="AJ69" s="8"/>
+      <c r="AK69" s="8"/>
+      <c r="AL69" s="8"/>
+      <c r="AM69" s="7"/>
+      <c r="AN69" s="7"/>
+    </row>
+    <row r="70" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="8"/>
+      <c r="O70" s="8"/>
+      <c r="P70" s="8"/>
+      <c r="Q70" s="8"/>
+      <c r="R70" s="8"/>
+      <c r="S70" s="8"/>
+      <c r="T70" s="8"/>
+      <c r="U70" s="8"/>
+      <c r="V70" s="8"/>
+      <c r="W70" s="8"/>
+      <c r="X70" s="8"/>
+      <c r="Y70" s="8"/>
+      <c r="Z70" s="8"/>
+      <c r="AA70" s="8"/>
+      <c r="AB70" s="8"/>
+      <c r="AC70" s="8"/>
+      <c r="AD70" s="8"/>
+      <c r="AE70" s="8"/>
+      <c r="AF70" s="8"/>
+      <c r="AG70" s="8"/>
+      <c r="AH70" s="8"/>
+      <c r="AI70" s="8"/>
+      <c r="AJ70" s="8"/>
+      <c r="AK70" s="8"/>
+      <c r="AL70" s="8"/>
+      <c r="AM70" s="7"/>
+      <c r="AN70" s="7"/>
+    </row>
+    <row r="71" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
+      <c r="Q71" s="8"/>
+      <c r="R71" s="8"/>
+      <c r="S71" s="8"/>
+      <c r="T71" s="8"/>
+      <c r="U71" s="8"/>
+      <c r="V71" s="8"/>
+      <c r="W71" s="8"/>
+      <c r="X71" s="8"/>
+      <c r="Y71" s="8"/>
+      <c r="Z71" s="8"/>
+      <c r="AA71" s="8"/>
+      <c r="AB71" s="8"/>
+      <c r="AC71" s="8"/>
+      <c r="AD71" s="8"/>
+      <c r="AE71" s="8"/>
+      <c r="AF71" s="8"/>
+      <c r="AG71" s="8"/>
+      <c r="AH71" s="8"/>
+      <c r="AI71" s="8"/>
+      <c r="AJ71" s="8"/>
+      <c r="AK71" s="8"/>
+      <c r="AL71" s="8"/>
+      <c r="AM71" s="7"/>
+      <c r="AN71" s="7"/>
+    </row>
+    <row r="72" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="8"/>
+      <c r="P72" s="8"/>
+      <c r="Q72" s="8"/>
+      <c r="R72" s="8"/>
+      <c r="S72" s="8"/>
+      <c r="T72" s="8"/>
+      <c r="U72" s="8"/>
+      <c r="V72" s="8"/>
+      <c r="W72" s="8"/>
+      <c r="X72" s="8"/>
+      <c r="Y72" s="8"/>
+      <c r="Z72" s="8"/>
+      <c r="AA72" s="8"/>
+      <c r="AB72" s="8"/>
+      <c r="AC72" s="8"/>
+      <c r="AD72" s="8"/>
+      <c r="AE72" s="8"/>
+      <c r="AF72" s="8"/>
+      <c r="AG72" s="8"/>
+      <c r="AH72" s="8"/>
+      <c r="AI72" s="8"/>
+      <c r="AJ72" s="8"/>
+      <c r="AK72" s="8"/>
+      <c r="AL72" s="8"/>
+      <c r="AM72" s="7"/>
+      <c r="AN72" s="7"/>
+    </row>
+    <row r="73" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="8"/>
+      <c r="P73" s="8"/>
+      <c r="Q73" s="8"/>
+      <c r="R73" s="8"/>
+      <c r="S73" s="8"/>
+      <c r="T73" s="8"/>
+      <c r="U73" s="8"/>
+      <c r="V73" s="8"/>
+      <c r="W73" s="8"/>
+      <c r="X73" s="8"/>
+      <c r="Y73" s="8"/>
+      <c r="Z73" s="8"/>
+      <c r="AA73" s="8"/>
+      <c r="AB73" s="8"/>
+      <c r="AC73" s="8"/>
+      <c r="AD73" s="8"/>
+      <c r="AE73" s="8"/>
+      <c r="AF73" s="8"/>
+      <c r="AG73" s="8"/>
+      <c r="AH73" s="8"/>
+      <c r="AI73" s="8"/>
+      <c r="AJ73" s="8"/>
+      <c r="AK73" s="8"/>
+      <c r="AL73" s="8"/>
+      <c r="AM73" s="7"/>
+      <c r="AN73" s="7"/>
+    </row>
+    <row r="74" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="6"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="10"/>
+      <c r="R74" s="10"/>
+      <c r="S74" s="10"/>
+      <c r="T74" s="10"/>
+      <c r="U74" s="10"/>
+      <c r="V74" s="10"/>
+      <c r="W74" s="10"/>
+      <c r="X74" s="10"/>
+      <c r="Y74" s="10"/>
+      <c r="Z74" s="10"/>
+      <c r="AA74" s="10"/>
+      <c r="AB74" s="10"/>
+      <c r="AC74" s="10"/>
+      <c r="AD74" s="10"/>
+      <c r="AE74" s="10"/>
+      <c r="AF74" s="10"/>
+      <c r="AG74" s="10"/>
+      <c r="AH74" s="10"/>
+      <c r="AI74" s="10"/>
+      <c r="AJ74" s="10"/>
+      <c r="AK74" s="10"/>
+      <c r="AL74" s="10"/>
+      <c r="AM74" s="11"/>
+      <c r="AN74" s="7"/>
+    </row>
+    <row r="75" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="9"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="10"/>
+      <c r="R75" s="10"/>
+      <c r="S75" s="10"/>
+      <c r="T75" s="10"/>
+      <c r="U75" s="10"/>
+      <c r="V75" s="10"/>
+      <c r="W75" s="10"/>
+      <c r="X75" s="10"/>
+      <c r="Y75" s="10"/>
+      <c r="Z75" s="10"/>
+      <c r="AA75" s="10"/>
+      <c r="AB75" s="10"/>
+      <c r="AC75" s="10"/>
+      <c r="AD75" s="10"/>
+      <c r="AE75" s="10"/>
+      <c r="AF75" s="10"/>
+      <c r="AG75" s="10"/>
+      <c r="AH75" s="10"/>
+      <c r="AI75" s="10"/>
+      <c r="AJ75" s="10"/>
+      <c r="AK75" s="10"/>
+      <c r="AL75" s="10"/>
+      <c r="AM75" s="10"/>
+      <c r="AN75" s="11"/>
+    </row>
+    <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="3"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="4"/>
+      <c r="S76" s="4"/>
+      <c r="T76" s="4"/>
+      <c r="U76" s="4"/>
+      <c r="V76" s="4"/>
+      <c r="W76" s="4"/>
+      <c r="X76" s="4"/>
+      <c r="Y76" s="4"/>
+      <c r="Z76" s="4"/>
+      <c r="AA76" s="4"/>
+      <c r="AB76" s="4"/>
+      <c r="AC76" s="4"/>
+      <c r="AD76" s="4"/>
+      <c r="AE76" s="4"/>
+      <c r="AF76" s="4"/>
+      <c r="AG76" s="4"/>
+      <c r="AH76" s="4"/>
+      <c r="AI76" s="4"/>
+      <c r="AJ76" s="4"/>
+      <c r="AK76" s="4"/>
+      <c r="AL76" s="4"/>
+      <c r="AM76" s="4"/>
+      <c r="AN76" s="5"/>
+    </row>
+    <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="6"/>
+      <c r="B77" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="4"/>
+      <c r="S77" s="4"/>
+      <c r="T77" s="4"/>
+      <c r="U77" s="4"/>
+      <c r="V77" s="4"/>
+      <c r="W77" s="4"/>
+      <c r="X77" s="4"/>
+      <c r="Y77" s="4"/>
+      <c r="Z77" s="4"/>
+      <c r="AA77" s="4"/>
+      <c r="AB77" s="4"/>
+      <c r="AC77" s="4"/>
+      <c r="AD77" s="4"/>
+      <c r="AE77" s="4"/>
+      <c r="AF77" s="4"/>
+      <c r="AG77" s="4"/>
+      <c r="AH77" s="4"/>
+      <c r="AI77" s="4"/>
+      <c r="AJ77" s="4"/>
+      <c r="AK77" s="4"/>
+      <c r="AL77" s="4"/>
+      <c r="AM77" s="5"/>
+      <c r="AN77" s="7"/>
+    </row>
+    <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="2"/>
+      <c r="X78" s="2"/>
+      <c r="Y78" s="2"/>
+      <c r="Z78" s="2"/>
+      <c r="AA78" s="2"/>
+      <c r="AB78" s="2"/>
+      <c r="AC78" s="2"/>
+      <c r="AD78" s="2"/>
+      <c r="AE78" s="2"/>
+      <c r="AF78" s="2"/>
+      <c r="AG78" s="2"/>
+      <c r="AH78" s="2"/>
+      <c r="AI78" s="2"/>
+      <c r="AJ78" s="2"/>
+      <c r="AK78" s="2"/>
+      <c r="AL78" s="2"/>
+      <c r="AM78" s="7"/>
+      <c r="AN78" s="7"/>
+    </row>
+    <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="6"/>
+      <c r="B79" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="13"/>
+      <c r="D79" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79" s="16"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="17"/>
+      <c r="L79" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M79" s="15"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="P79" s="15"/>
+      <c r="Q79" s="15"/>
+      <c r="R79" s="17"/>
+      <c r="S79" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="T79" s="17"/>
+      <c r="U79" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="V79" s="17"/>
+      <c r="W79" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="X79" s="15"/>
+      <c r="Y79" s="15"/>
+      <c r="Z79" s="17"/>
+      <c r="AA79" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB79" s="15"/>
+      <c r="AC79" s="17"/>
+      <c r="AD79" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE79" s="15"/>
+      <c r="AF79" s="15"/>
+      <c r="AG79" s="15"/>
+      <c r="AH79" s="15"/>
+      <c r="AI79" s="15"/>
+      <c r="AJ79" s="15"/>
+      <c r="AK79" s="15"/>
+      <c r="AL79" s="15"/>
+      <c r="AM79" s="18"/>
+      <c r="AN79" s="7"/>
+    </row>
+    <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="6"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="13">
+        <v>1</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="I80" s="16"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="17"/>
+      <c r="L80" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="M80" s="15"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P80" s="15"/>
+      <c r="Q80" s="15"/>
+      <c r="R80" s="17"/>
+      <c r="S80" s="14"/>
+      <c r="T80" s="17"/>
+      <c r="U80" s="14"/>
+      <c r="V80" s="17"/>
+      <c r="W80" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="X80" s="15"/>
+      <c r="Y80" s="15"/>
+      <c r="Z80" s="17"/>
+      <c r="AA80" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB80" s="15"/>
+      <c r="AC80" s="15"/>
+      <c r="AD80" s="14"/>
+      <c r="AE80" s="15"/>
+      <c r="AF80" s="15"/>
+      <c r="AG80" s="15"/>
+      <c r="AH80" s="15"/>
+      <c r="AI80" s="15"/>
+      <c r="AJ80" s="15"/>
+      <c r="AK80" s="15"/>
+      <c r="AL80" s="15"/>
+      <c r="AM80" s="18"/>
+      <c r="AN80" s="7"/>
+    </row>
+    <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="6"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="13">
+        <v>2</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="I81" s="16"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="17"/>
+      <c r="L81" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="M81" s="15"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P81" s="15"/>
+      <c r="Q81" s="15"/>
+      <c r="R81" s="17"/>
+      <c r="S81" s="14"/>
+      <c r="T81" s="17"/>
+      <c r="U81" s="14"/>
+      <c r="V81" s="17"/>
+      <c r="W81" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="X81" s="15"/>
+      <c r="Y81" s="15"/>
+      <c r="Z81" s="17"/>
+      <c r="AA81" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB81" s="15"/>
+      <c r="AC81" s="15"/>
+      <c r="AD81" s="14"/>
+      <c r="AE81" s="15"/>
+      <c r="AF81" s="15"/>
+      <c r="AG81" s="15"/>
+      <c r="AH81" s="15"/>
+      <c r="AI81" s="15"/>
+      <c r="AJ81" s="15"/>
+      <c r="AK81" s="15"/>
+      <c r="AL81" s="15"/>
+      <c r="AM81" s="18"/>
+      <c r="AN81" s="7"/>
+    </row>
+    <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="6"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="13">
+        <v>3</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="I82" s="16"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="M82" s="15"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P82" s="15"/>
+      <c r="Q82" s="15"/>
+      <c r="R82" s="17"/>
+      <c r="S82" s="14"/>
+      <c r="T82" s="17"/>
+      <c r="U82" s="14"/>
+      <c r="V82" s="17"/>
+      <c r="W82" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="X82" s="15"/>
+      <c r="Y82" s="15"/>
+      <c r="Z82" s="17"/>
+      <c r="AA82" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB82" s="15"/>
+      <c r="AC82" s="15"/>
+      <c r="AD82" s="14"/>
+      <c r="AE82" s="15"/>
+      <c r="AF82" s="15"/>
+      <c r="AG82" s="15"/>
+      <c r="AH82" s="15"/>
+      <c r="AI82" s="15"/>
+      <c r="AJ82" s="15"/>
+      <c r="AK82" s="15"/>
+      <c r="AL82" s="15"/>
+      <c r="AM82" s="18"/>
+      <c r="AN82" s="7"/>
+    </row>
+    <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="6"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="13">
+        <v>4</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="I83" s="16"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="17"/>
+      <c r="L83" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="M83" s="15"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P83" s="15"/>
+      <c r="Q83" s="15"/>
+      <c r="R83" s="17"/>
+      <c r="S83" s="14"/>
+      <c r="T83" s="17"/>
+      <c r="U83" s="14"/>
+      <c r="V83" s="17"/>
+      <c r="W83" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="X83" s="15"/>
+      <c r="Y83" s="15"/>
+      <c r="Z83" s="17"/>
+      <c r="AA83" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB83" s="15"/>
+      <c r="AC83" s="15"/>
+      <c r="AD83" s="14"/>
+      <c r="AE83" s="15"/>
+      <c r="AF83" s="15"/>
+      <c r="AG83" s="15"/>
+      <c r="AH83" s="15"/>
+      <c r="AI83" s="15"/>
+      <c r="AJ83" s="15"/>
+      <c r="AK83" s="15"/>
+      <c r="AL83" s="15"/>
+      <c r="AM83" s="18"/>
+      <c r="AN83" s="7"/>
+    </row>
+    <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="6"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="13">
+        <v>5</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="I84" s="16"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="17"/>
+      <c r="L84" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="M84" s="15"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="14"/>
+      <c r="P84" s="15"/>
+      <c r="Q84" s="15"/>
+      <c r="R84" s="17"/>
+      <c r="S84" s="14"/>
+      <c r="T84" s="17"/>
+      <c r="U84" s="14"/>
+      <c r="V84" s="17"/>
+      <c r="W84" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="X84" s="15"/>
+      <c r="Y84" s="15"/>
+      <c r="Z84" s="17"/>
+      <c r="AA84" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB84" s="15"/>
+      <c r="AC84" s="15"/>
+      <c r="AD84" s="14"/>
+      <c r="AE84" s="15"/>
+      <c r="AF84" s="15"/>
+      <c r="AG84" s="15"/>
+      <c r="AH84" s="15"/>
+      <c r="AI84" s="15"/>
+      <c r="AJ84" s="15"/>
+      <c r="AK84" s="15"/>
+      <c r="AL84" s="15"/>
+      <c r="AM84" s="18"/>
+      <c r="AN84" s="7"/>
+    </row>
+    <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="6"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="16"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="17"/>
+      <c r="L85" s="14"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="14"/>
+      <c r="P85" s="15"/>
+      <c r="Q85" s="15"/>
+      <c r="R85" s="17"/>
+      <c r="S85" s="14"/>
+      <c r="T85" s="17"/>
+      <c r="U85" s="14"/>
+      <c r="V85" s="17"/>
+      <c r="W85" s="14"/>
+      <c r="X85" s="15"/>
+      <c r="Y85" s="15"/>
+      <c r="Z85" s="17"/>
+      <c r="AA85" s="14"/>
+      <c r="AB85" s="15"/>
+      <c r="AC85" s="17"/>
+      <c r="AD85" s="14"/>
+      <c r="AE85" s="15"/>
+      <c r="AF85" s="15"/>
+      <c r="AG85" s="15"/>
+      <c r="AH85" s="15"/>
+      <c r="AI85" s="15"/>
+      <c r="AJ85" s="15"/>
+      <c r="AK85" s="15"/>
+      <c r="AL85" s="15"/>
+      <c r="AM85" s="18"/>
+      <c r="AN85" s="7"/>
+    </row>
+    <row r="86" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="6"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="16"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="17"/>
+      <c r="L86" s="14"/>
+      <c r="M86" s="15"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="14"/>
+      <c r="P86" s="15"/>
+      <c r="Q86" s="15"/>
+      <c r="R86" s="17"/>
+      <c r="S86" s="14"/>
+      <c r="T86" s="17"/>
+      <c r="U86" s="14"/>
+      <c r="V86" s="17"/>
+      <c r="W86" s="14"/>
+      <c r="X86" s="15"/>
+      <c r="Y86" s="15"/>
+      <c r="Z86" s="17"/>
+      <c r="AA86" s="14"/>
+      <c r="AB86" s="15"/>
+      <c r="AC86" s="17"/>
+      <c r="AD86" s="14"/>
+      <c r="AE86" s="15"/>
+      <c r="AF86" s="15"/>
+      <c r="AG86" s="15"/>
+      <c r="AH86" s="15"/>
+      <c r="AI86" s="15"/>
+      <c r="AJ86" s="15"/>
+      <c r="AK86" s="15"/>
+      <c r="AL86" s="15"/>
+      <c r="AM86" s="18"/>
+      <c r="AN86" s="7"/>
+    </row>
+    <row r="87" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="6"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="16"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="17"/>
+      <c r="L87" s="14"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="14"/>
+      <c r="P87" s="15"/>
+      <c r="Q87" s="15"/>
+      <c r="R87" s="17"/>
+      <c r="S87" s="14"/>
+      <c r="T87" s="17"/>
+      <c r="U87" s="14"/>
+      <c r="V87" s="17"/>
+      <c r="W87" s="14"/>
+      <c r="X87" s="15"/>
+      <c r="Y87" s="15"/>
+      <c r="Z87" s="17"/>
+      <c r="AA87" s="14"/>
+      <c r="AB87" s="15"/>
+      <c r="AC87" s="17"/>
+      <c r="AD87" s="14"/>
+      <c r="AE87" s="15"/>
+      <c r="AF87" s="15"/>
+      <c r="AG87" s="15"/>
+      <c r="AH87" s="15"/>
+      <c r="AI87" s="15"/>
+      <c r="AJ87" s="15"/>
+      <c r="AK87" s="15"/>
+      <c r="AL87" s="15"/>
+      <c r="AM87" s="18"/>
+      <c r="AN87" s="7"/>
+    </row>
+    <row r="88" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="6"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="16"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="14"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="14"/>
+      <c r="P88" s="15"/>
+      <c r="Q88" s="15"/>
+      <c r="R88" s="17"/>
+      <c r="S88" s="14"/>
+      <c r="T88" s="17"/>
+      <c r="U88" s="14"/>
+      <c r="V88" s="17"/>
+      <c r="W88" s="14"/>
+      <c r="X88" s="15"/>
+      <c r="Y88" s="15"/>
+      <c r="Z88" s="17"/>
+      <c r="AA88" s="14"/>
+      <c r="AB88" s="15"/>
+      <c r="AC88" s="17"/>
+      <c r="AD88" s="14"/>
+      <c r="AE88" s="15"/>
+      <c r="AF88" s="15"/>
+      <c r="AG88" s="15"/>
+      <c r="AH88" s="15"/>
+      <c r="AI88" s="15"/>
+      <c r="AJ88" s="15"/>
+      <c r="AK88" s="15"/>
+      <c r="AL88" s="15"/>
+      <c r="AM88" s="18"/>
+      <c r="AN88" s="7"/>
+    </row>
+    <row r="89" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="6"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="16"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="17"/>
+      <c r="L89" s="14"/>
+      <c r="M89" s="15"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="14"/>
+      <c r="P89" s="15"/>
+      <c r="Q89" s="15"/>
+      <c r="R89" s="17"/>
+      <c r="S89" s="14"/>
+      <c r="T89" s="17"/>
+      <c r="U89" s="14"/>
+      <c r="V89" s="17"/>
+      <c r="W89" s="14"/>
+      <c r="X89" s="15"/>
+      <c r="Y89" s="15"/>
+      <c r="Z89" s="17"/>
+      <c r="AA89" s="14"/>
+      <c r="AB89" s="15"/>
+      <c r="AC89" s="17"/>
+      <c r="AD89" s="14"/>
+      <c r="AE89" s="15"/>
+      <c r="AF89" s="15"/>
+      <c r="AG89" s="15"/>
+      <c r="AH89" s="15"/>
+      <c r="AI89" s="15"/>
+      <c r="AJ89" s="15"/>
+      <c r="AK89" s="15"/>
+      <c r="AL89" s="15"/>
+      <c r="AM89" s="18"/>
+      <c r="AN89" s="7"/>
+    </row>
+    <row r="90" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="6"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="16"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="17"/>
+      <c r="L90" s="14"/>
+      <c r="M90" s="15"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="14"/>
+      <c r="P90" s="15"/>
+      <c r="Q90" s="15"/>
+      <c r="R90" s="17"/>
+      <c r="S90" s="14"/>
+      <c r="T90" s="17"/>
+      <c r="U90" s="14"/>
+      <c r="V90" s="17"/>
+      <c r="W90" s="14"/>
+      <c r="X90" s="15"/>
+      <c r="Y90" s="15"/>
+      <c r="Z90" s="17"/>
+      <c r="AA90" s="14"/>
+      <c r="AB90" s="15"/>
+      <c r="AC90" s="17"/>
+      <c r="AD90" s="14"/>
+      <c r="AE90" s="15"/>
+      <c r="AF90" s="15"/>
+      <c r="AG90" s="15"/>
+      <c r="AH90" s="15"/>
+      <c r="AI90" s="15"/>
+      <c r="AJ90" s="15"/>
+      <c r="AK90" s="15"/>
+      <c r="AL90" s="15"/>
+      <c r="AM90" s="18"/>
+      <c r="AN90" s="7"/>
+    </row>
+    <row r="91" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="6"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="16"/>
+      <c r="J91" s="15"/>
+      <c r="K91" s="17"/>
+      <c r="L91" s="14"/>
+      <c r="M91" s="15"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="14"/>
+      <c r="P91" s="15"/>
+      <c r="Q91" s="15"/>
+      <c r="R91" s="17"/>
+      <c r="S91" s="14"/>
+      <c r="T91" s="17"/>
+      <c r="U91" s="14"/>
+      <c r="V91" s="17"/>
+      <c r="W91" s="14"/>
+      <c r="X91" s="15"/>
+      <c r="Y91" s="15"/>
+      <c r="Z91" s="17"/>
+      <c r="AA91" s="14"/>
+      <c r="AB91" s="15"/>
+      <c r="AC91" s="17"/>
+      <c r="AD91" s="14"/>
+      <c r="AE91" s="15"/>
+      <c r="AF91" s="15"/>
+      <c r="AG91" s="15"/>
+      <c r="AH91" s="15"/>
+      <c r="AI91" s="15"/>
+      <c r="AJ91" s="15"/>
+      <c r="AK91" s="15"/>
+      <c r="AL91" s="15"/>
+      <c r="AM91" s="18"/>
+      <c r="AN91" s="7"/>
+    </row>
+    <row r="92" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="6"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="16"/>
+      <c r="J92" s="15"/>
+      <c r="K92" s="17"/>
+      <c r="L92" s="14"/>
+      <c r="M92" s="15"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="14"/>
+      <c r="P92" s="15"/>
+      <c r="Q92" s="15"/>
+      <c r="R92" s="17"/>
+      <c r="S92" s="14"/>
+      <c r="T92" s="17"/>
+      <c r="U92" s="14"/>
+      <c r="V92" s="17"/>
+      <c r="W92" s="14"/>
+      <c r="X92" s="15"/>
+      <c r="Y92" s="15"/>
+      <c r="Z92" s="17"/>
+      <c r="AA92" s="14"/>
+      <c r="AB92" s="15"/>
+      <c r="AC92" s="17"/>
+      <c r="AD92" s="14"/>
+      <c r="AE92" s="15"/>
+      <c r="AF92" s="15"/>
+      <c r="AG92" s="15"/>
+      <c r="AH92" s="15"/>
+      <c r="AI92" s="15"/>
+      <c r="AJ92" s="15"/>
+      <c r="AK92" s="15"/>
+      <c r="AL92" s="15"/>
+      <c r="AM92" s="18"/>
+      <c r="AN92" s="7"/>
+    </row>
+    <row r="93" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="6"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="16"/>
+      <c r="J93" s="15"/>
+      <c r="K93" s="17"/>
+      <c r="L93" s="14"/>
+      <c r="M93" s="15"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="14"/>
+      <c r="P93" s="15"/>
+      <c r="Q93" s="15"/>
+      <c r="R93" s="17"/>
+      <c r="S93" s="14"/>
+      <c r="T93" s="17"/>
+      <c r="U93" s="14"/>
+      <c r="V93" s="17"/>
+      <c r="W93" s="14"/>
+      <c r="X93" s="15"/>
+      <c r="Y93" s="15"/>
+      <c r="Z93" s="17"/>
+      <c r="AA93" s="14"/>
+      <c r="AB93" s="15"/>
+      <c r="AC93" s="17"/>
+      <c r="AD93" s="14"/>
+      <c r="AE93" s="15"/>
+      <c r="AF93" s="15"/>
+      <c r="AG93" s="15"/>
+      <c r="AH93" s="15"/>
+      <c r="AI93" s="15"/>
+      <c r="AJ93" s="15"/>
+      <c r="AK93" s="15"/>
+      <c r="AL93" s="15"/>
+      <c r="AM93" s="18"/>
+      <c r="AN93" s="7"/>
+    </row>
+    <row r="94" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="6"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="16"/>
+      <c r="J94" s="15"/>
+      <c r="K94" s="17"/>
+      <c r="L94" s="14"/>
+      <c r="M94" s="15"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="14"/>
+      <c r="P94" s="15"/>
+      <c r="Q94" s="15"/>
+      <c r="R94" s="17"/>
+      <c r="S94" s="14"/>
+      <c r="T94" s="17"/>
+      <c r="U94" s="14"/>
+      <c r="V94" s="17"/>
+      <c r="W94" s="14"/>
+      <c r="X94" s="15"/>
+      <c r="Y94" s="15"/>
+      <c r="Z94" s="17"/>
+      <c r="AA94" s="14"/>
+      <c r="AB94" s="15"/>
+      <c r="AC94" s="17"/>
+      <c r="AD94" s="14"/>
+      <c r="AE94" s="15"/>
+      <c r="AF94" s="15"/>
+      <c r="AG94" s="15"/>
+      <c r="AH94" s="15"/>
+      <c r="AI94" s="15"/>
+      <c r="AJ94" s="15"/>
+      <c r="AK94" s="15"/>
+      <c r="AL94" s="15"/>
+      <c r="AM94" s="18"/>
+      <c r="AN94" s="7"/>
+    </row>
+    <row r="95" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="6"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="16"/>
+      <c r="J95" s="15"/>
+      <c r="K95" s="17"/>
+      <c r="L95" s="14"/>
+      <c r="M95" s="15"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="14"/>
+      <c r="P95" s="15"/>
+      <c r="Q95" s="15"/>
+      <c r="R95" s="17"/>
+      <c r="S95" s="14"/>
+      <c r="T95" s="17"/>
+      <c r="U95" s="14"/>
+      <c r="V95" s="17"/>
+      <c r="W95" s="14"/>
+      <c r="X95" s="15"/>
+      <c r="Y95" s="15"/>
+      <c r="Z95" s="17"/>
+      <c r="AA95" s="14"/>
+      <c r="AB95" s="15"/>
+      <c r="AC95" s="17"/>
+      <c r="AD95" s="14"/>
+      <c r="AE95" s="15"/>
+      <c r="AF95" s="15"/>
+      <c r="AG95" s="15"/>
+      <c r="AH95" s="15"/>
+      <c r="AI95" s="15"/>
+      <c r="AJ95" s="15"/>
+      <c r="AK95" s="15"/>
+      <c r="AL95" s="15"/>
+      <c r="AM95" s="18"/>
+      <c r="AN95" s="7"/>
+    </row>
+    <row r="96" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="6"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="16"/>
+      <c r="J96" s="15"/>
+      <c r="K96" s="17"/>
+      <c r="L96" s="14"/>
+      <c r="M96" s="15"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="14"/>
+      <c r="P96" s="15"/>
+      <c r="Q96" s="15"/>
+      <c r="R96" s="17"/>
+      <c r="S96" s="14"/>
+      <c r="T96" s="17"/>
+      <c r="U96" s="14"/>
+      <c r="V96" s="17"/>
+      <c r="W96" s="14"/>
+      <c r="X96" s="15"/>
+      <c r="Y96" s="15"/>
+      <c r="Z96" s="17"/>
+      <c r="AA96" s="14"/>
+      <c r="AB96" s="15"/>
+      <c r="AC96" s="17"/>
+      <c r="AD96" s="14"/>
+      <c r="AE96" s="15"/>
+      <c r="AF96" s="15"/>
+      <c r="AG96" s="15"/>
+      <c r="AH96" s="15"/>
+      <c r="AI96" s="15"/>
+      <c r="AJ96" s="15"/>
+      <c r="AK96" s="15"/>
+      <c r="AL96" s="15"/>
+      <c r="AM96" s="18"/>
+      <c r="AN96" s="7"/>
+    </row>
+    <row r="97" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="6"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="16"/>
+      <c r="J97" s="15"/>
+      <c r="K97" s="17"/>
+      <c r="L97" s="14"/>
+      <c r="M97" s="15"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="14"/>
+      <c r="P97" s="15"/>
+      <c r="Q97" s="15"/>
+      <c r="R97" s="17"/>
+      <c r="S97" s="14"/>
+      <c r="T97" s="17"/>
+      <c r="U97" s="14"/>
+      <c r="V97" s="17"/>
+      <c r="W97" s="14"/>
+      <c r="X97" s="15"/>
+      <c r="Y97" s="15"/>
+      <c r="Z97" s="17"/>
+      <c r="AA97" s="14"/>
+      <c r="AB97" s="15"/>
+      <c r="AC97" s="17"/>
+      <c r="AD97" s="14"/>
+      <c r="AE97" s="15"/>
+      <c r="AF97" s="15"/>
+      <c r="AG97" s="15"/>
+      <c r="AH97" s="15"/>
+      <c r="AI97" s="15"/>
+      <c r="AJ97" s="15"/>
+      <c r="AK97" s="15"/>
+      <c r="AL97" s="15"/>
+      <c r="AM97" s="18"/>
+      <c r="AN97" s="7"/>
+    </row>
+    <row r="98" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="6"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="16"/>
+      <c r="J98" s="15"/>
+      <c r="K98" s="17"/>
+      <c r="L98" s="14"/>
+      <c r="M98" s="15"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="14"/>
+      <c r="P98" s="15"/>
+      <c r="Q98" s="15"/>
+      <c r="R98" s="17"/>
+      <c r="S98" s="14"/>
+      <c r="T98" s="17"/>
+      <c r="U98" s="14"/>
+      <c r="V98" s="17"/>
+      <c r="W98" s="14"/>
+      <c r="X98" s="15"/>
+      <c r="Y98" s="15"/>
+      <c r="Z98" s="17"/>
+      <c r="AA98" s="14"/>
+      <c r="AB98" s="15"/>
+      <c r="AC98" s="17"/>
+      <c r="AD98" s="14"/>
+      <c r="AE98" s="15"/>
+      <c r="AF98" s="15"/>
+      <c r="AG98" s="15"/>
+      <c r="AH98" s="15"/>
+      <c r="AI98" s="15"/>
+      <c r="AJ98" s="15"/>
+      <c r="AK98" s="15"/>
+      <c r="AL98" s="15"/>
+      <c r="AM98" s="18"/>
+      <c r="AN98" s="7"/>
+    </row>
+    <row r="99" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="6"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="16"/>
+      <c r="J99" s="15"/>
+      <c r="K99" s="17"/>
+      <c r="L99" s="14"/>
+      <c r="M99" s="15"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="14"/>
+      <c r="P99" s="15"/>
+      <c r="Q99" s="15"/>
+      <c r="R99" s="17"/>
+      <c r="S99" s="14"/>
+      <c r="T99" s="17"/>
+      <c r="U99" s="14"/>
+      <c r="V99" s="17"/>
+      <c r="W99" s="14"/>
+      <c r="X99" s="15"/>
+      <c r="Y99" s="15"/>
+      <c r="Z99" s="17"/>
+      <c r="AA99" s="14"/>
+      <c r="AB99" s="15"/>
+      <c r="AC99" s="17"/>
+      <c r="AD99" s="14"/>
+      <c r="AE99" s="15"/>
+      <c r="AF99" s="15"/>
+      <c r="AG99" s="15"/>
+      <c r="AH99" s="15"/>
+      <c r="AI99" s="15"/>
+      <c r="AJ99" s="15"/>
+      <c r="AK99" s="15"/>
+      <c r="AL99" s="15"/>
+      <c r="AM99" s="18"/>
+      <c r="AN99" s="7"/>
+    </row>
+    <row r="100" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="6"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="16"/>
+      <c r="J100" s="15"/>
+      <c r="K100" s="17"/>
+      <c r="L100" s="14"/>
+      <c r="M100" s="15"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="14"/>
+      <c r="P100" s="15"/>
+      <c r="Q100" s="15"/>
+      <c r="R100" s="17"/>
+      <c r="S100" s="14"/>
+      <c r="T100" s="17"/>
+      <c r="U100" s="14"/>
+      <c r="V100" s="17"/>
+      <c r="W100" s="14"/>
+      <c r="X100" s="15"/>
+      <c r="Y100" s="15"/>
+      <c r="Z100" s="17"/>
+      <c r="AA100" s="14"/>
+      <c r="AB100" s="15"/>
+      <c r="AC100" s="17"/>
+      <c r="AD100" s="14"/>
+      <c r="AE100" s="15"/>
+      <c r="AF100" s="15"/>
+      <c r="AG100" s="15"/>
+      <c r="AH100" s="15"/>
+      <c r="AI100" s="15"/>
+      <c r="AJ100" s="15"/>
+      <c r="AK100" s="15"/>
+      <c r="AL100" s="15"/>
+      <c r="AM100" s="18"/>
+      <c r="AN100" s="7"/>
+    </row>
+    <row r="101" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="6"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="16"/>
+      <c r="J101" s="15"/>
+      <c r="K101" s="17"/>
+      <c r="L101" s="14"/>
+      <c r="M101" s="15"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="14"/>
+      <c r="P101" s="15"/>
+      <c r="Q101" s="15"/>
+      <c r="R101" s="17"/>
+      <c r="S101" s="14"/>
+      <c r="T101" s="17"/>
+      <c r="U101" s="14"/>
+      <c r="V101" s="17"/>
+      <c r="W101" s="14"/>
+      <c r="X101" s="15"/>
+      <c r="Y101" s="15"/>
+      <c r="Z101" s="17"/>
+      <c r="AA101" s="14"/>
+      <c r="AB101" s="15"/>
+      <c r="AC101" s="17"/>
+      <c r="AD101" s="14"/>
+      <c r="AE101" s="15"/>
+      <c r="AF101" s="15"/>
+      <c r="AG101" s="15"/>
+      <c r="AH101" s="15"/>
+      <c r="AI101" s="15"/>
+      <c r="AJ101" s="15"/>
+      <c r="AK101" s="15"/>
+      <c r="AL101" s="15"/>
+      <c r="AM101" s="18"/>
+      <c r="AN101" s="7"/>
+    </row>
+    <row r="102" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="6"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="16"/>
+      <c r="J102" s="15"/>
+      <c r="K102" s="17"/>
+      <c r="L102" s="14"/>
+      <c r="M102" s="15"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="14"/>
+      <c r="P102" s="15"/>
+      <c r="Q102" s="15"/>
+      <c r="R102" s="17"/>
+      <c r="S102" s="14"/>
+      <c r="T102" s="17"/>
+      <c r="U102" s="14"/>
+      <c r="V102" s="17"/>
+      <c r="W102" s="14"/>
+      <c r="X102" s="15"/>
+      <c r="Y102" s="15"/>
+      <c r="Z102" s="17"/>
+      <c r="AA102" s="14"/>
+      <c r="AB102" s="15"/>
+      <c r="AC102" s="17"/>
+      <c r="AD102" s="14"/>
+      <c r="AE102" s="15"/>
+      <c r="AF102" s="15"/>
+      <c r="AG102" s="15"/>
+      <c r="AH102" s="15"/>
+      <c r="AI102" s="15"/>
+      <c r="AJ102" s="15"/>
+      <c r="AK102" s="15"/>
+      <c r="AL102" s="15"/>
+      <c r="AM102" s="18"/>
+      <c r="AN102" s="7"/>
+    </row>
+    <row r="103" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="6"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="16"/>
+      <c r="J103" s="15"/>
+      <c r="K103" s="17"/>
+      <c r="L103" s="14"/>
+      <c r="M103" s="15"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="14"/>
+      <c r="P103" s="15"/>
+      <c r="Q103" s="15"/>
+      <c r="R103" s="17"/>
+      <c r="S103" s="14"/>
+      <c r="T103" s="17"/>
+      <c r="U103" s="14"/>
+      <c r="V103" s="17"/>
+      <c r="W103" s="14"/>
+      <c r="X103" s="15"/>
+      <c r="Y103" s="15"/>
+      <c r="Z103" s="17"/>
+      <c r="AA103" s="14"/>
+      <c r="AB103" s="15"/>
+      <c r="AC103" s="17"/>
+      <c r="AD103" s="14"/>
+      <c r="AE103" s="15"/>
+      <c r="AF103" s="15"/>
+      <c r="AG103" s="15"/>
+      <c r="AH103" s="15"/>
+      <c r="AI103" s="15"/>
+      <c r="AJ103" s="15"/>
+      <c r="AK103" s="15"/>
+      <c r="AL103" s="15"/>
+      <c r="AM103" s="18"/>
+      <c r="AN103" s="7"/>
+    </row>
+    <row r="104" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="6"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="16"/>
+      <c r="J104" s="15"/>
+      <c r="K104" s="17"/>
+      <c r="L104" s="14"/>
+      <c r="M104" s="15"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="14"/>
+      <c r="P104" s="15"/>
+      <c r="Q104" s="15"/>
+      <c r="R104" s="17"/>
+      <c r="S104" s="14"/>
+      <c r="T104" s="17"/>
+      <c r="U104" s="14"/>
+      <c r="V104" s="17"/>
+      <c r="W104" s="14"/>
+      <c r="X104" s="15"/>
+      <c r="Y104" s="15"/>
+      <c r="Z104" s="17"/>
+      <c r="AA104" s="14"/>
+      <c r="AB104" s="15"/>
+      <c r="AC104" s="17"/>
+      <c r="AD104" s="14"/>
+      <c r="AE104" s="15"/>
+      <c r="AF104" s="15"/>
+      <c r="AG104" s="15"/>
+      <c r="AH104" s="15"/>
+      <c r="AI104" s="15"/>
+      <c r="AJ104" s="15"/>
+      <c r="AK104" s="15"/>
+      <c r="AL104" s="15"/>
+      <c r="AM104" s="18"/>
+      <c r="AN104" s="7"/>
+    </row>
+    <row r="105" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="6"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="16"/>
+      <c r="J105" s="15"/>
+      <c r="K105" s="17"/>
+      <c r="L105" s="14"/>
+      <c r="M105" s="15"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="14"/>
+      <c r="P105" s="15"/>
+      <c r="Q105" s="15"/>
+      <c r="R105" s="17"/>
+      <c r="S105" s="14"/>
+      <c r="T105" s="17"/>
+      <c r="U105" s="14"/>
+      <c r="V105" s="17"/>
+      <c r="W105" s="14"/>
+      <c r="X105" s="15"/>
+      <c r="Y105" s="15"/>
+      <c r="Z105" s="17"/>
+      <c r="AA105" s="14"/>
+      <c r="AB105" s="15"/>
+      <c r="AC105" s="17"/>
+      <c r="AD105" s="14"/>
+      <c r="AE105" s="15"/>
+      <c r="AF105" s="15"/>
+      <c r="AG105" s="15"/>
+      <c r="AH105" s="15"/>
+      <c r="AI105" s="15"/>
+      <c r="AJ105" s="15"/>
+      <c r="AK105" s="15"/>
+      <c r="AL105" s="15"/>
+      <c r="AM105" s="18"/>
+      <c r="AN105" s="7"/>
+    </row>
+    <row r="106" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="6"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="16"/>
+      <c r="J106" s="15"/>
+      <c r="K106" s="17"/>
+      <c r="L106" s="14"/>
+      <c r="M106" s="15"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="14"/>
+      <c r="P106" s="15"/>
+      <c r="Q106" s="15"/>
+      <c r="R106" s="17"/>
+      <c r="S106" s="14"/>
+      <c r="T106" s="17"/>
+      <c r="U106" s="14"/>
+      <c r="V106" s="17"/>
+      <c r="W106" s="14"/>
+      <c r="X106" s="15"/>
+      <c r="Y106" s="15"/>
+      <c r="Z106" s="17"/>
+      <c r="AA106" s="14"/>
+      <c r="AB106" s="15"/>
+      <c r="AC106" s="17"/>
+      <c r="AD106" s="14"/>
+      <c r="AE106" s="15"/>
+      <c r="AF106" s="15"/>
+      <c r="AG106" s="15"/>
+      <c r="AH106" s="15"/>
+      <c r="AI106" s="15"/>
+      <c r="AJ106" s="15"/>
+      <c r="AK106" s="15"/>
+      <c r="AL106" s="15"/>
+      <c r="AM106" s="18"/>
+      <c r="AN106" s="7"/>
+    </row>
+    <row r="107" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="6"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="14"/>
+      <c r="I107" s="16"/>
+      <c r="J107" s="15"/>
+      <c r="K107" s="17"/>
+      <c r="L107" s="14"/>
+      <c r="M107" s="15"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="14"/>
+      <c r="P107" s="15"/>
+      <c r="Q107" s="15"/>
+      <c r="R107" s="17"/>
+      <c r="S107" s="14"/>
+      <c r="T107" s="17"/>
+      <c r="U107" s="14"/>
+      <c r="V107" s="17"/>
+      <c r="W107" s="14"/>
+      <c r="X107" s="15"/>
+      <c r="Y107" s="15"/>
+      <c r="Z107" s="17"/>
+      <c r="AA107" s="14"/>
+      <c r="AB107" s="15"/>
+      <c r="AC107" s="17"/>
+      <c r="AD107" s="14"/>
+      <c r="AE107" s="15"/>
+      <c r="AF107" s="15"/>
+      <c r="AG107" s="15"/>
+      <c r="AH107" s="15"/>
+      <c r="AI107" s="15"/>
+      <c r="AJ107" s="15"/>
+      <c r="AK107" s="15"/>
+      <c r="AL107" s="15"/>
+      <c r="AM107" s="18"/>
+      <c r="AN107" s="7"/>
+    </row>
+    <row r="108" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="6"/>
+      <c r="B108" s="12"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="14"/>
+      <c r="I108" s="16"/>
+      <c r="J108" s="15"/>
+      <c r="K108" s="17"/>
+      <c r="L108" s="14"/>
+      <c r="M108" s="15"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="14"/>
+      <c r="P108" s="15"/>
+      <c r="Q108" s="15"/>
+      <c r="R108" s="17"/>
+      <c r="S108" s="14"/>
+      <c r="T108" s="17"/>
+      <c r="U108" s="14"/>
+      <c r="V108" s="17"/>
+      <c r="W108" s="14"/>
+      <c r="X108" s="15"/>
+      <c r="Y108" s="15"/>
+      <c r="Z108" s="17"/>
+      <c r="AA108" s="14"/>
+      <c r="AB108" s="15"/>
+      <c r="AC108" s="17"/>
+      <c r="AD108" s="14"/>
+      <c r="AE108" s="15"/>
+      <c r="AF108" s="15"/>
+      <c r="AG108" s="15"/>
+      <c r="AH108" s="15"/>
+      <c r="AI108" s="15"/>
+      <c r="AJ108" s="15"/>
+      <c r="AK108" s="15"/>
+      <c r="AL108" s="15"/>
+      <c r="AM108" s="18"/>
+      <c r="AN108" s="7"/>
+    </row>
+    <row r="109" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="6"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="16"/>
+      <c r="J109" s="15"/>
+      <c r="K109" s="17"/>
+      <c r="L109" s="14"/>
+      <c r="M109" s="15"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="14"/>
+      <c r="P109" s="15"/>
+      <c r="Q109" s="15"/>
+      <c r="R109" s="17"/>
+      <c r="S109" s="14"/>
+      <c r="T109" s="17"/>
+      <c r="U109" s="14"/>
+      <c r="V109" s="17"/>
+      <c r="W109" s="14"/>
+      <c r="X109" s="15"/>
+      <c r="Y109" s="15"/>
+      <c r="Z109" s="17"/>
+      <c r="AA109" s="14"/>
+      <c r="AB109" s="15"/>
+      <c r="AC109" s="17"/>
+      <c r="AD109" s="14"/>
+      <c r="AE109" s="15"/>
+      <c r="AF109" s="15"/>
+      <c r="AG109" s="15"/>
+      <c r="AH109" s="15"/>
+      <c r="AI109" s="15"/>
+      <c r="AJ109" s="15"/>
+      <c r="AK109" s="15"/>
+      <c r="AL109" s="15"/>
+      <c r="AM109" s="18"/>
+      <c r="AN109" s="7"/>
+    </row>
+    <row r="110" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="9"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="10"/>
+      <c r="I110" s="10"/>
+      <c r="J110" s="10"/>
+      <c r="K110" s="10"/>
+      <c r="L110" s="10"/>
+      <c r="M110" s="10"/>
+      <c r="N110" s="10"/>
+      <c r="O110" s="10"/>
+      <c r="P110" s="10"/>
+      <c r="Q110" s="10"/>
+      <c r="R110" s="10"/>
+      <c r="S110" s="10"/>
+      <c r="T110" s="10"/>
+      <c r="U110" s="10"/>
+      <c r="V110" s="10"/>
+      <c r="W110" s="10"/>
+      <c r="X110" s="10"/>
+      <c r="Y110" s="10"/>
+      <c r="Z110" s="10"/>
+      <c r="AA110" s="10"/>
+      <c r="AB110" s="10"/>
+      <c r="AC110" s="10"/>
+      <c r="AD110" s="10"/>
+      <c r="AE110" s="10"/>
+      <c r="AF110" s="10"/>
+      <c r="AG110" s="10"/>
+      <c r="AH110" s="10"/>
+      <c r="AI110" s="10"/>
+      <c r="AJ110" s="10"/>
+      <c r="AK110" s="10"/>
+      <c r="AL110" s="10"/>
+      <c r="AM110" s="10"/>
+      <c r="AN110" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:AE3"/>

--- a/doc/外部設計書/02_外部設計書_C4.xlsx
+++ b/doc/外部設計書/02_外部設計書_C4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C4\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C2FC43-6014-4300-AB17-16422BD4B1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F28709-2E94-4893-9795-D2ACA278DC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン " sheetId="4" r:id="rId1"/>
@@ -18,8 +18,10 @@
     <sheet name="プロフィール" sheetId="6" r:id="rId3"/>
     <sheet name="チャンネル" sheetId="7" r:id="rId4"/>
     <sheet name="通知" sheetId="8" r:id="rId5"/>
+    <sheet name="DM" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">DM!$5:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">チャンネル!$5:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">プロフィール!$5:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'ログイン '!$5:$5</definedName>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="189">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -1140,6 +1142,283 @@
     <t>ポスト</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>DM</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>丸山、藤土</t>
+    <rPh sb="0" eb="2">
+      <t>マルヤマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フジト</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ホーム</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>通知</t>
+    <rPh sb="0" eb="2">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>DM画面用jspを表示する。</t>
+    <rPh sb="2" eb="5">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①名前押下時</t>
+    <rPh sb="1" eb="3">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ボタン押下時、名前のプロフィール画面に遷移する。</t>
+    <rPh sb="3" eb="5">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザーが送信したメッセージを表示</t>
+    <rPh sb="5" eb="7">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>③⑫アイコンを表示</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>相手ユーザーから受信したメッセージを表示</t>
+    <rPh sb="0" eb="2">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>⑤リアクションボタンを押下時、色が変化</t>
+    <rPh sb="11" eb="13">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>⑥テキストを入力</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>⑦　⑥で入力されたテキストをサーバーに送信</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>⑧⑨⑩　各ページに遷移</t>
+    <rPh sb="4" eb="5">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>dmName</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>氏名</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>dm</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>dmSendMes</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>送信メッセージ</t>
+    <rPh sb="0" eb="2">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>dmIcon</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>dmRecvMes</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>受信メッセージ</t>
+    <rPh sb="0" eb="2">
+      <t>ジュシン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>dmFavorite</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>いいね</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>dmText</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>テキストボックス</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>dmSend</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>送信ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>dmHome</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>dmCh</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>dmNoti</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>dmTitle</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>DM</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>テキストのみ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>dmMenuIcon</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>メニューアイコン</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>各個人のプロフィールページに遷移</t>
+    <rPh sb="0" eb="3">
+      <t>カクコジン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>dmMenuName</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>メニュー氏名</t>
+    <rPh sb="4" eb="6">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>各個人のDM画面に遷移</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -1194,12 +1473,18 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="21">
@@ -1467,7 +1752,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1516,6 +1801,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1571,8 +1859,21 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6387,6 +6688,1996 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>29441</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>186169</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>69273</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>121226</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76C37F6A-C912-417F-B3F3-4BA59EB17750}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2544041" y="6472669"/>
+          <a:ext cx="6326332" cy="697057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>テキストを入力</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>17319</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>17319</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A142161-FCF3-40C0-8D1D-00C663CC0E02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9069878" y="6494319"/>
+          <a:ext cx="737063" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>送信</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>198860</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>91794</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="543739" cy="792525"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC89F7A0-7639-4A51-ADAB-BC53A19C6B4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2462000" y="1044294"/>
+          <a:ext cx="543739" cy="792525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>12174</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76551</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="543739" cy="792525"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E041268-76BC-4296-B717-C52DC6C9E359}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6550134" y="1410051"/>
+          <a:ext cx="543739" cy="792525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219950</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>69021</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="543739" cy="792525"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FA453F5-C058-404B-AFF3-82992EB14F50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2734550" y="2545521"/>
+          <a:ext cx="543739" cy="792525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>74636</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161602</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="543739" cy="792525"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25ED5F50-EAC3-4A59-BA5E-6AE458C5B36F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3846536" y="2066602"/>
+          <a:ext cx="543739" cy="792525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>④</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>86338</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>3003</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="543739" cy="792525"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAB4F548-1259-4397-860B-95118E47D193}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6121378" y="2098503"/>
+          <a:ext cx="543739" cy="792525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>⑤</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>223262</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>63095</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="524054" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B2DE249-4D27-451F-A8DB-8AB640D1E25B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="223262" y="2730095"/>
+          <a:ext cx="524054" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>DM</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>194062</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>145217</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="917495" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E8C268E-9A60-4992-9221-F89D0766CF7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="948442" y="3574217"/>
+          <a:ext cx="917495" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>丸山　ゆうき</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>77656</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>33974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>30092</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>112601</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="フローチャート: 結合子 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00A97FED-3BF0-4D58-89B4-3E194E0B4012}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="329116" y="3462974"/>
+          <a:ext cx="455356" cy="459627"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>162392</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>49967</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>62459</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>87442</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="四角形: 角を丸くする 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9968AB93-E968-4E3D-9209-046E2F92E227}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6951812" y="1954967"/>
+          <a:ext cx="2414667" cy="418475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>202366</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>39972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>99934</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>49967</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="四角形: 角を丸くする 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA2522E1-5A7E-4A1B-9646-32CE9E449781}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3974266" y="2706972"/>
+          <a:ext cx="2160708" cy="390995"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>212360</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>24983</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>169888</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>107429</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="フローチャート: 結合子 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{287617BA-6E79-4979-A0A5-9A4BEABA014F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3229880" y="2691983"/>
+          <a:ext cx="460448" cy="463446"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>149901</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>162393</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>124918</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>24984</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="四角形: 角を丸くする 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26DE8DB7-7701-459D-A6C2-78C7F2BB0EB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2915961" y="1305393"/>
+          <a:ext cx="1483777" cy="434091"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>丸山ゆうき</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>240398</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>107227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>220774</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>151711</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="星: 5 pt 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1015A819-6D4B-448A-9247-09A879EB5212}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6275438" y="2774227"/>
+          <a:ext cx="231836" cy="234984"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>99991</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>232077</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>144475</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="星: 5 pt 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2710506-AFFA-4539-B31D-04ED2C386BD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6789420" y="2766991"/>
+          <a:ext cx="232077" cy="234984"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>206878</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>103439</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="312393" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E304EE27-DFFE-4C19-9E90-681374FD7258}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6493378" y="2770439"/>
+          <a:ext cx="312393" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>→</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>137583</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>116416</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="543739" cy="792525"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A113770A-9BED-46EC-8523-0DBD3525F345}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1143423" y="1640416"/>
+          <a:ext cx="543739" cy="792525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>⑨</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>46566</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>99483</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="543739" cy="792525"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84136585-181D-4178-A9E2-887F2E00C994}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2561166" y="5814483"/>
+          <a:ext cx="543739" cy="792525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>⑥</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>177799</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="543739" cy="792525"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CC7A487-DFA1-4ACD-95B5-D9237D0B335C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1151890" y="1320799"/>
+          <a:ext cx="543739" cy="792525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>⑧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="543739" cy="792525"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7F45ACE-21FC-4919-BA11-FCC5E535C70C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8877300" y="5833533"/>
+          <a:ext cx="543739" cy="792525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>⑦</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>137583</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>74084</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="543739" cy="792525"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DFD8719-F18F-4501-875E-BE4F76B092FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1143423" y="1979084"/>
+          <a:ext cx="543739" cy="792525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>⑩</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>211666</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="543739" cy="792525"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7C0886F-9905-4EDD-BEE3-1AE00BB5BBA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="211666" y="2899833"/>
+          <a:ext cx="543739" cy="792525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>⑫</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>141816</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="543739" cy="792525"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09B66C34-873A-4AC2-B12B-E41EC6EDFB3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="215900" y="2237316"/>
+          <a:ext cx="543739" cy="792525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>⑪</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="792525"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3F62B17-805F-4A57-93CE-51D939034FE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2062480" y="4114800"/>
+          <a:ext cx="184731" cy="792525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>129116</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="543739" cy="792525"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91375D64-E8B0-4F0B-BA2F-98DC78B3B3F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="883496" y="3060700"/>
+          <a:ext cx="543739" cy="792525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>⑬</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="792525"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="テキスト ボックス 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E29AA411-B8C1-44F9-AB71-7C6417C9D5D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2364740" y="4419600"/>
+          <a:ext cx="184731" cy="792525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="792525"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42527F65-E45D-4C5A-A417-925AEF80EA81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2514600" y="4572000"/>
+          <a:ext cx="184731" cy="792525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>82233</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>64792</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34669</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>143419</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="フローチャート: 結合子 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{701BFC93-48C1-43A9-80D1-3A42CCDDC5AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="333693" y="4065292"/>
+          <a:ext cx="455356" cy="459627"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>198244</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142488</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="917495" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EAE10F4-FB90-4DE7-8C76-D95C1DB37AED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952624" y="4142988"/>
+          <a:ext cx="917495" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>丸山　ゆうき</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -6686,198 +8977,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="30" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30"/>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="30"/>
-      <c r="AL1" s="30"/>
-      <c r="AM1" s="30"/>
-      <c r="AN1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="32"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="32" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32" t="s">
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32" t="s">
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="33" t="s">
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="35"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="36"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="32" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32" t="s">
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="36">
+      <c r="X3" s="33"/>
+      <c r="Y3" s="37">
         <v>45450</v>
       </c>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="37" t="s">
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="20"/>
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="20"/>
+      <c r="AM3" s="20"/>
+      <c r="AN3" s="21"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="21" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="22"/>
-      <c r="AH4" s="22"/>
-      <c r="AI4" s="22"/>
-      <c r="AJ4" s="22"/>
-      <c r="AK4" s="22"/>
-      <c r="AL4" s="22"/>
-      <c r="AM4" s="22"/>
-      <c r="AN4" s="23"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="23"/>
+      <c r="AI4" s="23"/>
+      <c r="AJ4" s="23"/>
+      <c r="AK4" s="23"/>
+      <c r="AL4" s="23"/>
+      <c r="AM4" s="23"/>
+      <c r="AN4" s="24"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -11298,6 +13589,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
@@ -11314,7 +13606,6 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -11340,200 +13631,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="30" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30"/>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="30"/>
-      <c r="AL1" s="30"/>
-      <c r="AM1" s="30"/>
-      <c r="AN1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="32"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="32" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32" t="s">
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32" t="s">
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="33" t="s">
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="35"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="36"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="32" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32" t="s">
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32" t="s">
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="36">
+      <c r="X3" s="33"/>
+      <c r="Y3" s="37">
         <v>45450</v>
       </c>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="37" t="s">
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="20"/>
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="20"/>
+      <c r="AM3" s="20"/>
+      <c r="AN3" s="21"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="21" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="22"/>
-      <c r="AH4" s="22"/>
-      <c r="AI4" s="22"/>
-      <c r="AJ4" s="22"/>
-      <c r="AK4" s="22"/>
-      <c r="AL4" s="22"/>
-      <c r="AM4" s="22"/>
-      <c r="AN4" s="23"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="23"/>
+      <c r="AI4" s="23"/>
+      <c r="AJ4" s="23"/>
+      <c r="AK4" s="23"/>
+      <c r="AL4" s="23"/>
+      <c r="AM4" s="23"/>
+      <c r="AN4" s="24"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -16020,6 +18311,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
@@ -16036,7 +18328,6 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -16062,200 +18353,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="30" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30"/>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="30"/>
-      <c r="AL1" s="30"/>
-      <c r="AM1" s="30"/>
-      <c r="AN1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="32"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="32" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32" t="s">
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32" t="s">
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="33" t="s">
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="35"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="36"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="32" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32" t="s">
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32" t="s">
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="36">
+      <c r="X3" s="33"/>
+      <c r="Y3" s="37">
         <v>45453</v>
       </c>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="37" t="s">
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="20"/>
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="20"/>
+      <c r="AM3" s="20"/>
+      <c r="AN3" s="21"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="21" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="22"/>
-      <c r="AH4" s="22"/>
-      <c r="AI4" s="22"/>
-      <c r="AJ4" s="22"/>
-      <c r="AK4" s="22"/>
-      <c r="AL4" s="22"/>
-      <c r="AM4" s="22"/>
-      <c r="AN4" s="23"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="23"/>
+      <c r="AI4" s="23"/>
+      <c r="AJ4" s="23"/>
+      <c r="AK4" s="23"/>
+      <c r="AL4" s="23"/>
+      <c r="AM4" s="23"/>
+      <c r="AN4" s="24"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -20766,6 +23057,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
@@ -20782,7 +23074,6 @@
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -20808,200 +23099,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="30" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30"/>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="30"/>
-      <c r="AL1" s="30"/>
-      <c r="AM1" s="30"/>
-      <c r="AN1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="32"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="32" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32" t="s">
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32" t="s">
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="33" t="s">
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="35"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="36"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="32" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32" t="s">
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32" t="s">
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="36">
+      <c r="X3" s="33"/>
+      <c r="Y3" s="37">
         <v>45453</v>
       </c>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="37" t="s">
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="20"/>
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="20"/>
+      <c r="AM3" s="20"/>
+      <c r="AN3" s="21"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="21" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="22"/>
-      <c r="AH4" s="22"/>
-      <c r="AI4" s="22"/>
-      <c r="AJ4" s="22"/>
-      <c r="AK4" s="22"/>
-      <c r="AL4" s="22"/>
-      <c r="AM4" s="22"/>
-      <c r="AN4" s="23"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="23"/>
+      <c r="AI4" s="23"/>
+      <c r="AJ4" s="23"/>
+      <c r="AK4" s="23"/>
+      <c r="AL4" s="23"/>
+      <c r="AM4" s="23"/>
+      <c r="AN4" s="24"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -25440,6 +27731,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
@@ -25456,7 +27748,6 @@
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -25472,7 +27763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E42117-F9D3-420F-8EC6-2063C6EB37EA}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="AE81" sqref="AE81"/>
     </sheetView>
   </sheetViews>
@@ -25482,200 +27773,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="30" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30"/>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="30"/>
-      <c r="AL1" s="30"/>
-      <c r="AM1" s="30"/>
-      <c r="AN1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="32"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="32" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32" t="s">
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32" t="s">
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="33" t="s">
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="35"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="36"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="32" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32" t="s">
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32" t="s">
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="36">
+      <c r="X3" s="33"/>
+      <c r="Y3" s="37">
         <v>45453</v>
       </c>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="37" t="s">
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="20"/>
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="20"/>
+      <c r="AM3" s="20"/>
+      <c r="AN3" s="21"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="21" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="22"/>
-      <c r="AH4" s="22"/>
-      <c r="AI4" s="22"/>
-      <c r="AJ4" s="22"/>
-      <c r="AK4" s="22"/>
-      <c r="AL4" s="22"/>
-      <c r="AM4" s="22"/>
-      <c r="AN4" s="23"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="23"/>
+      <c r="AI4" s="23"/>
+      <c r="AJ4" s="23"/>
+      <c r="AK4" s="23"/>
+      <c r="AL4" s="23"/>
+      <c r="AM4" s="23"/>
+      <c r="AN4" s="24"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -30130,6 +32421,4810 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:AN4"/>
+    <mergeCell ref="A1:J4"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:AN1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AN3"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;C&amp;8&amp;P／&amp;"／,標準"&amp;N</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863422FC-4285-44E8-BD28-87F4C36B0A11}">
+  <dimension ref="A1:AN110"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="137" workbookViewId="0">
+      <selection activeCell="AA84" sqref="AA84"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="3.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="32"/>
+    </row>
+    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="36"/>
+    </row>
+    <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="37">
+        <v>45453</v>
+      </c>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="20"/>
+      <c r="AM3" s="20"/>
+      <c r="AN3" s="21"/>
+    </row>
+    <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="23"/>
+      <c r="AI4" s="23"/>
+      <c r="AJ4" s="23"/>
+      <c r="AK4" s="23"/>
+      <c r="AL4" s="23"/>
+      <c r="AM4" s="23"/>
+      <c r="AN4" s="24"/>
+    </row>
+    <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="5"/>
+    </row>
+    <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6"/>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="7"/>
+    </row>
+    <row r="8" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+    </row>
+    <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+    </row>
+    <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6"/>
+      <c r="B10" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+    </row>
+    <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6"/>
+      <c r="B11" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+    </row>
+    <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+      <c r="B12" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+    </row>
+    <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="8"/>
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="7"/>
+      <c r="AN13" s="7"/>
+    </row>
+    <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="8"/>
+      <c r="AM14" s="7"/>
+      <c r="AN14" s="7"/>
+    </row>
+    <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="8"/>
+      <c r="AL15" s="8"/>
+      <c r="AM15" s="7"/>
+      <c r="AN15" s="7"/>
+    </row>
+    <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
+      <c r="AL16" s="8"/>
+      <c r="AM16" s="7"/>
+      <c r="AN16" s="7"/>
+    </row>
+    <row r="17" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="8"/>
+      <c r="AK17" s="8"/>
+      <c r="AL17" s="8"/>
+      <c r="AM17" s="7"/>
+      <c r="AN17" s="7"/>
+    </row>
+    <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="8"/>
+      <c r="AL18" s="8"/>
+      <c r="AM18" s="7"/>
+      <c r="AN18" s="7"/>
+    </row>
+    <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="6"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="8"/>
+      <c r="AL19" s="8"/>
+      <c r="AM19" s="7"/>
+      <c r="AN19" s="7"/>
+    </row>
+    <row r="20" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="6"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="8"/>
+      <c r="AL20" s="8"/>
+      <c r="AM20" s="7"/>
+      <c r="AN20" s="7"/>
+    </row>
+    <row r="21" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="6"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="8"/>
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="7"/>
+      <c r="AN21" s="7"/>
+    </row>
+    <row r="22" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="6"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="8"/>
+      <c r="AL22" s="8"/>
+      <c r="AM22" s="7"/>
+      <c r="AN22" s="7"/>
+    </row>
+    <row r="23" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="6"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="8"/>
+      <c r="AL23" s="8"/>
+      <c r="AM23" s="7"/>
+      <c r="AN23" s="7"/>
+    </row>
+    <row r="24" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="7"/>
+      <c r="AN24" s="7"/>
+    </row>
+    <row r="25" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="6"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="8"/>
+      <c r="AL25" s="8"/>
+      <c r="AM25" s="7"/>
+      <c r="AN25" s="7"/>
+    </row>
+    <row r="26" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="6"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="8"/>
+      <c r="AL26" s="8"/>
+      <c r="AM26" s="7"/>
+      <c r="AN26" s="7"/>
+    </row>
+    <row r="27" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="6"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8"/>
+      <c r="AJ27" s="8"/>
+      <c r="AK27" s="8"/>
+      <c r="AL27" s="8"/>
+      <c r="AM27" s="7"/>
+      <c r="AN27" s="7"/>
+    </row>
+    <row r="28" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="6"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8"/>
+      <c r="AJ28" s="8"/>
+      <c r="AK28" s="8"/>
+      <c r="AL28" s="8"/>
+      <c r="AM28" s="7"/>
+      <c r="AN28" s="7"/>
+    </row>
+    <row r="29" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="6"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="8"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="8"/>
+      <c r="AJ29" s="8"/>
+      <c r="AK29" s="8"/>
+      <c r="AL29" s="8"/>
+      <c r="AM29" s="7"/>
+      <c r="AN29" s="7"/>
+    </row>
+    <row r="30" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="6"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="8"/>
+      <c r="AJ30" s="8"/>
+      <c r="AK30" s="8"/>
+      <c r="AL30" s="8"/>
+      <c r="AM30" s="7"/>
+      <c r="AN30" s="7"/>
+    </row>
+    <row r="31" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="6"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="8"/>
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="8"/>
+      <c r="AJ31" s="8"/>
+      <c r="AK31" s="8"/>
+      <c r="AL31" s="8"/>
+      <c r="AM31" s="7"/>
+      <c r="AN31" s="7"/>
+    </row>
+    <row r="32" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="6"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8"/>
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="8"/>
+      <c r="AH32" s="8"/>
+      <c r="AI32" s="8"/>
+      <c r="AJ32" s="8"/>
+      <c r="AK32" s="8"/>
+      <c r="AL32" s="8"/>
+      <c r="AM32" s="7"/>
+      <c r="AN32" s="7"/>
+    </row>
+    <row r="33" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="6"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="8"/>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="8"/>
+      <c r="AJ33" s="8"/>
+      <c r="AK33" s="8"/>
+      <c r="AL33" s="8"/>
+      <c r="AM33" s="7"/>
+      <c r="AN33" s="7"/>
+    </row>
+    <row r="34" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="6"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="8"/>
+      <c r="AD34" s="8"/>
+      <c r="AE34" s="8"/>
+      <c r="AF34" s="8"/>
+      <c r="AG34" s="8"/>
+      <c r="AH34" s="8"/>
+      <c r="AI34" s="8"/>
+      <c r="AJ34" s="8"/>
+      <c r="AK34" s="8"/>
+      <c r="AL34" s="8"/>
+      <c r="AM34" s="7"/>
+      <c r="AN34" s="7"/>
+    </row>
+    <row r="35" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="6"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="8"/>
+      <c r="AD35" s="8"/>
+      <c r="AE35" s="8"/>
+      <c r="AF35" s="8"/>
+      <c r="AG35" s="8"/>
+      <c r="AH35" s="8"/>
+      <c r="AI35" s="8"/>
+      <c r="AJ35" s="8"/>
+      <c r="AK35" s="8"/>
+      <c r="AL35" s="8"/>
+      <c r="AM35" s="7"/>
+      <c r="AN35" s="7"/>
+    </row>
+    <row r="36" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="6"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="8"/>
+      <c r="AD36" s="8"/>
+      <c r="AE36" s="8"/>
+      <c r="AF36" s="8"/>
+      <c r="AG36" s="8"/>
+      <c r="AH36" s="8"/>
+      <c r="AI36" s="8"/>
+      <c r="AJ36" s="8"/>
+      <c r="AK36" s="8"/>
+      <c r="AL36" s="8"/>
+      <c r="AM36" s="7"/>
+      <c r="AN36" s="7"/>
+    </row>
+    <row r="37" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="6"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="8"/>
+      <c r="AD37" s="8"/>
+      <c r="AE37" s="8"/>
+      <c r="AF37" s="8"/>
+      <c r="AG37" s="8"/>
+      <c r="AH37" s="8"/>
+      <c r="AI37" s="8"/>
+      <c r="AJ37" s="8"/>
+      <c r="AK37" s="8"/>
+      <c r="AL37" s="8"/>
+      <c r="AM37" s="7"/>
+      <c r="AN37" s="7"/>
+    </row>
+    <row r="38" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="6"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="8"/>
+      <c r="AD38" s="8"/>
+      <c r="AE38" s="8"/>
+      <c r="AF38" s="8"/>
+      <c r="AG38" s="8"/>
+      <c r="AH38" s="8"/>
+      <c r="AI38" s="8"/>
+      <c r="AJ38" s="8"/>
+      <c r="AK38" s="8"/>
+      <c r="AL38" s="8"/>
+      <c r="AM38" s="7"/>
+      <c r="AN38" s="7"/>
+    </row>
+    <row r="39" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="6"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="10"/>
+      <c r="AC39" s="10"/>
+      <c r="AD39" s="10"/>
+      <c r="AE39" s="10"/>
+      <c r="AF39" s="10"/>
+      <c r="AG39" s="10"/>
+      <c r="AH39" s="10"/>
+      <c r="AI39" s="10"/>
+      <c r="AJ39" s="10"/>
+      <c r="AK39" s="10"/>
+      <c r="AL39" s="10"/>
+      <c r="AM39" s="11"/>
+      <c r="AN39" s="7"/>
+    </row>
+    <row r="40" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="10"/>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="10"/>
+      <c r="AD40" s="10"/>
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="10"/>
+      <c r="AG40" s="10"/>
+      <c r="AH40" s="10"/>
+      <c r="AI40" s="10"/>
+      <c r="AJ40" s="10"/>
+      <c r="AK40" s="10"/>
+      <c r="AL40" s="10"/>
+      <c r="AM40" s="10"/>
+      <c r="AN40" s="11"/>
+    </row>
+    <row r="41" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="3"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="4"/>
+      <c r="AC41" s="4"/>
+      <c r="AD41" s="4"/>
+      <c r="AE41" s="4"/>
+      <c r="AF41" s="4"/>
+      <c r="AG41" s="4"/>
+      <c r="AH41" s="4"/>
+      <c r="AI41" s="4"/>
+      <c r="AJ41" s="4"/>
+      <c r="AK41" s="4"/>
+      <c r="AL41" s="4"/>
+      <c r="AM41" s="4"/>
+      <c r="AN41" s="5"/>
+    </row>
+    <row r="42" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="6"/>
+      <c r="B42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="4"/>
+      <c r="AB42" s="4"/>
+      <c r="AC42" s="4"/>
+      <c r="AD42" s="4"/>
+      <c r="AE42" s="4"/>
+      <c r="AF42" s="4"/>
+      <c r="AG42" s="4"/>
+      <c r="AH42" s="4"/>
+      <c r="AI42" s="4"/>
+      <c r="AJ42" s="4"/>
+      <c r="AK42" s="4"/>
+      <c r="AL42" s="4"/>
+      <c r="AM42" s="5"/>
+      <c r="AN42" s="7"/>
+    </row>
+    <row r="43" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="2"/>
+      <c r="AB43" s="2"/>
+      <c r="AC43" s="2"/>
+      <c r="AD43" s="2"/>
+      <c r="AE43" s="2"/>
+      <c r="AF43" s="2"/>
+      <c r="AG43" s="2"/>
+      <c r="AH43" s="2"/>
+      <c r="AI43" s="2"/>
+      <c r="AJ43" s="2"/>
+      <c r="AK43" s="2"/>
+      <c r="AL43" s="2"/>
+      <c r="AM43" s="7"/>
+      <c r="AN43" s="7"/>
+    </row>
+    <row r="44" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="2"/>
+      <c r="AD44" s="2"/>
+      <c r="AE44" s="2"/>
+      <c r="AF44" s="2"/>
+      <c r="AG44" s="2"/>
+      <c r="AH44" s="2"/>
+      <c r="AI44" s="2"/>
+      <c r="AJ44" s="2"/>
+      <c r="AK44" s="2"/>
+      <c r="AL44" s="2"/>
+      <c r="AM44" s="7"/>
+      <c r="AN44" s="7"/>
+    </row>
+    <row r="45" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="8"/>
+      <c r="AD45" s="8"/>
+      <c r="AE45" s="8"/>
+      <c r="AF45" s="8"/>
+      <c r="AG45" s="8"/>
+      <c r="AH45" s="8"/>
+      <c r="AI45" s="8"/>
+      <c r="AJ45" s="8"/>
+      <c r="AK45" s="8"/>
+      <c r="AL45" s="8"/>
+      <c r="AM45" s="7"/>
+      <c r="AN45" s="7"/>
+    </row>
+    <row r="46" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="8"/>
+      <c r="AD46" s="8"/>
+      <c r="AE46" s="8"/>
+      <c r="AF46" s="8"/>
+      <c r="AG46" s="8"/>
+      <c r="AH46" s="8"/>
+      <c r="AI46" s="8"/>
+      <c r="AJ46" s="8"/>
+      <c r="AK46" s="8"/>
+      <c r="AL46" s="8"/>
+      <c r="AM46" s="7"/>
+      <c r="AN46" s="7"/>
+    </row>
+    <row r="47" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="8"/>
+      <c r="X47" s="8"/>
+      <c r="Y47" s="8"/>
+      <c r="Z47" s="8"/>
+      <c r="AA47" s="8"/>
+      <c r="AB47" s="8"/>
+      <c r="AC47" s="8"/>
+      <c r="AD47" s="8"/>
+      <c r="AE47" s="8"/>
+      <c r="AF47" s="8"/>
+      <c r="AG47" s="8"/>
+      <c r="AH47" s="8"/>
+      <c r="AI47" s="8"/>
+      <c r="AJ47" s="8"/>
+      <c r="AK47" s="8"/>
+      <c r="AL47" s="8"/>
+      <c r="AM47" s="7"/>
+      <c r="AN47" s="7"/>
+    </row>
+    <row r="48" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8"/>
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="8"/>
+      <c r="AB48" s="8"/>
+      <c r="AC48" s="8"/>
+      <c r="AD48" s="8"/>
+      <c r="AE48" s="8"/>
+      <c r="AF48" s="8"/>
+      <c r="AG48" s="8"/>
+      <c r="AH48" s="8"/>
+      <c r="AI48" s="8"/>
+      <c r="AJ48" s="8"/>
+      <c r="AK48" s="8"/>
+      <c r="AL48" s="8"/>
+      <c r="AM48" s="7"/>
+      <c r="AN48" s="7"/>
+    </row>
+    <row r="49" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="D49" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="8"/>
+      <c r="AC49" s="8"/>
+      <c r="AD49" s="8"/>
+      <c r="AE49" s="8"/>
+      <c r="AF49" s="8"/>
+      <c r="AG49" s="8"/>
+      <c r="AH49" s="8"/>
+      <c r="AI49" s="8"/>
+      <c r="AJ49" s="8"/>
+      <c r="AK49" s="8"/>
+      <c r="AL49" s="8"/>
+      <c r="AM49" s="7"/>
+      <c r="AN49" s="7"/>
+    </row>
+    <row r="50" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8"/>
+      <c r="X50" s="8"/>
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="8"/>
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="8"/>
+      <c r="AC50" s="8"/>
+      <c r="AD50" s="8"/>
+      <c r="AE50" s="8"/>
+      <c r="AF50" s="8"/>
+      <c r="AG50" s="8"/>
+      <c r="AH50" s="8"/>
+      <c r="AI50" s="8"/>
+      <c r="AJ50" s="8"/>
+      <c r="AK50" s="8"/>
+      <c r="AL50" s="8"/>
+      <c r="AM50" s="7"/>
+      <c r="AN50" s="7"/>
+    </row>
+    <row r="51" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="8"/>
+      <c r="X51" s="8"/>
+      <c r="Y51" s="8"/>
+      <c r="Z51" s="8"/>
+      <c r="AA51" s="8"/>
+      <c r="AB51" s="8"/>
+      <c r="AC51" s="8"/>
+      <c r="AD51" s="8"/>
+      <c r="AE51" s="8"/>
+      <c r="AF51" s="8"/>
+      <c r="AG51" s="8"/>
+      <c r="AH51" s="8"/>
+      <c r="AI51" s="8"/>
+      <c r="AJ51" s="8"/>
+      <c r="AK51" s="8"/>
+      <c r="AL51" s="8"/>
+      <c r="AM51" s="7"/>
+      <c r="AN51" s="7"/>
+    </row>
+    <row r="52" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="8"/>
+      <c r="X52" s="8"/>
+      <c r="Y52" s="8"/>
+      <c r="Z52" s="8"/>
+      <c r="AA52" s="8"/>
+      <c r="AB52" s="8"/>
+      <c r="AC52" s="8"/>
+      <c r="AD52" s="8"/>
+      <c r="AE52" s="8"/>
+      <c r="AF52" s="8"/>
+      <c r="AG52" s="8"/>
+      <c r="AH52" s="8"/>
+      <c r="AI52" s="8"/>
+      <c r="AJ52" s="8"/>
+      <c r="AK52" s="8"/>
+      <c r="AL52" s="8"/>
+      <c r="AM52" s="7"/>
+      <c r="AN52" s="7"/>
+    </row>
+    <row r="53" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="D53" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="8"/>
+      <c r="W53" s="8"/>
+      <c r="X53" s="8"/>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="8"/>
+      <c r="AA53" s="8"/>
+      <c r="AB53" s="8"/>
+      <c r="AC53" s="8"/>
+      <c r="AD53" s="8"/>
+      <c r="AE53" s="8"/>
+      <c r="AF53" s="8"/>
+      <c r="AG53" s="8"/>
+      <c r="AH53" s="8"/>
+      <c r="AI53" s="8"/>
+      <c r="AJ53" s="8"/>
+      <c r="AK53" s="8"/>
+      <c r="AL53" s="8"/>
+      <c r="AM53" s="7"/>
+      <c r="AN53" s="7"/>
+    </row>
+    <row r="54" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="8"/>
+      <c r="X54" s="8"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="8"/>
+      <c r="AA54" s="8"/>
+      <c r="AB54" s="8"/>
+      <c r="AC54" s="8"/>
+      <c r="AD54" s="8"/>
+      <c r="AE54" s="8"/>
+      <c r="AF54" s="8"/>
+      <c r="AG54" s="8"/>
+      <c r="AH54" s="8"/>
+      <c r="AI54" s="8"/>
+      <c r="AJ54" s="8"/>
+      <c r="AK54" s="8"/>
+      <c r="AL54" s="8"/>
+      <c r="AM54" s="7"/>
+      <c r="AN54" s="7"/>
+    </row>
+    <row r="55" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="D55" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="8"/>
+      <c r="W55" s="8"/>
+      <c r="X55" s="8"/>
+      <c r="Y55" s="8"/>
+      <c r="Z55" s="8"/>
+      <c r="AA55" s="8"/>
+      <c r="AB55" s="8"/>
+      <c r="AC55" s="8"/>
+      <c r="AD55" s="8"/>
+      <c r="AE55" s="8"/>
+      <c r="AF55" s="8"/>
+      <c r="AG55" s="8"/>
+      <c r="AH55" s="8"/>
+      <c r="AI55" s="8"/>
+      <c r="AJ55" s="8"/>
+      <c r="AK55" s="8"/>
+      <c r="AL55" s="8"/>
+      <c r="AM55" s="7"/>
+      <c r="AN55" s="7"/>
+    </row>
+    <row r="56" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="D56" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="8"/>
+      <c r="W56" s="8"/>
+      <c r="X56" s="8"/>
+      <c r="Y56" s="8"/>
+      <c r="Z56" s="8"/>
+      <c r="AA56" s="8"/>
+      <c r="AB56" s="8"/>
+      <c r="AC56" s="8"/>
+      <c r="AD56" s="8"/>
+      <c r="AE56" s="8"/>
+      <c r="AF56" s="8"/>
+      <c r="AG56" s="8"/>
+      <c r="AH56" s="8"/>
+      <c r="AI56" s="8"/>
+      <c r="AJ56" s="8"/>
+      <c r="AK56" s="8"/>
+      <c r="AL56" s="8"/>
+      <c r="AM56" s="7"/>
+      <c r="AN56" s="7"/>
+    </row>
+    <row r="57" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="D57" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="8"/>
+      <c r="V57" s="8"/>
+      <c r="W57" s="8"/>
+      <c r="X57" s="8"/>
+      <c r="Y57" s="8"/>
+      <c r="Z57" s="8"/>
+      <c r="AA57" s="8"/>
+      <c r="AB57" s="8"/>
+      <c r="AC57" s="8"/>
+      <c r="AD57" s="8"/>
+      <c r="AE57" s="8"/>
+      <c r="AF57" s="8"/>
+      <c r="AG57" s="8"/>
+      <c r="AH57" s="8"/>
+      <c r="AI57" s="8"/>
+      <c r="AJ57" s="8"/>
+      <c r="AK57" s="8"/>
+      <c r="AL57" s="8"/>
+      <c r="AM57" s="7"/>
+      <c r="AN57" s="7"/>
+    </row>
+    <row r="58" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="D58" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="8"/>
+      <c r="U58" s="8"/>
+      <c r="V58" s="8"/>
+      <c r="W58" s="8"/>
+      <c r="X58" s="8"/>
+      <c r="Y58" s="8"/>
+      <c r="Z58" s="8"/>
+      <c r="AA58" s="8"/>
+      <c r="AB58" s="8"/>
+      <c r="AC58" s="8"/>
+      <c r="AD58" s="8"/>
+      <c r="AE58" s="8"/>
+      <c r="AF58" s="8"/>
+      <c r="AG58" s="8"/>
+      <c r="AH58" s="8"/>
+      <c r="AI58" s="8"/>
+      <c r="AJ58" s="8"/>
+      <c r="AK58" s="8"/>
+      <c r="AL58" s="8"/>
+      <c r="AM58" s="7"/>
+      <c r="AN58" s="7"/>
+    </row>
+    <row r="59" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="D59" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="8"/>
+      <c r="W59" s="8"/>
+      <c r="X59" s="8"/>
+      <c r="Y59" s="8"/>
+      <c r="Z59" s="8"/>
+      <c r="AA59" s="8"/>
+      <c r="AB59" s="8"/>
+      <c r="AC59" s="8"/>
+      <c r="AD59" s="8"/>
+      <c r="AE59" s="8"/>
+      <c r="AF59" s="8"/>
+      <c r="AG59" s="8"/>
+      <c r="AH59" s="8"/>
+      <c r="AI59" s="8"/>
+      <c r="AJ59" s="8"/>
+      <c r="AK59" s="8"/>
+      <c r="AL59" s="8"/>
+      <c r="AM59" s="7"/>
+      <c r="AN59" s="7"/>
+    </row>
+    <row r="60" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8"/>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="8"/>
+      <c r="W60" s="8"/>
+      <c r="X60" s="8"/>
+      <c r="Y60" s="8"/>
+      <c r="Z60" s="8"/>
+      <c r="AA60" s="8"/>
+      <c r="AB60" s="8"/>
+      <c r="AC60" s="8"/>
+      <c r="AD60" s="8"/>
+      <c r="AE60" s="8"/>
+      <c r="AF60" s="8"/>
+      <c r="AG60" s="8"/>
+      <c r="AH60" s="8"/>
+      <c r="AI60" s="8"/>
+      <c r="AJ60" s="8"/>
+      <c r="AK60" s="8"/>
+      <c r="AL60" s="8"/>
+      <c r="AM60" s="7"/>
+      <c r="AN60" s="7"/>
+    </row>
+    <row r="61" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="D61" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="8"/>
+      <c r="R61" s="8"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="8"/>
+      <c r="V61" s="8"/>
+      <c r="W61" s="8"/>
+      <c r="X61" s="8"/>
+      <c r="Y61" s="8"/>
+      <c r="Z61" s="8"/>
+      <c r="AA61" s="8"/>
+      <c r="AB61" s="8"/>
+      <c r="AC61" s="8"/>
+      <c r="AD61" s="8"/>
+      <c r="AE61" s="8"/>
+      <c r="AF61" s="8"/>
+      <c r="AG61" s="8"/>
+      <c r="AH61" s="8"/>
+      <c r="AI61" s="8"/>
+      <c r="AJ61" s="8"/>
+      <c r="AK61" s="8"/>
+      <c r="AL61" s="8"/>
+      <c r="AM61" s="7"/>
+      <c r="AN61" s="7"/>
+    </row>
+    <row r="62" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="8"/>
+      <c r="R62" s="8"/>
+      <c r="S62" s="8"/>
+      <c r="T62" s="8"/>
+      <c r="U62" s="8"/>
+      <c r="V62" s="8"/>
+      <c r="W62" s="8"/>
+      <c r="X62" s="8"/>
+      <c r="Y62" s="8"/>
+      <c r="Z62" s="8"/>
+      <c r="AA62" s="8"/>
+      <c r="AB62" s="8"/>
+      <c r="AC62" s="8"/>
+      <c r="AD62" s="8"/>
+      <c r="AE62" s="8"/>
+      <c r="AF62" s="8"/>
+      <c r="AG62" s="8"/>
+      <c r="AH62" s="8"/>
+      <c r="AI62" s="8"/>
+      <c r="AJ62" s="8"/>
+      <c r="AK62" s="8"/>
+      <c r="AL62" s="8"/>
+      <c r="AM62" s="7"/>
+      <c r="AN62" s="7"/>
+    </row>
+    <row r="63" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="8"/>
+      <c r="R63" s="8"/>
+      <c r="S63" s="8"/>
+      <c r="T63" s="8"/>
+      <c r="U63" s="8"/>
+      <c r="V63" s="8"/>
+      <c r="W63" s="8"/>
+      <c r="X63" s="8"/>
+      <c r="Y63" s="8"/>
+      <c r="Z63" s="8"/>
+      <c r="AA63" s="8"/>
+      <c r="AB63" s="8"/>
+      <c r="AC63" s="8"/>
+      <c r="AD63" s="8"/>
+      <c r="AE63" s="8"/>
+      <c r="AF63" s="8"/>
+      <c r="AG63" s="8"/>
+      <c r="AH63" s="8"/>
+      <c r="AI63" s="8"/>
+      <c r="AJ63" s="8"/>
+      <c r="AK63" s="8"/>
+      <c r="AL63" s="8"/>
+      <c r="AM63" s="7"/>
+      <c r="AN63" s="7"/>
+    </row>
+    <row r="64" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="8"/>
+      <c r="R64" s="8"/>
+      <c r="S64" s="8"/>
+      <c r="T64" s="8"/>
+      <c r="U64" s="8"/>
+      <c r="V64" s="8"/>
+      <c r="W64" s="8"/>
+      <c r="X64" s="8"/>
+      <c r="Y64" s="8"/>
+      <c r="Z64" s="8"/>
+      <c r="AA64" s="8"/>
+      <c r="AB64" s="8"/>
+      <c r="AC64" s="8"/>
+      <c r="AD64" s="8"/>
+      <c r="AE64" s="8"/>
+      <c r="AF64" s="8"/>
+      <c r="AG64" s="8"/>
+      <c r="AH64" s="8"/>
+      <c r="AI64" s="8"/>
+      <c r="AJ64" s="8"/>
+      <c r="AK64" s="8"/>
+      <c r="AL64" s="8"/>
+      <c r="AM64" s="7"/>
+      <c r="AN64" s="7"/>
+    </row>
+    <row r="65" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="8"/>
+      <c r="U65" s="8"/>
+      <c r="V65" s="8"/>
+      <c r="W65" s="8"/>
+      <c r="X65" s="8"/>
+      <c r="Y65" s="8"/>
+      <c r="Z65" s="8"/>
+      <c r="AA65" s="8"/>
+      <c r="AB65" s="8"/>
+      <c r="AC65" s="8"/>
+      <c r="AD65" s="8"/>
+      <c r="AE65" s="8"/>
+      <c r="AF65" s="8"/>
+      <c r="AG65" s="8"/>
+      <c r="AH65" s="8"/>
+      <c r="AI65" s="8"/>
+      <c r="AJ65" s="8"/>
+      <c r="AK65" s="8"/>
+      <c r="AL65" s="8"/>
+      <c r="AM65" s="7"/>
+      <c r="AN65" s="7"/>
+    </row>
+    <row r="66" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="8"/>
+      <c r="V66" s="8"/>
+      <c r="W66" s="8"/>
+      <c r="X66" s="8"/>
+      <c r="Y66" s="8"/>
+      <c r="Z66" s="8"/>
+      <c r="AA66" s="8"/>
+      <c r="AB66" s="8"/>
+      <c r="AC66" s="8"/>
+      <c r="AD66" s="8"/>
+      <c r="AE66" s="8"/>
+      <c r="AF66" s="8"/>
+      <c r="AG66" s="8"/>
+      <c r="AH66" s="8"/>
+      <c r="AI66" s="8"/>
+      <c r="AJ66" s="8"/>
+      <c r="AK66" s="8"/>
+      <c r="AL66" s="8"/>
+      <c r="AM66" s="7"/>
+      <c r="AN66" s="7"/>
+    </row>
+    <row r="67" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="8"/>
+      <c r="R67" s="8"/>
+      <c r="S67" s="8"/>
+      <c r="T67" s="8"/>
+      <c r="U67" s="8"/>
+      <c r="V67" s="8"/>
+      <c r="W67" s="8"/>
+      <c r="X67" s="8"/>
+      <c r="Y67" s="8"/>
+      <c r="Z67" s="8"/>
+      <c r="AA67" s="8"/>
+      <c r="AB67" s="8"/>
+      <c r="AC67" s="8"/>
+      <c r="AD67" s="8"/>
+      <c r="AE67" s="8"/>
+      <c r="AF67" s="8"/>
+      <c r="AG67" s="8"/>
+      <c r="AH67" s="8"/>
+      <c r="AI67" s="8"/>
+      <c r="AJ67" s="8"/>
+      <c r="AK67" s="8"/>
+      <c r="AL67" s="8"/>
+      <c r="AM67" s="7"/>
+      <c r="AN67" s="7"/>
+    </row>
+    <row r="68" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="8"/>
+      <c r="O68" s="8"/>
+      <c r="P68" s="8"/>
+      <c r="Q68" s="8"/>
+      <c r="R68" s="8"/>
+      <c r="S68" s="8"/>
+      <c r="T68" s="8"/>
+      <c r="U68" s="8"/>
+      <c r="V68" s="8"/>
+      <c r="W68" s="8"/>
+      <c r="X68" s="8"/>
+      <c r="Y68" s="8"/>
+      <c r="Z68" s="8"/>
+      <c r="AA68" s="8"/>
+      <c r="AB68" s="8"/>
+      <c r="AC68" s="8"/>
+      <c r="AD68" s="8"/>
+      <c r="AE68" s="8"/>
+      <c r="AF68" s="8"/>
+      <c r="AG68" s="8"/>
+      <c r="AH68" s="8"/>
+      <c r="AI68" s="8"/>
+      <c r="AJ68" s="8"/>
+      <c r="AK68" s="8"/>
+      <c r="AL68" s="8"/>
+      <c r="AM68" s="7"/>
+      <c r="AN68" s="7"/>
+    </row>
+    <row r="69" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="8"/>
+      <c r="P69" s="8"/>
+      <c r="Q69" s="8"/>
+      <c r="R69" s="8"/>
+      <c r="S69" s="8"/>
+      <c r="T69" s="8"/>
+      <c r="U69" s="8"/>
+      <c r="V69" s="8"/>
+      <c r="W69" s="8"/>
+      <c r="X69" s="8"/>
+      <c r="Y69" s="8"/>
+      <c r="Z69" s="8"/>
+      <c r="AA69" s="8"/>
+      <c r="AB69" s="8"/>
+      <c r="AC69" s="8"/>
+      <c r="AD69" s="8"/>
+      <c r="AE69" s="8"/>
+      <c r="AF69" s="8"/>
+      <c r="AG69" s="8"/>
+      <c r="AH69" s="8"/>
+      <c r="AI69" s="8"/>
+      <c r="AJ69" s="8"/>
+      <c r="AK69" s="8"/>
+      <c r="AL69" s="8"/>
+      <c r="AM69" s="7"/>
+      <c r="AN69" s="7"/>
+    </row>
+    <row r="70" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="8"/>
+      <c r="O70" s="8"/>
+      <c r="P70" s="8"/>
+      <c r="Q70" s="8"/>
+      <c r="R70" s="8"/>
+      <c r="S70" s="8"/>
+      <c r="T70" s="8"/>
+      <c r="U70" s="8"/>
+      <c r="V70" s="8"/>
+      <c r="W70" s="8"/>
+      <c r="X70" s="8"/>
+      <c r="Y70" s="8"/>
+      <c r="Z70" s="8"/>
+      <c r="AA70" s="8"/>
+      <c r="AB70" s="8"/>
+      <c r="AC70" s="8"/>
+      <c r="AD70" s="8"/>
+      <c r="AE70" s="8"/>
+      <c r="AF70" s="8"/>
+      <c r="AG70" s="8"/>
+      <c r="AH70" s="8"/>
+      <c r="AI70" s="8"/>
+      <c r="AJ70" s="8"/>
+      <c r="AK70" s="8"/>
+      <c r="AL70" s="8"/>
+      <c r="AM70" s="7"/>
+      <c r="AN70" s="7"/>
+    </row>
+    <row r="71" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
+      <c r="Q71" s="8"/>
+      <c r="R71" s="8"/>
+      <c r="S71" s="8"/>
+      <c r="T71" s="8"/>
+      <c r="U71" s="8"/>
+      <c r="V71" s="8"/>
+      <c r="W71" s="8"/>
+      <c r="X71" s="8"/>
+      <c r="Y71" s="8"/>
+      <c r="Z71" s="8"/>
+      <c r="AA71" s="8"/>
+      <c r="AB71" s="8"/>
+      <c r="AC71" s="8"/>
+      <c r="AD71" s="8"/>
+      <c r="AE71" s="8"/>
+      <c r="AF71" s="8"/>
+      <c r="AG71" s="8"/>
+      <c r="AH71" s="8"/>
+      <c r="AI71" s="8"/>
+      <c r="AJ71" s="8"/>
+      <c r="AK71" s="8"/>
+      <c r="AL71" s="8"/>
+      <c r="AM71" s="7"/>
+      <c r="AN71" s="7"/>
+    </row>
+    <row r="72" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="8"/>
+      <c r="P72" s="8"/>
+      <c r="Q72" s="8"/>
+      <c r="R72" s="8"/>
+      <c r="S72" s="8"/>
+      <c r="T72" s="8"/>
+      <c r="U72" s="8"/>
+      <c r="V72" s="8"/>
+      <c r="W72" s="8"/>
+      <c r="X72" s="8"/>
+      <c r="Y72" s="8"/>
+      <c r="Z72" s="8"/>
+      <c r="AA72" s="8"/>
+      <c r="AB72" s="8"/>
+      <c r="AC72" s="8"/>
+      <c r="AD72" s="8"/>
+      <c r="AE72" s="8"/>
+      <c r="AF72" s="8"/>
+      <c r="AG72" s="8"/>
+      <c r="AH72" s="8"/>
+      <c r="AI72" s="8"/>
+      <c r="AJ72" s="8"/>
+      <c r="AK72" s="8"/>
+      <c r="AL72" s="8"/>
+      <c r="AM72" s="7"/>
+      <c r="AN72" s="7"/>
+    </row>
+    <row r="73" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="8"/>
+      <c r="P73" s="8"/>
+      <c r="Q73" s="8"/>
+      <c r="R73" s="8"/>
+      <c r="S73" s="8"/>
+      <c r="T73" s="8"/>
+      <c r="U73" s="8"/>
+      <c r="V73" s="8"/>
+      <c r="W73" s="8"/>
+      <c r="X73" s="8"/>
+      <c r="Y73" s="8"/>
+      <c r="Z73" s="8"/>
+      <c r="AA73" s="8"/>
+      <c r="AB73" s="8"/>
+      <c r="AC73" s="8"/>
+      <c r="AD73" s="8"/>
+      <c r="AE73" s="8"/>
+      <c r="AF73" s="8"/>
+      <c r="AG73" s="8"/>
+      <c r="AH73" s="8"/>
+      <c r="AI73" s="8"/>
+      <c r="AJ73" s="8"/>
+      <c r="AK73" s="8"/>
+      <c r="AL73" s="8"/>
+      <c r="AM73" s="7"/>
+      <c r="AN73" s="7"/>
+    </row>
+    <row r="74" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="6"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="10"/>
+      <c r="R74" s="10"/>
+      <c r="S74" s="10"/>
+      <c r="T74" s="10"/>
+      <c r="U74" s="10"/>
+      <c r="V74" s="10"/>
+      <c r="W74" s="10"/>
+      <c r="X74" s="10"/>
+      <c r="Y74" s="10"/>
+      <c r="Z74" s="10"/>
+      <c r="AA74" s="10"/>
+      <c r="AB74" s="10"/>
+      <c r="AC74" s="10"/>
+      <c r="AD74" s="10"/>
+      <c r="AE74" s="10"/>
+      <c r="AF74" s="10"/>
+      <c r="AG74" s="10"/>
+      <c r="AH74" s="10"/>
+      <c r="AI74" s="10"/>
+      <c r="AJ74" s="10"/>
+      <c r="AK74" s="10"/>
+      <c r="AL74" s="10"/>
+      <c r="AM74" s="11"/>
+      <c r="AN74" s="7"/>
+    </row>
+    <row r="75" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="9"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="10"/>
+      <c r="R75" s="10"/>
+      <c r="S75" s="10"/>
+      <c r="T75" s="10"/>
+      <c r="U75" s="10"/>
+      <c r="V75" s="10"/>
+      <c r="W75" s="10"/>
+      <c r="X75" s="10"/>
+      <c r="Y75" s="10"/>
+      <c r="Z75" s="10"/>
+      <c r="AA75" s="10"/>
+      <c r="AB75" s="10"/>
+      <c r="AC75" s="10"/>
+      <c r="AD75" s="10"/>
+      <c r="AE75" s="10"/>
+      <c r="AF75" s="10"/>
+      <c r="AG75" s="10"/>
+      <c r="AH75" s="10"/>
+      <c r="AI75" s="10"/>
+      <c r="AJ75" s="10"/>
+      <c r="AK75" s="10"/>
+      <c r="AL75" s="10"/>
+      <c r="AM75" s="10"/>
+      <c r="AN75" s="11"/>
+    </row>
+    <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="3"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="4"/>
+      <c r="S76" s="4"/>
+      <c r="T76" s="4"/>
+      <c r="U76" s="4"/>
+      <c r="V76" s="4"/>
+      <c r="W76" s="4"/>
+      <c r="X76" s="4"/>
+      <c r="Y76" s="4"/>
+      <c r="Z76" s="4"/>
+      <c r="AA76" s="4"/>
+      <c r="AB76" s="4"/>
+      <c r="AC76" s="4"/>
+      <c r="AD76" s="4"/>
+      <c r="AE76" s="4"/>
+      <c r="AF76" s="4"/>
+      <c r="AG76" s="4"/>
+      <c r="AH76" s="4"/>
+      <c r="AI76" s="4"/>
+      <c r="AJ76" s="4"/>
+      <c r="AK76" s="4"/>
+      <c r="AL76" s="4"/>
+      <c r="AM76" s="4"/>
+      <c r="AN76" s="5"/>
+    </row>
+    <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="6"/>
+      <c r="B77" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="4"/>
+      <c r="S77" s="4"/>
+      <c r="T77" s="4"/>
+      <c r="U77" s="4"/>
+      <c r="V77" s="4"/>
+      <c r="W77" s="4"/>
+      <c r="X77" s="4"/>
+      <c r="Y77" s="4"/>
+      <c r="Z77" s="4"/>
+      <c r="AA77" s="4"/>
+      <c r="AB77" s="4"/>
+      <c r="AC77" s="4"/>
+      <c r="AD77" s="4"/>
+      <c r="AE77" s="4"/>
+      <c r="AF77" s="4"/>
+      <c r="AG77" s="4"/>
+      <c r="AH77" s="4"/>
+      <c r="AI77" s="4"/>
+      <c r="AJ77" s="4"/>
+      <c r="AK77" s="4"/>
+      <c r="AL77" s="4"/>
+      <c r="AM77" s="5"/>
+      <c r="AN77" s="7"/>
+    </row>
+    <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="2"/>
+      <c r="X78" s="2"/>
+      <c r="Y78" s="2"/>
+      <c r="Z78" s="2"/>
+      <c r="AA78" s="2"/>
+      <c r="AB78" s="2"/>
+      <c r="AC78" s="2"/>
+      <c r="AD78" s="2"/>
+      <c r="AE78" s="2"/>
+      <c r="AF78" s="2"/>
+      <c r="AG78" s="2"/>
+      <c r="AH78" s="2"/>
+      <c r="AI78" s="2"/>
+      <c r="AJ78" s="2"/>
+      <c r="AK78" s="2"/>
+      <c r="AL78" s="2"/>
+      <c r="AM78" s="7"/>
+      <c r="AN78" s="7"/>
+    </row>
+    <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="6"/>
+      <c r="B79" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="13"/>
+      <c r="D79" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79" s="16"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="17"/>
+      <c r="L79" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M79" s="15"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="P79" s="15"/>
+      <c r="Q79" s="15"/>
+      <c r="R79" s="17"/>
+      <c r="S79" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="T79" s="17"/>
+      <c r="U79" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="V79" s="17"/>
+      <c r="W79" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="X79" s="15"/>
+      <c r="Y79" s="15"/>
+      <c r="Z79" s="17"/>
+      <c r="AA79" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB79" s="15"/>
+      <c r="AC79" s="17"/>
+      <c r="AD79" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE79" s="15"/>
+      <c r="AF79" s="15"/>
+      <c r="AG79" s="15"/>
+      <c r="AH79" s="15"/>
+      <c r="AI79" s="15"/>
+      <c r="AJ79" s="15"/>
+      <c r="AK79" s="15"/>
+      <c r="AL79" s="15"/>
+      <c r="AM79" s="18"/>
+      <c r="AN79" s="7"/>
+    </row>
+    <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="6"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="13">
+        <v>1</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="I80" s="16"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="17"/>
+      <c r="L80" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="M80" s="15"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="14"/>
+      <c r="P80" s="15"/>
+      <c r="Q80" s="15"/>
+      <c r="R80" s="17"/>
+      <c r="S80" s="14"/>
+      <c r="T80" s="17"/>
+      <c r="U80" s="14"/>
+      <c r="V80" s="17"/>
+      <c r="W80" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="X80" s="15"/>
+      <c r="Y80" s="15"/>
+      <c r="Z80" s="17"/>
+      <c r="AA80" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB80" s="15"/>
+      <c r="AC80" s="17"/>
+      <c r="AD80" s="14"/>
+      <c r="AE80" s="15"/>
+      <c r="AF80" s="15"/>
+      <c r="AG80" s="15"/>
+      <c r="AH80" s="15"/>
+      <c r="AI80" s="15"/>
+      <c r="AJ80" s="15"/>
+      <c r="AK80" s="15"/>
+      <c r="AL80" s="15"/>
+      <c r="AM80" s="18"/>
+      <c r="AN80" s="7"/>
+    </row>
+    <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="6"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="13">
+        <v>2</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="I81" s="16"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="17"/>
+      <c r="L81" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="M81" s="15"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="14"/>
+      <c r="P81" s="15"/>
+      <c r="Q81" s="15"/>
+      <c r="R81" s="17"/>
+      <c r="S81" s="14"/>
+      <c r="T81" s="17"/>
+      <c r="U81" s="14"/>
+      <c r="V81" s="17"/>
+      <c r="W81" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="X81" s="15"/>
+      <c r="Y81" s="15"/>
+      <c r="Z81" s="17"/>
+      <c r="AA81" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB81" s="15"/>
+      <c r="AC81" s="17"/>
+      <c r="AD81" s="14"/>
+      <c r="AE81" s="15"/>
+      <c r="AF81" s="15"/>
+      <c r="AG81" s="15"/>
+      <c r="AH81" s="15"/>
+      <c r="AI81" s="15"/>
+      <c r="AJ81" s="15"/>
+      <c r="AK81" s="15"/>
+      <c r="AL81" s="15"/>
+      <c r="AM81" s="18"/>
+      <c r="AN81" s="7"/>
+    </row>
+    <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="6"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="13">
+        <v>3</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="I82" s="16"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="M82" s="15"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="14"/>
+      <c r="P82" s="15"/>
+      <c r="Q82" s="15"/>
+      <c r="R82" s="17"/>
+      <c r="S82" s="14"/>
+      <c r="T82" s="17"/>
+      <c r="U82" s="14"/>
+      <c r="V82" s="17"/>
+      <c r="W82" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="X82" s="15"/>
+      <c r="Y82" s="15"/>
+      <c r="Z82" s="17"/>
+      <c r="AA82" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB82" s="15"/>
+      <c r="AC82" s="17"/>
+      <c r="AD82" s="14"/>
+      <c r="AE82" s="15"/>
+      <c r="AF82" s="15"/>
+      <c r="AG82" s="15"/>
+      <c r="AH82" s="15"/>
+      <c r="AI82" s="15"/>
+      <c r="AJ82" s="15"/>
+      <c r="AK82" s="15"/>
+      <c r="AL82" s="15"/>
+      <c r="AM82" s="18"/>
+      <c r="AN82" s="7"/>
+    </row>
+    <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="6"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="13">
+        <v>4</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="I83" s="16"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="17"/>
+      <c r="L83" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="M83" s="15"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="14"/>
+      <c r="P83" s="15"/>
+      <c r="Q83" s="15"/>
+      <c r="R83" s="17"/>
+      <c r="S83" s="14"/>
+      <c r="T83" s="17"/>
+      <c r="U83" s="14"/>
+      <c r="V83" s="17"/>
+      <c r="W83" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="X83" s="15"/>
+      <c r="Y83" s="15"/>
+      <c r="Z83" s="17"/>
+      <c r="AA83" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB83" s="15"/>
+      <c r="AC83" s="17"/>
+      <c r="AD83" s="14"/>
+      <c r="AE83" s="15"/>
+      <c r="AF83" s="15"/>
+      <c r="AG83" s="15"/>
+      <c r="AH83" s="15"/>
+      <c r="AI83" s="15"/>
+      <c r="AJ83" s="15"/>
+      <c r="AK83" s="15"/>
+      <c r="AL83" s="15"/>
+      <c r="AM83" s="18"/>
+      <c r="AN83" s="7"/>
+    </row>
+    <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="6"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="13">
+        <v>5</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="I84" s="16"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="17"/>
+      <c r="L84" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="M84" s="15"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="P84" s="15"/>
+      <c r="Q84" s="15"/>
+      <c r="R84" s="17"/>
+      <c r="S84" s="14"/>
+      <c r="T84" s="17"/>
+      <c r="U84" s="14"/>
+      <c r="V84" s="17"/>
+      <c r="W84" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="X84" s="15"/>
+      <c r="Y84" s="15"/>
+      <c r="Z84" s="17"/>
+      <c r="AA84" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB84" s="15"/>
+      <c r="AC84" s="17"/>
+      <c r="AD84" s="14"/>
+      <c r="AE84" s="15"/>
+      <c r="AF84" s="15"/>
+      <c r="AG84" s="15"/>
+      <c r="AH84" s="15"/>
+      <c r="AI84" s="15"/>
+      <c r="AJ84" s="15"/>
+      <c r="AK84" s="15"/>
+      <c r="AL84" s="15"/>
+      <c r="AM84" s="18"/>
+      <c r="AN84" s="7"/>
+    </row>
+    <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="6"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="13">
+        <v>6</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="I85" s="16"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="17"/>
+      <c r="L85" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="M85" s="15"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P85" s="15"/>
+      <c r="Q85" s="15"/>
+      <c r="R85" s="17"/>
+      <c r="S85" s="14">
+        <v>1</v>
+      </c>
+      <c r="T85" s="17"/>
+      <c r="U85" s="14">
+        <v>200</v>
+      </c>
+      <c r="V85" s="17"/>
+      <c r="W85" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="X85" s="15"/>
+      <c r="Y85" s="15"/>
+      <c r="Z85" s="17"/>
+      <c r="AA85" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB85" s="15"/>
+      <c r="AC85" s="17"/>
+      <c r="AD85" s="14"/>
+      <c r="AE85" s="15"/>
+      <c r="AF85" s="15"/>
+      <c r="AG85" s="15"/>
+      <c r="AH85" s="15"/>
+      <c r="AI85" s="15"/>
+      <c r="AJ85" s="15"/>
+      <c r="AK85" s="15"/>
+      <c r="AL85" s="15"/>
+      <c r="AM85" s="18"/>
+      <c r="AN85" s="7"/>
+    </row>
+    <row r="86" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="6"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="13">
+        <v>7</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="I86" s="16"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="17"/>
+      <c r="L86" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="M86" s="15"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="14"/>
+      <c r="P86" s="15"/>
+      <c r="Q86" s="15"/>
+      <c r="R86" s="17"/>
+      <c r="S86" s="14"/>
+      <c r="T86" s="17"/>
+      <c r="U86" s="14"/>
+      <c r="V86" s="17"/>
+      <c r="W86" s="14"/>
+      <c r="X86" s="15"/>
+      <c r="Y86" s="15"/>
+      <c r="Z86" s="17"/>
+      <c r="AA86" s="14"/>
+      <c r="AB86" s="15"/>
+      <c r="AC86" s="17"/>
+      <c r="AD86" s="14"/>
+      <c r="AE86" s="15"/>
+      <c r="AF86" s="15"/>
+      <c r="AG86" s="15"/>
+      <c r="AH86" s="15"/>
+      <c r="AI86" s="15"/>
+      <c r="AJ86" s="15"/>
+      <c r="AK86" s="15"/>
+      <c r="AL86" s="15"/>
+      <c r="AM86" s="18"/>
+      <c r="AN86" s="7"/>
+    </row>
+    <row r="87" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="6"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="13">
+        <v>8</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="I87" s="16"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="17"/>
+      <c r="L87" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="M87" s="15"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="14"/>
+      <c r="P87" s="15"/>
+      <c r="Q87" s="15"/>
+      <c r="R87" s="17"/>
+      <c r="S87" s="14"/>
+      <c r="T87" s="17"/>
+      <c r="U87" s="14"/>
+      <c r="V87" s="17"/>
+      <c r="W87" s="14"/>
+      <c r="X87" s="15"/>
+      <c r="Y87" s="15"/>
+      <c r="Z87" s="17"/>
+      <c r="AA87" s="14"/>
+      <c r="AB87" s="15"/>
+      <c r="AC87" s="17"/>
+      <c r="AD87" s="14"/>
+      <c r="AE87" s="15"/>
+      <c r="AF87" s="15"/>
+      <c r="AG87" s="15"/>
+      <c r="AH87" s="15"/>
+      <c r="AI87" s="15"/>
+      <c r="AJ87" s="15"/>
+      <c r="AK87" s="15"/>
+      <c r="AL87" s="15"/>
+      <c r="AM87" s="18"/>
+      <c r="AN87" s="7"/>
+    </row>
+    <row r="88" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="6"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="13">
+        <v>9</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="I88" s="16"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="M88" s="15"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="14"/>
+      <c r="P88" s="15"/>
+      <c r="Q88" s="15"/>
+      <c r="R88" s="17"/>
+      <c r="S88" s="14"/>
+      <c r="T88" s="17"/>
+      <c r="U88" s="14"/>
+      <c r="V88" s="17"/>
+      <c r="W88" s="14"/>
+      <c r="X88" s="15"/>
+      <c r="Y88" s="15"/>
+      <c r="Z88" s="17"/>
+      <c r="AA88" s="14"/>
+      <c r="AB88" s="15"/>
+      <c r="AC88" s="17"/>
+      <c r="AD88" s="14"/>
+      <c r="AE88" s="15"/>
+      <c r="AF88" s="15"/>
+      <c r="AG88" s="15"/>
+      <c r="AH88" s="15"/>
+      <c r="AI88" s="15"/>
+      <c r="AJ88" s="15"/>
+      <c r="AK88" s="15"/>
+      <c r="AL88" s="15"/>
+      <c r="AM88" s="18"/>
+      <c r="AN88" s="7"/>
+    </row>
+    <row r="89" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="6"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="13">
+        <v>10</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="I89" s="16"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="17"/>
+      <c r="L89" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="M89" s="15"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="14"/>
+      <c r="P89" s="15"/>
+      <c r="Q89" s="15"/>
+      <c r="R89" s="17"/>
+      <c r="S89" s="14"/>
+      <c r="T89" s="17"/>
+      <c r="U89" s="14"/>
+      <c r="V89" s="17"/>
+      <c r="W89" s="14"/>
+      <c r="X89" s="15"/>
+      <c r="Y89" s="15"/>
+      <c r="Z89" s="17"/>
+      <c r="AA89" s="14"/>
+      <c r="AB89" s="15"/>
+      <c r="AC89" s="17"/>
+      <c r="AD89" s="14"/>
+      <c r="AE89" s="15"/>
+      <c r="AF89" s="15"/>
+      <c r="AG89" s="15"/>
+      <c r="AH89" s="15"/>
+      <c r="AI89" s="15"/>
+      <c r="AJ89" s="15"/>
+      <c r="AK89" s="15"/>
+      <c r="AL89" s="15"/>
+      <c r="AM89" s="18"/>
+      <c r="AN89" s="7"/>
+    </row>
+    <row r="90" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="6"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="13">
+        <v>11</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="I90" s="16"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="17"/>
+      <c r="L90" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="M90" s="15"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="14"/>
+      <c r="P90" s="15"/>
+      <c r="Q90" s="15"/>
+      <c r="R90" s="17"/>
+      <c r="S90" s="14"/>
+      <c r="T90" s="17"/>
+      <c r="U90" s="14"/>
+      <c r="V90" s="17"/>
+      <c r="W90" s="14"/>
+      <c r="X90" s="15"/>
+      <c r="Y90" s="15"/>
+      <c r="Z90" s="17"/>
+      <c r="AA90" s="14"/>
+      <c r="AB90" s="15"/>
+      <c r="AC90" s="17"/>
+      <c r="AD90" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE90" s="15"/>
+      <c r="AF90" s="15"/>
+      <c r="AG90" s="15"/>
+      <c r="AH90" s="15"/>
+      <c r="AI90" s="15"/>
+      <c r="AJ90" s="15"/>
+      <c r="AK90" s="15"/>
+      <c r="AL90" s="15"/>
+      <c r="AM90" s="18"/>
+      <c r="AN90" s="7"/>
+    </row>
+    <row r="91" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="6"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="13">
+        <v>12</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="I91" s="16"/>
+      <c r="J91" s="15"/>
+      <c r="L91" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="N91" s="17"/>
+      <c r="O91" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P91" s="15"/>
+      <c r="Q91" s="15"/>
+      <c r="R91" s="17"/>
+      <c r="S91" s="14">
+        <v>1</v>
+      </c>
+      <c r="T91" s="17"/>
+      <c r="U91" s="14"/>
+      <c r="V91" s="17"/>
+      <c r="W91" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="X91" s="15"/>
+      <c r="Y91" s="15"/>
+      <c r="Z91" s="17"/>
+      <c r="AA91" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB91" s="15"/>
+      <c r="AC91" s="17"/>
+      <c r="AD91" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE91" s="15"/>
+      <c r="AF91" s="15"/>
+      <c r="AG91" s="15"/>
+      <c r="AH91" s="15"/>
+      <c r="AI91" s="15"/>
+      <c r="AJ91" s="15"/>
+      <c r="AK91" s="15"/>
+      <c r="AL91" s="15"/>
+      <c r="AM91" s="18"/>
+      <c r="AN91" s="7"/>
+    </row>
+    <row r="92" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="6"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="13">
+        <v>13</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="I92" s="16"/>
+      <c r="J92" s="15"/>
+      <c r="K92" s="17"/>
+      <c r="L92" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="M92" s="15"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P92" s="15"/>
+      <c r="Q92" s="15"/>
+      <c r="R92" s="17"/>
+      <c r="S92" s="14">
+        <v>1</v>
+      </c>
+      <c r="T92" s="17"/>
+      <c r="U92" s="14"/>
+      <c r="V92" s="17"/>
+      <c r="W92" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="X92" s="15"/>
+      <c r="Y92" s="15"/>
+      <c r="Z92" s="17"/>
+      <c r="AA92" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB92" s="15"/>
+      <c r="AC92" s="17"/>
+      <c r="AD92" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE92" s="15"/>
+      <c r="AF92" s="15"/>
+      <c r="AG92" s="15"/>
+      <c r="AH92" s="15"/>
+      <c r="AI92" s="15"/>
+      <c r="AJ92" s="15"/>
+      <c r="AK92" s="15"/>
+      <c r="AL92" s="15"/>
+      <c r="AM92" s="18"/>
+      <c r="AN92" s="7"/>
+    </row>
+    <row r="93" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="6"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="16"/>
+      <c r="J93" s="15"/>
+      <c r="K93" s="17"/>
+      <c r="L93" s="14"/>
+      <c r="M93" s="15"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="14"/>
+      <c r="P93" s="15"/>
+      <c r="Q93" s="15"/>
+      <c r="R93" s="17"/>
+      <c r="S93" s="14"/>
+      <c r="T93" s="17"/>
+      <c r="U93" s="14"/>
+      <c r="V93" s="17"/>
+      <c r="W93" s="14"/>
+      <c r="X93" s="15"/>
+      <c r="Y93" s="15"/>
+      <c r="Z93" s="17"/>
+      <c r="AA93" s="14"/>
+      <c r="AB93" s="15"/>
+      <c r="AC93" s="17"/>
+      <c r="AD93" s="14"/>
+      <c r="AE93" s="15"/>
+      <c r="AF93" s="15"/>
+      <c r="AG93" s="15"/>
+      <c r="AH93" s="15"/>
+      <c r="AI93" s="15"/>
+      <c r="AJ93" s="15"/>
+      <c r="AK93" s="15"/>
+      <c r="AL93" s="15"/>
+      <c r="AM93" s="18"/>
+      <c r="AN93" s="7"/>
+    </row>
+    <row r="94" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="6"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="16"/>
+      <c r="J94" s="15"/>
+      <c r="K94" s="17"/>
+      <c r="L94" s="14"/>
+      <c r="M94" s="15"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="14"/>
+      <c r="P94" s="15"/>
+      <c r="Q94" s="15"/>
+      <c r="R94" s="17"/>
+      <c r="S94" s="14"/>
+      <c r="T94" s="17"/>
+      <c r="U94" s="14"/>
+      <c r="V94" s="17"/>
+      <c r="W94" s="14"/>
+      <c r="X94" s="15"/>
+      <c r="Y94" s="15"/>
+      <c r="Z94" s="17"/>
+      <c r="AA94" s="14"/>
+      <c r="AB94" s="15"/>
+      <c r="AC94" s="17"/>
+      <c r="AD94" s="14"/>
+      <c r="AE94" s="15"/>
+      <c r="AF94" s="15"/>
+      <c r="AG94" s="15"/>
+      <c r="AH94" s="15"/>
+      <c r="AI94" s="15"/>
+      <c r="AJ94" s="15"/>
+      <c r="AK94" s="15"/>
+      <c r="AL94" s="15"/>
+      <c r="AM94" s="18"/>
+      <c r="AN94" s="7"/>
+    </row>
+    <row r="95" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="6"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="16"/>
+      <c r="J95" s="15"/>
+      <c r="K95" s="17"/>
+      <c r="L95" s="14"/>
+      <c r="M95" s="15"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="14"/>
+      <c r="P95" s="15"/>
+      <c r="Q95" s="15"/>
+      <c r="R95" s="17"/>
+      <c r="S95" s="14"/>
+      <c r="T95" s="17"/>
+      <c r="U95" s="14"/>
+      <c r="V95" s="17"/>
+      <c r="W95" s="14"/>
+      <c r="X95" s="15"/>
+      <c r="Y95" s="15"/>
+      <c r="Z95" s="17"/>
+      <c r="AA95" s="14"/>
+      <c r="AB95" s="15"/>
+      <c r="AC95" s="17"/>
+      <c r="AD95" s="14"/>
+      <c r="AE95" s="15"/>
+      <c r="AF95" s="15"/>
+      <c r="AG95" s="15"/>
+      <c r="AH95" s="15"/>
+      <c r="AI95" s="15"/>
+      <c r="AJ95" s="15"/>
+      <c r="AK95" s="15"/>
+      <c r="AL95" s="15"/>
+      <c r="AM95" s="18"/>
+      <c r="AN95" s="7"/>
+    </row>
+    <row r="96" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="6"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="16"/>
+      <c r="J96" s="15"/>
+      <c r="K96" s="17"/>
+      <c r="L96" s="14"/>
+      <c r="M96" s="15"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="14"/>
+      <c r="P96" s="15"/>
+      <c r="Q96" s="15"/>
+      <c r="R96" s="17"/>
+      <c r="S96" s="14"/>
+      <c r="T96" s="17"/>
+      <c r="U96" s="14"/>
+      <c r="V96" s="17"/>
+      <c r="W96" s="14"/>
+      <c r="X96" s="15"/>
+      <c r="Y96" s="15"/>
+      <c r="Z96" s="17"/>
+      <c r="AA96" s="14"/>
+      <c r="AB96" s="15"/>
+      <c r="AC96" s="17"/>
+      <c r="AD96" s="14"/>
+      <c r="AE96" s="15"/>
+      <c r="AF96" s="15"/>
+      <c r="AG96" s="15"/>
+      <c r="AH96" s="15"/>
+      <c r="AI96" s="15"/>
+      <c r="AJ96" s="15"/>
+      <c r="AK96" s="15"/>
+      <c r="AL96" s="15"/>
+      <c r="AM96" s="18"/>
+      <c r="AN96" s="7"/>
+    </row>
+    <row r="97" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="6"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="16"/>
+      <c r="J97" s="15"/>
+      <c r="K97" s="17"/>
+      <c r="L97" s="14"/>
+      <c r="M97" s="15"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="14"/>
+      <c r="P97" s="15"/>
+      <c r="Q97" s="15"/>
+      <c r="R97" s="17"/>
+      <c r="S97" s="14"/>
+      <c r="T97" s="17"/>
+      <c r="U97" s="14"/>
+      <c r="V97" s="17"/>
+      <c r="W97" s="14"/>
+      <c r="X97" s="15"/>
+      <c r="Y97" s="15"/>
+      <c r="Z97" s="17"/>
+      <c r="AA97" s="14"/>
+      <c r="AB97" s="15"/>
+      <c r="AC97" s="17"/>
+      <c r="AD97" s="14"/>
+      <c r="AE97" s="15"/>
+      <c r="AF97" s="15"/>
+      <c r="AG97" s="15"/>
+      <c r="AH97" s="15"/>
+      <c r="AI97" s="15"/>
+      <c r="AJ97" s="15"/>
+      <c r="AK97" s="15"/>
+      <c r="AL97" s="15"/>
+      <c r="AM97" s="18"/>
+      <c r="AN97" s="7"/>
+    </row>
+    <row r="98" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="6"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="16"/>
+      <c r="J98" s="15"/>
+      <c r="K98" s="17"/>
+      <c r="L98" s="14"/>
+      <c r="M98" s="15"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="14"/>
+      <c r="P98" s="15"/>
+      <c r="Q98" s="15"/>
+      <c r="R98" s="17"/>
+      <c r="S98" s="14"/>
+      <c r="T98" s="17"/>
+      <c r="U98" s="14"/>
+      <c r="V98" s="17"/>
+      <c r="W98" s="14"/>
+      <c r="X98" s="15"/>
+      <c r="Y98" s="15"/>
+      <c r="Z98" s="17"/>
+      <c r="AA98" s="14"/>
+      <c r="AB98" s="15"/>
+      <c r="AC98" s="17"/>
+      <c r="AD98" s="14"/>
+      <c r="AE98" s="15"/>
+      <c r="AF98" s="15"/>
+      <c r="AG98" s="15"/>
+      <c r="AH98" s="15"/>
+      <c r="AI98" s="15"/>
+      <c r="AJ98" s="15"/>
+      <c r="AK98" s="15"/>
+      <c r="AL98" s="15"/>
+      <c r="AM98" s="18"/>
+      <c r="AN98" s="7"/>
+    </row>
+    <row r="99" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="6"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="16"/>
+      <c r="J99" s="15"/>
+      <c r="K99" s="17"/>
+      <c r="L99" s="14"/>
+      <c r="M99" s="15"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="14"/>
+      <c r="P99" s="15"/>
+      <c r="Q99" s="15"/>
+      <c r="R99" s="17"/>
+      <c r="S99" s="14"/>
+      <c r="T99" s="17"/>
+      <c r="U99" s="14"/>
+      <c r="V99" s="17"/>
+      <c r="W99" s="14"/>
+      <c r="X99" s="15"/>
+      <c r="Y99" s="15"/>
+      <c r="Z99" s="17"/>
+      <c r="AA99" s="14"/>
+      <c r="AB99" s="15"/>
+      <c r="AC99" s="17"/>
+      <c r="AD99" s="14"/>
+      <c r="AE99" s="15"/>
+      <c r="AF99" s="15"/>
+      <c r="AG99" s="15"/>
+      <c r="AH99" s="15"/>
+      <c r="AI99" s="15"/>
+      <c r="AJ99" s="15"/>
+      <c r="AK99" s="15"/>
+      <c r="AL99" s="15"/>
+      <c r="AM99" s="18"/>
+      <c r="AN99" s="7"/>
+    </row>
+    <row r="100" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="6"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="16"/>
+      <c r="J100" s="15"/>
+      <c r="K100" s="17"/>
+      <c r="L100" s="14"/>
+      <c r="M100" s="15"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="14"/>
+      <c r="P100" s="15"/>
+      <c r="Q100" s="15"/>
+      <c r="R100" s="17"/>
+      <c r="S100" s="14"/>
+      <c r="T100" s="17"/>
+      <c r="U100" s="14"/>
+      <c r="V100" s="17"/>
+      <c r="W100" s="14"/>
+      <c r="X100" s="15"/>
+      <c r="Y100" s="15"/>
+      <c r="Z100" s="17"/>
+      <c r="AA100" s="14"/>
+      <c r="AB100" s="15"/>
+      <c r="AC100" s="17"/>
+      <c r="AD100" s="14"/>
+      <c r="AE100" s="15"/>
+      <c r="AF100" s="15"/>
+      <c r="AG100" s="15"/>
+      <c r="AH100" s="15"/>
+      <c r="AI100" s="15"/>
+      <c r="AJ100" s="15"/>
+      <c r="AK100" s="15"/>
+      <c r="AL100" s="15"/>
+      <c r="AM100" s="18"/>
+      <c r="AN100" s="7"/>
+    </row>
+    <row r="101" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="6"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="16"/>
+      <c r="J101" s="15"/>
+      <c r="K101" s="17"/>
+      <c r="L101" s="14"/>
+      <c r="M101" s="15"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="14"/>
+      <c r="P101" s="15"/>
+      <c r="Q101" s="15"/>
+      <c r="R101" s="17"/>
+      <c r="S101" s="14"/>
+      <c r="T101" s="17"/>
+      <c r="U101" s="14"/>
+      <c r="V101" s="17"/>
+      <c r="W101" s="14"/>
+      <c r="X101" s="15"/>
+      <c r="Y101" s="15"/>
+      <c r="Z101" s="17"/>
+      <c r="AA101" s="14"/>
+      <c r="AB101" s="15"/>
+      <c r="AC101" s="17"/>
+      <c r="AD101" s="14"/>
+      <c r="AE101" s="15"/>
+      <c r="AF101" s="15"/>
+      <c r="AG101" s="15"/>
+      <c r="AH101" s="15"/>
+      <c r="AI101" s="15"/>
+      <c r="AJ101" s="15"/>
+      <c r="AK101" s="15"/>
+      <c r="AL101" s="15"/>
+      <c r="AM101" s="18"/>
+      <c r="AN101" s="7"/>
+    </row>
+    <row r="102" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="6"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="16"/>
+      <c r="J102" s="15"/>
+      <c r="K102" s="17"/>
+      <c r="L102" s="14"/>
+      <c r="M102" s="15"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="14"/>
+      <c r="P102" s="15"/>
+      <c r="Q102" s="15"/>
+      <c r="R102" s="17"/>
+      <c r="S102" s="14"/>
+      <c r="T102" s="17"/>
+      <c r="U102" s="14"/>
+      <c r="V102" s="17"/>
+      <c r="W102" s="14"/>
+      <c r="X102" s="15"/>
+      <c r="Y102" s="15"/>
+      <c r="Z102" s="17"/>
+      <c r="AA102" s="14"/>
+      <c r="AB102" s="15"/>
+      <c r="AC102" s="17"/>
+      <c r="AD102" s="14"/>
+      <c r="AE102" s="15"/>
+      <c r="AF102" s="15"/>
+      <c r="AG102" s="15"/>
+      <c r="AH102" s="15"/>
+      <c r="AI102" s="15"/>
+      <c r="AJ102" s="15"/>
+      <c r="AK102" s="15"/>
+      <c r="AL102" s="15"/>
+      <c r="AM102" s="18"/>
+      <c r="AN102" s="7"/>
+    </row>
+    <row r="103" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="6"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="16"/>
+      <c r="J103" s="15"/>
+      <c r="K103" s="17"/>
+      <c r="L103" s="14"/>
+      <c r="M103" s="15"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="14"/>
+      <c r="P103" s="15"/>
+      <c r="Q103" s="15"/>
+      <c r="R103" s="17"/>
+      <c r="S103" s="14"/>
+      <c r="T103" s="17"/>
+      <c r="U103" s="14"/>
+      <c r="V103" s="17"/>
+      <c r="W103" s="14"/>
+      <c r="X103" s="15"/>
+      <c r="Y103" s="15"/>
+      <c r="Z103" s="17"/>
+      <c r="AA103" s="14"/>
+      <c r="AB103" s="15"/>
+      <c r="AC103" s="17"/>
+      <c r="AD103" s="14"/>
+      <c r="AE103" s="15"/>
+      <c r="AF103" s="15"/>
+      <c r="AG103" s="15"/>
+      <c r="AH103" s="15"/>
+      <c r="AI103" s="15"/>
+      <c r="AJ103" s="15"/>
+      <c r="AK103" s="15"/>
+      <c r="AL103" s="15"/>
+      <c r="AM103" s="18"/>
+      <c r="AN103" s="7"/>
+    </row>
+    <row r="104" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="6"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="16"/>
+      <c r="J104" s="15"/>
+      <c r="K104" s="17"/>
+      <c r="L104" s="14"/>
+      <c r="M104" s="15"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="14"/>
+      <c r="P104" s="15"/>
+      <c r="Q104" s="15"/>
+      <c r="R104" s="17"/>
+      <c r="S104" s="14"/>
+      <c r="T104" s="17"/>
+      <c r="U104" s="14"/>
+      <c r="V104" s="17"/>
+      <c r="W104" s="14"/>
+      <c r="X104" s="15"/>
+      <c r="Y104" s="15"/>
+      <c r="Z104" s="17"/>
+      <c r="AA104" s="14"/>
+      <c r="AB104" s="15"/>
+      <c r="AC104" s="17"/>
+      <c r="AD104" s="14"/>
+      <c r="AE104" s="15"/>
+      <c r="AF104" s="15"/>
+      <c r="AG104" s="15"/>
+      <c r="AH104" s="15"/>
+      <c r="AI104" s="15"/>
+      <c r="AJ104" s="15"/>
+      <c r="AK104" s="15"/>
+      <c r="AL104" s="15"/>
+      <c r="AM104" s="18"/>
+      <c r="AN104" s="7"/>
+    </row>
+    <row r="105" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="6"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="16"/>
+      <c r="J105" s="15"/>
+      <c r="K105" s="17"/>
+      <c r="L105" s="14"/>
+      <c r="M105" s="15"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="14"/>
+      <c r="P105" s="15"/>
+      <c r="Q105" s="15"/>
+      <c r="R105" s="17"/>
+      <c r="S105" s="14"/>
+      <c r="T105" s="17"/>
+      <c r="U105" s="14"/>
+      <c r="V105" s="17"/>
+      <c r="W105" s="14"/>
+      <c r="X105" s="15"/>
+      <c r="Y105" s="15"/>
+      <c r="Z105" s="17"/>
+      <c r="AA105" s="14"/>
+      <c r="AB105" s="15"/>
+      <c r="AC105" s="17"/>
+      <c r="AD105" s="14"/>
+      <c r="AE105" s="15"/>
+      <c r="AF105" s="15"/>
+      <c r="AG105" s="15"/>
+      <c r="AH105" s="15"/>
+      <c r="AI105" s="15"/>
+      <c r="AJ105" s="15"/>
+      <c r="AK105" s="15"/>
+      <c r="AL105" s="15"/>
+      <c r="AM105" s="18"/>
+      <c r="AN105" s="7"/>
+    </row>
+    <row r="106" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="6"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="16"/>
+      <c r="J106" s="15"/>
+      <c r="K106" s="17"/>
+      <c r="L106" s="14"/>
+      <c r="M106" s="15"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="14"/>
+      <c r="P106" s="15"/>
+      <c r="Q106" s="15"/>
+      <c r="R106" s="17"/>
+      <c r="S106" s="14"/>
+      <c r="T106" s="17"/>
+      <c r="U106" s="14"/>
+      <c r="V106" s="17"/>
+      <c r="W106" s="14"/>
+      <c r="X106" s="15"/>
+      <c r="Y106" s="15"/>
+      <c r="Z106" s="17"/>
+      <c r="AA106" s="14"/>
+      <c r="AB106" s="15"/>
+      <c r="AC106" s="17"/>
+      <c r="AD106" s="14"/>
+      <c r="AE106" s="15"/>
+      <c r="AF106" s="15"/>
+      <c r="AG106" s="15"/>
+      <c r="AH106" s="15"/>
+      <c r="AI106" s="15"/>
+      <c r="AJ106" s="15"/>
+      <c r="AK106" s="15"/>
+      <c r="AL106" s="15"/>
+      <c r="AM106" s="18"/>
+      <c r="AN106" s="7"/>
+    </row>
+    <row r="107" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="6"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="14"/>
+      <c r="I107" s="16"/>
+      <c r="J107" s="15"/>
+      <c r="K107" s="17"/>
+      <c r="L107" s="14"/>
+      <c r="M107" s="15"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="14"/>
+      <c r="P107" s="15"/>
+      <c r="Q107" s="15"/>
+      <c r="R107" s="17"/>
+      <c r="S107" s="14"/>
+      <c r="T107" s="17"/>
+      <c r="U107" s="14"/>
+      <c r="V107" s="17"/>
+      <c r="W107" s="14"/>
+      <c r="X107" s="15"/>
+      <c r="Y107" s="15"/>
+      <c r="Z107" s="17"/>
+      <c r="AA107" s="14"/>
+      <c r="AB107" s="15"/>
+      <c r="AC107" s="17"/>
+      <c r="AD107" s="14"/>
+      <c r="AE107" s="15"/>
+      <c r="AF107" s="15"/>
+      <c r="AG107" s="15"/>
+      <c r="AH107" s="15"/>
+      <c r="AI107" s="15"/>
+      <c r="AJ107" s="15"/>
+      <c r="AK107" s="15"/>
+      <c r="AL107" s="15"/>
+      <c r="AM107" s="18"/>
+      <c r="AN107" s="7"/>
+    </row>
+    <row r="108" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="6"/>
+      <c r="B108" s="12"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="14"/>
+      <c r="I108" s="16"/>
+      <c r="J108" s="15"/>
+      <c r="K108" s="17"/>
+      <c r="L108" s="14"/>
+      <c r="M108" s="15"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="14"/>
+      <c r="P108" s="15"/>
+      <c r="Q108" s="15"/>
+      <c r="R108" s="17"/>
+      <c r="S108" s="14"/>
+      <c r="T108" s="17"/>
+      <c r="U108" s="14"/>
+      <c r="V108" s="17"/>
+      <c r="W108" s="14"/>
+      <c r="X108" s="15"/>
+      <c r="Y108" s="15"/>
+      <c r="Z108" s="17"/>
+      <c r="AA108" s="14"/>
+      <c r="AB108" s="15"/>
+      <c r="AC108" s="17"/>
+      <c r="AD108" s="14"/>
+      <c r="AE108" s="15"/>
+      <c r="AF108" s="15"/>
+      <c r="AG108" s="15"/>
+      <c r="AH108" s="15"/>
+      <c r="AI108" s="15"/>
+      <c r="AJ108" s="15"/>
+      <c r="AK108" s="15"/>
+      <c r="AL108" s="15"/>
+      <c r="AM108" s="18"/>
+      <c r="AN108" s="7"/>
+    </row>
+    <row r="109" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="6"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="16"/>
+      <c r="J109" s="15"/>
+      <c r="K109" s="17"/>
+      <c r="L109" s="14"/>
+      <c r="M109" s="15"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="14"/>
+      <c r="P109" s="15"/>
+      <c r="Q109" s="15"/>
+      <c r="R109" s="17"/>
+      <c r="S109" s="14"/>
+      <c r="T109" s="17"/>
+      <c r="U109" s="14"/>
+      <c r="V109" s="17"/>
+      <c r="W109" s="14"/>
+      <c r="X109" s="15"/>
+      <c r="Y109" s="15"/>
+      <c r="Z109" s="17"/>
+      <c r="AA109" s="14"/>
+      <c r="AB109" s="15"/>
+      <c r="AC109" s="17"/>
+      <c r="AD109" s="14"/>
+      <c r="AE109" s="15"/>
+      <c r="AF109" s="15"/>
+      <c r="AG109" s="15"/>
+      <c r="AH109" s="15"/>
+      <c r="AI109" s="15"/>
+      <c r="AJ109" s="15"/>
+      <c r="AK109" s="15"/>
+      <c r="AL109" s="15"/>
+      <c r="AM109" s="18"/>
+      <c r="AN109" s="7"/>
+    </row>
+    <row r="110" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="9"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="10"/>
+      <c r="I110" s="10"/>
+      <c r="J110" s="10"/>
+      <c r="K110" s="10"/>
+      <c r="L110" s="10"/>
+      <c r="M110" s="10"/>
+      <c r="N110" s="10"/>
+      <c r="O110" s="10"/>
+      <c r="P110" s="10"/>
+      <c r="Q110" s="10"/>
+      <c r="R110" s="10"/>
+      <c r="S110" s="10"/>
+      <c r="T110" s="10"/>
+      <c r="U110" s="10"/>
+      <c r="V110" s="10"/>
+      <c r="W110" s="10"/>
+      <c r="X110" s="10"/>
+      <c r="Y110" s="10"/>
+      <c r="Z110" s="10"/>
+      <c r="AA110" s="10"/>
+      <c r="AB110" s="10"/>
+      <c r="AC110" s="10"/>
+      <c r="AD110" s="10"/>
+      <c r="AE110" s="10"/>
+      <c r="AF110" s="10"/>
+      <c r="AG110" s="10"/>
+      <c r="AH110" s="10"/>
+      <c r="AI110" s="10"/>
+      <c r="AJ110" s="10"/>
+      <c r="AK110" s="10"/>
+      <c r="AL110" s="10"/>
+      <c r="AM110" s="10"/>
+      <c r="AN110" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:AE3"/>

--- a/doc/外部設計書/02_外部設計書_C4.xlsx
+++ b/doc/外部設計書/02_外部設計書_C4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C4\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F28709-2E94-4893-9795-D2ACA278DC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CEA24A-345D-4A12-B84A-F78EBD1F7BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン " sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="212">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -604,10 +604,6 @@
   </si>
   <si>
     <t>input</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>name</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1419,6 +1415,102 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>DMNAME</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>DMSENDMES</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>DMICON</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>DMRECVMES</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>DMFAVORITE</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>DMTEXT</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>DMMENUICON</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>DMMENUNAME</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>NOTIALL</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>NOTIUNREAD</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>NOTIMENTION</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>NOTIREPLY</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>NOTIPOST</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>CHNAME</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>CHCOMMENT</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>CH</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ICON</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>LANG</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>POINT</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>BIRTH</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>COMMENT</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>MAIL</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -1802,6 +1894,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1844,9 +1958,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1855,25 +1966,6 @@
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8967,8 +9059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0889AA17-E9C6-4C9B-B205-55683AA59F21}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" workbookViewId="0">
-      <selection activeCell="L81" sqref="L81"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="85" workbookViewId="0">
+      <selection activeCell="AR85" sqref="AR85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8977,198 +9069,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="31" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31" t="s">
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="32"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="40"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="33" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33" t="s">
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33" t="s">
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="34" t="s">
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="36"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="43"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="33" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33" t="s">
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="37">
+      <c r="X3" s="26"/>
+      <c r="Y3" s="25">
         <v>45450</v>
       </c>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="19" t="s">
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="20"/>
-      <c r="AK3" s="20"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="20"/>
-      <c r="AN3" s="21"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="28"/>
+      <c r="AL3" s="28"/>
+      <c r="AM3" s="28"/>
+      <c r="AN3" s="29"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="22" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23"/>
-      <c r="AI4" s="23"/>
-      <c r="AJ4" s="23"/>
-      <c r="AK4" s="23"/>
-      <c r="AL4" s="23"/>
-      <c r="AM4" s="23"/>
-      <c r="AN4" s="24"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="31"/>
+      <c r="AN4" s="32"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -12269,7 +12361,7 @@
       <c r="Y80" s="15"/>
       <c r="Z80" s="17"/>
       <c r="AA80" s="14" t="s">
-        <v>59</v>
+        <v>210</v>
       </c>
       <c r="AB80" s="15"/>
       <c r="AC80" s="17"/>
@@ -12325,7 +12417,7 @@
       <c r="Y81" s="15"/>
       <c r="Z81" s="17"/>
       <c r="AA81" s="14" t="s">
-        <v>40</v>
+        <v>211</v>
       </c>
       <c r="AB81" s="15"/>
       <c r="AC81" s="17"/>
@@ -13589,11 +13681,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:AN1"/>
@@ -13606,6 +13693,11 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AN3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:AN4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -13621,8 +13713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5529EB6-548D-4ECA-B4FA-CE7D1A5BAFF6}">
   <dimension ref="A1:AN112"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="105" workbookViewId="0">
-      <selection activeCell="N79" sqref="N79"/>
+    <sheetView topLeftCell="A72" zoomScale="105" workbookViewId="0">
+      <selection activeCell="AA83" sqref="AA83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13631,200 +13723,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="31" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31" t="s">
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="32"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="40"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="33" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33" t="s">
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33" t="s">
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="34" t="s">
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="36"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="43"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="33" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33" t="s">
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33" t="s">
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="37">
+      <c r="X3" s="26"/>
+      <c r="Y3" s="25">
         <v>45450</v>
       </c>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="19" t="s">
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="20"/>
-      <c r="AK3" s="20"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="20"/>
-      <c r="AN3" s="21"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="28"/>
+      <c r="AL3" s="28"/>
+      <c r="AM3" s="28"/>
+      <c r="AN3" s="29"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="22" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23"/>
-      <c r="AI4" s="23"/>
-      <c r="AJ4" s="23"/>
-      <c r="AK4" s="23"/>
-      <c r="AL4" s="23"/>
-      <c r="AM4" s="23"/>
-      <c r="AN4" s="24"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="31"/>
+      <c r="AN4" s="32"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -16924,7 +17016,7 @@
       <c r="Y80" s="15"/>
       <c r="Z80" s="17"/>
       <c r="AA80" s="14" t="s">
-        <v>59</v>
+        <v>210</v>
       </c>
       <c r="AB80" s="15"/>
       <c r="AC80" s="17"/>
@@ -16980,7 +17072,7 @@
       <c r="Y81" s="15"/>
       <c r="Z81" s="17"/>
       <c r="AA81" s="14" t="s">
-        <v>40</v>
+        <v>211</v>
       </c>
       <c r="AB81" s="15"/>
       <c r="AC81" s="17"/>
@@ -17036,7 +17128,7 @@
       <c r="Y82" s="15"/>
       <c r="Z82" s="17"/>
       <c r="AA82" s="14" t="s">
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="AB82" s="15"/>
       <c r="AC82" s="17"/>
@@ -17064,7 +17156,7 @@
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
       <c r="H83" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I83" s="16"/>
       <c r="J83" s="15"/>
@@ -17107,19 +17199,19 @@
         <v>5</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
       <c r="G84" s="13"/>
       <c r="H84" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I84" s="16"/>
       <c r="J84" s="15"/>
       <c r="K84" s="17"/>
       <c r="L84" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M84" s="15"/>
       <c r="N84" s="17"/>
@@ -17243,7 +17335,7 @@
       <c r="AB86" s="15"/>
       <c r="AC86" s="17"/>
       <c r="AD86" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AE86" s="15"/>
       <c r="AF86" s="15"/>
@@ -18311,11 +18403,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:AN1"/>
@@ -18328,6 +18415,11 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AN3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:AN4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -18344,7 +18436,7 @@
   <dimension ref="A1:AN110"/>
   <sheetViews>
     <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="AE22" sqref="AE22"/>
+      <selection activeCell="AA86" sqref="AA86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18353,200 +18445,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="31" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31" t="s">
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="32"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="40"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="33" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="34" t="s">
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="36"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="43"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="33" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33" t="s">
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33" t="s">
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="37">
+      <c r="X3" s="26"/>
+      <c r="Y3" s="25">
         <v>45453</v>
       </c>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="19" t="s">
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="20"/>
-      <c r="AK3" s="20"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="20"/>
-      <c r="AN3" s="21"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="28"/>
+      <c r="AL3" s="28"/>
+      <c r="AM3" s="28"/>
+      <c r="AN3" s="29"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="22" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23"/>
-      <c r="AI4" s="23"/>
-      <c r="AJ4" s="23"/>
-      <c r="AK4" s="23"/>
-      <c r="AL4" s="23"/>
-      <c r="AM4" s="23"/>
-      <c r="AN4" s="24"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="31"/>
+      <c r="AN4" s="32"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -20108,7 +20200,7 @@
       <c r="B44" s="6"/>
       <c r="C44" s="8"/>
       <c r="D44" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -20323,10 +20415,10 @@
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
@@ -20370,7 +20462,7 @@
       <c r="B50" s="6"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
@@ -20451,10 +20543,10 @@
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
@@ -20537,10 +20629,10 @@
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
@@ -20584,7 +20676,7 @@
       <c r="B55" s="6"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
@@ -20665,10 +20757,10 @@
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
@@ -20751,10 +20843,10 @@
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
@@ -20837,10 +20929,10 @@
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
@@ -20923,10 +21015,10 @@
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
@@ -21009,10 +21101,10 @@
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
@@ -21654,24 +21746,24 @@
         <v>1</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
       <c r="G80" s="13"/>
       <c r="H80" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I80" s="16"/>
       <c r="J80" s="15"/>
       <c r="K80" s="17"/>
       <c r="L80" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M80" s="15"/>
       <c r="N80" s="17"/>
       <c r="O80" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P80" s="15"/>
       <c r="Q80" s="15"/>
@@ -21681,13 +21773,13 @@
       <c r="U80" s="14"/>
       <c r="V80" s="17"/>
       <c r="W80" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X80" s="15"/>
       <c r="Y80" s="15"/>
       <c r="Z80" s="17"/>
       <c r="AA80" s="14" t="s">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c r="AB80" s="15"/>
       <c r="AC80" s="17"/>
@@ -21710,24 +21802,24 @@
         <v>2</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
       <c r="G81" s="13"/>
       <c r="H81" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I81" s="16"/>
       <c r="J81" s="15"/>
       <c r="K81" s="17"/>
       <c r="L81" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M81" s="15"/>
       <c r="N81" s="17"/>
       <c r="O81" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P81" s="15"/>
       <c r="Q81" s="15"/>
@@ -21741,13 +21833,13 @@
       </c>
       <c r="V81" s="17"/>
       <c r="W81" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X81" s="15"/>
       <c r="Y81" s="15"/>
       <c r="Z81" s="17"/>
       <c r="AA81" s="14" t="s">
-        <v>100</v>
+        <v>205</v>
       </c>
       <c r="AB81" s="15"/>
       <c r="AC81" s="17"/>
@@ -21770,19 +21862,19 @@
         <v>3</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
       <c r="G82" s="13"/>
       <c r="H82" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I82" s="16"/>
       <c r="J82" s="15"/>
       <c r="K82" s="17"/>
       <c r="L82" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M82" s="15"/>
       <c r="N82" s="17"/>
@@ -21795,13 +21887,13 @@
       <c r="U82" s="14"/>
       <c r="V82" s="17"/>
       <c r="W82" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X82" s="15"/>
       <c r="Y82" s="15"/>
       <c r="Z82" s="17"/>
       <c r="AA82" s="14" t="s">
-        <v>104</v>
+        <v>206</v>
       </c>
       <c r="AB82" s="15"/>
       <c r="AC82" s="17"/>
@@ -21824,24 +21916,24 @@
         <v>4</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
       <c r="H83" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I83" s="16"/>
       <c r="J83" s="15"/>
       <c r="K83" s="17"/>
       <c r="L83" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M83" s="15"/>
       <c r="N83" s="17"/>
       <c r="O83" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P83" s="15"/>
       <c r="Q83" s="15"/>
@@ -21855,13 +21947,13 @@
       </c>
       <c r="V83" s="17"/>
       <c r="W83" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X83" s="15"/>
       <c r="Y83" s="15"/>
       <c r="Z83" s="17"/>
       <c r="AA83" s="14" t="s">
-        <v>106</v>
+        <v>207</v>
       </c>
       <c r="AB83" s="15"/>
       <c r="AC83" s="17"/>
@@ -21890,7 +21982,7 @@
       <c r="F84" s="15"/>
       <c r="G84" s="13"/>
       <c r="H84" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I84" s="16"/>
       <c r="J84" s="15"/>
@@ -21901,7 +21993,7 @@
       <c r="M84" s="15"/>
       <c r="N84" s="17"/>
       <c r="O84" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P84" s="15"/>
       <c r="Q84" s="15"/>
@@ -21911,13 +22003,13 @@
       <c r="U84" s="14"/>
       <c r="V84" s="17"/>
       <c r="W84" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X84" s="15"/>
       <c r="Y84" s="15"/>
       <c r="Z84" s="17"/>
       <c r="AA84" s="14" t="s">
-        <v>65</v>
+        <v>208</v>
       </c>
       <c r="AB84" s="15"/>
       <c r="AC84" s="17"/>
@@ -21940,13 +22032,13 @@
         <v>6</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
       <c r="G85" s="13"/>
       <c r="H85" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I85" s="16"/>
       <c r="J85" s="15"/>
@@ -21957,7 +22049,7 @@
       <c r="M85" s="15"/>
       <c r="N85" s="17"/>
       <c r="O85" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P85" s="15"/>
       <c r="Q85" s="15"/>
@@ -21967,13 +22059,13 @@
       <c r="U85" s="14"/>
       <c r="V85" s="17"/>
       <c r="W85" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X85" s="15"/>
       <c r="Y85" s="15"/>
       <c r="Z85" s="17"/>
       <c r="AA85" s="14" t="s">
-        <v>109</v>
+        <v>209</v>
       </c>
       <c r="AB85" s="15"/>
       <c r="AC85" s="17"/>
@@ -21996,19 +22088,19 @@
         <v>7</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
       <c r="G86" s="13"/>
       <c r="H86" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I86" s="16"/>
       <c r="J86" s="15"/>
       <c r="K86" s="17"/>
       <c r="L86" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M86" s="15"/>
       <c r="N86" s="17"/>
@@ -22046,19 +22138,19 @@
         <v>8</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
       <c r="G87" s="13"/>
       <c r="H87" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I87" s="16"/>
       <c r="J87" s="15"/>
       <c r="K87" s="17"/>
       <c r="L87" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M87" s="15"/>
       <c r="N87" s="17"/>
@@ -23057,6 +23149,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
@@ -23073,7 +23166,6 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -23089,8 +23181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA384EF-9747-46FC-8D82-DC4465294D64}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AG19" sqref="AG19"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="AA84" sqref="AA84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -23099,200 +23191,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="31" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31" t="s">
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="32"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="40"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="33" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="34" t="s">
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="36"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="43"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="33" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33" t="s">
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33" t="s">
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="37">
+      <c r="X3" s="26"/>
+      <c r="Y3" s="25">
         <v>45453</v>
       </c>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="19" t="s">
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="20"/>
-      <c r="AK3" s="20"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="20"/>
-      <c r="AN3" s="21"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="28"/>
+      <c r="AL3" s="28"/>
+      <c r="AM3" s="28"/>
+      <c r="AN3" s="29"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="22" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23"/>
-      <c r="AI4" s="23"/>
-      <c r="AJ4" s="23"/>
-      <c r="AK4" s="23"/>
-      <c r="AL4" s="23"/>
-      <c r="AM4" s="23"/>
-      <c r="AN4" s="24"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="31"/>
+      <c r="AN4" s="32"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -24854,7 +24946,7 @@
       <c r="B44" s="6"/>
       <c r="C44" s="8"/>
       <c r="D44" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -24985,7 +25077,7 @@
       <c r="C47" s="8"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="8"/>
@@ -25069,10 +25161,10 @@
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
@@ -25195,10 +25287,10 @@
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
@@ -25281,10 +25373,10 @@
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
@@ -25407,10 +25499,10 @@
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
@@ -26372,13 +26464,13 @@
         <v>1</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
       <c r="G80" s="13"/>
       <c r="H80" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I80" s="16"/>
       <c r="J80" s="15"/>
@@ -26389,7 +26481,7 @@
       <c r="M80" s="15"/>
       <c r="N80" s="17"/>
       <c r="O80" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P80" s="15"/>
       <c r="Q80" s="15"/>
@@ -26403,13 +26495,13 @@
         <v>36</v>
       </c>
       <c r="W80" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X80" s="15"/>
       <c r="Y80" s="15"/>
       <c r="Z80" s="17"/>
       <c r="AA80" s="14" t="s">
-        <v>122</v>
+        <v>201</v>
       </c>
       <c r="AB80" s="15"/>
       <c r="AC80" s="17"/>
@@ -26432,13 +26524,13 @@
         <v>2</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
       <c r="G81" s="13"/>
       <c r="H81" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I81" s="16"/>
       <c r="J81" s="15"/>
@@ -26449,7 +26541,7 @@
       <c r="M81" s="15"/>
       <c r="N81" s="17"/>
       <c r="O81" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P81" s="15"/>
       <c r="Q81" s="15"/>
@@ -26463,13 +26555,13 @@
         <v>200</v>
       </c>
       <c r="W81" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X81" s="15"/>
       <c r="Y81" s="15"/>
       <c r="Z81" s="17"/>
       <c r="AA81" s="14" t="s">
-        <v>125</v>
+        <v>202</v>
       </c>
       <c r="AB81" s="15"/>
       <c r="AC81" s="17"/>
@@ -26492,19 +26584,19 @@
         <v>3</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
       <c r="G82" s="13"/>
       <c r="H82" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I82" s="16"/>
       <c r="J82" s="15"/>
       <c r="K82" s="17"/>
       <c r="L82" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M82" s="15"/>
       <c r="N82" s="17"/>
@@ -26542,24 +26634,24 @@
         <v>4</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
       <c r="H83" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I83" s="16"/>
       <c r="J83" s="15"/>
       <c r="K83" s="17"/>
       <c r="L83" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M83" s="15"/>
       <c r="N83" s="17"/>
       <c r="O83" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P83" s="15"/>
       <c r="Q83" s="15"/>
@@ -26573,13 +26665,13 @@
         <v>500</v>
       </c>
       <c r="W83" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X83" s="15"/>
       <c r="Y83" s="15"/>
       <c r="Z83" s="17"/>
       <c r="AA83" s="14" t="s">
-        <v>129</v>
+        <v>203</v>
       </c>
       <c r="AB83" s="15"/>
       <c r="AC83" s="17"/>
@@ -27731,6 +27823,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
@@ -27747,7 +27840,6 @@
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -27763,8 +27855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E42117-F9D3-420F-8EC6-2063C6EB37EA}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="AE81" sqref="AE81"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="AA84" sqref="AA84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -27773,200 +27865,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="31" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31" t="s">
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="32"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="40"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="33" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="34" t="s">
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="36"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="43"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="33" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33" t="s">
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33" t="s">
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="37">
+      <c r="X3" s="26"/>
+      <c r="Y3" s="25">
         <v>45453</v>
       </c>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="19" t="s">
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="20"/>
-      <c r="AK3" s="20"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="20"/>
-      <c r="AN3" s="21"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="28"/>
+      <c r="AL3" s="28"/>
+      <c r="AM3" s="28"/>
+      <c r="AN3" s="29"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="22" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23"/>
-      <c r="AI4" s="23"/>
-      <c r="AJ4" s="23"/>
-      <c r="AK4" s="23"/>
-      <c r="AL4" s="23"/>
-      <c r="AM4" s="23"/>
-      <c r="AN4" s="24"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="31"/>
+      <c r="AN4" s="32"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -28607,10 +28699,10 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="T21" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="T21" s="8" t="s">
-        <v>132</v>
       </c>
       <c r="U21" s="8"/>
       <c r="V21" s="8"/>
@@ -29532,7 +29624,7 @@
       <c r="B44" s="6"/>
       <c r="C44" s="8"/>
       <c r="D44" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -29867,10 +29959,10 @@
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
@@ -29953,10 +30045,10 @@
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
@@ -30079,10 +30171,10 @@
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
@@ -30165,10 +30257,10 @@
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
@@ -30251,10 +30343,10 @@
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
@@ -31056,13 +31148,13 @@
         <v>1</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
       <c r="G80" s="13"/>
       <c r="H80" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I80" s="16"/>
       <c r="J80" s="15"/>
@@ -31073,7 +31165,7 @@
       <c r="M80" s="15"/>
       <c r="N80" s="17"/>
       <c r="O80" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P80" s="15"/>
       <c r="Q80" s="15"/>
@@ -31083,13 +31175,13 @@
       <c r="U80" s="14"/>
       <c r="V80" s="17"/>
       <c r="W80" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X80" s="15"/>
       <c r="Y80" s="15"/>
       <c r="Z80" s="17"/>
       <c r="AA80" s="14" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="AB80" s="15"/>
       <c r="AC80" s="15"/>
@@ -31112,13 +31204,13 @@
         <v>2</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
       <c r="G81" s="13"/>
       <c r="H81" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I81" s="16"/>
       <c r="J81" s="15"/>
@@ -31129,7 +31221,7 @@
       <c r="M81" s="15"/>
       <c r="N81" s="17"/>
       <c r="O81" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P81" s="15"/>
       <c r="Q81" s="15"/>
@@ -31139,13 +31231,13 @@
       <c r="U81" s="14"/>
       <c r="V81" s="17"/>
       <c r="W81" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X81" s="15"/>
       <c r="Y81" s="15"/>
       <c r="Z81" s="17"/>
       <c r="AA81" s="14" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="AB81" s="15"/>
       <c r="AC81" s="15"/>
@@ -31168,13 +31260,13 @@
         <v>3</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
       <c r="G82" s="13"/>
       <c r="H82" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I82" s="16"/>
       <c r="J82" s="15"/>
@@ -31185,7 +31277,7 @@
       <c r="M82" s="15"/>
       <c r="N82" s="17"/>
       <c r="O82" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P82" s="15"/>
       <c r="Q82" s="15"/>
@@ -31195,13 +31287,13 @@
       <c r="U82" s="14"/>
       <c r="V82" s="17"/>
       <c r="W82" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X82" s="15"/>
       <c r="Y82" s="15"/>
       <c r="Z82" s="17"/>
       <c r="AA82" s="14" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="AB82" s="15"/>
       <c r="AC82" s="15"/>
@@ -31224,13 +31316,13 @@
         <v>4</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
       <c r="H83" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I83" s="16"/>
       <c r="J83" s="15"/>
@@ -31241,7 +31333,7 @@
       <c r="M83" s="15"/>
       <c r="N83" s="17"/>
       <c r="O83" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P83" s="15"/>
       <c r="Q83" s="15"/>
@@ -31251,13 +31343,13 @@
       <c r="U83" s="14"/>
       <c r="V83" s="17"/>
       <c r="W83" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X83" s="15"/>
       <c r="Y83" s="15"/>
       <c r="Z83" s="17"/>
       <c r="AA83" s="14" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="AB83" s="15"/>
       <c r="AC83" s="15"/>
@@ -31280,19 +31372,19 @@
         <v>5</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
       <c r="G84" s="13"/>
       <c r="H84" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I84" s="16"/>
       <c r="J84" s="15"/>
       <c r="K84" s="17"/>
       <c r="L84" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M84" s="15"/>
       <c r="N84" s="17"/>
@@ -31305,13 +31397,13 @@
       <c r="U84" s="14"/>
       <c r="V84" s="17"/>
       <c r="W84" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X84" s="15"/>
       <c r="Y84" s="15"/>
       <c r="Z84" s="17"/>
       <c r="AA84" s="14" t="s">
-        <v>147</v>
+        <v>200</v>
       </c>
       <c r="AB84" s="15"/>
       <c r="AC84" s="15"/>
@@ -32421,6 +32513,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
@@ -32437,7 +32530,6 @@
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -32453,208 +32545,210 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863422FC-4285-44E8-BD28-87F4C36B0A11}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="137" workbookViewId="0">
-      <selection activeCell="AA84" sqref="AA84"/>
+    <sheetView topLeftCell="A75" zoomScale="85" workbookViewId="0">
+      <selection activeCell="AA93" sqref="AA93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.6640625" style="1"/>
+    <col min="1" max="20" width="3.6640625" style="1"/>
+    <col min="21" max="21" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="31" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31" t="s">
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="32"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="40"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="33" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="34" t="s">
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="36"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="43"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="33" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33" t="s">
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="37">
+      <c r="X3" s="26"/>
+      <c r="Y3" s="25">
         <v>45453</v>
       </c>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="19" t="s">
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="20"/>
-      <c r="AK3" s="20"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="20"/>
-      <c r="AN3" s="21"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="28"/>
+      <c r="AL3" s="28"/>
+      <c r="AM3" s="28"/>
+      <c r="AN3" s="29"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="22" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23"/>
-      <c r="AI4" s="23"/>
-      <c r="AJ4" s="23"/>
-      <c r="AK4" s="23"/>
-      <c r="AL4" s="23"/>
-      <c r="AM4" s="23"/>
-      <c r="AN4" s="24"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="31"/>
+      <c r="AN4" s="32"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -32747,15 +32841,15 @@
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -32789,15 +32883,15 @@
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -32831,17 +32925,17 @@
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
-      <c r="B10" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
+      <c r="B10" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
@@ -32875,17 +32969,17 @@
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
-      <c r="B11" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
+      <c r="B11" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
@@ -32919,17 +33013,17 @@
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
-      <c r="B12" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
+      <c r="B12" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
@@ -32963,15 +33057,15 @@
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
@@ -33005,15 +33099,15 @@
     </row>
     <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
@@ -33047,15 +33141,15 @@
     </row>
     <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
@@ -33089,15 +33183,15 @@
     </row>
     <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
@@ -33131,15 +33225,15 @@
     </row>
     <row r="17" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
@@ -33173,15 +33267,15 @@
     </row>
     <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
@@ -33215,15 +33309,15 @@
     </row>
     <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
@@ -33257,15 +33351,15 @@
     </row>
     <row r="20" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
@@ -33299,15 +33393,15 @@
     </row>
     <row r="21" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
@@ -33341,15 +33435,15 @@
     </row>
     <row r="22" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
@@ -33383,15 +33477,15 @@
     </row>
     <row r="23" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
@@ -33425,15 +33519,15 @@
     </row>
     <row r="24" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
@@ -33467,15 +33561,15 @@
     </row>
     <row r="25" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
@@ -33509,15 +33603,15 @@
     </row>
     <row r="26" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
@@ -33551,15 +33645,15 @@
     </row>
     <row r="27" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
@@ -33593,15 +33687,15 @@
     </row>
     <row r="28" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
@@ -33635,15 +33729,15 @@
     </row>
     <row r="29" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
@@ -33677,15 +33771,15 @@
     </row>
     <row r="30" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
@@ -33719,15 +33813,15 @@
     </row>
     <row r="31" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
@@ -33761,15 +33855,15 @@
     </row>
     <row r="32" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
@@ -33803,15 +33897,15 @@
     </row>
     <row r="33" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
@@ -33845,15 +33939,15 @@
     </row>
     <row r="34" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
@@ -33887,15 +33981,15 @@
     </row>
     <row r="35" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
@@ -33929,15 +34023,15 @@
     </row>
     <row r="36" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
@@ -33971,15 +34065,15 @@
     </row>
     <row r="37" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
@@ -34013,15 +34107,15 @@
     </row>
     <row r="38" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
@@ -34055,15 +34149,15 @@
     </row>
     <row r="39" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="6"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
@@ -34390,7 +34484,7 @@
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
@@ -34471,7 +34565,7 @@
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="D49" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -34541,7 +34635,7 @@
       <c r="B51" s="6"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="8"/>
@@ -34624,10 +34718,10 @@
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="D53" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="8"/>
@@ -34710,7 +34804,7 @@
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="D55" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -34753,10 +34847,10 @@
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="D56" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="8"/>
@@ -34798,7 +34892,7 @@
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="D57" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -34841,7 +34935,7 @@
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="D58" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -34884,7 +34978,7 @@
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="D59" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -34968,7 +35062,7 @@
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="D61" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -35772,19 +35866,19 @@
         <v>1</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
       <c r="G80" s="13"/>
       <c r="H80" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I80" s="16"/>
       <c r="J80" s="15"/>
       <c r="K80" s="17"/>
       <c r="L80" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M80" s="15"/>
       <c r="N80" s="17"/>
@@ -35797,13 +35891,13 @@
       <c r="U80" s="14"/>
       <c r="V80" s="17"/>
       <c r="W80" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X80" s="15"/>
       <c r="Y80" s="15"/>
       <c r="Z80" s="17"/>
       <c r="AA80" s="14" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="AB80" s="15"/>
       <c r="AC80" s="17"/>
@@ -35826,19 +35920,19 @@
         <v>2</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
       <c r="G81" s="13"/>
       <c r="H81" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I81" s="16"/>
       <c r="J81" s="15"/>
       <c r="K81" s="17"/>
       <c r="L81" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M81" s="15"/>
       <c r="N81" s="17"/>
@@ -35851,13 +35945,13 @@
       <c r="U81" s="14"/>
       <c r="V81" s="17"/>
       <c r="W81" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X81" s="15"/>
       <c r="Y81" s="15"/>
       <c r="Z81" s="17"/>
       <c r="AA81" s="14" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="AB81" s="15"/>
       <c r="AC81" s="17"/>
@@ -35880,19 +35974,19 @@
         <v>3</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
       <c r="G82" s="13"/>
       <c r="H82" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I82" s="16"/>
       <c r="J82" s="15"/>
       <c r="K82" s="17"/>
       <c r="L82" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M82" s="15"/>
       <c r="N82" s="17"/>
@@ -35905,13 +35999,13 @@
       <c r="U82" s="14"/>
       <c r="V82" s="17"/>
       <c r="W82" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X82" s="15"/>
       <c r="Y82" s="15"/>
       <c r="Z82" s="17"/>
       <c r="AA82" s="14" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="AB82" s="15"/>
       <c r="AC82" s="17"/>
@@ -35934,19 +36028,19 @@
         <v>4</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
       <c r="H83" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I83" s="16"/>
       <c r="J83" s="15"/>
       <c r="K83" s="17"/>
       <c r="L83" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M83" s="15"/>
       <c r="N83" s="17"/>
@@ -35959,13 +36053,13 @@
       <c r="U83" s="14"/>
       <c r="V83" s="17"/>
       <c r="W83" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X83" s="15"/>
       <c r="Y83" s="15"/>
       <c r="Z83" s="17"/>
       <c r="AA83" s="14" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="AB83" s="15"/>
       <c r="AC83" s="17"/>
@@ -35988,24 +36082,24 @@
         <v>5</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
       <c r="G84" s="13"/>
       <c r="H84" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I84" s="16"/>
       <c r="J84" s="15"/>
       <c r="K84" s="17"/>
       <c r="L84" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M84" s="15"/>
       <c r="N84" s="17"/>
       <c r="O84" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P84" s="15"/>
       <c r="Q84" s="15"/>
@@ -36015,13 +36109,13 @@
       <c r="U84" s="14"/>
       <c r="V84" s="17"/>
       <c r="W84" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X84" s="15"/>
       <c r="Y84" s="15"/>
       <c r="Z84" s="17"/>
       <c r="AA84" s="14" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="AB84" s="15"/>
       <c r="AC84" s="17"/>
@@ -36044,13 +36138,13 @@
         <v>6</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
       <c r="G85" s="13"/>
       <c r="H85" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I85" s="16"/>
       <c r="J85" s="15"/>
@@ -36061,7 +36155,7 @@
       <c r="M85" s="15"/>
       <c r="N85" s="17"/>
       <c r="O85" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P85" s="15"/>
       <c r="Q85" s="15"/>
@@ -36071,17 +36165,17 @@
       </c>
       <c r="T85" s="17"/>
       <c r="U85" s="14">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="V85" s="17"/>
       <c r="W85" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X85" s="15"/>
       <c r="Y85" s="15"/>
       <c r="Z85" s="17"/>
       <c r="AA85" s="14" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="AB85" s="15"/>
       <c r="AC85" s="17"/>
@@ -36104,19 +36198,19 @@
         <v>7</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
       <c r="G86" s="13"/>
       <c r="H86" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I86" s="16"/>
       <c r="J86" s="15"/>
       <c r="K86" s="17"/>
       <c r="L86" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M86" s="15"/>
       <c r="N86" s="17"/>
@@ -36154,19 +36248,19 @@
         <v>8</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
       <c r="G87" s="13"/>
       <c r="H87" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I87" s="16"/>
       <c r="J87" s="15"/>
       <c r="K87" s="17"/>
       <c r="L87" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M87" s="15"/>
       <c r="N87" s="17"/>
@@ -36204,19 +36298,19 @@
         <v>9</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
       <c r="G88" s="13"/>
       <c r="H88" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I88" s="16"/>
       <c r="J88" s="15"/>
       <c r="K88" s="17"/>
       <c r="L88" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M88" s="15"/>
       <c r="N88" s="17"/>
@@ -36254,19 +36348,19 @@
         <v>10</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
       <c r="G89" s="13"/>
       <c r="H89" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I89" s="16"/>
       <c r="J89" s="15"/>
       <c r="K89" s="17"/>
       <c r="L89" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M89" s="15"/>
       <c r="N89" s="17"/>
@@ -36304,19 +36398,19 @@
         <v>11</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
       <c r="G90" s="13"/>
       <c r="H90" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I90" s="16"/>
       <c r="J90" s="15"/>
       <c r="K90" s="17"/>
       <c r="L90" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M90" s="15"/>
       <c r="N90" s="17"/>
@@ -36336,7 +36430,7 @@
       <c r="AB90" s="15"/>
       <c r="AC90" s="17"/>
       <c r="AD90" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AE90" s="15"/>
       <c r="AF90" s="15"/>
@@ -36356,22 +36450,22 @@
         <v>12</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
       <c r="G91" s="13"/>
       <c r="H91" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I91" s="16"/>
       <c r="J91" s="15"/>
       <c r="L91" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N91" s="17"/>
       <c r="O91" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P91" s="15"/>
       <c r="Q91" s="15"/>
@@ -36383,18 +36477,18 @@
       <c r="U91" s="14"/>
       <c r="V91" s="17"/>
       <c r="W91" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X91" s="15"/>
       <c r="Y91" s="15"/>
       <c r="Z91" s="17"/>
       <c r="AA91" s="14" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="AB91" s="15"/>
       <c r="AC91" s="17"/>
       <c r="AD91" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AE91" s="15"/>
       <c r="AF91" s="15"/>
@@ -36414,24 +36508,24 @@
         <v>13</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E92" s="15"/>
       <c r="F92" s="15"/>
       <c r="G92" s="13"/>
       <c r="H92" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I92" s="16"/>
       <c r="J92" s="15"/>
       <c r="K92" s="17"/>
       <c r="L92" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M92" s="15"/>
       <c r="N92" s="17"/>
       <c r="O92" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P92" s="15"/>
       <c r="Q92" s="15"/>
@@ -36443,18 +36537,18 @@
       <c r="U92" s="14"/>
       <c r="V92" s="17"/>
       <c r="W92" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X92" s="15"/>
       <c r="Y92" s="15"/>
       <c r="Z92" s="17"/>
       <c r="AA92" s="14" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="AB92" s="15"/>
       <c r="AC92" s="17"/>
       <c r="AD92" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AE92" s="15"/>
       <c r="AF92" s="15"/>
@@ -37225,11 +37319,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="N3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
@@ -37242,6 +37331,11 @@
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>

--- a/doc/外部設計書/02_外部設計書_C4.xlsx
+++ b/doc/外部設計書/02_外部設計書_C4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C4\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CEA24A-345D-4A12-B84A-F78EBD1F7BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3217E5DA-DE72-46B5-ACD5-2568D8FF500A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="214">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -1037,25 +1037,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>未読：ボタンを押したら未読の通知が表示される</t>
-    <rPh sb="0" eb="2">
-      <t>ミドク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ミドク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ツウチ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>メンション：ボタンを押したらメンションされた通知を表示</t>
     <rPh sb="10" eb="11">
       <t>オ</t>
@@ -1065,29 +1046,6 @@
     </rPh>
     <rPh sb="25" eb="27">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>リプライ：特定のメッセージを引用してコメントを加える</t>
-    <rPh sb="5" eb="7">
-      <t>トクテイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>インヨウ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>クワ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ポスト：タイムラインのポストを張り付ける</t>
-    <rPh sb="15" eb="16">
-      <t>ハ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ツ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1511,6 +1469,53 @@
     <t>PASSWORD</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>リプライ：特定のメッセージを引用してコメントを見れる</t>
+    <rPh sb="5" eb="7">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>インヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ポスト：TL、チャンネル、DMのポストを張り付ける</t>
+    <rPh sb="20" eb="21">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>　⑥</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>⑦</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>利用規約：会員登録前の利用規約</t>
+    <rPh sb="0" eb="4">
+      <t>リヨウキヤク</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>カイイントウロク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>リヨウキヤク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -1910,30 +1915,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1958,6 +1939,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1966,6 +1950,27 @@
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6154,79 +6159,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAAB8575-6F6E-46B0-BD05-C366773ED7BE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2971800" y="4663440"/>
-          <a:ext cx="975360" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>未読</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6241,7 +6183,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4191000" y="4655820"/>
+          <a:off x="3139440" y="4648200"/>
           <a:ext cx="1013460" cy="259080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6280,14 +6222,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -6304,7 +6246,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5593080" y="4655820"/>
+          <a:off x="4465320" y="4655820"/>
           <a:ext cx="982980" cy="259080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6526,72 +6468,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF029D69-ACE0-4B69-8D7F-23683CECF9F3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5935980" y="4335780"/>
-          <a:ext cx="274320" cy="251460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>④</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
       <xdr:row>30</xdr:row>
@@ -6770,7 +6646,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>⑤</a:t>
+            <a:t>④</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9059,8 +8935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0889AA17-E9C6-4C9B-B205-55683AA59F21}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="85" workbookViewId="0">
-      <selection activeCell="AR85" sqref="AR85"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="R55" sqref="R55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9069,198 +8945,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="39" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="40"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="32"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="26" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26" t="s">
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26" t="s">
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="41" t="s">
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="43"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="36"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="26" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26" t="s">
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="25">
+      <c r="X3" s="33"/>
+      <c r="Y3" s="37">
         <v>45450</v>
       </c>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="27" t="s">
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="28"/>
-      <c r="AI3" s="28"/>
-      <c r="AJ3" s="28"/>
-      <c r="AK3" s="28"/>
-      <c r="AL3" s="28"/>
-      <c r="AM3" s="28"/>
-      <c r="AN3" s="29"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="39"/>
+      <c r="AJ3" s="39"/>
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="40"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="30" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="31"/>
-      <c r="AN4" s="32"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
+      <c r="AG4" s="42"/>
+      <c r="AH4" s="42"/>
+      <c r="AI4" s="42"/>
+      <c r="AJ4" s="42"/>
+      <c r="AK4" s="42"/>
+      <c r="AL4" s="42"/>
+      <c r="AM4" s="42"/>
+      <c r="AN4" s="43"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -12361,7 +12237,7 @@
       <c r="Y80" s="15"/>
       <c r="Z80" s="17"/>
       <c r="AA80" s="14" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AB80" s="15"/>
       <c r="AC80" s="17"/>
@@ -12417,7 +12293,7 @@
       <c r="Y81" s="15"/>
       <c r="Z81" s="17"/>
       <c r="AA81" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AB81" s="15"/>
       <c r="AC81" s="17"/>
@@ -13681,6 +13557,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:AN1"/>
@@ -13697,7 +13574,6 @@
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:AN4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -13713,8 +13589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5529EB6-548D-4ECA-B4FA-CE7D1A5BAFF6}">
   <dimension ref="A1:AN112"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" zoomScale="105" workbookViewId="0">
-      <selection activeCell="AA83" sqref="AA83"/>
+    <sheetView topLeftCell="A50" zoomScale="105" workbookViewId="0">
+      <selection activeCell="R63" sqref="R63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13723,200 +13599,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="39" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="40"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="32"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="26" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26" t="s">
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26" t="s">
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="41" t="s">
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="43"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="36"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="26" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26" t="s">
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26" t="s">
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="25">
+      <c r="X3" s="33"/>
+      <c r="Y3" s="37">
         <v>45450</v>
       </c>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="27" t="s">
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="28"/>
-      <c r="AI3" s="28"/>
-      <c r="AJ3" s="28"/>
-      <c r="AK3" s="28"/>
-      <c r="AL3" s="28"/>
-      <c r="AM3" s="28"/>
-      <c r="AN3" s="29"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="39"/>
+      <c r="AJ3" s="39"/>
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="40"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="30" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="31"/>
-      <c r="AN4" s="32"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
+      <c r="AG4" s="42"/>
+      <c r="AH4" s="42"/>
+      <c r="AI4" s="42"/>
+      <c r="AJ4" s="42"/>
+      <c r="AK4" s="42"/>
+      <c r="AL4" s="42"/>
+      <c r="AM4" s="42"/>
+      <c r="AN4" s="43"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -15725,7 +15601,6 @@
       <c r="R50" s="8"/>
       <c r="S50" s="8"/>
       <c r="T50" s="8"/>
-      <c r="U50" s="8"/>
       <c r="V50" s="8"/>
       <c r="W50" s="8"/>
       <c r="X50" s="8"/>
@@ -15749,11 +15624,10 @@
     <row r="51" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F51" s="2"/>
+      <c r="D51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
@@ -15769,9 +15643,6 @@
       <c r="S51" s="8"/>
       <c r="T51" s="8"/>
       <c r="U51" s="8"/>
-      <c r="V51" s="8"/>
-      <c r="W51" s="8"/>
-      <c r="X51" s="8"/>
       <c r="Y51" s="8"/>
       <c r="Z51" s="8"/>
       <c r="AA51" s="8"/>
@@ -15792,11 +15663,7 @@
     <row r="52" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F52" s="2"/>
+      <c r="E52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
@@ -15812,9 +15679,6 @@
       <c r="S52" s="8"/>
       <c r="T52" s="8"/>
       <c r="U52" s="8"/>
-      <c r="V52" s="8"/>
-      <c r="W52" s="8"/>
-      <c r="X52" s="8"/>
       <c r="Y52" s="8"/>
       <c r="Z52" s="8"/>
       <c r="AA52" s="8"/>
@@ -15835,10 +15699,8 @@
     <row r="53" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2" t="s">
-        <v>36</v>
+      <c r="E53" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
@@ -15855,9 +15717,6 @@
       <c r="S53" s="8"/>
       <c r="T53" s="8"/>
       <c r="U53" s="8"/>
-      <c r="V53" s="8"/>
-      <c r="W53" s="8"/>
-      <c r="X53" s="8"/>
       <c r="Y53" s="8"/>
       <c r="Z53" s="8"/>
       <c r="AA53" s="8"/>
@@ -15878,11 +15737,6 @@
     <row r="54" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F54" s="2"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
@@ -15898,9 +15752,6 @@
       <c r="S54" s="8"/>
       <c r="T54" s="8"/>
       <c r="U54" s="8"/>
-      <c r="V54" s="8"/>
-      <c r="W54" s="8"/>
-      <c r="X54" s="8"/>
       <c r="Y54" s="8"/>
       <c r="Z54" s="8"/>
       <c r="AA54" s="8"/>
@@ -15921,11 +15772,13 @@
     <row r="55" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="D55" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" s="2"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
@@ -15941,9 +15794,6 @@
       <c r="S55" s="8"/>
       <c r="T55" s="8"/>
       <c r="U55" s="8"/>
-      <c r="V55" s="8"/>
-      <c r="W55" s="8"/>
-      <c r="X55" s="8"/>
       <c r="Y55" s="8"/>
       <c r="Z55" s="8"/>
       <c r="AA55" s="8"/>
@@ -15966,7 +15816,7 @@
       <c r="B56" s="6"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="8"/>
@@ -15984,9 +15834,6 @@
       <c r="S56" s="2"/>
       <c r="T56" s="8"/>
       <c r="U56" s="8"/>
-      <c r="V56" s="8"/>
-      <c r="W56" s="8"/>
-      <c r="X56" s="8"/>
       <c r="Y56" s="8"/>
       <c r="Z56" s="8"/>
       <c r="AA56" s="8"/>
@@ -16010,7 +15857,7 @@
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
@@ -16027,9 +15874,6 @@
       <c r="S57" s="2"/>
       <c r="T57" s="8"/>
       <c r="U57" s="8"/>
-      <c r="V57" s="8"/>
-      <c r="W57" s="8"/>
-      <c r="X57" s="8"/>
       <c r="Y57" s="8"/>
       <c r="Z57" s="8"/>
       <c r="AA57" s="8"/>
@@ -16051,7 +15895,9 @@
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
+      <c r="E58" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="F58" s="2"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
@@ -16068,9 +15914,6 @@
       <c r="S58" s="2"/>
       <c r="T58" s="8"/>
       <c r="U58" s="8"/>
-      <c r="V58" s="8"/>
-      <c r="W58" s="8"/>
-      <c r="X58" s="8"/>
       <c r="Y58" s="8"/>
       <c r="Z58" s="8"/>
       <c r="AA58" s="8"/>
@@ -16092,7 +15935,10 @@
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="D59" s="2"/>
-      <c r="F59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
@@ -16108,9 +15954,6 @@
       <c r="S59" s="8"/>
       <c r="T59" s="8"/>
       <c r="U59" s="8"/>
-      <c r="V59" s="8"/>
-      <c r="W59" s="8"/>
-      <c r="X59" s="8"/>
       <c r="Y59" s="8"/>
       <c r="Z59" s="8"/>
       <c r="AA59" s="8"/>
@@ -16133,7 +15976,7 @@
       <c r="B60" s="6"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="8"/>
@@ -16151,9 +15994,6 @@
       <c r="S60" s="8"/>
       <c r="T60" s="8"/>
       <c r="U60" s="8"/>
-      <c r="V60" s="8"/>
-      <c r="W60" s="8"/>
-      <c r="X60" s="8"/>
       <c r="Y60" s="8"/>
       <c r="Z60" s="8"/>
       <c r="AA60" s="8"/>
@@ -16175,10 +16015,10 @@
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
@@ -16194,9 +16034,6 @@
       <c r="S61" s="8"/>
       <c r="T61" s="8"/>
       <c r="U61" s="8"/>
-      <c r="V61" s="8"/>
-      <c r="W61" s="8"/>
-      <c r="X61" s="8"/>
       <c r="Y61" s="8"/>
       <c r="Z61" s="8"/>
       <c r="AA61" s="8"/>
@@ -16259,7 +16096,6 @@
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
@@ -16299,8 +16135,11 @@
     <row r="64" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F64" s="2"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
       <c r="I64" s="8"/>
@@ -16339,11 +16178,11 @@
     <row r="65" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
-      <c r="D65" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F65" s="2"/>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
       <c r="I65" s="8"/>
@@ -16382,7 +16221,6 @@
     <row r="66" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
-      <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
@@ -16422,8 +16260,11 @@
     <row r="67" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
-      <c r="E67" s="8" t="s">
-        <v>54</v>
+      <c r="D67" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
@@ -17016,7 +16857,7 @@
       <c r="Y80" s="15"/>
       <c r="Z80" s="17"/>
       <c r="AA80" s="14" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AB80" s="15"/>
       <c r="AC80" s="17"/>
@@ -17072,7 +16913,7 @@
       <c r="Y81" s="15"/>
       <c r="Z81" s="17"/>
       <c r="AA81" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AB81" s="15"/>
       <c r="AC81" s="17"/>
@@ -17128,7 +16969,7 @@
       <c r="Y82" s="15"/>
       <c r="Z82" s="17"/>
       <c r="AA82" s="14" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AB82" s="15"/>
       <c r="AC82" s="17"/>
@@ -18403,6 +18244,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:AN1"/>
@@ -18419,7 +18261,6 @@
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:AN4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -18445,200 +18286,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="39" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="40"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="32"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="26" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26" t="s">
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26" t="s">
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="41" t="s">
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="43"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="36"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="26" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26" t="s">
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26" t="s">
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="25">
+      <c r="X3" s="33"/>
+      <c r="Y3" s="37">
         <v>45453</v>
       </c>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="27" t="s">
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="28"/>
-      <c r="AI3" s="28"/>
-      <c r="AJ3" s="28"/>
-      <c r="AK3" s="28"/>
-      <c r="AL3" s="28"/>
-      <c r="AM3" s="28"/>
-      <c r="AN3" s="29"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="39"/>
+      <c r="AJ3" s="39"/>
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="40"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="30" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="31"/>
-      <c r="AN4" s="32"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
+      <c r="AG4" s="42"/>
+      <c r="AH4" s="42"/>
+      <c r="AI4" s="42"/>
+      <c r="AJ4" s="42"/>
+      <c r="AK4" s="42"/>
+      <c r="AL4" s="42"/>
+      <c r="AM4" s="42"/>
+      <c r="AN4" s="43"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -21779,7 +21620,7 @@
       <c r="Y80" s="15"/>
       <c r="Z80" s="17"/>
       <c r="AA80" s="14" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AB80" s="15"/>
       <c r="AC80" s="17"/>
@@ -21839,7 +21680,7 @@
       <c r="Y81" s="15"/>
       <c r="Z81" s="17"/>
       <c r="AA81" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AB81" s="15"/>
       <c r="AC81" s="17"/>
@@ -21893,7 +21734,7 @@
       <c r="Y82" s="15"/>
       <c r="Z82" s="17"/>
       <c r="AA82" s="14" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AB82" s="15"/>
       <c r="AC82" s="17"/>
@@ -21953,7 +21794,7 @@
       <c r="Y83" s="15"/>
       <c r="Z83" s="17"/>
       <c r="AA83" s="14" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AB83" s="15"/>
       <c r="AC83" s="17"/>
@@ -22009,7 +21850,7 @@
       <c r="Y84" s="15"/>
       <c r="Z84" s="17"/>
       <c r="AA84" s="14" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AB84" s="15"/>
       <c r="AC84" s="17"/>
@@ -22065,7 +21906,7 @@
       <c r="Y85" s="15"/>
       <c r="Z85" s="17"/>
       <c r="AA85" s="14" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AB85" s="15"/>
       <c r="AC85" s="17"/>
@@ -23149,11 +22990,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:AN1"/>
@@ -23166,6 +23002,11 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AN3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:AN4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -23181,7 +23022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA384EF-9747-46FC-8D82-DC4465294D64}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="AA84" sqref="AA84"/>
     </sheetView>
   </sheetViews>
@@ -23191,200 +23032,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="39" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="40"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="32"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="26" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26" t="s">
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26" t="s">
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="41" t="s">
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="43"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="36"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="26" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26" t="s">
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26" t="s">
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="25">
+      <c r="X3" s="33"/>
+      <c r="Y3" s="37">
         <v>45453</v>
       </c>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="27" t="s">
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="28"/>
-      <c r="AI3" s="28"/>
-      <c r="AJ3" s="28"/>
-      <c r="AK3" s="28"/>
-      <c r="AL3" s="28"/>
-      <c r="AM3" s="28"/>
-      <c r="AN3" s="29"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="39"/>
+      <c r="AJ3" s="39"/>
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="40"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="30" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="31"/>
-      <c r="AN4" s="32"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
+      <c r="AG4" s="42"/>
+      <c r="AH4" s="42"/>
+      <c r="AI4" s="42"/>
+      <c r="AJ4" s="42"/>
+      <c r="AK4" s="42"/>
+      <c r="AL4" s="42"/>
+      <c r="AM4" s="42"/>
+      <c r="AN4" s="43"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -26501,7 +26342,7 @@
       <c r="Y80" s="15"/>
       <c r="Z80" s="17"/>
       <c r="AA80" s="14" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AB80" s="15"/>
       <c r="AC80" s="17"/>
@@ -26561,7 +26402,7 @@
       <c r="Y81" s="15"/>
       <c r="Z81" s="17"/>
       <c r="AA81" s="14" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AB81" s="15"/>
       <c r="AC81" s="17"/>
@@ -26671,7 +26512,7 @@
       <c r="Y83" s="15"/>
       <c r="Z83" s="17"/>
       <c r="AA83" s="14" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AB83" s="15"/>
       <c r="AC83" s="17"/>
@@ -27823,6 +27664,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
@@ -27839,7 +27681,6 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -27855,8 +27696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E42117-F9D3-420F-8EC6-2063C6EB37EA}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="AA84" sqref="AA84"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="AD50" sqref="AD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -27865,200 +27706,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="39" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="40"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="32"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="26" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26" t="s">
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26" t="s">
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="41" t="s">
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="43"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="36"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="26" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26" t="s">
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26" t="s">
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="25">
+      <c r="X3" s="33"/>
+      <c r="Y3" s="37">
         <v>45453</v>
       </c>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="27" t="s">
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="28"/>
-      <c r="AI3" s="28"/>
-      <c r="AJ3" s="28"/>
-      <c r="AK3" s="28"/>
-      <c r="AL3" s="28"/>
-      <c r="AM3" s="28"/>
-      <c r="AN3" s="29"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="39"/>
+      <c r="AJ3" s="39"/>
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="40"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="30" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="31"/>
-      <c r="AN4" s="32"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
+      <c r="AG4" s="42"/>
+      <c r="AH4" s="42"/>
+      <c r="AI4" s="42"/>
+      <c r="AJ4" s="42"/>
+      <c r="AK4" s="42"/>
+      <c r="AL4" s="42"/>
+      <c r="AM4" s="42"/>
+      <c r="AN4" s="43"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -30130,6 +29971,12 @@
     <row r="56" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
+      <c r="C56" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
@@ -30170,12 +30017,6 @@
     <row r="57" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
@@ -30216,6 +30057,12 @@
     <row r="58" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
+      <c r="C58" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>210</v>
+      </c>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
@@ -30256,12 +30103,6 @@
     <row r="59" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
-      <c r="C59" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
@@ -30342,12 +30183,6 @@
     <row r="61" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
-      <c r="C61" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
@@ -31148,13 +30983,13 @@
         <v>1</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
       <c r="G80" s="13"/>
       <c r="H80" s="14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I80" s="16"/>
       <c r="J80" s="15"/>
@@ -31175,13 +31010,13 @@
       <c r="U80" s="14"/>
       <c r="V80" s="17"/>
       <c r="W80" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="X80" s="15"/>
       <c r="Y80" s="15"/>
       <c r="Z80" s="17"/>
       <c r="AA80" s="14" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AB80" s="15"/>
       <c r="AC80" s="15"/>
@@ -31204,13 +31039,13 @@
         <v>2</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
       <c r="G81" s="13"/>
       <c r="H81" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I81" s="16"/>
       <c r="J81" s="15"/>
@@ -31231,13 +31066,13 @@
       <c r="U81" s="14"/>
       <c r="V81" s="17"/>
       <c r="W81" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="X81" s="15"/>
       <c r="Y81" s="15"/>
       <c r="Z81" s="17"/>
       <c r="AA81" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AB81" s="15"/>
       <c r="AC81" s="15"/>
@@ -31260,13 +31095,13 @@
         <v>3</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
       <c r="G82" s="13"/>
       <c r="H82" s="14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I82" s="16"/>
       <c r="J82" s="15"/>
@@ -31287,13 +31122,13 @@
       <c r="U82" s="14"/>
       <c r="V82" s="17"/>
       <c r="W82" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="X82" s="15"/>
       <c r="Y82" s="15"/>
       <c r="Z82" s="17"/>
       <c r="AA82" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AB82" s="15"/>
       <c r="AC82" s="15"/>
@@ -31316,13 +31151,13 @@
         <v>4</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
       <c r="H83" s="14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I83" s="16"/>
       <c r="J83" s="15"/>
@@ -31343,13 +31178,13 @@
       <c r="U83" s="14"/>
       <c r="V83" s="17"/>
       <c r="W83" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="X83" s="15"/>
       <c r="Y83" s="15"/>
       <c r="Z83" s="17"/>
       <c r="AA83" s="14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AB83" s="15"/>
       <c r="AC83" s="15"/>
@@ -31372,13 +31207,13 @@
         <v>5</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
       <c r="G84" s="13"/>
       <c r="H84" s="14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I84" s="16"/>
       <c r="J84" s="15"/>
@@ -31397,13 +31232,13 @@
       <c r="U84" s="14"/>
       <c r="V84" s="17"/>
       <c r="W84" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="X84" s="15"/>
       <c r="Y84" s="15"/>
       <c r="Z84" s="17"/>
       <c r="AA84" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AB84" s="15"/>
       <c r="AC84" s="15"/>
@@ -32513,6 +32348,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
@@ -32529,7 +32365,6 @@
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -32545,7 +32380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863422FC-4285-44E8-BD28-87F4C36B0A11}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" zoomScale="85" workbookViewId="0">
+    <sheetView topLeftCell="A42" zoomScale="85" workbookViewId="0">
       <selection activeCell="AA93" sqref="AA93"/>
     </sheetView>
   </sheetViews>
@@ -32557,198 +32392,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="39" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="40"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="32"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="26" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="41" t="s">
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="43"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="36"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="26" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26" t="s">
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="25">
+      <c r="X3" s="33"/>
+      <c r="Y3" s="37">
         <v>45453</v>
       </c>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="27" t="s">
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="28"/>
-      <c r="AI3" s="28"/>
-      <c r="AJ3" s="28"/>
-      <c r="AK3" s="28"/>
-      <c r="AL3" s="28"/>
-      <c r="AM3" s="28"/>
-      <c r="AN3" s="29"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="39"/>
+      <c r="AJ3" s="39"/>
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="40"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="30" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="31"/>
-      <c r="AN4" s="32"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
+      <c r="AG4" s="42"/>
+      <c r="AH4" s="42"/>
+      <c r="AI4" s="42"/>
+      <c r="AJ4" s="42"/>
+      <c r="AK4" s="42"/>
+      <c r="AL4" s="42"/>
+      <c r="AM4" s="42"/>
+      <c r="AN4" s="43"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -32926,7 +32761,7 @@
     <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="19" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
@@ -33014,7 +32849,7 @@
     <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="19" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
@@ -34484,7 +34319,7 @@
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
@@ -34565,7 +34400,7 @@
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="D49" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -34635,7 +34470,7 @@
       <c r="B51" s="6"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="8"/>
@@ -34721,7 +34556,7 @@
         <v>79</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="8"/>
@@ -34804,7 +34639,7 @@
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="D55" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -34850,7 +34685,7 @@
         <v>84</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="8"/>
@@ -34892,7 +34727,7 @@
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="D57" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -34935,7 +34770,7 @@
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="D58" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -34978,7 +34813,7 @@
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="D59" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -35062,7 +34897,7 @@
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="D61" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -35866,13 +35701,13 @@
         <v>1</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
       <c r="G80" s="13"/>
       <c r="H80" s="14" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I80" s="16"/>
       <c r="J80" s="15"/>
@@ -35891,13 +35726,13 @@
       <c r="U80" s="14"/>
       <c r="V80" s="17"/>
       <c r="W80" s="14" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="X80" s="15"/>
       <c r="Y80" s="15"/>
       <c r="Z80" s="17"/>
       <c r="AA80" s="14" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AB80" s="15"/>
       <c r="AC80" s="17"/>
@@ -35920,13 +35755,13 @@
         <v>2</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
       <c r="G81" s="13"/>
       <c r="H81" s="14" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I81" s="16"/>
       <c r="J81" s="15"/>
@@ -35945,13 +35780,13 @@
       <c r="U81" s="14"/>
       <c r="V81" s="17"/>
       <c r="W81" s="14" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="X81" s="15"/>
       <c r="Y81" s="15"/>
       <c r="Z81" s="17"/>
       <c r="AA81" s="14" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AB81" s="15"/>
       <c r="AC81" s="17"/>
@@ -35974,7 +35809,7 @@
         <v>3</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
@@ -35999,13 +35834,13 @@
       <c r="U82" s="14"/>
       <c r="V82" s="17"/>
       <c r="W82" s="14" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="X82" s="15"/>
       <c r="Y82" s="15"/>
       <c r="Z82" s="17"/>
       <c r="AA82" s="14" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AB82" s="15"/>
       <c r="AC82" s="17"/>
@@ -36028,13 +35863,13 @@
         <v>4</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
       <c r="H83" s="14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I83" s="16"/>
       <c r="J83" s="15"/>
@@ -36053,13 +35888,13 @@
       <c r="U83" s="14"/>
       <c r="V83" s="17"/>
       <c r="W83" s="14" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="X83" s="15"/>
       <c r="Y83" s="15"/>
       <c r="Z83" s="17"/>
       <c r="AA83" s="14" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AB83" s="15"/>
       <c r="AC83" s="17"/>
@@ -36082,13 +35917,13 @@
         <v>5</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
       <c r="G84" s="13"/>
       <c r="H84" s="14" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I84" s="16"/>
       <c r="J84" s="15"/>
@@ -36109,13 +35944,13 @@
       <c r="U84" s="14"/>
       <c r="V84" s="17"/>
       <c r="W84" s="14" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="X84" s="15"/>
       <c r="Y84" s="15"/>
       <c r="Z84" s="17"/>
       <c r="AA84" s="14" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AB84" s="15"/>
       <c r="AC84" s="17"/>
@@ -36138,13 +35973,13 @@
         <v>6</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
       <c r="G85" s="13"/>
       <c r="H85" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I85" s="16"/>
       <c r="J85" s="15"/>
@@ -36169,13 +36004,13 @@
       </c>
       <c r="V85" s="17"/>
       <c r="W85" s="14" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="X85" s="15"/>
       <c r="Y85" s="15"/>
       <c r="Z85" s="17"/>
       <c r="AA85" s="14" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AB85" s="15"/>
       <c r="AC85" s="17"/>
@@ -36198,13 +36033,13 @@
         <v>7</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
       <c r="G86" s="13"/>
       <c r="H86" s="14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I86" s="16"/>
       <c r="J86" s="15"/>
@@ -36248,13 +36083,13 @@
         <v>8</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
       <c r="G87" s="13"/>
       <c r="H87" s="14" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I87" s="16"/>
       <c r="J87" s="15"/>
@@ -36298,7 +36133,7 @@
         <v>9</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
@@ -36348,13 +36183,13 @@
         <v>10</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
       <c r="G89" s="13"/>
       <c r="H89" s="14" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I89" s="16"/>
       <c r="J89" s="15"/>
@@ -36398,13 +36233,13 @@
         <v>11</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
       <c r="G90" s="13"/>
       <c r="H90" s="14" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I90" s="16"/>
       <c r="J90" s="15"/>
@@ -36430,7 +36265,7 @@
       <c r="AB90" s="15"/>
       <c r="AC90" s="17"/>
       <c r="AD90" s="14" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AE90" s="15"/>
       <c r="AF90" s="15"/>
@@ -36450,13 +36285,13 @@
         <v>12</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
       <c r="G91" s="13"/>
       <c r="H91" s="14" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I91" s="16"/>
       <c r="J91" s="15"/>
@@ -36477,18 +36312,18 @@
       <c r="U91" s="14"/>
       <c r="V91" s="17"/>
       <c r="W91" s="14" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="X91" s="15"/>
       <c r="Y91" s="15"/>
       <c r="Z91" s="17"/>
       <c r="AA91" s="14" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AB91" s="15"/>
       <c r="AC91" s="17"/>
       <c r="AD91" s="14" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AE91" s="15"/>
       <c r="AF91" s="15"/>
@@ -36508,13 +36343,13 @@
         <v>13</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E92" s="15"/>
       <c r="F92" s="15"/>
       <c r="G92" s="13"/>
       <c r="H92" s="14" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I92" s="16"/>
       <c r="J92" s="15"/>
@@ -36537,18 +36372,18 @@
       <c r="U92" s="14"/>
       <c r="V92" s="17"/>
       <c r="W92" s="14" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="X92" s="15"/>
       <c r="Y92" s="15"/>
       <c r="Z92" s="17"/>
       <c r="AA92" s="14" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AB92" s="15"/>
       <c r="AC92" s="17"/>
       <c r="AD92" s="14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AE92" s="15"/>
       <c r="AF92" s="15"/>
@@ -37319,6 +37154,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
@@ -37335,7 +37171,6 @@
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>

--- a/doc/外部設計書/02_外部設計書_C4.xlsx
+++ b/doc/外部設計書/02_外部設計書_C4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C4\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3217E5DA-DE72-46B5-ACD5-2568D8FF500A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30CE34ED-EB3F-450D-AFC0-733FD0BB7335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン " sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="215">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -1516,6 +1516,13 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>③確認用パスワード</t>
+    <rPh sb="1" eb="4">
+      <t>カクニンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -1915,6 +1922,15 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1962,15 +1978,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2769,15 +2776,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>17864</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>170719</xdr:rowOff>
+      <xdr:colOff>46892</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>69119</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:colOff>232228</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>7257</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2792,8 +2799,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3789764" y="4361719"/>
-          <a:ext cx="1191176" cy="509638"/>
+          <a:off x="3856892" y="4597576"/>
+          <a:ext cx="1201336" cy="504195"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3452,11 +3459,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>87086</xdr:colOff>
+      <xdr:colOff>145143</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>114527</xdr:rowOff>
+      <xdr:rowOff>70984</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="586856" cy="792525"/>
+    <xdr:ext cx="551543" cy="792525"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="テキスト ボックス 9">
@@ -3470,8 +3477,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3356066" y="3924527"/>
-          <a:ext cx="586856" cy="792525"/>
+          <a:off x="3447143" y="3844698"/>
+          <a:ext cx="551543" cy="792525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3515,10 +3522,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>250372</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>75495</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>32658</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>111781</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="543739" cy="792525"/>
     <xdr:sp macro="" textlink="">
@@ -3534,7 +3541,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5028112" y="3885495"/>
+          <a:off x="3334658" y="4451552"/>
           <a:ext cx="543739" cy="792525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3579,10 +3586,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>94294</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>138044</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>28980</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>101759</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="543739" cy="792525"/>
     <xdr:sp macro="" textlink="">
@@ -3598,7 +3605,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3363274" y="5091044"/>
+          <a:off x="6378980" y="4441530"/>
           <a:ext cx="543739" cy="792525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3644,15 +3651,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>250931</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>178080</xdr:rowOff>
+      <xdr:colOff>207388</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>69223</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>166915</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>210457</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>58058</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3667,8 +3674,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4022831" y="3607080"/>
-          <a:ext cx="2263669" cy="369835"/>
+          <a:off x="4017388" y="4031623"/>
+          <a:ext cx="2289069" cy="366206"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3736,15 +3743,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>7258</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>23447</xdr:rowOff>
+      <xdr:colOff>14515</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>59733</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>40751</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>123372</xdr:rowOff>
+      <xdr:colOff>48008</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>159658</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3759,8 +3766,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5287918" y="4404947"/>
-          <a:ext cx="1039333" cy="480925"/>
+          <a:off x="5348515" y="4588190"/>
+          <a:ext cx="1049493" cy="477297"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3812,9 +3819,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>66294</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>166044</xdr:rowOff>
+      <xdr:colOff>15494</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>107987</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="543739" cy="792525"/>
     <xdr:sp macro="" textlink="">
@@ -3830,7 +3837,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3335274" y="5690544"/>
+          <a:off x="3317494" y="5013816"/>
           <a:ext cx="543739" cy="792525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3867,6 +3874,162 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>⑦</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>239485</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>145142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>242554</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133977</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9E718B8-4BF0-46A4-88EE-97B885755569}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4049485" y="3541485"/>
+          <a:ext cx="2289069" cy="366206"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>確認パスワード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="551543" cy="792525"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{215F8D0C-72C0-4842-A5CF-6C126300BF81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3302000" y="5624286"/>
+          <a:ext cx="551543" cy="792525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>⑧</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4191,8 +4354,8 @@
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
@@ -4210,7 +4373,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5410200" y="2369820"/>
-          <a:ext cx="1089660" cy="556260"/>
+          <a:ext cx="525780" cy="556260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5981,8 +6144,8 @@
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
@@ -6000,7 +6163,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1211580" y="4503420"/>
-          <a:ext cx="6286500" cy="2872740"/>
+          <a:ext cx="5356860" cy="2872740"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8935,7 +9098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0889AA17-E9C6-4C9B-B205-55683AA59F21}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
       <selection activeCell="R55" sqref="R55"/>
     </sheetView>
   </sheetViews>
@@ -8945,198 +9108,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="31" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31" t="s">
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="32"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="35"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="33" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33" t="s">
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33" t="s">
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33" t="s">
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="34" t="s">
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="36"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="39"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="33" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33" t="s">
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="37">
+      <c r="X3" s="36"/>
+      <c r="Y3" s="40">
         <v>45450</v>
       </c>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="38" t="s">
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="39"/>
-      <c r="AJ3" s="39"/>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="39"/>
-      <c r="AN3" s="40"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="43"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="41" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="42"/>
-      <c r="AH4" s="42"/>
-      <c r="AI4" s="42"/>
-      <c r="AJ4" s="42"/>
-      <c r="AK4" s="42"/>
-      <c r="AL4" s="42"/>
-      <c r="AM4" s="42"/>
-      <c r="AN4" s="43"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="26"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="26"/>
+      <c r="AM4" s="26"/>
+      <c r="AN4" s="27"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -13557,6 +13720,8 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AH3:AN3"/>
+    <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="K1:M1"/>
@@ -13572,8 +13737,6 @@
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
-    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -13589,8 +13752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5529EB6-548D-4ECA-B4FA-CE7D1A5BAFF6}">
   <dimension ref="A1:AN112"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScale="105" workbookViewId="0">
-      <selection activeCell="R63" sqref="R63"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="105" workbookViewId="0">
+      <selection activeCell="P49" sqref="P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13599,200 +13762,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="31" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31" t="s">
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="32"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="35"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="33" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33" t="s">
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33" t="s">
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33" t="s">
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="34" t="s">
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="36"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="39"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="33" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33" t="s">
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33" t="s">
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="37">
+      <c r="X3" s="36"/>
+      <c r="Y3" s="40">
         <v>45450</v>
       </c>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="38" t="s">
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="39"/>
-      <c r="AJ3" s="39"/>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="39"/>
-      <c r="AN3" s="40"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="43"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="41" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="42"/>
-      <c r="AH4" s="42"/>
-      <c r="AI4" s="42"/>
-      <c r="AJ4" s="42"/>
-      <c r="AK4" s="42"/>
-      <c r="AL4" s="42"/>
-      <c r="AM4" s="42"/>
-      <c r="AN4" s="43"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="26"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="26"/>
+      <c r="AM4" s="26"/>
+      <c r="AN4" s="27"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -15515,7 +15678,9 @@
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
+      <c r="D48" s="8" t="s">
+        <v>214</v>
+      </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
@@ -18244,6 +18409,8 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AH3:AN3"/>
+    <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="K1:M1"/>
@@ -18259,8 +18426,6 @@
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
-    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -18276,8 +18441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782D64D3-14EE-471A-BA36-00313CDDC2C0}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="AA86" sqref="AA86"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="AG21" sqref="AG21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18286,200 +18451,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="31" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31" t="s">
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="32"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="35"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="33" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33" t="s">
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33" t="s">
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33" t="s">
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="34" t="s">
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="36"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="39"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="33" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33" t="s">
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33" t="s">
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="37">
+      <c r="X3" s="36"/>
+      <c r="Y3" s="40">
         <v>45453</v>
       </c>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="38" t="s">
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="39"/>
-      <c r="AJ3" s="39"/>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="39"/>
-      <c r="AN3" s="40"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="43"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="41" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="42"/>
-      <c r="AH4" s="42"/>
-      <c r="AI4" s="42"/>
-      <c r="AJ4" s="42"/>
-      <c r="AK4" s="42"/>
-      <c r="AL4" s="42"/>
-      <c r="AM4" s="42"/>
-      <c r="AN4" s="43"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="26"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="26"/>
+      <c r="AM4" s="26"/>
+      <c r="AN4" s="27"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -22990,6 +23155,8 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:AN1"/>
@@ -23005,8 +23172,6 @@
     <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:AN4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -23022,8 +23187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA384EF-9747-46FC-8D82-DC4465294D64}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AA84" sqref="AA84"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -23032,200 +23197,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="31" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31" t="s">
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="32"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="35"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="33" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33" t="s">
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33" t="s">
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33" t="s">
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="34" t="s">
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="36"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="39"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="33" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33" t="s">
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33" t="s">
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="37">
+      <c r="X3" s="36"/>
+      <c r="Y3" s="40">
         <v>45453</v>
       </c>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="38" t="s">
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="39"/>
-      <c r="AJ3" s="39"/>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="39"/>
-      <c r="AN3" s="40"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="43"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="41" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="42"/>
-      <c r="AH4" s="42"/>
-      <c r="AI4" s="42"/>
-      <c r="AJ4" s="42"/>
-      <c r="AK4" s="42"/>
-      <c r="AL4" s="42"/>
-      <c r="AM4" s="42"/>
-      <c r="AN4" s="43"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="26"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="26"/>
+      <c r="AM4" s="26"/>
+      <c r="AN4" s="27"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -27664,10 +27829,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
-    <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="K1:M1"/>
@@ -27681,6 +27842,10 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AN3"/>
+    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -27696,8 +27861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E42117-F9D3-420F-8EC6-2063C6EB37EA}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="AD50" sqref="AD50"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -27706,200 +27871,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="31" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31" t="s">
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="32"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="35"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="33" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33" t="s">
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33" t="s">
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33" t="s">
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="34" t="s">
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="36"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="39"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="33" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33" t="s">
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33" t="s">
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="37">
+      <c r="X3" s="36"/>
+      <c r="Y3" s="40">
         <v>45453</v>
       </c>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="38" t="s">
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="39"/>
-      <c r="AJ3" s="39"/>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="39"/>
-      <c r="AN3" s="40"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="43"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="41" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="42"/>
-      <c r="AH4" s="42"/>
-      <c r="AI4" s="42"/>
-      <c r="AJ4" s="42"/>
-      <c r="AK4" s="42"/>
-      <c r="AL4" s="42"/>
-      <c r="AM4" s="42"/>
-      <c r="AN4" s="43"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="26"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="26"/>
+      <c r="AM4" s="26"/>
+      <c r="AN4" s="27"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -32348,10 +32513,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:AN1"/>
@@ -32365,6 +32526,10 @@
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AN3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:AN4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -32380,7 +32545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863422FC-4285-44E8-BD28-87F4C36B0A11}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="85" workbookViewId="0">
+    <sheetView zoomScale="85" workbookViewId="0">
       <selection activeCell="AA93" sqref="AA93"/>
     </sheetView>
   </sheetViews>
@@ -32392,198 +32557,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="31" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31" t="s">
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="32"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="35"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="33" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33" t="s">
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33" t="s">
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33" t="s">
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="34" t="s">
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="36"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="39"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="33" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33" t="s">
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="37">
+      <c r="X3" s="36"/>
+      <c r="Y3" s="40">
         <v>45453</v>
       </c>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="38" t="s">
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="39"/>
-      <c r="AJ3" s="39"/>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="39"/>
-      <c r="AN3" s="40"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="43"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="41" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="42"/>
-      <c r="AH4" s="42"/>
-      <c r="AI4" s="42"/>
-      <c r="AJ4" s="42"/>
-      <c r="AK4" s="42"/>
-      <c r="AL4" s="42"/>
-      <c r="AM4" s="42"/>
-      <c r="AN4" s="43"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="26"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="26"/>
+      <c r="AM4" s="26"/>
+      <c r="AN4" s="27"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -37154,6 +37319,8 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
@@ -37169,8 +37336,6 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>

--- a/doc/外部設計書/02_外部設計書_C4.xlsx
+++ b/doc/外部設計書/02_外部設計書_C4.xlsx
@@ -8,32 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C4\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F28709-2E94-4893-9795-D2ACA278DC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D70D3A7-493C-4B98-99D4-86E8CD8F7769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン " sheetId="4" r:id="rId1"/>
     <sheet name="会員登録 " sheetId="5" r:id="rId2"/>
     <sheet name="プロフィール" sheetId="6" r:id="rId3"/>
-    <sheet name="チャンネル" sheetId="7" r:id="rId4"/>
-    <sheet name="通知" sheetId="8" r:id="rId5"/>
-    <sheet name="DM" sheetId="9" r:id="rId6"/>
+    <sheet name="ホーム" sheetId="10" r:id="rId4"/>
+    <sheet name="チャンネル" sheetId="7" r:id="rId5"/>
+    <sheet name="通知" sheetId="8" r:id="rId6"/>
+    <sheet name="DM" sheetId="9" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">DM!$5:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">チャンネル!$5:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">DM!$5:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">チャンネル!$5:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">プロフィール!$5:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">ホーム!$5:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'ログイン '!$5:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'会員登録 '!$5:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">通知!$5:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">通知!$5:$5</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="230">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -1104,10 +1109,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>noti</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>notiUnread</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1294,10 +1295,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>dm</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>dmSendMes</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1419,6 +1416,283 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>ホーム</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ポストとコメントのポップアップ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ホーム画面用jspを表示する。</t>
+    <rPh sb="3" eb="6">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①②③　各ページに遷移する。</t>
+    <rPh sb="4" eb="5">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>④　通知を一部表示する。</t>
+    <rPh sb="2" eb="4">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>⑤⑥　現在時刻と異文化交流の日程をカレンダーに表す。</t>
+    <rPh sb="3" eb="5">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>イブンカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウリュウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニッテイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>⑦投稿とコメントをするユーザー3人のランキングを表示する。</t>
+    <rPh sb="1" eb="3">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>⑧投稿するポストをポップアップで表示する。タイムラインで最新のポストを上から順に表示する。</t>
+    <rPh sb="1" eb="3">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>⑨コメントボタンをクリックするとみぎの図のポップアップを表示する。</t>
+    <rPh sb="19" eb="20">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>⑩リアクションボタンをクリックするとリアクションを選択表示できる。</t>
+    <rPh sb="25" eb="27">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>⑪　⑧の操作で表示したポップアップ</t>
+    <rPh sb="4" eb="6">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>⑫投稿したいテキストを入力するテキストエリア</t>
+    <rPh sb="1" eb="3">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>⑬ファイルを添付する</t>
+    <rPh sb="6" eb="8">
+      <t>テンプ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>⑭　クリックすると添付したファイルやテキストデータをタイムラインで投稿する</t>
+    <rPh sb="9" eb="11">
+      <t>テンプ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>homeTl</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ホームTL</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>homeCh</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ホームCh</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>homeDm</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ホームDm</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>homeNoti</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ホーム通知</t>
+    <rPh sb="3" eb="5">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>homeClock</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ホーム時計</t>
+    <rPh sb="3" eb="5">
+      <t>トケイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>homeDate</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ホームカレンダー</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>homeRank</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ホームランキング</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>homePost</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ホームポスト</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>posts</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>HOMEPOST</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>homeComm</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ホームコメント</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>HOMECOMM</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>homeReact</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ホームリアクション</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>HOMEREACT</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>homeFile</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ホームファイル</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>HOMEFILE</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>notices</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>dms</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -1427,7 +1701,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1468,6 +1742,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1752,7 +2032,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1802,6 +2082,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1844,9 +2146,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1856,25 +2155,7 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4779,6 +5060,677 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DC795C0-733D-444F-B6E3-0DE13D2C1B5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2545080" y="1394460"/>
+          <a:ext cx="251460" cy="274320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E28A247-314F-4D73-8D5C-A176B7B99A9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11028045" y="2040255"/>
+          <a:ext cx="3472815" cy="2733675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E50AC46-D5E4-4247-A221-9466C7A4E939}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13272136" y="4250056"/>
+          <a:ext cx="830580" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>投稿</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>174625</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D613ACB-750E-4C43-B8C2-3A5DD261D604}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11206480" y="2211705"/>
+          <a:ext cx="3103245" cy="1724025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>文字。。。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2118</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>187326</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E6CC6FD-D6DB-4FA1-9D68-C347F74EE670}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12320270" y="2051898"/>
+          <a:ext cx="557530" cy="566208"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:t>⑫</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>7408</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>188383</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>64558</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>178858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FF67A60-8EF2-4EB0-80DC-B3673668B11D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11627908" y="3571663"/>
+          <a:ext cx="560070" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:t>⑬</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35EDFE88-AD7B-406F-9DB9-DC1ACB6E7670}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11155679" y="4202430"/>
+          <a:ext cx="2040255" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+            <a:t>File</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" baseline="0"/>
+            <a:t> Attached</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>117332</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBEF1149-B94D-4B5A-89DD-2791E6119927}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12797789" y="4221480"/>
+          <a:ext cx="436246" cy="422132"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>16931</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>147107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>74081</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>137582</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A069AA72-27A8-47BC-B6F5-2FD981B111E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10380131" y="1815887"/>
+          <a:ext cx="560070" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:t>⑪</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>33867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>24342</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20A47B69-B4A4-46E1-B57F-94C272BFC487}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13380720" y="3607647"/>
+          <a:ext cx="560070" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:t>⑭</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>19051</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>58</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>135429</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="12" name="図 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7354A0AD-13D5-4462-89F8-78FA788D3188}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="[1]Sheet1!$B$1:$X$49" spid="_x0000_s7171"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="498765" y="1376796"/>
+              <a:ext cx="14020800" cy="8214360"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
       <xdr:row>13</xdr:row>
@@ -5505,7 +6457,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6688,7 +7640,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8678,6 +9630,30 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="ホーム"/>
+      <sheetName val="ログイン "/>
+      <sheetName val="会員登録 "/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="プロフィール"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -8967,7 +9943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0889AA17-E9C6-4C9B-B205-55683AA59F21}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" workbookViewId="0">
+    <sheetView topLeftCell="A70" zoomScale="85" workbookViewId="0">
       <selection activeCell="L81" sqref="L81"/>
     </sheetView>
   </sheetViews>
@@ -8977,198 +9953,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="31" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31" t="s">
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="32"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="40"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="33" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33" t="s">
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33" t="s">
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="34" t="s">
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="36"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="43"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="33" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33" t="s">
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="37">
+      <c r="X3" s="26"/>
+      <c r="Y3" s="25">
         <v>45450</v>
       </c>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="19" t="s">
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="20"/>
-      <c r="AK3" s="20"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="20"/>
-      <c r="AN3" s="21"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="28"/>
+      <c r="AL3" s="28"/>
+      <c r="AM3" s="28"/>
+      <c r="AN3" s="29"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="22" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23"/>
-      <c r="AI4" s="23"/>
-      <c r="AJ4" s="23"/>
-      <c r="AK4" s="23"/>
-      <c r="AL4" s="23"/>
-      <c r="AM4" s="23"/>
-      <c r="AN4" s="24"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="31"/>
+      <c r="AN4" s="32"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -13589,11 +14565,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:AN1"/>
@@ -13606,6 +14577,11 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AN3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:AN4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -13621,7 +14597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5529EB6-548D-4ECA-B4FA-CE7D1A5BAFF6}">
   <dimension ref="A1:AN112"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="105" workbookViewId="0">
+    <sheetView topLeftCell="A79" zoomScale="105" workbookViewId="0">
       <selection activeCell="N79" sqref="N79"/>
     </sheetView>
   </sheetViews>
@@ -13631,200 +14607,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="31" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31" t="s">
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="32"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="40"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="33" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33" t="s">
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33" t="s">
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="34" t="s">
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="36"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="43"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="33" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33" t="s">
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33" t="s">
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="37">
+      <c r="X3" s="26"/>
+      <c r="Y3" s="25">
         <v>45450</v>
       </c>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="19" t="s">
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="20"/>
-      <c r="AK3" s="20"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="20"/>
-      <c r="AN3" s="21"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="28"/>
+      <c r="AL3" s="28"/>
+      <c r="AM3" s="28"/>
+      <c r="AN3" s="29"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="22" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23"/>
-      <c r="AI4" s="23"/>
-      <c r="AJ4" s="23"/>
-      <c r="AK4" s="23"/>
-      <c r="AL4" s="23"/>
-      <c r="AM4" s="23"/>
-      <c r="AN4" s="24"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="31"/>
+      <c r="AN4" s="32"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -18311,11 +19287,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:AN1"/>
@@ -18328,6 +19299,11 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AN3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:AN4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -18353,200 +19329,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="31" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31" t="s">
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="32"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="40"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="33" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33" t="s">
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33" t="s">
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="34" t="s">
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="36"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="43"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="33" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33" t="s">
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33" t="s">
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="37">
+      <c r="X3" s="26"/>
+      <c r="Y3" s="25">
         <v>45453</v>
       </c>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="19" t="s">
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="20"/>
-      <c r="AK3" s="20"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="20"/>
-      <c r="AN3" s="21"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="28"/>
+      <c r="AL3" s="28"/>
+      <c r="AM3" s="28"/>
+      <c r="AN3" s="29"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="22" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23"/>
-      <c r="AI4" s="23"/>
-      <c r="AJ4" s="23"/>
-      <c r="AK4" s="23"/>
-      <c r="AL4" s="23"/>
-      <c r="AM4" s="23"/>
-      <c r="AN4" s="24"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="31"/>
+      <c r="AN4" s="32"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -23057,6 +24033,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
@@ -23073,7 +24050,6 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -23086,11 +24062,4759 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1C4922-25EA-44A9-A7D8-04BEB169C0D8}">
+  <dimension ref="A1:AS110"/>
+  <sheetViews>
+    <sheetView topLeftCell="A75" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Y86" sqref="Y86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="20" width="3.6640625" style="1"/>
+    <col min="21" max="21" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="3.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="40"/>
+    </row>
+    <row r="2" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="43"/>
+    </row>
+    <row r="3" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="25">
+        <v>45453</v>
+      </c>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="28"/>
+      <c r="AL3" s="28"/>
+      <c r="AM3" s="28"/>
+      <c r="AN3" s="29"/>
+    </row>
+    <row r="4" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="31"/>
+      <c r="AN4" s="32"/>
+    </row>
+    <row r="5" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="5"/>
+    </row>
+    <row r="7" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6"/>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="7"/>
+    </row>
+    <row r="8" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+    </row>
+    <row r="9" spans="1:45" ht="11.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+    </row>
+    <row r="10" spans="1:45" ht="4.2" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+    </row>
+    <row r="11" spans="1:45" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+    </row>
+    <row r="12" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+      <c r="AS12" s="44" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="8"/>
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="7"/>
+      <c r="AN13" s="7"/>
+    </row>
+    <row r="14" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="8"/>
+      <c r="AM14" s="7"/>
+      <c r="AN14" s="7"/>
+    </row>
+    <row r="15" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="8"/>
+      <c r="AL15" s="8"/>
+      <c r="AM15" s="7"/>
+      <c r="AN15" s="7"/>
+    </row>
+    <row r="16" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
+      <c r="AL16" s="8"/>
+      <c r="AM16" s="7"/>
+      <c r="AN16" s="7"/>
+    </row>
+    <row r="17" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="8"/>
+      <c r="AK17" s="8"/>
+      <c r="AL17" s="8"/>
+      <c r="AM17" s="7"/>
+      <c r="AN17" s="7"/>
+    </row>
+    <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="8"/>
+      <c r="AL18" s="8"/>
+      <c r="AM18" s="7"/>
+      <c r="AN18" s="7"/>
+    </row>
+    <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="8"/>
+      <c r="AL19" s="8"/>
+      <c r="AM19" s="7"/>
+      <c r="AN19" s="7"/>
+    </row>
+    <row r="20" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="8"/>
+      <c r="AL20" s="8"/>
+      <c r="AM20" s="7"/>
+      <c r="AN20" s="7"/>
+    </row>
+    <row r="21" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="8"/>
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="7"/>
+      <c r="AN21" s="7"/>
+    </row>
+    <row r="22" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="8"/>
+      <c r="AL22" s="8"/>
+      <c r="AM22" s="7"/>
+      <c r="AN22" s="7"/>
+    </row>
+    <row r="23" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="8"/>
+      <c r="AL23" s="8"/>
+      <c r="AM23" s="7"/>
+      <c r="AN23" s="7"/>
+    </row>
+    <row r="24" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="7"/>
+      <c r="AN24" s="7"/>
+    </row>
+    <row r="25" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="8"/>
+      <c r="AL25" s="8"/>
+      <c r="AM25" s="7"/>
+      <c r="AN25" s="7"/>
+    </row>
+    <row r="26" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="8"/>
+      <c r="AL26" s="8"/>
+      <c r="AM26" s="7"/>
+      <c r="AN26" s="7"/>
+    </row>
+    <row r="27" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8"/>
+      <c r="AJ27" s="8"/>
+      <c r="AK27" s="8"/>
+      <c r="AL27" s="8"/>
+      <c r="AM27" s="7"/>
+      <c r="AN27" s="7"/>
+    </row>
+    <row r="28" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8"/>
+      <c r="AJ28" s="8"/>
+      <c r="AK28" s="8"/>
+      <c r="AL28" s="8"/>
+      <c r="AM28" s="7"/>
+      <c r="AN28" s="7"/>
+    </row>
+    <row r="29" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="8"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="8"/>
+      <c r="AJ29" s="8"/>
+      <c r="AK29" s="8"/>
+      <c r="AL29" s="8"/>
+      <c r="AM29" s="7"/>
+      <c r="AN29" s="7"/>
+    </row>
+    <row r="30" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="8"/>
+      <c r="AJ30" s="8"/>
+      <c r="AK30" s="8"/>
+      <c r="AL30" s="8"/>
+      <c r="AM30" s="7"/>
+      <c r="AN30" s="7"/>
+    </row>
+    <row r="31" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="8"/>
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="8"/>
+      <c r="AJ31" s="8"/>
+      <c r="AK31" s="8"/>
+      <c r="AL31" s="8"/>
+      <c r="AM31" s="7"/>
+      <c r="AN31" s="7"/>
+    </row>
+    <row r="32" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8"/>
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="8"/>
+      <c r="AH32" s="8"/>
+      <c r="AI32" s="8"/>
+      <c r="AJ32" s="8"/>
+      <c r="AK32" s="8"/>
+      <c r="AL32" s="8"/>
+      <c r="AM32" s="7"/>
+      <c r="AN32" s="7"/>
+    </row>
+    <row r="33" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="8"/>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="8"/>
+      <c r="AJ33" s="8"/>
+      <c r="AK33" s="8"/>
+      <c r="AL33" s="8"/>
+      <c r="AM33" s="7"/>
+      <c r="AN33" s="7"/>
+    </row>
+    <row r="34" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="8"/>
+      <c r="AD34" s="8"/>
+      <c r="AE34" s="8"/>
+      <c r="AF34" s="8"/>
+      <c r="AG34" s="8"/>
+      <c r="AH34" s="8"/>
+      <c r="AI34" s="8"/>
+      <c r="AJ34" s="8"/>
+      <c r="AK34" s="8"/>
+      <c r="AL34" s="8"/>
+      <c r="AM34" s="7"/>
+      <c r="AN34" s="7"/>
+    </row>
+    <row r="35" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="8"/>
+      <c r="AD35" s="8"/>
+      <c r="AE35" s="8"/>
+      <c r="AF35" s="8"/>
+      <c r="AG35" s="8"/>
+      <c r="AH35" s="8"/>
+      <c r="AI35" s="8"/>
+      <c r="AJ35" s="8"/>
+      <c r="AK35" s="8"/>
+      <c r="AL35" s="8"/>
+      <c r="AM35" s="7"/>
+      <c r="AN35" s="7"/>
+    </row>
+    <row r="36" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="8"/>
+      <c r="AD36" s="8"/>
+      <c r="AE36" s="8"/>
+      <c r="AF36" s="8"/>
+      <c r="AG36" s="8"/>
+      <c r="AH36" s="8"/>
+      <c r="AI36" s="8"/>
+      <c r="AJ36" s="8"/>
+      <c r="AK36" s="8"/>
+      <c r="AL36" s="8"/>
+      <c r="AM36" s="7"/>
+      <c r="AN36" s="7"/>
+    </row>
+    <row r="37" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="8"/>
+      <c r="AD37" s="8"/>
+      <c r="AE37" s="8"/>
+      <c r="AF37" s="8"/>
+      <c r="AG37" s="8"/>
+      <c r="AH37" s="8"/>
+      <c r="AI37" s="8"/>
+      <c r="AJ37" s="8"/>
+      <c r="AK37" s="8"/>
+      <c r="AL37" s="8"/>
+      <c r="AM37" s="7"/>
+      <c r="AN37" s="7"/>
+    </row>
+    <row r="38" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="8"/>
+      <c r="AD38" s="8"/>
+      <c r="AE38" s="8"/>
+      <c r="AF38" s="8"/>
+      <c r="AG38" s="8"/>
+      <c r="AH38" s="8"/>
+      <c r="AI38" s="8"/>
+      <c r="AJ38" s="8"/>
+      <c r="AK38" s="8"/>
+      <c r="AL38" s="8"/>
+      <c r="AM38" s="7"/>
+      <c r="AN38" s="7"/>
+    </row>
+    <row r="39" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="6"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="10"/>
+      <c r="AC39" s="10"/>
+      <c r="AD39" s="10"/>
+      <c r="AE39" s="10"/>
+      <c r="AF39" s="10"/>
+      <c r="AG39" s="10"/>
+      <c r="AH39" s="10"/>
+      <c r="AI39" s="10"/>
+      <c r="AJ39" s="10"/>
+      <c r="AK39" s="10"/>
+      <c r="AL39" s="10"/>
+      <c r="AM39" s="11"/>
+      <c r="AN39" s="7"/>
+    </row>
+    <row r="40" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="10"/>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="10"/>
+      <c r="AD40" s="10"/>
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="10"/>
+      <c r="AG40" s="10"/>
+      <c r="AH40" s="10"/>
+      <c r="AI40" s="10"/>
+      <c r="AJ40" s="10"/>
+      <c r="AK40" s="10"/>
+      <c r="AL40" s="10"/>
+      <c r="AM40" s="10"/>
+      <c r="AN40" s="11"/>
+    </row>
+    <row r="41" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="3"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="4"/>
+      <c r="AC41" s="4"/>
+      <c r="AD41" s="4"/>
+      <c r="AE41" s="4"/>
+      <c r="AF41" s="4"/>
+      <c r="AG41" s="4"/>
+      <c r="AH41" s="4"/>
+      <c r="AI41" s="4"/>
+      <c r="AJ41" s="4"/>
+      <c r="AK41" s="4"/>
+      <c r="AL41" s="4"/>
+      <c r="AM41" s="4"/>
+      <c r="AN41" s="5"/>
+    </row>
+    <row r="42" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="6"/>
+      <c r="B42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="4"/>
+      <c r="AB42" s="4"/>
+      <c r="AC42" s="4"/>
+      <c r="AD42" s="4"/>
+      <c r="AE42" s="4"/>
+      <c r="AF42" s="4"/>
+      <c r="AG42" s="4"/>
+      <c r="AH42" s="4"/>
+      <c r="AI42" s="4"/>
+      <c r="AJ42" s="4"/>
+      <c r="AK42" s="4"/>
+      <c r="AL42" s="4"/>
+      <c r="AM42" s="5"/>
+      <c r="AN42" s="7"/>
+    </row>
+    <row r="43" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="2"/>
+      <c r="AB43" s="2"/>
+      <c r="AC43" s="2"/>
+      <c r="AD43" s="2"/>
+      <c r="AE43" s="2"/>
+      <c r="AF43" s="2"/>
+      <c r="AG43" s="2"/>
+      <c r="AH43" s="2"/>
+      <c r="AI43" s="2"/>
+      <c r="AJ43" s="2"/>
+      <c r="AK43" s="2"/>
+      <c r="AL43" s="2"/>
+      <c r="AM43" s="7"/>
+      <c r="AN43" s="7"/>
+    </row>
+    <row r="44" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="2"/>
+      <c r="AD44" s="2"/>
+      <c r="AE44" s="2"/>
+      <c r="AF44" s="2"/>
+      <c r="AG44" s="2"/>
+      <c r="AH44" s="2"/>
+      <c r="AI44" s="2"/>
+      <c r="AJ44" s="2"/>
+      <c r="AK44" s="2"/>
+      <c r="AL44" s="2"/>
+      <c r="AM44" s="7"/>
+      <c r="AN44" s="7"/>
+    </row>
+    <row r="45" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="8"/>
+      <c r="AD45" s="8"/>
+      <c r="AE45" s="8"/>
+      <c r="AF45" s="8"/>
+      <c r="AG45" s="8"/>
+      <c r="AH45" s="8"/>
+      <c r="AI45" s="8"/>
+      <c r="AJ45" s="8"/>
+      <c r="AK45" s="8"/>
+      <c r="AL45" s="8"/>
+      <c r="AM45" s="7"/>
+      <c r="AN45" s="7"/>
+    </row>
+    <row r="46" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="8"/>
+      <c r="AD46" s="8"/>
+      <c r="AE46" s="8"/>
+      <c r="AF46" s="8"/>
+      <c r="AG46" s="8"/>
+      <c r="AH46" s="8"/>
+      <c r="AI46" s="8"/>
+      <c r="AJ46" s="8"/>
+      <c r="AK46" s="8"/>
+      <c r="AL46" s="8"/>
+      <c r="AM46" s="7"/>
+      <c r="AN46" s="7"/>
+    </row>
+    <row r="47" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="8"/>
+      <c r="X47" s="8"/>
+      <c r="Y47" s="8"/>
+      <c r="Z47" s="8"/>
+      <c r="AA47" s="8"/>
+      <c r="AB47" s="8"/>
+      <c r="AC47" s="8"/>
+      <c r="AD47" s="8"/>
+      <c r="AE47" s="8"/>
+      <c r="AF47" s="8"/>
+      <c r="AG47" s="8"/>
+      <c r="AH47" s="8"/>
+      <c r="AI47" s="8"/>
+      <c r="AJ47" s="8"/>
+      <c r="AK47" s="8"/>
+      <c r="AL47" s="8"/>
+      <c r="AM47" s="7"/>
+      <c r="AN47" s="7"/>
+    </row>
+    <row r="48" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="2"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8"/>
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="8"/>
+      <c r="AB48" s="8"/>
+      <c r="AC48" s="8"/>
+      <c r="AD48" s="8"/>
+      <c r="AE48" s="8"/>
+      <c r="AF48" s="8"/>
+      <c r="AG48" s="8"/>
+      <c r="AH48" s="8"/>
+      <c r="AI48" s="8"/>
+      <c r="AJ48" s="8"/>
+      <c r="AK48" s="8"/>
+      <c r="AL48" s="8"/>
+      <c r="AM48" s="7"/>
+      <c r="AN48" s="7"/>
+    </row>
+    <row r="49" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="E49" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="8"/>
+      <c r="AC49" s="8"/>
+      <c r="AD49" s="8"/>
+      <c r="AE49" s="8"/>
+      <c r="AF49" s="8"/>
+      <c r="AG49" s="8"/>
+      <c r="AH49" s="8"/>
+      <c r="AI49" s="8"/>
+      <c r="AJ49" s="8"/>
+      <c r="AK49" s="8"/>
+      <c r="AL49" s="8"/>
+      <c r="AM49" s="7"/>
+      <c r="AN49" s="7"/>
+    </row>
+    <row r="50" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="E50" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8"/>
+      <c r="X50" s="8"/>
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="8"/>
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="8"/>
+      <c r="AC50" s="8"/>
+      <c r="AD50" s="8"/>
+      <c r="AE50" s="8"/>
+      <c r="AF50" s="8"/>
+      <c r="AG50" s="8"/>
+      <c r="AH50" s="8"/>
+      <c r="AI50" s="8"/>
+      <c r="AJ50" s="8"/>
+      <c r="AK50" s="8"/>
+      <c r="AL50" s="8"/>
+      <c r="AM50" s="7"/>
+      <c r="AN50" s="7"/>
+    </row>
+    <row r="51" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="E51" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="8"/>
+      <c r="X51" s="8"/>
+      <c r="Y51" s="8"/>
+      <c r="Z51" s="8"/>
+      <c r="AA51" s="8"/>
+      <c r="AB51" s="8"/>
+      <c r="AC51" s="8"/>
+      <c r="AD51" s="8"/>
+      <c r="AE51" s="8"/>
+      <c r="AF51" s="8"/>
+      <c r="AG51" s="8"/>
+      <c r="AH51" s="8"/>
+      <c r="AI51" s="8"/>
+      <c r="AJ51" s="8"/>
+      <c r="AK51" s="8"/>
+      <c r="AL51" s="8"/>
+      <c r="AM51" s="7"/>
+      <c r="AN51" s="7"/>
+    </row>
+    <row r="52" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="E52" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="8"/>
+      <c r="X52" s="8"/>
+      <c r="Y52" s="8"/>
+      <c r="Z52" s="8"/>
+      <c r="AA52" s="8"/>
+      <c r="AB52" s="8"/>
+      <c r="AC52" s="8"/>
+      <c r="AD52" s="8"/>
+      <c r="AE52" s="8"/>
+      <c r="AF52" s="8"/>
+      <c r="AG52" s="8"/>
+      <c r="AH52" s="8"/>
+      <c r="AI52" s="8"/>
+      <c r="AJ52" s="8"/>
+      <c r="AK52" s="8"/>
+      <c r="AL52" s="8"/>
+      <c r="AM52" s="7"/>
+      <c r="AN52" s="7"/>
+    </row>
+    <row r="53" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="E53" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="8"/>
+      <c r="W53" s="8"/>
+      <c r="X53" s="8"/>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="8"/>
+      <c r="AA53" s="8"/>
+      <c r="AB53" s="8"/>
+      <c r="AC53" s="8"/>
+      <c r="AD53" s="8"/>
+      <c r="AE53" s="8"/>
+      <c r="AF53" s="8"/>
+      <c r="AG53" s="8"/>
+      <c r="AH53" s="8"/>
+      <c r="AI53" s="8"/>
+      <c r="AJ53" s="8"/>
+      <c r="AK53" s="8"/>
+      <c r="AL53" s="8"/>
+      <c r="AM53" s="7"/>
+      <c r="AN53" s="7"/>
+    </row>
+    <row r="54" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="E54" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="8"/>
+      <c r="X54" s="8"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="8"/>
+      <c r="AA54" s="8"/>
+      <c r="AB54" s="8"/>
+      <c r="AC54" s="8"/>
+      <c r="AD54" s="8"/>
+      <c r="AE54" s="8"/>
+      <c r="AF54" s="8"/>
+      <c r="AG54" s="8"/>
+      <c r="AH54" s="8"/>
+      <c r="AI54" s="8"/>
+      <c r="AJ54" s="8"/>
+      <c r="AK54" s="8"/>
+      <c r="AL54" s="8"/>
+      <c r="AM54" s="7"/>
+      <c r="AN54" s="7"/>
+    </row>
+    <row r="55" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="E55" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="8"/>
+      <c r="W55" s="8"/>
+      <c r="X55" s="8"/>
+      <c r="Y55" s="8"/>
+      <c r="Z55" s="8"/>
+      <c r="AA55" s="8"/>
+      <c r="AB55" s="8"/>
+      <c r="AC55" s="8"/>
+      <c r="AD55" s="8"/>
+      <c r="AE55" s="8"/>
+      <c r="AF55" s="8"/>
+      <c r="AG55" s="8"/>
+      <c r="AH55" s="8"/>
+      <c r="AI55" s="8"/>
+      <c r="AJ55" s="8"/>
+      <c r="AK55" s="8"/>
+      <c r="AL55" s="8"/>
+      <c r="AM55" s="7"/>
+      <c r="AN55" s="7"/>
+    </row>
+    <row r="56" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="E56" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="8"/>
+      <c r="W56" s="8"/>
+      <c r="X56" s="8"/>
+      <c r="Y56" s="8"/>
+      <c r="Z56" s="8"/>
+      <c r="AA56" s="8"/>
+      <c r="AB56" s="8"/>
+      <c r="AC56" s="8"/>
+      <c r="AD56" s="8"/>
+      <c r="AE56" s="8"/>
+      <c r="AF56" s="8"/>
+      <c r="AG56" s="8"/>
+      <c r="AH56" s="8"/>
+      <c r="AI56" s="8"/>
+      <c r="AJ56" s="8"/>
+      <c r="AK56" s="8"/>
+      <c r="AL56" s="8"/>
+      <c r="AM56" s="7"/>
+      <c r="AN56" s="7"/>
+    </row>
+    <row r="57" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="E57" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="8"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="8"/>
+      <c r="V57" s="8"/>
+      <c r="W57" s="8"/>
+      <c r="X57" s="8"/>
+      <c r="Y57" s="8"/>
+      <c r="Z57" s="8"/>
+      <c r="AA57" s="8"/>
+      <c r="AB57" s="8"/>
+      <c r="AC57" s="8"/>
+      <c r="AD57" s="8"/>
+      <c r="AE57" s="8"/>
+      <c r="AF57" s="8"/>
+      <c r="AG57" s="8"/>
+      <c r="AH57" s="8"/>
+      <c r="AI57" s="8"/>
+      <c r="AJ57" s="8"/>
+      <c r="AK57" s="8"/>
+      <c r="AL57" s="8"/>
+      <c r="AM57" s="7"/>
+      <c r="AN57" s="7"/>
+    </row>
+    <row r="58" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="E58" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
+      <c r="S58" s="8"/>
+      <c r="T58" s="8"/>
+      <c r="U58" s="8"/>
+      <c r="V58" s="8"/>
+      <c r="W58" s="8"/>
+      <c r="X58" s="8"/>
+      <c r="Y58" s="8"/>
+      <c r="Z58" s="8"/>
+      <c r="AA58" s="8"/>
+      <c r="AB58" s="8"/>
+      <c r="AC58" s="8"/>
+      <c r="AD58" s="8"/>
+      <c r="AE58" s="8"/>
+      <c r="AF58" s="8"/>
+      <c r="AG58" s="8"/>
+      <c r="AH58" s="8"/>
+      <c r="AI58" s="8"/>
+      <c r="AJ58" s="8"/>
+      <c r="AK58" s="8"/>
+      <c r="AL58" s="8"/>
+      <c r="AM58" s="7"/>
+      <c r="AN58" s="7"/>
+    </row>
+    <row r="59" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="E59" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="8"/>
+      <c r="W59" s="8"/>
+      <c r="X59" s="8"/>
+      <c r="Y59" s="8"/>
+      <c r="Z59" s="8"/>
+      <c r="AA59" s="8"/>
+      <c r="AB59" s="8"/>
+      <c r="AC59" s="8"/>
+      <c r="AD59" s="8"/>
+      <c r="AE59" s="8"/>
+      <c r="AF59" s="8"/>
+      <c r="AG59" s="8"/>
+      <c r="AH59" s="8"/>
+      <c r="AI59" s="8"/>
+      <c r="AJ59" s="8"/>
+      <c r="AK59" s="8"/>
+      <c r="AL59" s="8"/>
+      <c r="AM59" s="7"/>
+      <c r="AN59" s="7"/>
+    </row>
+    <row r="60" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8"/>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="8"/>
+      <c r="W60" s="8"/>
+      <c r="X60" s="8"/>
+      <c r="Y60" s="8"/>
+      <c r="Z60" s="8"/>
+      <c r="AA60" s="8"/>
+      <c r="AB60" s="8"/>
+      <c r="AC60" s="8"/>
+      <c r="AD60" s="8"/>
+      <c r="AE60" s="8"/>
+      <c r="AF60" s="8"/>
+      <c r="AG60" s="8"/>
+      <c r="AH60" s="8"/>
+      <c r="AI60" s="8"/>
+      <c r="AJ60" s="8"/>
+      <c r="AK60" s="8"/>
+      <c r="AL60" s="8"/>
+      <c r="AM60" s="7"/>
+      <c r="AN60" s="7"/>
+    </row>
+    <row r="61" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="8"/>
+      <c r="R61" s="8"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="8"/>
+      <c r="V61" s="8"/>
+      <c r="W61" s="8"/>
+      <c r="X61" s="8"/>
+      <c r="Y61" s="8"/>
+      <c r="Z61" s="8"/>
+      <c r="AA61" s="8"/>
+      <c r="AB61" s="8"/>
+      <c r="AC61" s="8"/>
+      <c r="AD61" s="8"/>
+      <c r="AE61" s="8"/>
+      <c r="AF61" s="8"/>
+      <c r="AG61" s="8"/>
+      <c r="AH61" s="8"/>
+      <c r="AI61" s="8"/>
+      <c r="AJ61" s="8"/>
+      <c r="AK61" s="8"/>
+      <c r="AL61" s="8"/>
+      <c r="AM61" s="7"/>
+      <c r="AN61" s="7"/>
+    </row>
+    <row r="62" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="8"/>
+      <c r="R62" s="8"/>
+      <c r="S62" s="8"/>
+      <c r="T62" s="8"/>
+      <c r="U62" s="8"/>
+      <c r="V62" s="8"/>
+      <c r="W62" s="8"/>
+      <c r="X62" s="8"/>
+      <c r="Y62" s="8"/>
+      <c r="Z62" s="8"/>
+      <c r="AA62" s="8"/>
+      <c r="AB62" s="8"/>
+      <c r="AC62" s="8"/>
+      <c r="AD62" s="8"/>
+      <c r="AE62" s="8"/>
+      <c r="AF62" s="8"/>
+      <c r="AG62" s="8"/>
+      <c r="AH62" s="8"/>
+      <c r="AI62" s="8"/>
+      <c r="AJ62" s="8"/>
+      <c r="AK62" s="8"/>
+      <c r="AL62" s="8"/>
+      <c r="AM62" s="7"/>
+      <c r="AN62" s="7"/>
+    </row>
+    <row r="63" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="8"/>
+      <c r="R63" s="8"/>
+      <c r="S63" s="8"/>
+      <c r="T63" s="8"/>
+      <c r="U63" s="8"/>
+      <c r="V63" s="8"/>
+      <c r="W63" s="8"/>
+      <c r="X63" s="8"/>
+      <c r="Y63" s="8"/>
+      <c r="Z63" s="8"/>
+      <c r="AA63" s="8"/>
+      <c r="AB63" s="8"/>
+      <c r="AC63" s="8"/>
+      <c r="AD63" s="8"/>
+      <c r="AE63" s="8"/>
+      <c r="AF63" s="8"/>
+      <c r="AG63" s="8"/>
+      <c r="AH63" s="8"/>
+      <c r="AI63" s="8"/>
+      <c r="AJ63" s="8"/>
+      <c r="AK63" s="8"/>
+      <c r="AL63" s="8"/>
+      <c r="AM63" s="7"/>
+      <c r="AN63" s="7"/>
+    </row>
+    <row r="64" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="8"/>
+      <c r="R64" s="8"/>
+      <c r="S64" s="8"/>
+      <c r="T64" s="8"/>
+      <c r="U64" s="8"/>
+      <c r="V64" s="8"/>
+      <c r="W64" s="8"/>
+      <c r="X64" s="8"/>
+      <c r="Y64" s="8"/>
+      <c r="Z64" s="8"/>
+      <c r="AA64" s="8"/>
+      <c r="AB64" s="8"/>
+      <c r="AC64" s="8"/>
+      <c r="AD64" s="8"/>
+      <c r="AE64" s="8"/>
+      <c r="AF64" s="8"/>
+      <c r="AG64" s="8"/>
+      <c r="AH64" s="8"/>
+      <c r="AI64" s="8"/>
+      <c r="AJ64" s="8"/>
+      <c r="AK64" s="8"/>
+      <c r="AL64" s="8"/>
+      <c r="AM64" s="7"/>
+      <c r="AN64" s="7"/>
+    </row>
+    <row r="65" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="8"/>
+      <c r="U65" s="8"/>
+      <c r="V65" s="8"/>
+      <c r="W65" s="8"/>
+      <c r="X65" s="8"/>
+      <c r="Y65" s="8"/>
+      <c r="Z65" s="8"/>
+      <c r="AA65" s="8"/>
+      <c r="AB65" s="8"/>
+      <c r="AC65" s="8"/>
+      <c r="AD65" s="8"/>
+      <c r="AE65" s="8"/>
+      <c r="AF65" s="8"/>
+      <c r="AG65" s="8"/>
+      <c r="AH65" s="8"/>
+      <c r="AI65" s="8"/>
+      <c r="AJ65" s="8"/>
+      <c r="AK65" s="8"/>
+      <c r="AL65" s="8"/>
+      <c r="AM65" s="7"/>
+      <c r="AN65" s="7"/>
+    </row>
+    <row r="66" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="8"/>
+      <c r="V66" s="8"/>
+      <c r="W66" s="8"/>
+      <c r="X66" s="8"/>
+      <c r="Y66" s="8"/>
+      <c r="Z66" s="8"/>
+      <c r="AA66" s="8"/>
+      <c r="AB66" s="8"/>
+      <c r="AC66" s="8"/>
+      <c r="AD66" s="8"/>
+      <c r="AE66" s="8"/>
+      <c r="AF66" s="8"/>
+      <c r="AG66" s="8"/>
+      <c r="AH66" s="8"/>
+      <c r="AI66" s="8"/>
+      <c r="AJ66" s="8"/>
+      <c r="AK66" s="8"/>
+      <c r="AL66" s="8"/>
+      <c r="AM66" s="7"/>
+      <c r="AN66" s="7"/>
+    </row>
+    <row r="67" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="8"/>
+      <c r="R67" s="8"/>
+      <c r="S67" s="8"/>
+      <c r="T67" s="8"/>
+      <c r="U67" s="8"/>
+      <c r="V67" s="8"/>
+      <c r="W67" s="8"/>
+      <c r="X67" s="8"/>
+      <c r="Y67" s="8"/>
+      <c r="Z67" s="8"/>
+      <c r="AA67" s="8"/>
+      <c r="AB67" s="8"/>
+      <c r="AC67" s="8"/>
+      <c r="AD67" s="8"/>
+      <c r="AE67" s="8"/>
+      <c r="AF67" s="8"/>
+      <c r="AG67" s="8"/>
+      <c r="AH67" s="8"/>
+      <c r="AI67" s="8"/>
+      <c r="AJ67" s="8"/>
+      <c r="AK67" s="8"/>
+      <c r="AL67" s="8"/>
+      <c r="AM67" s="7"/>
+      <c r="AN67" s="7"/>
+    </row>
+    <row r="68" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="8"/>
+      <c r="O68" s="8"/>
+      <c r="P68" s="8"/>
+      <c r="Q68" s="8"/>
+      <c r="R68" s="8"/>
+      <c r="S68" s="8"/>
+      <c r="T68" s="8"/>
+      <c r="U68" s="8"/>
+      <c r="V68" s="8"/>
+      <c r="W68" s="8"/>
+      <c r="X68" s="8"/>
+      <c r="Y68" s="8"/>
+      <c r="Z68" s="8"/>
+      <c r="AA68" s="8"/>
+      <c r="AB68" s="8"/>
+      <c r="AC68" s="8"/>
+      <c r="AD68" s="8"/>
+      <c r="AE68" s="8"/>
+      <c r="AF68" s="8"/>
+      <c r="AG68" s="8"/>
+      <c r="AH68" s="8"/>
+      <c r="AI68" s="8"/>
+      <c r="AJ68" s="8"/>
+      <c r="AK68" s="8"/>
+      <c r="AL68" s="8"/>
+      <c r="AM68" s="7"/>
+      <c r="AN68" s="7"/>
+    </row>
+    <row r="69" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="8"/>
+      <c r="P69" s="8"/>
+      <c r="Q69" s="8"/>
+      <c r="R69" s="8"/>
+      <c r="S69" s="8"/>
+      <c r="T69" s="8"/>
+      <c r="U69" s="8"/>
+      <c r="V69" s="8"/>
+      <c r="W69" s="8"/>
+      <c r="X69" s="8"/>
+      <c r="Y69" s="8"/>
+      <c r="Z69" s="8"/>
+      <c r="AA69" s="8"/>
+      <c r="AB69" s="8"/>
+      <c r="AC69" s="8"/>
+      <c r="AD69" s="8"/>
+      <c r="AE69" s="8"/>
+      <c r="AF69" s="8"/>
+      <c r="AG69" s="8"/>
+      <c r="AH69" s="8"/>
+      <c r="AI69" s="8"/>
+      <c r="AJ69" s="8"/>
+      <c r="AK69" s="8"/>
+      <c r="AL69" s="8"/>
+      <c r="AM69" s="7"/>
+      <c r="AN69" s="7"/>
+    </row>
+    <row r="70" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="8"/>
+      <c r="O70" s="8"/>
+      <c r="P70" s="8"/>
+      <c r="Q70" s="8"/>
+      <c r="R70" s="8"/>
+      <c r="S70" s="8"/>
+      <c r="T70" s="8"/>
+      <c r="U70" s="8"/>
+      <c r="V70" s="8"/>
+      <c r="W70" s="8"/>
+      <c r="X70" s="8"/>
+      <c r="Y70" s="8"/>
+      <c r="Z70" s="8"/>
+      <c r="AA70" s="8"/>
+      <c r="AB70" s="8"/>
+      <c r="AC70" s="8"/>
+      <c r="AD70" s="8"/>
+      <c r="AE70" s="8"/>
+      <c r="AF70" s="8"/>
+      <c r="AG70" s="8"/>
+      <c r="AH70" s="8"/>
+      <c r="AI70" s="8"/>
+      <c r="AJ70" s="8"/>
+      <c r="AK70" s="8"/>
+      <c r="AL70" s="8"/>
+      <c r="AM70" s="7"/>
+      <c r="AN70" s="7"/>
+    </row>
+    <row r="71" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
+      <c r="Q71" s="8"/>
+      <c r="R71" s="8"/>
+      <c r="S71" s="8"/>
+      <c r="T71" s="8"/>
+      <c r="U71" s="8"/>
+      <c r="V71" s="8"/>
+      <c r="W71" s="8"/>
+      <c r="X71" s="8"/>
+      <c r="Y71" s="8"/>
+      <c r="Z71" s="8"/>
+      <c r="AA71" s="8"/>
+      <c r="AB71" s="8"/>
+      <c r="AC71" s="8"/>
+      <c r="AD71" s="8"/>
+      <c r="AE71" s="8"/>
+      <c r="AF71" s="8"/>
+      <c r="AG71" s="8"/>
+      <c r="AH71" s="8"/>
+      <c r="AI71" s="8"/>
+      <c r="AJ71" s="8"/>
+      <c r="AK71" s="8"/>
+      <c r="AL71" s="8"/>
+      <c r="AM71" s="7"/>
+      <c r="AN71" s="7"/>
+    </row>
+    <row r="72" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="8"/>
+      <c r="P72" s="8"/>
+      <c r="Q72" s="8"/>
+      <c r="R72" s="8"/>
+      <c r="S72" s="8"/>
+      <c r="T72" s="8"/>
+      <c r="U72" s="8"/>
+      <c r="V72" s="8"/>
+      <c r="W72" s="8"/>
+      <c r="X72" s="8"/>
+      <c r="Y72" s="8"/>
+      <c r="Z72" s="8"/>
+      <c r="AA72" s="8"/>
+      <c r="AB72" s="8"/>
+      <c r="AC72" s="8"/>
+      <c r="AD72" s="8"/>
+      <c r="AE72" s="8"/>
+      <c r="AF72" s="8"/>
+      <c r="AG72" s="8"/>
+      <c r="AH72" s="8"/>
+      <c r="AI72" s="8"/>
+      <c r="AJ72" s="8"/>
+      <c r="AK72" s="8"/>
+      <c r="AL72" s="8"/>
+      <c r="AM72" s="7"/>
+      <c r="AN72" s="7"/>
+    </row>
+    <row r="73" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="8"/>
+      <c r="P73" s="8"/>
+      <c r="Q73" s="8"/>
+      <c r="R73" s="8"/>
+      <c r="S73" s="8"/>
+      <c r="T73" s="8"/>
+      <c r="U73" s="8"/>
+      <c r="V73" s="8"/>
+      <c r="W73" s="8"/>
+      <c r="X73" s="8"/>
+      <c r="Y73" s="8"/>
+      <c r="Z73" s="8"/>
+      <c r="AA73" s="8"/>
+      <c r="AB73" s="8"/>
+      <c r="AC73" s="8"/>
+      <c r="AD73" s="8"/>
+      <c r="AE73" s="8"/>
+      <c r="AF73" s="8"/>
+      <c r="AG73" s="8"/>
+      <c r="AH73" s="8"/>
+      <c r="AI73" s="8"/>
+      <c r="AJ73" s="8"/>
+      <c r="AK73" s="8"/>
+      <c r="AL73" s="8"/>
+      <c r="AM73" s="7"/>
+      <c r="AN73" s="7"/>
+    </row>
+    <row r="74" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="6"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="10"/>
+      <c r="R74" s="10"/>
+      <c r="S74" s="10"/>
+      <c r="T74" s="10"/>
+      <c r="U74" s="10"/>
+      <c r="V74" s="10"/>
+      <c r="W74" s="10"/>
+      <c r="X74" s="10"/>
+      <c r="Y74" s="10"/>
+      <c r="Z74" s="10"/>
+      <c r="AA74" s="10"/>
+      <c r="AB74" s="10"/>
+      <c r="AC74" s="10"/>
+      <c r="AD74" s="10"/>
+      <c r="AE74" s="10"/>
+      <c r="AF74" s="10"/>
+      <c r="AG74" s="10"/>
+      <c r="AH74" s="10"/>
+      <c r="AI74" s="10"/>
+      <c r="AJ74" s="10"/>
+      <c r="AK74" s="10"/>
+      <c r="AL74" s="10"/>
+      <c r="AM74" s="11"/>
+      <c r="AN74" s="7"/>
+    </row>
+    <row r="75" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="9"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="10"/>
+      <c r="R75" s="10"/>
+      <c r="S75" s="10"/>
+      <c r="T75" s="10"/>
+      <c r="U75" s="10"/>
+      <c r="V75" s="10"/>
+      <c r="W75" s="10"/>
+      <c r="X75" s="10"/>
+      <c r="Y75" s="10"/>
+      <c r="Z75" s="10"/>
+      <c r="AA75" s="10"/>
+      <c r="AB75" s="10"/>
+      <c r="AC75" s="10"/>
+      <c r="AD75" s="10"/>
+      <c r="AE75" s="10"/>
+      <c r="AF75" s="10"/>
+      <c r="AG75" s="10"/>
+      <c r="AH75" s="10"/>
+      <c r="AI75" s="10"/>
+      <c r="AJ75" s="10"/>
+      <c r="AK75" s="10"/>
+      <c r="AL75" s="10"/>
+      <c r="AM75" s="10"/>
+      <c r="AN75" s="11"/>
+    </row>
+    <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="3"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="4"/>
+      <c r="S76" s="4"/>
+      <c r="T76" s="4"/>
+      <c r="U76" s="4"/>
+      <c r="V76" s="4"/>
+      <c r="W76" s="4"/>
+      <c r="X76" s="4"/>
+      <c r="Y76" s="4"/>
+      <c r="Z76" s="4"/>
+      <c r="AA76" s="4"/>
+      <c r="AB76" s="4"/>
+      <c r="AC76" s="4"/>
+      <c r="AD76" s="4"/>
+      <c r="AE76" s="4"/>
+      <c r="AF76" s="4"/>
+      <c r="AG76" s="4"/>
+      <c r="AH76" s="4"/>
+      <c r="AI76" s="4"/>
+      <c r="AJ76" s="4"/>
+      <c r="AK76" s="4"/>
+      <c r="AL76" s="4"/>
+      <c r="AM76" s="4"/>
+      <c r="AN76" s="5"/>
+    </row>
+    <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="6"/>
+      <c r="B77" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="4"/>
+      <c r="S77" s="4"/>
+      <c r="T77" s="4"/>
+      <c r="U77" s="4"/>
+      <c r="V77" s="4"/>
+      <c r="W77" s="4"/>
+      <c r="X77" s="4"/>
+      <c r="Y77" s="4"/>
+      <c r="Z77" s="4"/>
+      <c r="AA77" s="4"/>
+      <c r="AB77" s="4"/>
+      <c r="AC77" s="4"/>
+      <c r="AD77" s="4"/>
+      <c r="AE77" s="4"/>
+      <c r="AF77" s="4"/>
+      <c r="AG77" s="4"/>
+      <c r="AH77" s="4"/>
+      <c r="AI77" s="4"/>
+      <c r="AJ77" s="4"/>
+      <c r="AK77" s="4"/>
+      <c r="AL77" s="4"/>
+      <c r="AM77" s="5"/>
+      <c r="AN77" s="7"/>
+    </row>
+    <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="2"/>
+      <c r="X78" s="2"/>
+      <c r="Y78" s="2"/>
+      <c r="Z78" s="2"/>
+      <c r="AA78" s="2"/>
+      <c r="AB78" s="2"/>
+      <c r="AC78" s="2"/>
+      <c r="AD78" s="2"/>
+      <c r="AE78" s="2"/>
+      <c r="AF78" s="2"/>
+      <c r="AG78" s="2"/>
+      <c r="AH78" s="2"/>
+      <c r="AI78" s="2"/>
+      <c r="AJ78" s="2"/>
+      <c r="AK78" s="2"/>
+      <c r="AL78" s="2"/>
+      <c r="AM78" s="7"/>
+      <c r="AN78" s="7"/>
+    </row>
+    <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="6"/>
+      <c r="B79" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="13"/>
+      <c r="D79" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79" s="16"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="17"/>
+      <c r="L79" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M79" s="15"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="P79" s="15"/>
+      <c r="Q79" s="15"/>
+      <c r="R79" s="17"/>
+      <c r="S79" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="T79" s="17"/>
+      <c r="U79" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="V79" s="17"/>
+      <c r="W79" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="X79" s="15"/>
+      <c r="Y79" s="15"/>
+      <c r="Z79" s="17"/>
+      <c r="AA79" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB79" s="15"/>
+      <c r="AC79" s="17"/>
+      <c r="AD79" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE79" s="15"/>
+      <c r="AF79" s="15"/>
+      <c r="AG79" s="15"/>
+      <c r="AH79" s="15"/>
+      <c r="AI79" s="15"/>
+      <c r="AJ79" s="15"/>
+      <c r="AK79" s="15"/>
+      <c r="AL79" s="15"/>
+      <c r="AM79" s="18"/>
+      <c r="AN79" s="7"/>
+    </row>
+    <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="6"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="13">
+        <v>1</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I80" s="16"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="17"/>
+      <c r="L80" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="M80" s="15"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P80" s="15"/>
+      <c r="Q80" s="15"/>
+      <c r="R80" s="17"/>
+      <c r="S80" s="14"/>
+      <c r="T80" s="17"/>
+      <c r="U80" s="14"/>
+      <c r="V80" s="17"/>
+      <c r="W80" s="14"/>
+      <c r="X80" s="15"/>
+      <c r="Y80" s="15"/>
+      <c r="Z80" s="17"/>
+      <c r="AA80" s="14"/>
+      <c r="AB80" s="15"/>
+      <c r="AC80" s="17"/>
+      <c r="AD80" s="14"/>
+      <c r="AE80" s="15"/>
+      <c r="AF80" s="15"/>
+      <c r="AG80" s="15"/>
+      <c r="AH80" s="15"/>
+      <c r="AI80" s="15"/>
+      <c r="AJ80" s="15"/>
+      <c r="AK80" s="15"/>
+      <c r="AL80" s="15"/>
+      <c r="AM80" s="18"/>
+      <c r="AN80" s="7"/>
+    </row>
+    <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="6"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="13">
+        <v>2</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="I81" s="16"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="17"/>
+      <c r="L81" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="M81" s="15"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P81" s="15"/>
+      <c r="Q81" s="15"/>
+      <c r="R81" s="17"/>
+      <c r="S81" s="14"/>
+      <c r="T81" s="17"/>
+      <c r="U81" s="14"/>
+      <c r="V81" s="17"/>
+      <c r="W81" s="14"/>
+      <c r="X81" s="15"/>
+      <c r="Y81" s="15"/>
+      <c r="Z81" s="17"/>
+      <c r="AA81" s="14"/>
+      <c r="AB81" s="15"/>
+      <c r="AC81" s="17"/>
+      <c r="AD81" s="14"/>
+      <c r="AE81" s="15"/>
+      <c r="AF81" s="15"/>
+      <c r="AG81" s="15"/>
+      <c r="AH81" s="15"/>
+      <c r="AI81" s="15"/>
+      <c r="AJ81" s="15"/>
+      <c r="AK81" s="15"/>
+      <c r="AL81" s="15"/>
+      <c r="AM81" s="18"/>
+      <c r="AN81" s="7"/>
+    </row>
+    <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="6"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="13">
+        <v>3</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="I82" s="16"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="M82" s="15"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P82" s="15"/>
+      <c r="Q82" s="15"/>
+      <c r="R82" s="17"/>
+      <c r="S82" s="14"/>
+      <c r="T82" s="17"/>
+      <c r="U82" s="14"/>
+      <c r="V82" s="17"/>
+      <c r="W82" s="14"/>
+      <c r="X82" s="15"/>
+      <c r="Y82" s="15"/>
+      <c r="Z82" s="17"/>
+      <c r="AA82" s="14"/>
+      <c r="AB82" s="15"/>
+      <c r="AC82" s="17"/>
+      <c r="AD82" s="14"/>
+      <c r="AE82" s="15"/>
+      <c r="AF82" s="15"/>
+      <c r="AG82" s="15"/>
+      <c r="AH82" s="15"/>
+      <c r="AI82" s="15"/>
+      <c r="AJ82" s="15"/>
+      <c r="AK82" s="15"/>
+      <c r="AL82" s="15"/>
+      <c r="AM82" s="18"/>
+      <c r="AN82" s="7"/>
+    </row>
+    <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="6"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="13">
+        <v>4</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="I83" s="16"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="17"/>
+      <c r="L83" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="M83" s="15"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P83" s="15"/>
+      <c r="Q83" s="15"/>
+      <c r="R83" s="17"/>
+      <c r="S83" s="14">
+        <v>0</v>
+      </c>
+      <c r="T83" s="17"/>
+      <c r="U83" s="14">
+        <v>5</v>
+      </c>
+      <c r="V83" s="17"/>
+      <c r="W83" s="14"/>
+      <c r="X83" s="15"/>
+      <c r="Y83" s="15"/>
+      <c r="Z83" s="17"/>
+      <c r="AA83" s="14"/>
+      <c r="AB83" s="15"/>
+      <c r="AC83" s="17"/>
+      <c r="AD83" s="14"/>
+      <c r="AE83" s="15"/>
+      <c r="AF83" s="15"/>
+      <c r="AG83" s="15"/>
+      <c r="AH83" s="15"/>
+      <c r="AI83" s="15"/>
+      <c r="AJ83" s="15"/>
+      <c r="AK83" s="15"/>
+      <c r="AL83" s="15"/>
+      <c r="AM83" s="18"/>
+      <c r="AN83" s="7"/>
+    </row>
+    <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="6"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="13">
+        <v>5</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="I84" s="16"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="17"/>
+      <c r="L84" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="M84" s="15"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="14"/>
+      <c r="P84" s="15"/>
+      <c r="Q84" s="15"/>
+      <c r="R84" s="17"/>
+      <c r="S84" s="14"/>
+      <c r="T84" s="17"/>
+      <c r="U84" s="14"/>
+      <c r="V84" s="17"/>
+      <c r="W84" s="14"/>
+      <c r="X84" s="15"/>
+      <c r="Y84" s="15"/>
+      <c r="Z84" s="17"/>
+      <c r="AA84" s="14"/>
+      <c r="AB84" s="15"/>
+      <c r="AC84" s="17"/>
+      <c r="AD84" s="14"/>
+      <c r="AE84" s="15"/>
+      <c r="AF84" s="15"/>
+      <c r="AG84" s="15"/>
+      <c r="AH84" s="15"/>
+      <c r="AI84" s="15"/>
+      <c r="AJ84" s="15"/>
+      <c r="AK84" s="15"/>
+      <c r="AL84" s="15"/>
+      <c r="AM84" s="18"/>
+      <c r="AN84" s="7"/>
+    </row>
+    <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="6"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="13">
+        <v>6</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="I85" s="16"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="17"/>
+      <c r="L85" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="M85" s="15"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="14"/>
+      <c r="P85" s="15"/>
+      <c r="Q85" s="15"/>
+      <c r="R85" s="17"/>
+      <c r="S85" s="14"/>
+      <c r="T85" s="17"/>
+      <c r="U85" s="14"/>
+      <c r="V85" s="17"/>
+      <c r="W85" s="14"/>
+      <c r="X85" s="15"/>
+      <c r="Y85" s="15"/>
+      <c r="Z85" s="17"/>
+      <c r="AA85" s="14"/>
+      <c r="AB85" s="15"/>
+      <c r="AC85" s="17"/>
+      <c r="AD85" s="14"/>
+      <c r="AE85" s="15"/>
+      <c r="AF85" s="15"/>
+      <c r="AG85" s="15"/>
+      <c r="AH85" s="15"/>
+      <c r="AI85" s="15"/>
+      <c r="AJ85" s="15"/>
+      <c r="AK85" s="15"/>
+      <c r="AL85" s="15"/>
+      <c r="AM85" s="18"/>
+      <c r="AN85" s="7"/>
+    </row>
+    <row r="86" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="6"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="13">
+        <v>7</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="I86" s="16"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="17"/>
+      <c r="L86" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="M86" s="15"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="P86" s="15"/>
+      <c r="Q86" s="15"/>
+      <c r="R86" s="17"/>
+      <c r="S86" s="14"/>
+      <c r="T86" s="17"/>
+      <c r="U86" s="14"/>
+      <c r="V86" s="17"/>
+      <c r="W86" s="14"/>
+      <c r="X86" s="15"/>
+      <c r="Y86" s="15"/>
+      <c r="Z86" s="17"/>
+      <c r="AA86" s="14"/>
+      <c r="AB86" s="15"/>
+      <c r="AC86" s="17"/>
+      <c r="AD86" s="14"/>
+      <c r="AE86" s="15"/>
+      <c r="AF86" s="15"/>
+      <c r="AG86" s="15"/>
+      <c r="AH86" s="15"/>
+      <c r="AI86" s="15"/>
+      <c r="AJ86" s="15"/>
+      <c r="AK86" s="15"/>
+      <c r="AL86" s="15"/>
+      <c r="AM86" s="18"/>
+      <c r="AN86" s="7"/>
+    </row>
+    <row r="87" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="6"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="13">
+        <v>8</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="I87" s="16"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="17"/>
+      <c r="L87" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="M87" s="15"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P87" s="15"/>
+      <c r="Q87" s="15"/>
+      <c r="R87" s="17"/>
+      <c r="S87" s="14">
+        <v>1</v>
+      </c>
+      <c r="T87" s="17"/>
+      <c r="U87" s="14">
+        <v>1000</v>
+      </c>
+      <c r="V87" s="17"/>
+      <c r="W87" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="X87" s="15"/>
+      <c r="Y87" s="15"/>
+      <c r="Z87" s="17"/>
+      <c r="AA87" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB87" s="15"/>
+      <c r="AC87" s="17"/>
+      <c r="AD87" s="14"/>
+      <c r="AE87" s="15"/>
+      <c r="AF87" s="15"/>
+      <c r="AG87" s="15"/>
+      <c r="AH87" s="15"/>
+      <c r="AI87" s="15"/>
+      <c r="AJ87" s="15"/>
+      <c r="AK87" s="15"/>
+      <c r="AL87" s="15"/>
+      <c r="AM87" s="18"/>
+      <c r="AN87" s="7"/>
+    </row>
+    <row r="88" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="6"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="13">
+        <v>9</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="I88" s="16"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="M88" s="15"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P88" s="15"/>
+      <c r="Q88" s="15"/>
+      <c r="R88" s="17"/>
+      <c r="S88" s="14">
+        <v>1</v>
+      </c>
+      <c r="T88" s="17"/>
+      <c r="U88" s="14">
+        <v>1000</v>
+      </c>
+      <c r="V88" s="17"/>
+      <c r="W88" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="X88" s="15"/>
+      <c r="Y88" s="15"/>
+      <c r="Z88" s="17"/>
+      <c r="AA88" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB88" s="15"/>
+      <c r="AC88" s="17"/>
+      <c r="AD88" s="14"/>
+      <c r="AE88" s="15"/>
+      <c r="AF88" s="15"/>
+      <c r="AG88" s="15"/>
+      <c r="AH88" s="15"/>
+      <c r="AI88" s="15"/>
+      <c r="AJ88" s="15"/>
+      <c r="AK88" s="15"/>
+      <c r="AL88" s="15"/>
+      <c r="AM88" s="18"/>
+      <c r="AN88" s="7"/>
+    </row>
+    <row r="89" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="6"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="13">
+        <v>10</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="I89" s="16"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="17"/>
+      <c r="L89" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="M89" s="15"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P89" s="15"/>
+      <c r="Q89" s="15"/>
+      <c r="R89" s="17"/>
+      <c r="S89" s="14">
+        <v>0</v>
+      </c>
+      <c r="T89" s="17"/>
+      <c r="U89" s="14"/>
+      <c r="V89" s="17"/>
+      <c r="W89" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="X89" s="15"/>
+      <c r="Y89" s="15"/>
+      <c r="Z89" s="17"/>
+      <c r="AA89" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB89" s="15"/>
+      <c r="AC89" s="17"/>
+      <c r="AD89" s="14"/>
+      <c r="AE89" s="15"/>
+      <c r="AF89" s="15"/>
+      <c r="AG89" s="15"/>
+      <c r="AH89" s="15"/>
+      <c r="AI89" s="15"/>
+      <c r="AJ89" s="15"/>
+      <c r="AK89" s="15"/>
+      <c r="AL89" s="15"/>
+      <c r="AM89" s="18"/>
+      <c r="AN89" s="7"/>
+    </row>
+    <row r="90" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="6"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="13">
+        <v>13</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="I90" s="16"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="17"/>
+      <c r="L90" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="M90" s="15"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P90" s="15"/>
+      <c r="Q90" s="15"/>
+      <c r="R90" s="17"/>
+      <c r="S90" s="14">
+        <v>0</v>
+      </c>
+      <c r="T90" s="17"/>
+      <c r="U90" s="14">
+        <v>4</v>
+      </c>
+      <c r="V90" s="17"/>
+      <c r="W90" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="X90" s="15"/>
+      <c r="Y90" s="15"/>
+      <c r="Z90" s="17"/>
+      <c r="AA90" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="AB90" s="15"/>
+      <c r="AC90" s="17"/>
+      <c r="AD90" s="14"/>
+      <c r="AE90" s="15"/>
+      <c r="AF90" s="15"/>
+      <c r="AG90" s="15"/>
+      <c r="AH90" s="15"/>
+      <c r="AI90" s="15"/>
+      <c r="AJ90" s="15"/>
+      <c r="AK90" s="15"/>
+      <c r="AL90" s="15"/>
+      <c r="AM90" s="18"/>
+      <c r="AN90" s="7"/>
+    </row>
+    <row r="91" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="6"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="16"/>
+      <c r="J91" s="15"/>
+      <c r="K91" s="17"/>
+      <c r="L91" s="14"/>
+      <c r="M91" s="15"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="14"/>
+      <c r="P91" s="15"/>
+      <c r="Q91" s="15"/>
+      <c r="R91" s="17"/>
+      <c r="S91" s="14"/>
+      <c r="T91" s="17"/>
+      <c r="U91" s="14"/>
+      <c r="V91" s="17"/>
+      <c r="W91" s="14"/>
+      <c r="X91" s="15"/>
+      <c r="Y91" s="15"/>
+      <c r="Z91" s="17"/>
+      <c r="AA91" s="14"/>
+      <c r="AB91" s="15"/>
+      <c r="AC91" s="17"/>
+      <c r="AD91" s="14"/>
+      <c r="AE91" s="15"/>
+      <c r="AF91" s="15"/>
+      <c r="AG91" s="15"/>
+      <c r="AH91" s="15"/>
+      <c r="AI91" s="15"/>
+      <c r="AJ91" s="15"/>
+      <c r="AK91" s="15"/>
+      <c r="AL91" s="15"/>
+      <c r="AM91" s="18"/>
+      <c r="AN91" s="7"/>
+    </row>
+    <row r="92" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="6"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="16"/>
+      <c r="J92" s="15"/>
+      <c r="K92" s="17"/>
+      <c r="L92" s="14"/>
+      <c r="M92" s="15"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="14"/>
+      <c r="P92" s="15"/>
+      <c r="Q92" s="15"/>
+      <c r="R92" s="17"/>
+      <c r="S92" s="14"/>
+      <c r="T92" s="17"/>
+      <c r="U92" s="14"/>
+      <c r="V92" s="17"/>
+      <c r="W92" s="14"/>
+      <c r="X92" s="15"/>
+      <c r="Y92" s="15"/>
+      <c r="Z92" s="17"/>
+      <c r="AA92" s="14"/>
+      <c r="AB92" s="15"/>
+      <c r="AC92" s="17"/>
+      <c r="AD92" s="14"/>
+      <c r="AE92" s="15"/>
+      <c r="AF92" s="15"/>
+      <c r="AG92" s="15"/>
+      <c r="AH92" s="15"/>
+      <c r="AI92" s="15"/>
+      <c r="AJ92" s="15"/>
+      <c r="AK92" s="15"/>
+      <c r="AL92" s="15"/>
+      <c r="AM92" s="18"/>
+      <c r="AN92" s="7"/>
+    </row>
+    <row r="93" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="6"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="16"/>
+      <c r="J93" s="15"/>
+      <c r="K93" s="17"/>
+      <c r="L93" s="14"/>
+      <c r="M93" s="15"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="14"/>
+      <c r="P93" s="15"/>
+      <c r="Q93" s="15"/>
+      <c r="R93" s="17"/>
+      <c r="S93" s="14"/>
+      <c r="T93" s="17"/>
+      <c r="U93" s="14"/>
+      <c r="V93" s="17"/>
+      <c r="W93" s="14"/>
+      <c r="X93" s="15"/>
+      <c r="Y93" s="15"/>
+      <c r="Z93" s="17"/>
+      <c r="AA93" s="14"/>
+      <c r="AB93" s="15"/>
+      <c r="AC93" s="17"/>
+      <c r="AD93" s="14"/>
+      <c r="AE93" s="15"/>
+      <c r="AF93" s="15"/>
+      <c r="AG93" s="15"/>
+      <c r="AH93" s="15"/>
+      <c r="AI93" s="15"/>
+      <c r="AJ93" s="15"/>
+      <c r="AK93" s="15"/>
+      <c r="AL93" s="15"/>
+      <c r="AM93" s="18"/>
+      <c r="AN93" s="7"/>
+    </row>
+    <row r="94" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="6"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="16"/>
+      <c r="J94" s="15"/>
+      <c r="K94" s="17"/>
+      <c r="L94" s="14"/>
+      <c r="M94" s="15"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="14"/>
+      <c r="P94" s="15"/>
+      <c r="Q94" s="15"/>
+      <c r="R94" s="17"/>
+      <c r="S94" s="14"/>
+      <c r="T94" s="17"/>
+      <c r="U94" s="14"/>
+      <c r="V94" s="17"/>
+      <c r="W94" s="14"/>
+      <c r="X94" s="15"/>
+      <c r="Y94" s="15"/>
+      <c r="Z94" s="17"/>
+      <c r="AA94" s="14"/>
+      <c r="AB94" s="15"/>
+      <c r="AC94" s="17"/>
+      <c r="AD94" s="14"/>
+      <c r="AE94" s="15"/>
+      <c r="AF94" s="15"/>
+      <c r="AG94" s="15"/>
+      <c r="AH94" s="15"/>
+      <c r="AI94" s="15"/>
+      <c r="AJ94" s="15"/>
+      <c r="AK94" s="15"/>
+      <c r="AL94" s="15"/>
+      <c r="AM94" s="18"/>
+      <c r="AN94" s="7"/>
+    </row>
+    <row r="95" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="6"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="16"/>
+      <c r="J95" s="15"/>
+      <c r="K95" s="17"/>
+      <c r="L95" s="14"/>
+      <c r="M95" s="15"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="14"/>
+      <c r="P95" s="15"/>
+      <c r="Q95" s="15"/>
+      <c r="R95" s="17"/>
+      <c r="S95" s="14"/>
+      <c r="T95" s="17"/>
+      <c r="U95" s="14"/>
+      <c r="V95" s="17"/>
+      <c r="W95" s="14"/>
+      <c r="X95" s="15"/>
+      <c r="Y95" s="15"/>
+      <c r="Z95" s="17"/>
+      <c r="AA95" s="14"/>
+      <c r="AB95" s="15"/>
+      <c r="AC95" s="17"/>
+      <c r="AD95" s="14"/>
+      <c r="AE95" s="15"/>
+      <c r="AF95" s="15"/>
+      <c r="AG95" s="15"/>
+      <c r="AH95" s="15"/>
+      <c r="AI95" s="15"/>
+      <c r="AJ95" s="15"/>
+      <c r="AK95" s="15"/>
+      <c r="AL95" s="15"/>
+      <c r="AM95" s="18"/>
+      <c r="AN95" s="7"/>
+    </row>
+    <row r="96" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="6"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="16"/>
+      <c r="J96" s="15"/>
+      <c r="K96" s="17"/>
+      <c r="L96" s="14"/>
+      <c r="M96" s="15"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="14"/>
+      <c r="P96" s="15"/>
+      <c r="Q96" s="15"/>
+      <c r="R96" s="17"/>
+      <c r="S96" s="14"/>
+      <c r="T96" s="17"/>
+      <c r="U96" s="14"/>
+      <c r="V96" s="17"/>
+      <c r="W96" s="14"/>
+      <c r="X96" s="15"/>
+      <c r="Y96" s="15"/>
+      <c r="Z96" s="17"/>
+      <c r="AA96" s="14"/>
+      <c r="AB96" s="15"/>
+      <c r="AC96" s="17"/>
+      <c r="AD96" s="14"/>
+      <c r="AE96" s="15"/>
+      <c r="AF96" s="15"/>
+      <c r="AG96" s="15"/>
+      <c r="AH96" s="15"/>
+      <c r="AI96" s="15"/>
+      <c r="AJ96" s="15"/>
+      <c r="AK96" s="15"/>
+      <c r="AL96" s="15"/>
+      <c r="AM96" s="18"/>
+      <c r="AN96" s="7"/>
+    </row>
+    <row r="97" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="6"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="16"/>
+      <c r="J97" s="15"/>
+      <c r="K97" s="17"/>
+      <c r="L97" s="14"/>
+      <c r="M97" s="15"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="14"/>
+      <c r="P97" s="15"/>
+      <c r="Q97" s="15"/>
+      <c r="R97" s="17"/>
+      <c r="S97" s="14"/>
+      <c r="T97" s="17"/>
+      <c r="U97" s="14"/>
+      <c r="V97" s="17"/>
+      <c r="W97" s="14"/>
+      <c r="X97" s="15"/>
+      <c r="Y97" s="15"/>
+      <c r="Z97" s="17"/>
+      <c r="AA97" s="14"/>
+      <c r="AB97" s="15"/>
+      <c r="AC97" s="17"/>
+      <c r="AD97" s="14"/>
+      <c r="AE97" s="15"/>
+      <c r="AF97" s="15"/>
+      <c r="AG97" s="15"/>
+      <c r="AH97" s="15"/>
+      <c r="AI97" s="15"/>
+      <c r="AJ97" s="15"/>
+      <c r="AK97" s="15"/>
+      <c r="AL97" s="15"/>
+      <c r="AM97" s="18"/>
+      <c r="AN97" s="7"/>
+    </row>
+    <row r="98" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="6"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="16"/>
+      <c r="J98" s="15"/>
+      <c r="K98" s="17"/>
+      <c r="L98" s="14"/>
+      <c r="M98" s="15"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="14"/>
+      <c r="P98" s="15"/>
+      <c r="Q98" s="15"/>
+      <c r="R98" s="17"/>
+      <c r="S98" s="14"/>
+      <c r="T98" s="17"/>
+      <c r="U98" s="14"/>
+      <c r="V98" s="17"/>
+      <c r="W98" s="14"/>
+      <c r="X98" s="15"/>
+      <c r="Y98" s="15"/>
+      <c r="Z98" s="17"/>
+      <c r="AA98" s="14"/>
+      <c r="AB98" s="15"/>
+      <c r="AC98" s="17"/>
+      <c r="AD98" s="14"/>
+      <c r="AE98" s="15"/>
+      <c r="AF98" s="15"/>
+      <c r="AG98" s="15"/>
+      <c r="AH98" s="15"/>
+      <c r="AI98" s="15"/>
+      <c r="AJ98" s="15"/>
+      <c r="AK98" s="15"/>
+      <c r="AL98" s="15"/>
+      <c r="AM98" s="18"/>
+      <c r="AN98" s="7"/>
+    </row>
+    <row r="99" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="6"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="16"/>
+      <c r="J99" s="15"/>
+      <c r="K99" s="17"/>
+      <c r="L99" s="14"/>
+      <c r="M99" s="15"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="14"/>
+      <c r="P99" s="15"/>
+      <c r="Q99" s="15"/>
+      <c r="R99" s="17"/>
+      <c r="S99" s="14"/>
+      <c r="T99" s="17"/>
+      <c r="U99" s="14"/>
+      <c r="V99" s="17"/>
+      <c r="W99" s="14"/>
+      <c r="X99" s="15"/>
+      <c r="Y99" s="15"/>
+      <c r="Z99" s="17"/>
+      <c r="AA99" s="14"/>
+      <c r="AB99" s="15"/>
+      <c r="AC99" s="17"/>
+      <c r="AD99" s="14"/>
+      <c r="AE99" s="15"/>
+      <c r="AF99" s="15"/>
+      <c r="AG99" s="15"/>
+      <c r="AH99" s="15"/>
+      <c r="AI99" s="15"/>
+      <c r="AJ99" s="15"/>
+      <c r="AK99" s="15"/>
+      <c r="AL99" s="15"/>
+      <c r="AM99" s="18"/>
+      <c r="AN99" s="7"/>
+    </row>
+    <row r="100" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="6"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="16"/>
+      <c r="J100" s="15"/>
+      <c r="K100" s="17"/>
+      <c r="L100" s="14"/>
+      <c r="M100" s="15"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="14"/>
+      <c r="P100" s="15"/>
+      <c r="Q100" s="15"/>
+      <c r="R100" s="17"/>
+      <c r="S100" s="14"/>
+      <c r="T100" s="17"/>
+      <c r="U100" s="14"/>
+      <c r="V100" s="17"/>
+      <c r="W100" s="14"/>
+      <c r="X100" s="15"/>
+      <c r="Y100" s="15"/>
+      <c r="Z100" s="17"/>
+      <c r="AA100" s="14"/>
+      <c r="AB100" s="15"/>
+      <c r="AC100" s="17"/>
+      <c r="AD100" s="14"/>
+      <c r="AE100" s="15"/>
+      <c r="AF100" s="15"/>
+      <c r="AG100" s="15"/>
+      <c r="AH100" s="15"/>
+      <c r="AI100" s="15"/>
+      <c r="AJ100" s="15"/>
+      <c r="AK100" s="15"/>
+      <c r="AL100" s="15"/>
+      <c r="AM100" s="18"/>
+      <c r="AN100" s="7"/>
+    </row>
+    <row r="101" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="6"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="16"/>
+      <c r="J101" s="15"/>
+      <c r="K101" s="17"/>
+      <c r="L101" s="14"/>
+      <c r="M101" s="15"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="14"/>
+      <c r="P101" s="15"/>
+      <c r="Q101" s="15"/>
+      <c r="R101" s="17"/>
+      <c r="S101" s="14"/>
+      <c r="T101" s="17"/>
+      <c r="U101" s="14"/>
+      <c r="V101" s="17"/>
+      <c r="W101" s="14"/>
+      <c r="X101" s="15"/>
+      <c r="Y101" s="15"/>
+      <c r="Z101" s="17"/>
+      <c r="AA101" s="14"/>
+      <c r="AB101" s="15"/>
+      <c r="AC101" s="17"/>
+      <c r="AD101" s="14"/>
+      <c r="AE101" s="15"/>
+      <c r="AF101" s="15"/>
+      <c r="AG101" s="15"/>
+      <c r="AH101" s="15"/>
+      <c r="AI101" s="15"/>
+      <c r="AJ101" s="15"/>
+      <c r="AK101" s="15"/>
+      <c r="AL101" s="15"/>
+      <c r="AM101" s="18"/>
+      <c r="AN101" s="7"/>
+    </row>
+    <row r="102" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="6"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="16"/>
+      <c r="J102" s="15"/>
+      <c r="K102" s="17"/>
+      <c r="L102" s="14"/>
+      <c r="M102" s="15"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="14"/>
+      <c r="P102" s="15"/>
+      <c r="Q102" s="15"/>
+      <c r="R102" s="17"/>
+      <c r="S102" s="14"/>
+      <c r="T102" s="17"/>
+      <c r="U102" s="14"/>
+      <c r="V102" s="17"/>
+      <c r="W102" s="14"/>
+      <c r="X102" s="15"/>
+      <c r="Y102" s="15"/>
+      <c r="Z102" s="17"/>
+      <c r="AA102" s="14"/>
+      <c r="AB102" s="15"/>
+      <c r="AC102" s="17"/>
+      <c r="AD102" s="14"/>
+      <c r="AE102" s="15"/>
+      <c r="AF102" s="15"/>
+      <c r="AG102" s="15"/>
+      <c r="AH102" s="15"/>
+      <c r="AI102" s="15"/>
+      <c r="AJ102" s="15"/>
+      <c r="AK102" s="15"/>
+      <c r="AL102" s="15"/>
+      <c r="AM102" s="18"/>
+      <c r="AN102" s="7"/>
+    </row>
+    <row r="103" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="6"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="16"/>
+      <c r="J103" s="15"/>
+      <c r="K103" s="17"/>
+      <c r="L103" s="14"/>
+      <c r="M103" s="15"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="14"/>
+      <c r="P103" s="15"/>
+      <c r="Q103" s="15"/>
+      <c r="R103" s="17"/>
+      <c r="S103" s="14"/>
+      <c r="T103" s="17"/>
+      <c r="U103" s="14"/>
+      <c r="V103" s="17"/>
+      <c r="W103" s="14"/>
+      <c r="X103" s="15"/>
+      <c r="Y103" s="15"/>
+      <c r="Z103" s="17"/>
+      <c r="AA103" s="14"/>
+      <c r="AB103" s="15"/>
+      <c r="AC103" s="17"/>
+      <c r="AD103" s="14"/>
+      <c r="AE103" s="15"/>
+      <c r="AF103" s="15"/>
+      <c r="AG103" s="15"/>
+      <c r="AH103" s="15"/>
+      <c r="AI103" s="15"/>
+      <c r="AJ103" s="15"/>
+      <c r="AK103" s="15"/>
+      <c r="AL103" s="15"/>
+      <c r="AM103" s="18"/>
+      <c r="AN103" s="7"/>
+    </row>
+    <row r="104" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="6"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="16"/>
+      <c r="J104" s="15"/>
+      <c r="K104" s="17"/>
+      <c r="L104" s="14"/>
+      <c r="M104" s="15"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="14"/>
+      <c r="P104" s="15"/>
+      <c r="Q104" s="15"/>
+      <c r="R104" s="17"/>
+      <c r="S104" s="14"/>
+      <c r="T104" s="17"/>
+      <c r="U104" s="14"/>
+      <c r="V104" s="17"/>
+      <c r="W104" s="14"/>
+      <c r="X104" s="15"/>
+      <c r="Y104" s="15"/>
+      <c r="Z104" s="17"/>
+      <c r="AA104" s="14"/>
+      <c r="AB104" s="15"/>
+      <c r="AC104" s="17"/>
+      <c r="AD104" s="14"/>
+      <c r="AE104" s="15"/>
+      <c r="AF104" s="15"/>
+      <c r="AG104" s="15"/>
+      <c r="AH104" s="15"/>
+      <c r="AI104" s="15"/>
+      <c r="AJ104" s="15"/>
+      <c r="AK104" s="15"/>
+      <c r="AL104" s="15"/>
+      <c r="AM104" s="18"/>
+      <c r="AN104" s="7"/>
+    </row>
+    <row r="105" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="6"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="16"/>
+      <c r="J105" s="15"/>
+      <c r="K105" s="17"/>
+      <c r="L105" s="14"/>
+      <c r="M105" s="15"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="14"/>
+      <c r="P105" s="15"/>
+      <c r="Q105" s="15"/>
+      <c r="R105" s="17"/>
+      <c r="S105" s="14"/>
+      <c r="T105" s="17"/>
+      <c r="U105" s="14"/>
+      <c r="V105" s="17"/>
+      <c r="W105" s="14"/>
+      <c r="X105" s="15"/>
+      <c r="Y105" s="15"/>
+      <c r="Z105" s="17"/>
+      <c r="AA105" s="14"/>
+      <c r="AB105" s="15"/>
+      <c r="AC105" s="17"/>
+      <c r="AD105" s="14"/>
+      <c r="AE105" s="15"/>
+      <c r="AF105" s="15"/>
+      <c r="AG105" s="15"/>
+      <c r="AH105" s="15"/>
+      <c r="AI105" s="15"/>
+      <c r="AJ105" s="15"/>
+      <c r="AK105" s="15"/>
+      <c r="AL105" s="15"/>
+      <c r="AM105" s="18"/>
+      <c r="AN105" s="7"/>
+    </row>
+    <row r="106" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="6"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="16"/>
+      <c r="J106" s="15"/>
+      <c r="K106" s="17"/>
+      <c r="L106" s="14"/>
+      <c r="M106" s="15"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="14"/>
+      <c r="P106" s="15"/>
+      <c r="Q106" s="15"/>
+      <c r="R106" s="17"/>
+      <c r="S106" s="14"/>
+      <c r="T106" s="17"/>
+      <c r="U106" s="14"/>
+      <c r="V106" s="17"/>
+      <c r="W106" s="14"/>
+      <c r="X106" s="15"/>
+      <c r="Y106" s="15"/>
+      <c r="Z106" s="17"/>
+      <c r="AA106" s="14"/>
+      <c r="AB106" s="15"/>
+      <c r="AC106" s="17"/>
+      <c r="AD106" s="14"/>
+      <c r="AE106" s="15"/>
+      <c r="AF106" s="15"/>
+      <c r="AG106" s="15"/>
+      <c r="AH106" s="15"/>
+      <c r="AI106" s="15"/>
+      <c r="AJ106" s="15"/>
+      <c r="AK106" s="15"/>
+      <c r="AL106" s="15"/>
+      <c r="AM106" s="18"/>
+      <c r="AN106" s="7"/>
+    </row>
+    <row r="107" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="6"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="14"/>
+      <c r="I107" s="16"/>
+      <c r="J107" s="15"/>
+      <c r="K107" s="17"/>
+      <c r="L107" s="14"/>
+      <c r="M107" s="15"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="14"/>
+      <c r="P107" s="15"/>
+      <c r="Q107" s="15"/>
+      <c r="R107" s="17"/>
+      <c r="S107" s="14"/>
+      <c r="T107" s="17"/>
+      <c r="U107" s="14"/>
+      <c r="V107" s="17"/>
+      <c r="W107" s="14"/>
+      <c r="X107" s="15"/>
+      <c r="Y107" s="15"/>
+      <c r="Z107" s="17"/>
+      <c r="AA107" s="14"/>
+      <c r="AB107" s="15"/>
+      <c r="AC107" s="17"/>
+      <c r="AD107" s="14"/>
+      <c r="AE107" s="15"/>
+      <c r="AF107" s="15"/>
+      <c r="AG107" s="15"/>
+      <c r="AH107" s="15"/>
+      <c r="AI107" s="15"/>
+      <c r="AJ107" s="15"/>
+      <c r="AK107" s="15"/>
+      <c r="AL107" s="15"/>
+      <c r="AM107" s="18"/>
+      <c r="AN107" s="7"/>
+    </row>
+    <row r="108" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="6"/>
+      <c r="B108" s="12"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="14"/>
+      <c r="I108" s="16"/>
+      <c r="J108" s="15"/>
+      <c r="K108" s="17"/>
+      <c r="L108" s="14"/>
+      <c r="M108" s="15"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="14"/>
+      <c r="P108" s="15"/>
+      <c r="Q108" s="15"/>
+      <c r="R108" s="17"/>
+      <c r="S108" s="14"/>
+      <c r="T108" s="17"/>
+      <c r="U108" s="14"/>
+      <c r="V108" s="17"/>
+      <c r="W108" s="14"/>
+      <c r="X108" s="15"/>
+      <c r="Y108" s="15"/>
+      <c r="Z108" s="17"/>
+      <c r="AA108" s="14"/>
+      <c r="AB108" s="15"/>
+      <c r="AC108" s="17"/>
+      <c r="AD108" s="14"/>
+      <c r="AE108" s="15"/>
+      <c r="AF108" s="15"/>
+      <c r="AG108" s="15"/>
+      <c r="AH108" s="15"/>
+      <c r="AI108" s="15"/>
+      <c r="AJ108" s="15"/>
+      <c r="AK108" s="15"/>
+      <c r="AL108" s="15"/>
+      <c r="AM108" s="18"/>
+      <c r="AN108" s="7"/>
+    </row>
+    <row r="109" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="6"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="16"/>
+      <c r="J109" s="15"/>
+      <c r="K109" s="17"/>
+      <c r="L109" s="14"/>
+      <c r="M109" s="15"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="14"/>
+      <c r="P109" s="15"/>
+      <c r="Q109" s="15"/>
+      <c r="R109" s="17"/>
+      <c r="S109" s="14"/>
+      <c r="T109" s="17"/>
+      <c r="U109" s="14"/>
+      <c r="V109" s="17"/>
+      <c r="W109" s="14"/>
+      <c r="X109" s="15"/>
+      <c r="Y109" s="15"/>
+      <c r="Z109" s="17"/>
+      <c r="AA109" s="14"/>
+      <c r="AB109" s="15"/>
+      <c r="AC109" s="17"/>
+      <c r="AD109" s="14"/>
+      <c r="AE109" s="15"/>
+      <c r="AF109" s="15"/>
+      <c r="AG109" s="15"/>
+      <c r="AH109" s="15"/>
+      <c r="AI109" s="15"/>
+      <c r="AJ109" s="15"/>
+      <c r="AK109" s="15"/>
+      <c r="AL109" s="15"/>
+      <c r="AM109" s="18"/>
+      <c r="AN109" s="7"/>
+    </row>
+    <row r="110" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="9"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="10"/>
+      <c r="I110" s="10"/>
+      <c r="J110" s="10"/>
+      <c r="K110" s="10"/>
+      <c r="L110" s="10"/>
+      <c r="M110" s="10"/>
+      <c r="N110" s="10"/>
+      <c r="O110" s="10"/>
+      <c r="P110" s="10"/>
+      <c r="Q110" s="10"/>
+      <c r="R110" s="10"/>
+      <c r="S110" s="10"/>
+      <c r="T110" s="10"/>
+      <c r="U110" s="10"/>
+      <c r="V110" s="10"/>
+      <c r="W110" s="10"/>
+      <c r="X110" s="10"/>
+      <c r="Y110" s="10"/>
+      <c r="Z110" s="10"/>
+      <c r="AA110" s="10"/>
+      <c r="AB110" s="10"/>
+      <c r="AC110" s="10"/>
+      <c r="AD110" s="10"/>
+      <c r="AE110" s="10"/>
+      <c r="AF110" s="10"/>
+      <c r="AG110" s="10"/>
+      <c r="AH110" s="10"/>
+      <c r="AI110" s="10"/>
+      <c r="AJ110" s="10"/>
+      <c r="AK110" s="10"/>
+      <c r="AL110" s="10"/>
+      <c r="AM110" s="10"/>
+      <c r="AN110" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="N3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AN3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:AN4"/>
+    <mergeCell ref="A1:J4"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:AN1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="K3:M3"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;C&amp;8&amp;P／&amp;"／,標準"&amp;N</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA384EF-9747-46FC-8D82-DC4465294D64}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AG19" sqref="AG19"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="W80" sqref="W80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -23099,200 +28823,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="31" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31" t="s">
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="32"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="40"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="33" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33" t="s">
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33" t="s">
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="34" t="s">
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="36"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="43"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="33" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33" t="s">
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33" t="s">
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="37">
+      <c r="X3" s="26"/>
+      <c r="Y3" s="25">
         <v>45453</v>
       </c>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="19" t="s">
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="20"/>
-      <c r="AK3" s="20"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="20"/>
-      <c r="AN3" s="21"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="28"/>
+      <c r="AL3" s="28"/>
+      <c r="AM3" s="28"/>
+      <c r="AN3" s="29"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="22" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23"/>
-      <c r="AI4" s="23"/>
-      <c r="AJ4" s="23"/>
-      <c r="AK4" s="23"/>
-      <c r="AL4" s="23"/>
-      <c r="AM4" s="23"/>
-      <c r="AN4" s="24"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="31"/>
+      <c r="AN4" s="32"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -27731,6 +33455,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
@@ -27747,7 +33472,6 @@
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -27759,12 +33483,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E42117-F9D3-420F-8EC6-2063C6EB37EA}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="AE81" sqref="AE81"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -27773,200 +33497,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="31" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31" t="s">
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="32"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="40"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="33" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33" t="s">
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33" t="s">
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="34" t="s">
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="36"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="43"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="33" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33" t="s">
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33" t="s">
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="37">
+      <c r="X3" s="26"/>
+      <c r="Y3" s="25">
         <v>45453</v>
       </c>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="19" t="s">
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="20"/>
-      <c r="AK3" s="20"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="20"/>
-      <c r="AN3" s="21"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="28"/>
+      <c r="AL3" s="28"/>
+      <c r="AM3" s="28"/>
+      <c r="AN3" s="29"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="22" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23"/>
-      <c r="AI4" s="23"/>
-      <c r="AJ4" s="23"/>
-      <c r="AK4" s="23"/>
-      <c r="AL4" s="23"/>
-      <c r="AM4" s="23"/>
-      <c r="AN4" s="24"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="31"/>
+      <c r="AN4" s="32"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -31083,7 +36807,7 @@
       <c r="U80" s="14"/>
       <c r="V80" s="17"/>
       <c r="W80" s="14" t="s">
-        <v>140</v>
+        <v>228</v>
       </c>
       <c r="X80" s="15"/>
       <c r="Y80" s="15"/>
@@ -31112,13 +36836,13 @@
         <v>2</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
       <c r="G81" s="13"/>
       <c r="H81" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I81" s="16"/>
       <c r="J81" s="15"/>
@@ -31139,13 +36863,13 @@
       <c r="U81" s="14"/>
       <c r="V81" s="17"/>
       <c r="W81" s="14" t="s">
-        <v>140</v>
+        <v>228</v>
       </c>
       <c r="X81" s="15"/>
       <c r="Y81" s="15"/>
       <c r="Z81" s="17"/>
       <c r="AA81" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AB81" s="15"/>
       <c r="AC81" s="15"/>
@@ -31168,13 +36892,13 @@
         <v>3</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
       <c r="G82" s="13"/>
       <c r="H82" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I82" s="16"/>
       <c r="J82" s="15"/>
@@ -31195,13 +36919,13 @@
       <c r="U82" s="14"/>
       <c r="V82" s="17"/>
       <c r="W82" s="14" t="s">
-        <v>140</v>
+        <v>228</v>
       </c>
       <c r="X82" s="15"/>
       <c r="Y82" s="15"/>
       <c r="Z82" s="17"/>
       <c r="AA82" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AB82" s="15"/>
       <c r="AC82" s="15"/>
@@ -31224,13 +36948,13 @@
         <v>4</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
       <c r="H83" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I83" s="16"/>
       <c r="J83" s="15"/>
@@ -31251,13 +36975,13 @@
       <c r="U83" s="14"/>
       <c r="V83" s="17"/>
       <c r="W83" s="14" t="s">
-        <v>140</v>
+        <v>228</v>
       </c>
       <c r="X83" s="15"/>
       <c r="Y83" s="15"/>
       <c r="Z83" s="17"/>
       <c r="AA83" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB83" s="15"/>
       <c r="AC83" s="15"/>
@@ -31280,13 +37004,13 @@
         <v>5</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
       <c r="G84" s="13"/>
       <c r="H84" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I84" s="16"/>
       <c r="J84" s="15"/>
@@ -31305,13 +37029,13 @@
       <c r="U84" s="14"/>
       <c r="V84" s="17"/>
       <c r="W84" s="14" t="s">
-        <v>140</v>
+        <v>228</v>
       </c>
       <c r="X84" s="15"/>
       <c r="Y84" s="15"/>
       <c r="Z84" s="17"/>
       <c r="AA84" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB84" s="15"/>
       <c r="AC84" s="15"/>
@@ -32421,6 +38145,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
@@ -32437,7 +38162,6 @@
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -32449,12 +38173,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863422FC-4285-44E8-BD28-87F4C36B0A11}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" zoomScale="137" workbookViewId="0">
-      <selection activeCell="AA84" sqref="AA84"/>
+      <selection activeCell="V88" sqref="V88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -32463,198 +38187,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="31" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31" t="s">
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="32"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="40"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="33" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="34" t="s">
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="36"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="43"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="33" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33" t="s">
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="37">
+      <c r="X3" s="26"/>
+      <c r="Y3" s="25">
         <v>45453</v>
       </c>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="19" t="s">
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="20"/>
-      <c r="AK3" s="20"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="20"/>
-      <c r="AN3" s="21"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="28"/>
+      <c r="AL3" s="28"/>
+      <c r="AM3" s="28"/>
+      <c r="AN3" s="29"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="22" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23"/>
-      <c r="AI4" s="23"/>
-      <c r="AJ4" s="23"/>
-      <c r="AK4" s="23"/>
-      <c r="AL4" s="23"/>
-      <c r="AM4" s="23"/>
-      <c r="AN4" s="24"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="31"/>
+      <c r="AN4" s="32"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -32747,15 +38471,15 @@
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -32789,15 +38513,15 @@
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -32831,17 +38555,17 @@
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
-      <c r="B10" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
+      <c r="B10" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
@@ -32875,17 +38599,17 @@
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
@@ -32919,17 +38643,17 @@
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
-      <c r="B12" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
+      <c r="B12" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
@@ -32963,15 +38687,15 @@
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
@@ -33005,15 +38729,15 @@
     </row>
     <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
@@ -33047,15 +38771,15 @@
     </row>
     <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
@@ -33089,15 +38813,15 @@
     </row>
     <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
@@ -33131,15 +38855,15 @@
     </row>
     <row r="17" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
@@ -33173,15 +38897,15 @@
     </row>
     <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
@@ -33215,15 +38939,15 @@
     </row>
     <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
@@ -33257,15 +38981,15 @@
     </row>
     <row r="20" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
@@ -33299,15 +39023,15 @@
     </row>
     <row r="21" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
@@ -33341,15 +39065,15 @@
     </row>
     <row r="22" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
@@ -33383,15 +39107,15 @@
     </row>
     <row r="23" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
@@ -33425,15 +39149,15 @@
     </row>
     <row r="24" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
@@ -33467,15 +39191,15 @@
     </row>
     <row r="25" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
@@ -33509,15 +39233,15 @@
     </row>
     <row r="26" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
@@ -33551,15 +39275,15 @@
     </row>
     <row r="27" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
@@ -33593,15 +39317,15 @@
     </row>
     <row r="28" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
@@ -33635,15 +39359,15 @@
     </row>
     <row r="29" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
@@ -33677,15 +39401,15 @@
     </row>
     <row r="30" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
@@ -33719,15 +39443,15 @@
     </row>
     <row r="31" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
@@ -33761,15 +39485,15 @@
     </row>
     <row r="32" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
@@ -33803,15 +39527,15 @@
     </row>
     <row r="33" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
@@ -33845,15 +39569,15 @@
     </row>
     <row r="34" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
@@ -33887,15 +39611,15 @@
     </row>
     <row r="35" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
@@ -33929,15 +39653,15 @@
     </row>
     <row r="36" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
@@ -33971,15 +39695,15 @@
     </row>
     <row r="37" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
@@ -34013,15 +39737,15 @@
     </row>
     <row r="38" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
@@ -34055,15 +39779,15 @@
     </row>
     <row r="39" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="6"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
@@ -34390,7 +40114,7 @@
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
@@ -34471,7 +40195,7 @@
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="D49" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -34541,7 +40265,7 @@
       <c r="B51" s="6"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="8"/>
@@ -34627,7 +40351,7 @@
         <v>80</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="8"/>
@@ -34710,7 +40434,7 @@
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="D55" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -34756,7 +40480,7 @@
         <v>85</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="8"/>
@@ -34798,7 +40522,7 @@
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="D57" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -34841,7 +40565,7 @@
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="D58" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -34884,7 +40608,7 @@
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="D59" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -34968,7 +40692,7 @@
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="D61" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -35772,13 +41496,13 @@
         <v>1</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
       <c r="G80" s="13"/>
       <c r="H80" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I80" s="16"/>
       <c r="J80" s="15"/>
@@ -35797,13 +41521,13 @@
       <c r="U80" s="14"/>
       <c r="V80" s="17"/>
       <c r="W80" s="14" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="X80" s="15"/>
       <c r="Y80" s="15"/>
       <c r="Z80" s="17"/>
       <c r="AA80" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB80" s="15"/>
       <c r="AC80" s="17"/>
@@ -35826,13 +41550,13 @@
         <v>2</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
       <c r="G81" s="13"/>
       <c r="H81" s="14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I81" s="16"/>
       <c r="J81" s="15"/>
@@ -35851,13 +41575,13 @@
       <c r="U81" s="14"/>
       <c r="V81" s="17"/>
       <c r="W81" s="14" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="X81" s="15"/>
       <c r="Y81" s="15"/>
       <c r="Z81" s="17"/>
       <c r="AA81" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AB81" s="15"/>
       <c r="AC81" s="17"/>
@@ -35880,7 +41604,7 @@
         <v>3</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
@@ -35905,13 +41629,13 @@
       <c r="U82" s="14"/>
       <c r="V82" s="17"/>
       <c r="W82" s="14" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="X82" s="15"/>
       <c r="Y82" s="15"/>
       <c r="Z82" s="17"/>
       <c r="AA82" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AB82" s="15"/>
       <c r="AC82" s="17"/>
@@ -35934,13 +41658,13 @@
         <v>4</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
       <c r="H83" s="14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I83" s="16"/>
       <c r="J83" s="15"/>
@@ -35959,13 +41683,13 @@
       <c r="U83" s="14"/>
       <c r="V83" s="17"/>
       <c r="W83" s="14" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="X83" s="15"/>
       <c r="Y83" s="15"/>
       <c r="Z83" s="17"/>
       <c r="AA83" s="14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AB83" s="15"/>
       <c r="AC83" s="17"/>
@@ -35988,13 +41712,13 @@
         <v>5</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
       <c r="G84" s="13"/>
       <c r="H84" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I84" s="16"/>
       <c r="J84" s="15"/>
@@ -36015,13 +41739,13 @@
       <c r="U84" s="14"/>
       <c r="V84" s="17"/>
       <c r="W84" s="14" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="X84" s="15"/>
       <c r="Y84" s="15"/>
       <c r="Z84" s="17"/>
       <c r="AA84" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AB84" s="15"/>
       <c r="AC84" s="17"/>
@@ -36044,13 +41768,13 @@
         <v>6</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
       <c r="G85" s="13"/>
       <c r="H85" s="14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I85" s="16"/>
       <c r="J85" s="15"/>
@@ -36075,13 +41799,13 @@
       </c>
       <c r="V85" s="17"/>
       <c r="W85" s="14" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="X85" s="15"/>
       <c r="Y85" s="15"/>
       <c r="Z85" s="17"/>
       <c r="AA85" s="14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AB85" s="15"/>
       <c r="AC85" s="17"/>
@@ -36104,13 +41828,13 @@
         <v>7</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
       <c r="G86" s="13"/>
       <c r="H86" s="14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I86" s="16"/>
       <c r="J86" s="15"/>
@@ -36128,7 +41852,9 @@
       <c r="T86" s="17"/>
       <c r="U86" s="14"/>
       <c r="V86" s="17"/>
-      <c r="W86" s="14"/>
+      <c r="W86" s="14" t="s">
+        <v>229</v>
+      </c>
       <c r="X86" s="15"/>
       <c r="Y86" s="15"/>
       <c r="Z86" s="17"/>
@@ -36154,13 +41880,13 @@
         <v>8</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
       <c r="G87" s="13"/>
       <c r="H87" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I87" s="16"/>
       <c r="J87" s="15"/>
@@ -36204,7 +41930,7 @@
         <v>9</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
@@ -36254,13 +41980,13 @@
         <v>10</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
       <c r="G89" s="13"/>
       <c r="H89" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I89" s="16"/>
       <c r="J89" s="15"/>
@@ -36304,13 +42030,13 @@
         <v>11</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
       <c r="G90" s="13"/>
       <c r="H90" s="14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I90" s="16"/>
       <c r="J90" s="15"/>
@@ -36336,7 +42062,7 @@
       <c r="AB90" s="15"/>
       <c r="AC90" s="17"/>
       <c r="AD90" s="14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AE90" s="15"/>
       <c r="AF90" s="15"/>
@@ -36356,13 +42082,13 @@
         <v>12</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
       <c r="G91" s="13"/>
       <c r="H91" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I91" s="16"/>
       <c r="J91" s="15"/>
@@ -36383,18 +42109,18 @@
       <c r="U91" s="14"/>
       <c r="V91" s="17"/>
       <c r="W91" s="14" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="X91" s="15"/>
       <c r="Y91" s="15"/>
       <c r="Z91" s="17"/>
       <c r="AA91" s="14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AB91" s="15"/>
       <c r="AC91" s="17"/>
       <c r="AD91" s="14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AE91" s="15"/>
       <c r="AF91" s="15"/>
@@ -36414,13 +42140,13 @@
         <v>13</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E92" s="15"/>
       <c r="F92" s="15"/>
       <c r="G92" s="13"/>
       <c r="H92" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I92" s="16"/>
       <c r="J92" s="15"/>
@@ -36443,18 +42169,18 @@
       <c r="U92" s="14"/>
       <c r="V92" s="17"/>
       <c r="W92" s="14" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="X92" s="15"/>
       <c r="Y92" s="15"/>
       <c r="Z92" s="17"/>
       <c r="AA92" s="14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AB92" s="15"/>
       <c r="AC92" s="17"/>
       <c r="AD92" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AE92" s="15"/>
       <c r="AF92" s="15"/>
@@ -37225,11 +42951,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="N3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
@@ -37242,6 +42963,11 @@
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>

--- a/doc/外部設計書/02_外部設計書_C4.xlsx
+++ b/doc/外部設計書/02_外部設計書_C4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C4\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B506E0-A015-4517-B16D-7A6F5FC149C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B9635E-E9D3-4AA7-A8FE-DE78ECC81244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン " sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="239">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -1688,19 +1688,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>言語：クリックしたとき、話せる言語をプルダウン形式で選択</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンゴ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>誕生日：クリックしたとき、誕生日をプルダウン形式で選択</t>
     <rPh sb="0" eb="3">
       <t>タンジョウビ</t>
@@ -1729,6 +1716,56 @@
   </si>
   <si>
     <t>テンギ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>言語：クリックしたとき、ポップアップで話せる言語をチェックボックス形式で選択</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>写真の場合、POSTの中に表示させる</t>
+    <rPh sb="0" eb="2">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ファイルはすべての形式を取り扱える。</t>
+    <rPh sb="9" eb="11">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アツカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>その他は、アイコンで表示させる</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ファイルはダウンロードできる。</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2137,6 +2174,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2187,12 +2230,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4627,15 +4664,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4650,7 +4687,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5410200" y="2369820"/>
+          <a:off x="5417820" y="2705100"/>
           <a:ext cx="1089660" cy="556260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5125,15 +5162,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5148,7 +5185,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6568440" y="2484120"/>
+          <a:off x="6576060" y="2827020"/>
           <a:ext cx="281940" cy="289560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5310,6 +5347,75 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1401C409-A36B-462D-A79A-3DF869F2EC98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5410200" y="1882140"/>
+          <a:ext cx="998220" cy="716280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>選択された</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>言語一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5408,8 +5514,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10256841" y="1799534"/>
-          <a:ext cx="4070043" cy="2923796"/>
+          <a:off x="10481731" y="1801736"/>
+          <a:ext cx="4161369" cy="2929014"/>
           <a:chOff x="10211255" y="1856458"/>
           <a:chExt cx="4051531" cy="3040422"/>
         </a:xfrm>
@@ -5844,7 +5950,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]Sheet1!$B$1:$X$49" spid="_x0000_s7174"/>
+                  <a14:cameraTool cellRange="[1]Sheet1!$B$1:$X$49" spid="_x0000_s7175"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -9581,200 +9687,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="32" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32" t="s">
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="33"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="35"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="34" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34" t="s">
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34" t="s">
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34" t="s">
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="35" t="s">
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="39"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="34" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34" t="s">
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34" t="s">
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="38">
+      <c r="X3" s="36"/>
+      <c r="Y3" s="40">
         <v>45450</v>
       </c>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="39" t="s">
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="40"/>
-      <c r="AK3" s="40"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="43"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="42" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="43"/>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="43"/>
-      <c r="AK4" s="43"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="26"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="26"/>
+      <c r="AM4" s="26"/>
+      <c r="AN4" s="27"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -14195,6 +14301,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="K1:M1"/>
@@ -14211,7 +14318,6 @@
     <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
-    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -14237,200 +14343,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="32" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32" t="s">
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="33"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="35"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="34" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34" t="s">
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34" t="s">
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34" t="s">
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="35" t="s">
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="39"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="34" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34" t="s">
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34" t="s">
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="38">
+      <c r="X3" s="36"/>
+      <c r="Y3" s="40">
         <v>45450</v>
       </c>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="39" t="s">
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="40"/>
-      <c r="AK3" s="40"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="43"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="42" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="43"/>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="43"/>
-      <c r="AK4" s="43"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="26"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="26"/>
+      <c r="AM4" s="26"/>
+      <c r="AN4" s="27"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -18977,6 +19083,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="K1:M1"/>
@@ -18993,7 +19100,6 @@
     <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
-    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -19009,8 +19115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782D64D3-14EE-471A-BA36-00313CDDC2C0}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -19019,200 +19125,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="32" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32" t="s">
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="33"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="35"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="34" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34" t="s">
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34" t="s">
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34" t="s">
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="35" t="s">
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="39"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="34" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34" t="s">
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34" t="s">
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="38">
+      <c r="X3" s="36"/>
+      <c r="Y3" s="40">
         <v>45453</v>
       </c>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="39" t="s">
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="40"/>
-      <c r="AK3" s="40"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="43"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="42" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="43"/>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="43"/>
-      <c r="AK4" s="43"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="26"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="26"/>
+      <c r="AM4" s="26"/>
+      <c r="AN4" s="27"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -21120,7 +21226,7 @@
         <v>73</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
@@ -21334,7 +21440,7 @@
         <v>77</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
@@ -23723,6 +23829,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:AN1"/>
@@ -23739,7 +23846,6 @@
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:AN4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -23755,8 +23861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1C4922-25EA-44A9-A7D8-04BEB169C0D8}">
   <dimension ref="A1:AS110"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2:AE2"/>
+    <sheetView zoomScale="105" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="V48" sqref="V48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -23767,200 +23873,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="32" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32" t="s">
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="33"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="35"/>
     </row>
     <row r="2" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="34" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34" t="s">
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34" t="s">
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34" t="s">
-        <v>234</v>
-      </c>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="35" t="s">
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="39"/>
     </row>
     <row r="3" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="34" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34" t="s">
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34" t="s">
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="38">
+      <c r="X3" s="36"/>
+      <c r="Y3" s="40">
         <v>45453</v>
       </c>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="39" t="s">
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="40"/>
-      <c r="AK3" s="40"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="43"/>
     </row>
     <row r="4" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="42" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="43"/>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="43"/>
-      <c r="AK4" s="43"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="26"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="26"/>
+      <c r="AM4" s="26"/>
+      <c r="AN4" s="27"/>
     </row>
     <row r="5" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -26235,7 +26341,9 @@
     <row r="61" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
-      <c r="E61" s="8"/>
+      <c r="E61" s="8" t="s">
+        <v>236</v>
+      </c>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
@@ -26276,7 +26384,9 @@
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
+      <c r="F62" s="8" t="s">
+        <v>235</v>
+      </c>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
@@ -26316,7 +26426,9 @@
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
+      <c r="F63" s="8" t="s">
+        <v>237</v>
+      </c>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
@@ -26355,8 +26467,9 @@
     <row r="64" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
+      <c r="E64" s="8" t="s">
+        <v>238</v>
+      </c>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
       <c r="I64" s="8"/>
@@ -28472,6 +28585,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
@@ -28488,7 +28602,6 @@
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -28505,7 +28618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA384EF-9747-46FC-8D82-DC4465294D64}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="W80" sqref="W80"/>
     </sheetView>
   </sheetViews>
@@ -28515,200 +28628,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="32" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32" t="s">
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="33"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="35"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="34" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34" t="s">
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34" t="s">
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34" t="s">
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="35" t="s">
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="39"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="34" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34" t="s">
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34" t="s">
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="38">
+      <c r="X3" s="36"/>
+      <c r="Y3" s="40">
         <v>45453</v>
       </c>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="39" t="s">
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="40"/>
-      <c r="AK3" s="40"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="43"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="42" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="43"/>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="43"/>
-      <c r="AK4" s="43"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="26"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="26"/>
+      <c r="AM4" s="26"/>
+      <c r="AN4" s="27"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -33147,11 +33260,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:AN1"/>
@@ -33164,6 +33272,11 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AN3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:AN4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -33179,7 +33292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E42117-F9D3-420F-8EC6-2063C6EB37EA}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView zoomScale="93" workbookViewId="0">
+    <sheetView topLeftCell="A45" zoomScale="93" workbookViewId="0">
       <selection activeCell="AP7" sqref="AP7"/>
     </sheetView>
   </sheetViews>
@@ -33189,200 +33302,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="32" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32" t="s">
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="33"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="35"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="34" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34" t="s">
-        <v>232</v>
-      </c>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34" t="s">
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34" t="s">
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="35" t="s">
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="39"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="34" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34" t="s">
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34" t="s">
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="38">
+      <c r="X3" s="36"/>
+      <c r="Y3" s="40">
         <v>45453</v>
       </c>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="39" t="s">
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="40"/>
-      <c r="AK3" s="40"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="43"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="42" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="43"/>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="43"/>
-      <c r="AK4" s="43"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="26"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="26"/>
+      <c r="AM4" s="26"/>
+      <c r="AN4" s="27"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -37832,6 +37945,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
@@ -37848,7 +37962,6 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -37864,7 +37977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863422FC-4285-44E8-BD28-87F4C36B0A11}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="50" workbookViewId="0">
+    <sheetView zoomScale="82" workbookViewId="0">
       <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
@@ -37874,200 +37987,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="32" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32" t="s">
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="33"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="35"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="34" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34" t="s">
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34" t="s">
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34" t="s">
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="35" t="s">
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="39"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="34" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34" t="s">
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="38">
+      <c r="X3" s="36"/>
+      <c r="Y3" s="40">
         <v>45453</v>
       </c>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="39" t="s">
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="40"/>
-      <c r="AK3" s="40"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="43"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="42" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="43"/>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="43"/>
-      <c r="AK4" s="43"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="26"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="26"/>
+      <c r="AM4" s="26"/>
+      <c r="AN4" s="27"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -42640,6 +42753,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
@@ -42656,7 +42770,6 @@
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>

--- a/doc/外部設計書/02_外部設計書_C4.xlsx
+++ b/doc/外部設計書/02_外部設計書_C4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\bak\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C4\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF259363-B230-4D9B-A6FA-849D3FF27723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74E474C-B593-4E1D-AD8B-7DE449721848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2285,6 +2285,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2327,9 +2333,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2338,9 +2341,6 @@
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9645,7 +9645,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]Sheet1!$B$1:$X$49" spid="_x0000_s11278"/>
+                  <a14:cameraTool cellRange="[1]Sheet1!$B$1:$X$49" spid="_x0000_s11279"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -10012,200 +10012,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="38" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38" t="s">
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="39"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="40"/>
+      <c r="AL1" s="40"/>
+      <c r="AM1" s="40"/>
+      <c r="AN1" s="41"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="40" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40" t="s">
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40" t="s">
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40" t="s">
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="41" t="s">
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="43"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="44"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40" t="s">
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40" t="s">
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="44">
+      <c r="X3" s="27"/>
+      <c r="Y3" s="26">
         <v>45450</v>
       </c>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="26" t="s">
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="27"/>
-      <c r="AI3" s="27"/>
-      <c r="AJ3" s="27"/>
-      <c r="AK3" s="27"/>
-      <c r="AL3" s="27"/>
-      <c r="AM3" s="27"/>
-      <c r="AN3" s="28"/>
+      <c r="AG3" s="28"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="29"/>
+      <c r="AN3" s="30"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="29" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30"/>
-      <c r="AD4" s="30"/>
-      <c r="AE4" s="30"/>
-      <c r="AF4" s="30"/>
-      <c r="AG4" s="30"/>
-      <c r="AH4" s="30"/>
-      <c r="AI4" s="30"/>
-      <c r="AJ4" s="30"/>
-      <c r="AK4" s="30"/>
-      <c r="AL4" s="30"/>
-      <c r="AM4" s="30"/>
-      <c r="AN4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="32"/>
+      <c r="AM4" s="32"/>
+      <c r="AN4" s="33"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -14626,11 +14626,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:AN1"/>
@@ -14643,6 +14638,11 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AN3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:AN4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -14668,200 +14668,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="38" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38" t="s">
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="39"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="40"/>
+      <c r="AL1" s="40"/>
+      <c r="AM1" s="40"/>
+      <c r="AN1" s="41"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="40" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40" t="s">
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40" t="s">
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40" t="s">
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="41" t="s">
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="43"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="44"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40" t="s">
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40" t="s">
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="44">
+      <c r="X3" s="27"/>
+      <c r="Y3" s="26">
         <v>45450</v>
       </c>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="26" t="s">
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="27"/>
-      <c r="AI3" s="27"/>
-      <c r="AJ3" s="27"/>
-      <c r="AK3" s="27"/>
-      <c r="AL3" s="27"/>
-      <c r="AM3" s="27"/>
-      <c r="AN3" s="28"/>
+      <c r="AG3" s="28"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="29"/>
+      <c r="AN3" s="30"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="29" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30"/>
-      <c r="AD4" s="30"/>
-      <c r="AE4" s="30"/>
-      <c r="AF4" s="30"/>
-      <c r="AG4" s="30"/>
-      <c r="AH4" s="30"/>
-      <c r="AI4" s="30"/>
-      <c r="AJ4" s="30"/>
-      <c r="AK4" s="30"/>
-      <c r="AL4" s="30"/>
-      <c r="AM4" s="30"/>
-      <c r="AN4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="32"/>
+      <c r="AM4" s="32"/>
+      <c r="AN4" s="33"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -19408,11 +19408,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:AN1"/>
@@ -19425,6 +19420,11 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AN3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:AN4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -19452,200 +19452,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="38" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38" t="s">
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="39"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="40"/>
+      <c r="AL1" s="40"/>
+      <c r="AM1" s="40"/>
+      <c r="AN1" s="41"/>
     </row>
     <row r="2" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="40" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40" t="s">
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40" t="s">
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40" t="s">
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="41" t="s">
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="43"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="44"/>
     </row>
     <row r="3" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40" t="s">
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40" t="s">
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="44">
+      <c r="X3" s="27"/>
+      <c r="Y3" s="26">
         <v>45453</v>
       </c>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="26" t="s">
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="27"/>
-      <c r="AI3" s="27"/>
-      <c r="AJ3" s="27"/>
-      <c r="AK3" s="27"/>
-      <c r="AL3" s="27"/>
-      <c r="AM3" s="27"/>
-      <c r="AN3" s="28"/>
+      <c r="AG3" s="28"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="29"/>
+      <c r="AN3" s="30"/>
     </row>
     <row r="4" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="29" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30"/>
-      <c r="AD4" s="30"/>
-      <c r="AE4" s="30"/>
-      <c r="AF4" s="30"/>
-      <c r="AG4" s="30"/>
-      <c r="AH4" s="30"/>
-      <c r="AI4" s="30"/>
-      <c r="AJ4" s="30"/>
-      <c r="AK4" s="30"/>
-      <c r="AL4" s="30"/>
-      <c r="AM4" s="30"/>
-      <c r="AN4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="32"/>
+      <c r="AM4" s="32"/>
+      <c r="AN4" s="33"/>
     </row>
     <row r="5" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -24098,6 +24098,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:AN1"/>
@@ -24114,7 +24115,6 @@
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:AN4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -24130,7 +24130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA384EF-9747-46FC-8D82-DC4465294D64}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="84" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
@@ -24140,200 +24140,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="38" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38" t="s">
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="39"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="40"/>
+      <c r="AL1" s="40"/>
+      <c r="AM1" s="40"/>
+      <c r="AN1" s="41"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="40" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40" t="s">
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40" t="s">
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40" t="s">
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="41" t="s">
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="43"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="44"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40" t="s">
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40" t="s">
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="44">
+      <c r="X3" s="27"/>
+      <c r="Y3" s="26">
         <v>45453</v>
       </c>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="26" t="s">
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="27"/>
-      <c r="AI3" s="27"/>
-      <c r="AJ3" s="27"/>
-      <c r="AK3" s="27"/>
-      <c r="AL3" s="27"/>
-      <c r="AM3" s="27"/>
-      <c r="AN3" s="28"/>
+      <c r="AG3" s="28"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="29"/>
+      <c r="AN3" s="30"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="29" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30"/>
-      <c r="AD4" s="30"/>
-      <c r="AE4" s="30"/>
-      <c r="AF4" s="30"/>
-      <c r="AG4" s="30"/>
-      <c r="AH4" s="30"/>
-      <c r="AI4" s="30"/>
-      <c r="AJ4" s="30"/>
-      <c r="AK4" s="30"/>
-      <c r="AL4" s="30"/>
-      <c r="AM4" s="30"/>
-      <c r="AN4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="32"/>
+      <c r="AM4" s="32"/>
+      <c r="AN4" s="33"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -28778,6 +28778,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
@@ -28794,7 +28795,6 @@
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -28820,200 +28820,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="38" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38" t="s">
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="39"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="40"/>
+      <c r="AL1" s="40"/>
+      <c r="AM1" s="40"/>
+      <c r="AN1" s="41"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="40" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40" t="s">
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40" t="s">
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40" t="s">
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="41" t="s">
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="43"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="44"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40" t="s">
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40" t="s">
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="44">
+      <c r="X3" s="27"/>
+      <c r="Y3" s="26">
         <v>45453</v>
       </c>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="26" t="s">
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="27"/>
-      <c r="AI3" s="27"/>
-      <c r="AJ3" s="27"/>
-      <c r="AK3" s="27"/>
-      <c r="AL3" s="27"/>
-      <c r="AM3" s="27"/>
-      <c r="AN3" s="28"/>
+      <c r="AG3" s="28"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="29"/>
+      <c r="AN3" s="30"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="29" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30"/>
-      <c r="AD4" s="30"/>
-      <c r="AE4" s="30"/>
-      <c r="AF4" s="30"/>
-      <c r="AG4" s="30"/>
-      <c r="AH4" s="30"/>
-      <c r="AI4" s="30"/>
-      <c r="AJ4" s="30"/>
-      <c r="AK4" s="30"/>
-      <c r="AL4" s="30"/>
-      <c r="AM4" s="30"/>
-      <c r="AN4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="32"/>
+      <c r="AM4" s="32"/>
+      <c r="AN4" s="33"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -33463,6 +33463,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
@@ -33479,7 +33480,6 @@
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -33505,200 +33505,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="38" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38" t="s">
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="39"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="40"/>
+      <c r="AL1" s="40"/>
+      <c r="AM1" s="40"/>
+      <c r="AN1" s="41"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="40" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40" t="s">
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40" t="s">
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40" t="s">
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="41" t="s">
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="43"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="44"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40" t="s">
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40" t="s">
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="44">
+      <c r="X3" s="27"/>
+      <c r="Y3" s="26">
         <v>45453</v>
       </c>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="26" t="s">
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="27"/>
-      <c r="AI3" s="27"/>
-      <c r="AJ3" s="27"/>
-      <c r="AK3" s="27"/>
-      <c r="AL3" s="27"/>
-      <c r="AM3" s="27"/>
-      <c r="AN3" s="28"/>
+      <c r="AG3" s="28"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="29"/>
+      <c r="AN3" s="30"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="29" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30"/>
-      <c r="AD4" s="30"/>
-      <c r="AE4" s="30"/>
-      <c r="AF4" s="30"/>
-      <c r="AG4" s="30"/>
-      <c r="AH4" s="30"/>
-      <c r="AI4" s="30"/>
-      <c r="AJ4" s="30"/>
-      <c r="AK4" s="30"/>
-      <c r="AL4" s="30"/>
-      <c r="AM4" s="30"/>
-      <c r="AN4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="32"/>
+      <c r="AM4" s="32"/>
+      <c r="AN4" s="33"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -38209,6 +38209,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
@@ -38225,7 +38226,6 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -38251,200 +38251,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="38" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38" t="s">
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="39"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="40"/>
+      <c r="AL1" s="40"/>
+      <c r="AM1" s="40"/>
+      <c r="AN1" s="41"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="40" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40" t="s">
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40" t="s">
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40" t="s">
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="41" t="s">
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="43"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="44"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40" t="s">
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40" t="s">
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="44">
+      <c r="X3" s="27"/>
+      <c r="Y3" s="26">
         <v>45453</v>
       </c>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="26" t="s">
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="27"/>
-      <c r="AI3" s="27"/>
-      <c r="AJ3" s="27"/>
-      <c r="AK3" s="27"/>
-      <c r="AL3" s="27"/>
-      <c r="AM3" s="27"/>
-      <c r="AN3" s="28"/>
+      <c r="AG3" s="28"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="29"/>
+      <c r="AN3" s="30"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="29" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30"/>
-      <c r="AD4" s="30"/>
-      <c r="AE4" s="30"/>
-      <c r="AF4" s="30"/>
-      <c r="AG4" s="30"/>
-      <c r="AH4" s="30"/>
-      <c r="AI4" s="30"/>
-      <c r="AJ4" s="30"/>
-      <c r="AK4" s="30"/>
-      <c r="AL4" s="30"/>
-      <c r="AM4" s="30"/>
-      <c r="AN4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="32"/>
+      <c r="AM4" s="32"/>
+      <c r="AN4" s="33"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -43017,6 +43017,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="K1:M1"/>
@@ -43033,7 +43034,6 @@
     <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
-    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -43061,200 +43061,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="38" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38" t="s">
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="39"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="40"/>
+      <c r="AL1" s="40"/>
+      <c r="AM1" s="40"/>
+      <c r="AN1" s="41"/>
     </row>
     <row r="2" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="40" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40" t="s">
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40" t="s">
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40" t="s">
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="41" t="s">
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="43"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="44"/>
     </row>
     <row r="3" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40" t="s">
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40" t="s">
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="44">
+      <c r="X3" s="27"/>
+      <c r="Y3" s="26">
         <v>45453</v>
       </c>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="26" t="s">
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="27"/>
-      <c r="AI3" s="27"/>
-      <c r="AJ3" s="27"/>
-      <c r="AK3" s="27"/>
-      <c r="AL3" s="27"/>
-      <c r="AM3" s="27"/>
-      <c r="AN3" s="28"/>
+      <c r="AG3" s="28"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="29"/>
+      <c r="AN3" s="30"/>
     </row>
     <row r="4" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="29" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30"/>
-      <c r="AD4" s="30"/>
-      <c r="AE4" s="30"/>
-      <c r="AF4" s="30"/>
-      <c r="AG4" s="30"/>
-      <c r="AH4" s="30"/>
-      <c r="AI4" s="30"/>
-      <c r="AJ4" s="30"/>
-      <c r="AK4" s="30"/>
-      <c r="AL4" s="30"/>
-      <c r="AM4" s="30"/>
-      <c r="AN4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="32"/>
+      <c r="AM4" s="32"/>
+      <c r="AN4" s="33"/>
     </row>
     <row r="5" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -47636,11 +47636,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="N3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
@@ -47653,6 +47648,11 @@
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
